--- a/right_shoulder_Data.xlsx
+++ b/right_shoulder_Data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:IQ4"/>
+  <dimension ref="A1:GO4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1027,922 +1027,598 @@
       <c r="GO1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="GP1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GT1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HL1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HO1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HP1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HQ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HR1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HS1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HT1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HU1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HV1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HW1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HX1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HY1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HZ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IA1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IB1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IC1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="ID1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IE1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IF1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IG1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IH1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="II1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IJ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IK1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IL1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IM1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IN1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IO1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IP1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IQ1" s="1" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>389.3282470703125</v>
+        <v>290.4423828125</v>
       </c>
       <c r="C2" t="n">
-        <v>389.6905822753906</v>
+        <v>290.5192260742188</v>
       </c>
       <c r="D2" t="n">
-        <v>389.7015991210938</v>
+        <v>290.9275817871094</v>
       </c>
       <c r="E2" t="n">
-        <v>388.8439636230469</v>
+        <v>291.3946533203125</v>
       </c>
       <c r="F2" t="n">
-        <v>388.4592895507812</v>
+        <v>291.6824035644531</v>
       </c>
       <c r="G2" t="n">
-        <v>388.7232971191406</v>
+        <v>291.8930053710938</v>
       </c>
       <c r="H2" t="n">
-        <v>389.3930358886719</v>
+        <v>292.0645446777344</v>
       </c>
       <c r="I2" t="n">
-        <v>389.5956420898438</v>
+        <v>292.2351684570312</v>
       </c>
       <c r="J2" t="n">
-        <v>389.7821044921875</v>
+        <v>292.4164428710938</v>
       </c>
       <c r="K2" t="n">
-        <v>389.9548645019531</v>
+        <v>292.5586242675781</v>
       </c>
       <c r="L2" t="n">
-        <v>389.6554260253906</v>
+        <v>292.6677856445312</v>
       </c>
       <c r="M2" t="n">
-        <v>389.3956298828125</v>
+        <v>292.7572326660156</v>
       </c>
       <c r="N2" t="n">
-        <v>389.0114135742188</v>
+        <v>292.8309936523438</v>
       </c>
       <c r="O2" t="n">
-        <v>388.3231201171875</v>
+        <v>292.894775390625</v>
       </c>
       <c r="P2" t="n">
-        <v>388.3099060058594</v>
+        <v>292.9505004882812</v>
       </c>
       <c r="Q2" t="n">
-        <v>387.3211059570312</v>
+        <v>292.9993591308594</v>
       </c>
       <c r="R2" t="n">
-        <v>385.8395385742188</v>
+        <v>293.0427551269531</v>
       </c>
       <c r="S2" t="n">
-        <v>383.815185546875</v>
+        <v>293.0813598632812</v>
       </c>
       <c r="T2" t="n">
-        <v>382.6407165527344</v>
+        <v>293.1134033203125</v>
       </c>
       <c r="U2" t="n">
-        <v>381.1623840332031</v>
+        <v>293.1438293457031</v>
       </c>
       <c r="V2" t="n">
-        <v>379.9011535644531</v>
+        <v>293.1666870117188</v>
       </c>
       <c r="W2" t="n">
-        <v>378.0599670410156</v>
+        <v>293.1870727539062</v>
       </c>
       <c r="X2" t="n">
-        <v>376.3436279296875</v>
+        <v>293.2008361816406</v>
       </c>
       <c r="Y2" t="n">
-        <v>375.1795043945312</v>
+        <v>293.2129211425781</v>
       </c>
       <c r="Z2" t="n">
-        <v>374.3664855957031</v>
+        <v>293.2216796875</v>
       </c>
       <c r="AA2" t="n">
-        <v>373.0932922363281</v>
+        <v>293.2286071777344</v>
       </c>
       <c r="AB2" t="n">
-        <v>372.1509399414062</v>
+        <v>293.2319946289062</v>
       </c>
       <c r="AC2" t="n">
-        <v>370.9570007324219</v>
+        <v>293.2331237792969</v>
       </c>
       <c r="AD2" t="n">
-        <v>369.4038696289062</v>
+        <v>293.23291015625</v>
       </c>
       <c r="AE2" t="n">
-        <v>366.9482727050781</v>
+        <v>293.2359008789062</v>
       </c>
       <c r="AF2" t="n">
-        <v>365.4192810058594</v>
+        <v>293.2384948730469</v>
       </c>
       <c r="AG2" t="n">
-        <v>365.0668640136719</v>
+        <v>293.2413940429688</v>
       </c>
       <c r="AH2" t="n">
-        <v>364.6274108886719</v>
+        <v>293.2434692382812</v>
       </c>
       <c r="AI2" t="n">
-        <v>364.95751953125</v>
+        <v>293.2457275390625</v>
       </c>
       <c r="AJ2" t="n">
-        <v>365.0769653320312</v>
+        <v>293.2465209960938</v>
       </c>
       <c r="AK2" t="n">
-        <v>364.5162658691406</v>
+        <v>293.2467651367188</v>
       </c>
       <c r="AL2" t="n">
-        <v>364.607666015625</v>
+        <v>293.2514038085938</v>
       </c>
       <c r="AM2" t="n">
-        <v>365.3080749511719</v>
+        <v>293.2337036132812</v>
       </c>
       <c r="AN2" t="n">
-        <v>364.845458984375</v>
+        <v>293.22802734375</v>
       </c>
       <c r="AO2" t="n">
-        <v>364.2729187011719</v>
+        <v>293.2249755859375</v>
       </c>
       <c r="AP2" t="n">
-        <v>364.1314086914062</v>
+        <v>293.3226623535156</v>
       </c>
       <c r="AQ2" t="n">
-        <v>363.9275817871094</v>
+        <v>295.0893859863281</v>
       </c>
       <c r="AR2" t="n">
-        <v>363.8988647460938</v>
+        <v>307.9393005371094</v>
       </c>
       <c r="AS2" t="n">
-        <v>363.955322265625</v>
+        <v>314.03564453125</v>
       </c>
       <c r="AT2" t="n">
-        <v>363.931396484375</v>
+        <v>327.8863220214844</v>
       </c>
       <c r="AU2" t="n">
-        <v>363.9529724121094</v>
+        <v>335.0731201171875</v>
       </c>
       <c r="AV2" t="n">
-        <v>364.01708984375</v>
+        <v>340.6524047851562</v>
       </c>
       <c r="AW2" t="n">
-        <v>364.0879821777344</v>
+        <v>346.2378540039062</v>
       </c>
       <c r="AX2" t="n">
-        <v>364.2033081054688</v>
+        <v>353.7319946289062</v>
       </c>
       <c r="AY2" t="n">
-        <v>364.3021850585938</v>
+        <v>360.9765930175781</v>
       </c>
       <c r="AZ2" t="n">
-        <v>364.3677978515625</v>
+        <v>366.70556640625</v>
       </c>
       <c r="BA2" t="n">
-        <v>364.4026184082031</v>
+        <v>371.9853210449219</v>
       </c>
       <c r="BB2" t="n">
-        <v>364.4555969238281</v>
+        <v>377.3065795898438</v>
       </c>
       <c r="BC2" t="n">
-        <v>364.5341796875</v>
+        <v>383.1661376953125</v>
       </c>
       <c r="BD2" t="n">
-        <v>364.7347717285156</v>
+        <v>387.49609375</v>
       </c>
       <c r="BE2" t="n">
-        <v>364.7491760253906</v>
+        <v>392.8463745117188</v>
       </c>
       <c r="BF2" t="n">
-        <v>363.6569213867188</v>
+        <v>395.4647216796875</v>
       </c>
       <c r="BG2" t="n">
-        <v>361.5821533203125</v>
+        <v>395.5712890625</v>
       </c>
       <c r="BH2" t="n">
-        <v>359.0901489257812</v>
+        <v>392.6147155761719</v>
       </c>
       <c r="BI2" t="n">
-        <v>356.8139953613281</v>
+        <v>388.6287841796875</v>
       </c>
       <c r="BJ2" t="n">
-        <v>354.5837097167969</v>
+        <v>372.4273986816406</v>
       </c>
       <c r="BK2" t="n">
-        <v>352.3775939941406</v>
+        <v>360.0117492675781</v>
       </c>
       <c r="BL2" t="n">
-        <v>349.7899169921875</v>
+        <v>350.039794921875</v>
       </c>
       <c r="BM2" t="n">
-        <v>347.2137451171875</v>
+        <v>330.575927734375</v>
       </c>
       <c r="BN2" t="n">
-        <v>344.5408935546875</v>
+        <v>320.2844543457031</v>
       </c>
       <c r="BO2" t="n">
-        <v>342.2302856445312</v>
+        <v>312.1980590820312</v>
       </c>
       <c r="BP2" t="n">
-        <v>339.5049438476562</v>
+        <v>304.5439453125</v>
       </c>
       <c r="BQ2" t="n">
-        <v>336.5452270507812</v>
+        <v>297.0726318359375</v>
       </c>
       <c r="BR2" t="n">
-        <v>332.8628845214844</v>
+        <v>288.7527770996094</v>
       </c>
       <c r="BS2" t="n">
-        <v>327.2618408203125</v>
+        <v>279.4629211425781</v>
       </c>
       <c r="BT2" t="n">
-        <v>321.9102478027344</v>
+        <v>269.6588439941406</v>
       </c>
       <c r="BU2" t="n">
-        <v>317.4021911621094</v>
+        <v>261.398681640625</v>
       </c>
       <c r="BV2" t="n">
-        <v>313.9200439453125</v>
+        <v>253.1536560058594</v>
       </c>
       <c r="BW2" t="n">
-        <v>309.8734130859375</v>
+        <v>246.3580474853516</v>
       </c>
       <c r="BX2" t="n">
-        <v>305.5750732421875</v>
+        <v>240.9173736572266</v>
       </c>
       <c r="BY2" t="n">
-        <v>299.5506591796875</v>
+        <v>234.7069549560547</v>
       </c>
       <c r="BZ2" t="n">
-        <v>289.3287963867188</v>
+        <v>231.8462524414062</v>
       </c>
       <c r="CA2" t="n">
-        <v>279.2806091308594</v>
+        <v>224.1448669433594</v>
       </c>
       <c r="CB2" t="n">
-        <v>269.1419982910156</v>
+        <v>221.6846923828125</v>
       </c>
       <c r="CC2" t="n">
-        <v>264.6754455566406</v>
+        <v>215.2962951660156</v>
       </c>
       <c r="CD2" t="n">
-        <v>260.9242248535156</v>
+        <v>213.3435821533203</v>
       </c>
       <c r="CE2" t="n">
-        <v>256.8125</v>
+        <v>211.6067504882812</v>
       </c>
       <c r="CF2" t="n">
-        <v>250.1982421875</v>
+        <v>209.0914611816406</v>
       </c>
       <c r="CG2" t="n">
-        <v>247.0166931152344</v>
+        <v>206.7328186035156</v>
       </c>
       <c r="CH2" t="n">
-        <v>244.2850036621094</v>
+        <v>204.5388946533203</v>
       </c>
       <c r="CI2" t="n">
-        <v>241.5244140625</v>
+        <v>204.8908843994141</v>
       </c>
       <c r="CJ2" t="n">
-        <v>239.6278228759766</v>
+        <v>206.335205078125</v>
       </c>
       <c r="CK2" t="n">
-        <v>238.0191802978516</v>
+        <v>206.9191131591797</v>
       </c>
       <c r="CL2" t="n">
-        <v>235.0171203613281</v>
+        <v>209.6051788330078</v>
       </c>
       <c r="CM2" t="n">
-        <v>234.1511688232422</v>
+        <v>216.1065368652344</v>
       </c>
       <c r="CN2" t="n">
-        <v>233.2919464111328</v>
+        <v>221.0142517089844</v>
       </c>
       <c r="CO2" t="n">
-        <v>232.2936859130859</v>
+        <v>226.7028656005859</v>
       </c>
       <c r="CP2" t="n">
-        <v>231.93408203125</v>
+        <v>232.9217376708984</v>
       </c>
       <c r="CQ2" t="n">
-        <v>231.5104522705078</v>
+        <v>243.7340393066406</v>
       </c>
       <c r="CR2" t="n">
-        <v>230.9709167480469</v>
+        <v>260.218994140625</v>
       </c>
       <c r="CS2" t="n">
-        <v>230.1367797851562</v>
+        <v>266.1569213867188</v>
       </c>
       <c r="CT2" t="n">
-        <v>228.0977478027344</v>
+        <v>274.3676452636719</v>
       </c>
       <c r="CU2" t="n">
-        <v>227.5368041992188</v>
+        <v>282.4439086914062</v>
       </c>
       <c r="CV2" t="n">
-        <v>227.3377380371094</v>
+        <v>291.9854736328125</v>
       </c>
       <c r="CW2" t="n">
-        <v>226.8897705078125</v>
+        <v>299.3129272460938</v>
       </c>
       <c r="CX2" t="n">
-        <v>226.6746215820312</v>
+        <v>305.8303527832031</v>
       </c>
       <c r="CY2" t="n">
-        <v>226.5065612792969</v>
+        <v>312.4549560546875</v>
       </c>
       <c r="CZ2" t="n">
-        <v>226.4509887695312</v>
+        <v>318.4652709960938</v>
       </c>
       <c r="DA2" t="n">
-        <v>226.4107360839844</v>
+        <v>325.4862060546875</v>
       </c>
       <c r="DB2" t="n">
-        <v>226.3854217529297</v>
+        <v>337.5416870117188</v>
       </c>
       <c r="DC2" t="n">
-        <v>227.0384826660156</v>
+        <v>342.1368103027344</v>
       </c>
       <c r="DD2" t="n">
-        <v>227.9240570068359</v>
+        <v>346.541259765625</v>
       </c>
       <c r="DE2" t="n">
-        <v>229.0403137207031</v>
+        <v>350.44775390625</v>
       </c>
       <c r="DF2" t="n">
-        <v>231.8826904296875</v>
+        <v>353.5924682617188</v>
       </c>
       <c r="DG2" t="n">
-        <v>233.4592437744141</v>
+        <v>355.9215698242188</v>
       </c>
       <c r="DH2" t="n">
-        <v>233.2836761474609</v>
+        <v>358.2069091796875</v>
       </c>
       <c r="DI2" t="n">
-        <v>233.3133544921875</v>
+        <v>358.9885864257812</v>
       </c>
       <c r="DJ2" t="n">
-        <v>233.3054809570312</v>
+        <v>359.4366455078125</v>
       </c>
       <c r="DK2" t="n">
-        <v>233.3603210449219</v>
+        <v>359.2839965820312</v>
       </c>
       <c r="DL2" t="n">
-        <v>233.4193725585938</v>
+        <v>359.2073059082031</v>
       </c>
       <c r="DM2" t="n">
-        <v>233.4399108886719</v>
+        <v>357.3294372558594</v>
       </c>
       <c r="DN2" t="n">
-        <v>233.4254150390625</v>
+        <v>351.914306640625</v>
       </c>
       <c r="DO2" t="n">
-        <v>233.5661010742188</v>
+        <v>341.9868469238281</v>
       </c>
       <c r="DP2" t="n">
-        <v>234.0630340576172</v>
+        <v>338.760498046875</v>
       </c>
       <c r="DQ2" t="n">
-        <v>235.0036926269531</v>
+        <v>329.791259765625</v>
       </c>
       <c r="DR2" t="n">
-        <v>234.5249633789062</v>
+        <v>325.4715576171875</v>
       </c>
       <c r="DS2" t="n">
-        <v>234.3604736328125</v>
+        <v>322.8311767578125</v>
       </c>
       <c r="DT2" t="n">
-        <v>234.0333557128906</v>
+        <v>313.0520324707031</v>
       </c>
       <c r="DU2" t="n">
-        <v>233.7700042724609</v>
+        <v>311.1647033691406</v>
       </c>
       <c r="DV2" t="n">
-        <v>232.9811096191406</v>
+        <v>307.05029296875</v>
       </c>
       <c r="DW2" t="n">
-        <v>232.5546112060547</v>
+        <v>300.7716674804688</v>
       </c>
       <c r="DX2" t="n">
-        <v>232.0290832519531</v>
+        <v>297.3534545898438</v>
       </c>
       <c r="DY2" t="n">
-        <v>231.8343200683594</v>
+        <v>292.6150207519531</v>
       </c>
       <c r="DZ2" t="n">
-        <v>231.8134155273438</v>
+        <v>289.83740234375</v>
       </c>
       <c r="EA2" t="n">
-        <v>231.8387145996094</v>
+        <v>284.1155090332031</v>
       </c>
       <c r="EB2" t="n">
-        <v>231.8984985351562</v>
+        <v>278.69140625</v>
       </c>
       <c r="EC2" t="n">
-        <v>232.0394592285156</v>
+        <v>277.1252136230469</v>
       </c>
       <c r="ED2" t="n">
-        <v>232.0235443115234</v>
+        <v>273.5081787109375</v>
       </c>
       <c r="EE2" t="n">
-        <v>231.7295989990234</v>
+        <v>272.4179992675781</v>
       </c>
       <c r="EF2" t="n">
-        <v>230.8017883300781</v>
+        <v>272.6690673828125</v>
       </c>
       <c r="EG2" t="n">
-        <v>231.0296478271484</v>
+        <v>278.5478515625</v>
       </c>
       <c r="EH2" t="n">
-        <v>231.1903381347656</v>
+        <v>287.1876525878906</v>
       </c>
       <c r="EI2" t="n">
-        <v>231.2749481201172</v>
+        <v>291.5359802246094</v>
       </c>
       <c r="EJ2" t="n">
-        <v>231.5495147705078</v>
+        <v>295.8536987304688</v>
       </c>
       <c r="EK2" t="n">
-        <v>231.6128845214844</v>
+        <v>304.2795104980469</v>
       </c>
       <c r="EL2" t="n">
-        <v>232.0670166015625</v>
+        <v>308.9336547851562</v>
       </c>
       <c r="EM2" t="n">
-        <v>231.8951110839844</v>
+        <v>315.4984741210938</v>
       </c>
       <c r="EN2" t="n">
-        <v>231.5864868164062</v>
+        <v>317.9038391113281</v>
       </c>
       <c r="EO2" t="n">
-        <v>231.5929260253906</v>
+        <v>321.6798400878906</v>
       </c>
       <c r="EP2" t="n">
-        <v>231.558349609375</v>
+        <v>323.1289367675781</v>
       </c>
       <c r="EQ2" t="n">
-        <v>231.4631500244141</v>
+        <v>324.2570190429688</v>
       </c>
       <c r="ER2" t="n">
-        <v>231.4064025878906</v>
+        <v>324.0032348632812</v>
       </c>
       <c r="ES2" t="n">
-        <v>231.1948852539062</v>
+        <v>322.6309814453125</v>
       </c>
       <c r="ET2" t="n">
-        <v>231.078369140625</v>
+        <v>314.2618103027344</v>
       </c>
       <c r="EU2" t="n">
-        <v>230.8422241210938</v>
+        <v>302.503662109375</v>
       </c>
       <c r="EV2" t="n">
-        <v>230.6199340820312</v>
+        <v>297.4405822753906</v>
       </c>
       <c r="EW2" t="n">
-        <v>230.5582885742188</v>
+        <v>282.1426391601562</v>
       </c>
       <c r="EX2" t="n">
-        <v>230.2329864501953</v>
+        <v>276.4322509765625</v>
       </c>
       <c r="EY2" t="n">
-        <v>229.8473815917969</v>
+        <v>273.4835510253906</v>
       </c>
       <c r="EZ2" t="n">
-        <v>228.8872680664062</v>
+        <v>263.5706787109375</v>
       </c>
       <c r="FA2" t="n">
-        <v>228.4374694824219</v>
+        <v>255.4946899414062</v>
       </c>
       <c r="FB2" t="n">
-        <v>228.0224304199219</v>
+        <v>250.7740173339844</v>
       </c>
       <c r="FC2" t="n">
-        <v>227.3587646484375</v>
+        <v>246.2837982177734</v>
       </c>
       <c r="FD2" t="n">
-        <v>227.1180877685547</v>
+        <v>247.0690612792969</v>
       </c>
       <c r="FE2" t="n">
-        <v>227.0796356201172</v>
+        <v>242.1086120605469</v>
       </c>
       <c r="FF2" t="n">
-        <v>227.0708312988281</v>
+        <v>238.4887084960938</v>
       </c>
       <c r="FG2" t="n">
-        <v>226.6548156738281</v>
+        <v>236.2819061279297</v>
       </c>
       <c r="FH2" t="n">
-        <v>224.9696044921875</v>
+        <v>237.3619689941406</v>
       </c>
       <c r="FI2" t="n">
-        <v>228.0578308105469</v>
+        <v>245.1476898193359</v>
       </c>
       <c r="FJ2" t="n">
-        <v>231.6712646484375</v>
+        <v>251.465576171875</v>
       </c>
       <c r="FK2" t="n">
-        <v>236.2180786132812</v>
+        <v>266.1308898925781</v>
       </c>
       <c r="FL2" t="n">
-        <v>238.6430053710938</v>
+        <v>270.4906616210938</v>
       </c>
       <c r="FM2" t="n">
-        <v>240.84228515625</v>
+        <v>279.4151611328125</v>
       </c>
       <c r="FN2" t="n">
-        <v>248.1803131103516</v>
+        <v>290.5798034667969</v>
       </c>
       <c r="FO2" t="n">
-        <v>251.8058013916016</v>
+        <v>297.1620178222656</v>
       </c>
       <c r="FP2" t="n">
-        <v>259.5025329589844</v>
+        <v>302.4329833984375</v>
       </c>
       <c r="FQ2" t="n">
-        <v>272.6943969726562</v>
+        <v>311.7979736328125</v>
       </c>
       <c r="FR2" t="n">
-        <v>276.3629760742188</v>
+        <v>315.596923828125</v>
       </c>
       <c r="FS2" t="n">
-        <v>288.0609741210938</v>
+        <v>322.7059631347656</v>
       </c>
       <c r="FT2" t="n">
-        <v>298.3900451660156</v>
+        <v>328.5297241210938</v>
       </c>
       <c r="FU2" t="n">
-        <v>302.6625366210938</v>
+        <v>332.8636169433594</v>
       </c>
       <c r="FV2" t="n">
-        <v>311.2467651367188</v>
+        <v>333.7833862304688</v>
       </c>
       <c r="FW2" t="n">
-        <v>317.4501037597656</v>
+        <v>334.2545166015625</v>
       </c>
       <c r="FX2" t="n">
-        <v>324.7317504882812</v>
+        <v>334.6489868164062</v>
       </c>
       <c r="FY2" t="n">
-        <v>328.0704040527344</v>
+        <v>333.5205688476562</v>
       </c>
       <c r="FZ2" t="n">
-        <v>330.7480163574219</v>
+        <v>330.0767822265625</v>
       </c>
       <c r="GA2" t="n">
-        <v>330.8302612304688</v>
+        <v>319.4273986816406</v>
       </c>
       <c r="GB2" t="n">
-        <v>330.6510925292969</v>
+        <v>312.5114440917969</v>
       </c>
       <c r="GC2" t="n">
-        <v>327.9963684082031</v>
+        <v>297.6370239257812</v>
       </c>
       <c r="GD2" t="n">
-        <v>316.81103515625</v>
+        <v>290.4371337890625</v>
       </c>
       <c r="GE2" t="n">
-        <v>313.0842590332031</v>
+        <v>274.9360046386719</v>
       </c>
       <c r="GF2" t="n">
-        <v>299.1878662109375</v>
+        <v>261.3001098632812</v>
       </c>
       <c r="GG2" t="n">
-        <v>286.9497985839844</v>
+        <v>249.0808715820312</v>
       </c>
       <c r="GH2" t="n">
-        <v>269.2729797363281</v>
+        <v>240.3802795410156</v>
       </c>
       <c r="GI2" t="n">
-        <v>253.9930572509766</v>
+        <v>237.0282897949219</v>
       </c>
       <c r="GJ2" t="n">
-        <v>236.9272155761719</v>
+        <v>233.4719543457031</v>
       </c>
       <c r="GK2" t="n">
-        <v>222.6671142578125</v>
+        <v>226.2531127929688</v>
       </c>
       <c r="GL2" t="n">
-        <v>207.0338745117188</v>
+        <v>223.18310546875</v>
       </c>
       <c r="GM2" t="n">
-        <v>194.97216796875</v>
+        <v>216.7493438720703</v>
       </c>
       <c r="GN2" t="n">
-        <v>184.9059753417969</v>
+        <v>209.7911376953125</v>
       </c>
       <c r="GO2" t="n">
-        <v>180.3516235351562</v>
-      </c>
-      <c r="GP2" t="n">
-        <v>179.0038909912109</v>
-      </c>
-      <c r="GQ2" t="n">
-        <v>178.3371887207031</v>
-      </c>
-      <c r="GR2" t="n">
-        <v>181.0339660644531</v>
-      </c>
-      <c r="GS2" t="n">
-        <v>189.5808715820312</v>
-      </c>
-      <c r="GT2" t="n">
-        <v>208.1775817871094</v>
-      </c>
-      <c r="GU2" t="n">
-        <v>217.4605102539062</v>
-      </c>
-      <c r="GV2" t="n">
-        <v>230.2674560546875</v>
-      </c>
-      <c r="GW2" t="n">
-        <v>236.5682983398438</v>
-      </c>
-      <c r="GX2" t="n">
-        <v>251.5792999267578</v>
-      </c>
-      <c r="GY2" t="n">
-        <v>255.9847717285156</v>
-      </c>
-      <c r="GZ2" t="n">
-        <v>264.3715209960938</v>
-      </c>
-      <c r="HA2" t="n">
-        <v>283.87939453125</v>
-      </c>
-      <c r="HB2" t="n">
-        <v>303.1877746582031</v>
-      </c>
-      <c r="HC2" t="n">
-        <v>328.7607116699219</v>
-      </c>
-      <c r="HD2" t="n">
-        <v>334.6473693847656</v>
-      </c>
-      <c r="HE2" t="n">
-        <v>342.5695190429688</v>
-      </c>
-      <c r="HF2" t="n">
-        <v>352.3766479492188</v>
-      </c>
-      <c r="HG2" t="n">
-        <v>359.8053283691406</v>
-      </c>
-      <c r="HH2" t="n">
-        <v>363.1437683105469</v>
-      </c>
-      <c r="HI2" t="n">
-        <v>366.9298706054688</v>
-      </c>
-      <c r="HJ2" t="n">
-        <v>363.6245422363281</v>
-      </c>
-      <c r="HK2" t="n">
-        <v>359.3618469238281</v>
-      </c>
-      <c r="HL2" t="n">
-        <v>345.8044128417969</v>
-      </c>
-      <c r="HM2" t="n">
-        <v>331.511962890625</v>
-      </c>
-      <c r="HN2" t="n">
-        <v>297.4933471679688</v>
-      </c>
-      <c r="HO2" t="n">
-        <v>280.9378356933594</v>
-      </c>
-      <c r="HP2" t="n">
-        <v>272.5001220703125</v>
-      </c>
-      <c r="HQ2" t="n">
-        <v>270.28857421875</v>
-      </c>
-      <c r="HR2" t="n">
-        <v>268.134765625</v>
-      </c>
-      <c r="HS2" t="n">
-        <v>266.2225036621094</v>
-      </c>
-      <c r="HT2" t="n">
-        <v>271.1050720214844</v>
-      </c>
-      <c r="HU2" t="n">
-        <v>276.9735412597656</v>
-      </c>
-      <c r="HV2" t="n">
-        <v>284.316650390625</v>
-      </c>
-      <c r="HW2" t="n">
-        <v>286.0212707519531</v>
-      </c>
-      <c r="HX2" t="n">
-        <v>287.2391052246094</v>
-      </c>
-      <c r="HY2" t="n">
-        <v>288.2199401855469</v>
-      </c>
-      <c r="HZ2" t="n">
-        <v>289.8783569335938</v>
-      </c>
-      <c r="IA2" t="n">
-        <v>294.5321350097656</v>
-      </c>
-      <c r="IB2" t="n">
-        <v>298.5547485351562</v>
-      </c>
-      <c r="IC2" t="n">
-        <v>301.89990234375</v>
-      </c>
-      <c r="ID2" t="n">
-        <v>304.238525390625</v>
-      </c>
-      <c r="IE2" t="n">
-        <v>307.0888671875</v>
-      </c>
-      <c r="IF2" t="n">
-        <v>307.3943786621094</v>
-      </c>
-      <c r="IG2" t="n">
-        <v>308.0737915039062</v>
-      </c>
-      <c r="IH2" t="n">
-        <v>307.5082092285156</v>
-      </c>
-      <c r="II2" t="n">
-        <v>306.9880676269531</v>
-      </c>
-      <c r="IJ2" t="n">
-        <v>306.6568603515625</v>
-      </c>
-      <c r="IK2" t="n">
-        <v>306.5329284667969</v>
-      </c>
-      <c r="IL2" t="n">
-        <v>306.816162109375</v>
-      </c>
-      <c r="IM2" t="n">
-        <v>307.3905639648438</v>
-      </c>
-      <c r="IN2" t="n">
-        <v>307.6979675292969</v>
-      </c>
-      <c r="IO2" t="n">
-        <v>308.2082214355469</v>
-      </c>
-      <c r="IP2" t="n">
-        <v>308.5541076660156</v>
-      </c>
-      <c r="IQ2" t="n">
-        <v>308.633056640625</v>
+        <v>209.2876434326172</v>
       </c>
     </row>
     <row r="3">
@@ -1950,754 +1626,592 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>299.0641174316406</v>
+        <v>308.7347412109375</v>
       </c>
       <c r="C3" t="n">
-        <v>292.3716125488281</v>
+        <v>305.3487243652344</v>
       </c>
       <c r="D3" t="n">
-        <v>287.3120727539062</v>
+        <v>303.6473388671875</v>
       </c>
       <c r="E3" t="n">
-        <v>282.1258239746094</v>
+        <v>303.3144836425781</v>
       </c>
       <c r="F3" t="n">
-        <v>277.3009033203125</v>
+        <v>303.1664733886719</v>
       </c>
       <c r="G3" t="n">
-        <v>272.9971618652344</v>
+        <v>303.0368041992188</v>
       </c>
       <c r="H3" t="n">
-        <v>270.1763305664062</v>
+        <v>302.9078674316406</v>
       </c>
       <c r="I3" t="n">
-        <v>267.3026428222656</v>
+        <v>302.7887878417969</v>
       </c>
       <c r="J3" t="n">
-        <v>265.3435363769531</v>
+        <v>302.6987609863281</v>
       </c>
       <c r="K3" t="n">
-        <v>263.7236022949219</v>
+        <v>302.61474609375</v>
       </c>
       <c r="L3" t="n">
-        <v>262.7931823730469</v>
+        <v>302.54833984375</v>
       </c>
       <c r="M3" t="n">
-        <v>262.1236877441406</v>
+        <v>302.4953308105469</v>
       </c>
       <c r="N3" t="n">
-        <v>260.9115905761719</v>
+        <v>302.4494934082031</v>
       </c>
       <c r="O3" t="n">
-        <v>258.7109069824219</v>
+        <v>302.4117126464844</v>
       </c>
       <c r="P3" t="n">
-        <v>257.9263610839844</v>
+        <v>302.3772583007812</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.9442443847656</v>
+        <v>302.3424987792969</v>
       </c>
       <c r="R3" t="n">
-        <v>255.9552612304688</v>
+        <v>302.3106689453125</v>
       </c>
       <c r="S3" t="n">
-        <v>254.2492980957031</v>
+        <v>302.2827453613281</v>
       </c>
       <c r="T3" t="n">
-        <v>254.1743927001953</v>
+        <v>302.258056640625</v>
       </c>
       <c r="U3" t="n">
-        <v>253.0215759277344</v>
+        <v>302.2357177734375</v>
       </c>
       <c r="V3" t="n">
-        <v>252.5543670654297</v>
+        <v>302.2167358398438</v>
       </c>
       <c r="W3" t="n">
-        <v>250.4407348632812</v>
+        <v>302.1989440917969</v>
       </c>
       <c r="X3" t="n">
-        <v>249.4092407226562</v>
+        <v>302.1840515136719</v>
       </c>
       <c r="Y3" t="n">
-        <v>248.9098815917969</v>
+        <v>302.17138671875</v>
       </c>
       <c r="Z3" t="n">
-        <v>248.5546569824219</v>
+        <v>302.1581115722656</v>
       </c>
       <c r="AA3" t="n">
-        <v>248.566650390625</v>
+        <v>302.1476440429688</v>
       </c>
       <c r="AB3" t="n">
-        <v>249.0504760742188</v>
+        <v>302.1355590820312</v>
       </c>
       <c r="AC3" t="n">
-        <v>248.7719573974609</v>
+        <v>302.1234436035156</v>
       </c>
       <c r="AD3" t="n">
-        <v>247.8751678466797</v>
+        <v>302.1138000488281</v>
       </c>
       <c r="AE3" t="n">
-        <v>245.1455230712891</v>
+        <v>302.114013671875</v>
       </c>
       <c r="AF3" t="n">
-        <v>243.3083801269531</v>
+        <v>302.1111450195312</v>
       </c>
       <c r="AG3" t="n">
-        <v>242.2789459228516</v>
+        <v>302.1061401367188</v>
       </c>
       <c r="AH3" t="n">
-        <v>239.4724731445312</v>
+        <v>302.1019592285156</v>
       </c>
       <c r="AI3" t="n">
-        <v>238.1876525878906</v>
+        <v>302.097412109375</v>
       </c>
       <c r="AJ3" t="n">
-        <v>236.8185577392578</v>
+        <v>302.0939331054688</v>
       </c>
       <c r="AK3" t="n">
-        <v>233.8723449707031</v>
+        <v>302.0929565429688</v>
       </c>
       <c r="AL3" t="n">
-        <v>232.3871765136719</v>
+        <v>302.0839538574219</v>
       </c>
       <c r="AM3" t="n">
-        <v>231.6183013916016</v>
+        <v>302.0845947265625</v>
       </c>
       <c r="AN3" t="n">
-        <v>230.0520172119141</v>
+        <v>302.0834655761719</v>
       </c>
       <c r="AO3" t="n">
-        <v>228.3892822265625</v>
+        <v>302.0812683105469</v>
       </c>
       <c r="AP3" t="n">
-        <v>228.0913696289062</v>
+        <v>302.120361328125</v>
       </c>
       <c r="AQ3" t="n">
-        <v>228.0323638916016</v>
+        <v>303.0008239746094</v>
       </c>
       <c r="AR3" t="n">
-        <v>227.8748168945312</v>
+        <v>299.9588012695312</v>
       </c>
       <c r="AS3" t="n">
-        <v>227.6235504150391</v>
+        <v>298.1947937011719</v>
       </c>
       <c r="AT3" t="n">
-        <v>227.1720428466797</v>
+        <v>297.3087768554688</v>
       </c>
       <c r="AU3" t="n">
-        <v>226.8865814208984</v>
+        <v>297.4563598632812</v>
       </c>
       <c r="AV3" t="n">
-        <v>226.5497283935547</v>
+        <v>297.0536804199219</v>
       </c>
       <c r="AW3" t="n">
-        <v>226.1220550537109</v>
+        <v>296.4934997558594</v>
       </c>
       <c r="AX3" t="n">
-        <v>225.7666931152344</v>
+        <v>296.7874450683594</v>
       </c>
       <c r="AY3" t="n">
-        <v>225.4226379394531</v>
+        <v>297.0632934570312</v>
       </c>
       <c r="AZ3" t="n">
-        <v>225.2358856201172</v>
+        <v>296.60791015625</v>
       </c>
       <c r="BA3" t="n">
-        <v>225.0981597900391</v>
+        <v>296.545654296875</v>
       </c>
       <c r="BB3" t="n">
-        <v>224.8897705078125</v>
+        <v>293.9656066894531</v>
       </c>
       <c r="BC3" t="n">
-        <v>224.3942260742188</v>
+        <v>292.3057250976562</v>
       </c>
       <c r="BD3" t="n">
-        <v>223.8825988769531</v>
+        <v>290.7729187011719</v>
       </c>
       <c r="BE3" t="n">
-        <v>223.5135192871094</v>
+        <v>289.5036926269531</v>
       </c>
       <c r="BF3" t="n">
-        <v>223.1237945556641</v>
+        <v>289.6612854003906</v>
       </c>
       <c r="BG3" t="n">
-        <v>222.9718017578125</v>
+        <v>289.4707946777344</v>
       </c>
       <c r="BH3" t="n">
-        <v>223.2344665527344</v>
+        <v>291.2438659667969</v>
       </c>
       <c r="BI3" t="n">
-        <v>223.6981506347656</v>
+        <v>290.5630493164062</v>
       </c>
       <c r="BJ3" t="n">
-        <v>224.4300079345703</v>
+        <v>293.2235717773438</v>
       </c>
       <c r="BK3" t="n">
-        <v>224.6974639892578</v>
+        <v>296.3472595214844</v>
       </c>
       <c r="BL3" t="n">
-        <v>224.34326171875</v>
+        <v>296.8901062011719</v>
       </c>
       <c r="BM3" t="n">
-        <v>223.9849548339844</v>
+        <v>300.1117858886719</v>
       </c>
       <c r="BN3" t="n">
-        <v>223.2334594726562</v>
+        <v>300.0061340332031</v>
       </c>
       <c r="BO3" t="n">
-        <v>222.74755859375</v>
+        <v>301.1148681640625</v>
       </c>
       <c r="BP3" t="n">
-        <v>221.6051635742188</v>
+        <v>302.8463134765625</v>
       </c>
       <c r="BQ3" t="n">
-        <v>221.5110321044922</v>
+        <v>304.9571838378906</v>
       </c>
       <c r="BR3" t="n">
-        <v>220.93017578125</v>
+        <v>305.706298828125</v>
       </c>
       <c r="BS3" t="n">
-        <v>222.1715087890625</v>
+        <v>306.3363037109375</v>
       </c>
       <c r="BT3" t="n">
-        <v>222.0497894287109</v>
+        <v>306.4216003417969</v>
       </c>
       <c r="BU3" t="n">
-        <v>221.8491363525391</v>
+        <v>308.1959838867188</v>
       </c>
       <c r="BV3" t="n">
-        <v>221.3172607421875</v>
+        <v>309.3107299804688</v>
       </c>
       <c r="BW3" t="n">
-        <v>220.3649749755859</v>
+        <v>309.8090209960938</v>
       </c>
       <c r="BX3" t="n">
-        <v>219.6518096923828</v>
+        <v>311.4296264648438</v>
       </c>
       <c r="BY3" t="n">
-        <v>218.9432373046875</v>
+        <v>312.1716918945312</v>
       </c>
       <c r="BZ3" t="n">
-        <v>218.6905670166016</v>
+        <v>313.0222473144531</v>
       </c>
       <c r="CA3" t="n">
-        <v>217.8241729736328</v>
+        <v>312.0871276855469</v>
       </c>
       <c r="CB3" t="n">
-        <v>217.5008544921875</v>
+        <v>313.884765625</v>
       </c>
       <c r="CC3" t="n">
-        <v>217.0204315185547</v>
+        <v>312.8320922851562</v>
       </c>
       <c r="CD3" t="n">
-        <v>217.1948089599609</v>
+        <v>314.08984375</v>
       </c>
       <c r="CE3" t="n">
-        <v>216.3397369384766</v>
+        <v>314.96923828125</v>
       </c>
       <c r="CF3" t="n">
-        <v>216.3016204833984</v>
+        <v>315.0030212402344</v>
       </c>
       <c r="CG3" t="n">
-        <v>216.4403381347656</v>
+        <v>314.7111206054688</v>
       </c>
       <c r="CH3" t="n">
-        <v>217.0494384765625</v>
+        <v>314.0549621582031</v>
       </c>
       <c r="CI3" t="n">
-        <v>217.1320495605469</v>
+        <v>314.3670043945312</v>
       </c>
       <c r="CJ3" t="n">
-        <v>217.8063659667969</v>
+        <v>313.4542846679688</v>
       </c>
       <c r="CK3" t="n">
-        <v>218.1282653808594</v>
+        <v>310.7740173339844</v>
       </c>
       <c r="CL3" t="n">
-        <v>217.6278076171875</v>
+        <v>308.5473327636719</v>
       </c>
       <c r="CM3" t="n">
-        <v>217.5457000732422</v>
+        <v>307.8727722167969</v>
       </c>
       <c r="CN3" t="n">
-        <v>216.8786010742188</v>
+        <v>305.4145812988281</v>
       </c>
       <c r="CO3" t="n">
-        <v>216.2600555419922</v>
+        <v>303.988037109375</v>
       </c>
       <c r="CP3" t="n">
-        <v>215.9810943603516</v>
+        <v>303.9721374511719</v>
       </c>
       <c r="CQ3" t="n">
-        <v>215.6668243408203</v>
+        <v>302.8714904785156</v>
       </c>
       <c r="CR3" t="n">
-        <v>215.2053375244141</v>
+        <v>301.5599975585938</v>
       </c>
       <c r="CS3" t="n">
-        <v>214.3679962158203</v>
+        <v>300.9049072265625</v>
       </c>
       <c r="CT3" t="n">
-        <v>212.7942810058594</v>
+        <v>300.5645141601562</v>
       </c>
       <c r="CU3" t="n">
-        <v>213.0392456054688</v>
+        <v>298.2809143066406</v>
       </c>
       <c r="CV3" t="n">
-        <v>213.1616363525391</v>
+        <v>298.6100769042969</v>
       </c>
       <c r="CW3" t="n">
-        <v>213.2069702148438</v>
+        <v>296.88330078125</v>
       </c>
       <c r="CX3" t="n">
-        <v>213.1421356201172</v>
+        <v>297.1596374511719</v>
       </c>
       <c r="CY3" t="n">
-        <v>213.2311553955078</v>
+        <v>297.4104614257812</v>
       </c>
       <c r="CZ3" t="n">
-        <v>213.3147735595703</v>
+        <v>296.2936096191406</v>
       </c>
       <c r="DA3" t="n">
-        <v>213.3986968994141</v>
+        <v>296.9016418457031</v>
       </c>
       <c r="DB3" t="n">
-        <v>213.47607421875</v>
+        <v>295.4850463867188</v>
       </c>
       <c r="DC3" t="n">
-        <v>213.8407592773438</v>
+        <v>296.3933410644531</v>
       </c>
       <c r="DD3" t="n">
-        <v>214.3289642333984</v>
+        <v>296.10791015625</v>
       </c>
       <c r="DE3" t="n">
-        <v>214.6355895996094</v>
+        <v>296.216796875</v>
       </c>
       <c r="DF3" t="n">
-        <v>215.2543640136719</v>
+        <v>296.7870788574219</v>
       </c>
       <c r="DG3" t="n">
-        <v>217.1327972412109</v>
+        <v>297.3848876953125</v>
       </c>
       <c r="DH3" t="n">
-        <v>216.7057342529297</v>
+        <v>297.8065490722656</v>
       </c>
       <c r="DI3" t="n">
-        <v>216.6352844238281</v>
+        <v>298.4139709472656</v>
       </c>
       <c r="DJ3" t="n">
-        <v>216.6221618652344</v>
+        <v>299.0257568359375</v>
       </c>
       <c r="DK3" t="n">
-        <v>216.7489318847656</v>
+        <v>299.3790893554688</v>
       </c>
       <c r="DL3" t="n">
-        <v>217.1087799072266</v>
+        <v>299.898681640625</v>
       </c>
       <c r="DM3" t="n">
-        <v>217.3182983398438</v>
+        <v>299.5476989746094</v>
       </c>
       <c r="DN3" t="n">
-        <v>217.8035736083984</v>
+        <v>300.9205322265625</v>
       </c>
       <c r="DO3" t="n">
-        <v>218.0546112060547</v>
+        <v>301.232666015625</v>
       </c>
       <c r="DP3" t="n">
-        <v>218.3267669677734</v>
+        <v>298.3611755371094</v>
       </c>
       <c r="DQ3" t="n">
-        <v>218.7090301513672</v>
+        <v>286.8189392089844</v>
       </c>
       <c r="DR3" t="n">
-        <v>219.0049285888672</v>
+        <v>279.9117736816406</v>
       </c>
       <c r="DS3" t="n">
-        <v>219.2519836425781</v>
+        <v>274.3554077148438</v>
       </c>
       <c r="DT3" t="n">
-        <v>219.3522338867188</v>
+        <v>255.9562377929688</v>
       </c>
       <c r="DU3" t="n">
-        <v>219.3643798828125</v>
+        <v>252.0270233154297</v>
       </c>
       <c r="DV3" t="n">
-        <v>219.1231384277344</v>
+        <v>244.0424499511719</v>
       </c>
       <c r="DW3" t="n">
-        <v>218.7462615966797</v>
+        <v>231.1153106689453</v>
       </c>
       <c r="DX3" t="n">
-        <v>218.0869445800781</v>
+        <v>224.6999053955078</v>
       </c>
       <c r="DY3" t="n">
-        <v>218.067626953125</v>
+        <v>218.0170135498047</v>
       </c>
       <c r="DZ3" t="n">
-        <v>218.1116333007812</v>
+        <v>217.7528839111328</v>
       </c>
       <c r="EA3" t="n">
-        <v>218.1739196777344</v>
+        <v>219.6693115234375</v>
       </c>
       <c r="EB3" t="n">
-        <v>218.2950134277344</v>
+        <v>233.5741577148438</v>
       </c>
       <c r="EC3" t="n">
-        <v>218.564453125</v>
+        <v>243.1543121337891</v>
       </c>
       <c r="ED3" t="n">
-        <v>218.7370300292969</v>
+        <v>266.2431030273438</v>
       </c>
       <c r="EE3" t="n">
-        <v>218.9054260253906</v>
+        <v>288.6080627441406</v>
       </c>
       <c r="EF3" t="n">
-        <v>219.2766418457031</v>
+        <v>294.7366638183594</v>
       </c>
       <c r="EG3" t="n">
-        <v>219.6567840576172</v>
+        <v>311.7865905761719</v>
       </c>
       <c r="EH3" t="n">
-        <v>219.9065246582031</v>
+        <v>323.9014282226562</v>
       </c>
       <c r="EI3" t="n">
-        <v>220.060302734375</v>
+        <v>322.9037170410156</v>
       </c>
       <c r="EJ3" t="n">
-        <v>220.4423065185547</v>
+        <v>325.1316528320312</v>
       </c>
       <c r="EK3" t="n">
-        <v>220.6450500488281</v>
+        <v>329.5819396972656</v>
       </c>
       <c r="EL3" t="n">
-        <v>221.8386993408203</v>
+        <v>328.4899291992188</v>
       </c>
       <c r="EM3" t="n">
-        <v>222.3532867431641</v>
+        <v>324.9923095703125</v>
       </c>
       <c r="EN3" t="n">
-        <v>221.8144378662109</v>
+        <v>324.4920654296875</v>
       </c>
       <c r="EO3" t="n">
-        <v>221.7839660644531</v>
+        <v>323.6980895996094</v>
       </c>
       <c r="EP3" t="n">
-        <v>221.6836395263672</v>
+        <v>323.9891967773438</v>
       </c>
       <c r="EQ3" t="n">
-        <v>221.6279449462891</v>
+        <v>325.9388732910156</v>
       </c>
       <c r="ER3" t="n">
-        <v>221.6002502441406</v>
+        <v>326.7236633300781</v>
       </c>
       <c r="ES3" t="n">
-        <v>221.5304412841797</v>
+        <v>327.3063354492188</v>
       </c>
       <c r="ET3" t="n">
-        <v>221.4892425537109</v>
+        <v>329.7982788085938</v>
       </c>
       <c r="EU3" t="n">
-        <v>221.4095153808594</v>
+        <v>332.6650695800781</v>
       </c>
       <c r="EV3" t="n">
-        <v>221.3422393798828</v>
+        <v>335.394287109375</v>
       </c>
       <c r="EW3" t="n">
-        <v>221.7322845458984</v>
+        <v>338.9842224121094</v>
       </c>
       <c r="EX3" t="n">
-        <v>222.3360443115234</v>
+        <v>343.0094909667969</v>
       </c>
       <c r="EY3" t="n">
-        <v>222.7604370117188</v>
+        <v>346.4621276855469</v>
       </c>
       <c r="EZ3" t="n">
-        <v>223.6698608398438</v>
+        <v>348.7341613769531</v>
       </c>
       <c r="FA3" t="n">
-        <v>224.0926971435547</v>
+        <v>347.8561706542969</v>
       </c>
       <c r="FB3" t="n">
-        <v>224.4661712646484</v>
+        <v>346.7175598144531</v>
       </c>
       <c r="FC3" t="n">
-        <v>224.7817535400391</v>
+        <v>342.6274108886719</v>
       </c>
       <c r="FD3" t="n">
-        <v>224.8090362548828</v>
+        <v>341.5365905761719</v>
       </c>
       <c r="FE3" t="n">
-        <v>224.711669921875</v>
+        <v>339.0836486816406</v>
       </c>
       <c r="FF3" t="n">
-        <v>224.6579895019531</v>
+        <v>336.465576171875</v>
       </c>
       <c r="FG3" t="n">
-        <v>224.4040832519531</v>
+        <v>335.6887512207031</v>
       </c>
       <c r="FH3" t="n">
-        <v>221.1167755126953</v>
+        <v>329.254150390625</v>
       </c>
       <c r="FI3" t="n">
-        <v>219.9284057617188</v>
+        <v>328.5282592773438</v>
       </c>
       <c r="FJ3" t="n">
-        <v>218.7217559814453</v>
+        <v>326.9332580566406</v>
       </c>
       <c r="FK3" t="n">
-        <v>216.1463623046875</v>
+        <v>322.6022644042969</v>
       </c>
       <c r="FL3" t="n">
-        <v>208.8430786132812</v>
+        <v>321.398193359375</v>
       </c>
       <c r="FM3" t="n">
-        <v>207.3638610839844</v>
+        <v>320.9249267578125</v>
       </c>
       <c r="FN3" t="n">
-        <v>204.7554779052734</v>
+        <v>316.6316223144531</v>
       </c>
       <c r="FO3" t="n">
-        <v>204.80908203125</v>
+        <v>317.3031616210938</v>
       </c>
       <c r="FP3" t="n">
-        <v>203.8052215576172</v>
+        <v>318.3632507324219</v>
       </c>
       <c r="FQ3" t="n">
-        <v>201.7899932861328</v>
+        <v>316.9224548339844</v>
       </c>
       <c r="FR3" t="n">
-        <v>201.4183044433594</v>
+        <v>314.845947265625</v>
       </c>
       <c r="FS3" t="n">
-        <v>200.1627349853516</v>
+        <v>309.733642578125</v>
       </c>
       <c r="FT3" t="n">
-        <v>199.6626434326172</v>
+        <v>305.3201293945312</v>
       </c>
       <c r="FU3" t="n">
-        <v>199.6387329101562</v>
+        <v>299.3432922363281</v>
       </c>
       <c r="FV3" t="n">
-        <v>198.7556915283203</v>
+        <v>296.5288696289062</v>
       </c>
       <c r="FW3" t="n">
-        <v>196.806884765625</v>
+        <v>290.0298156738281</v>
       </c>
       <c r="FX3" t="n">
-        <v>190.4196319580078</v>
+        <v>289.1861267089844</v>
       </c>
       <c r="FY3" t="n">
-        <v>185.9839019775391</v>
+        <v>287.6033020019531</v>
       </c>
       <c r="FZ3" t="n">
-        <v>183.4632568359375</v>
+        <v>286.8148803710938</v>
       </c>
       <c r="GA3" t="n">
-        <v>181.2925109863281</v>
+        <v>286.88525390625</v>
       </c>
       <c r="GB3" t="n">
-        <v>178.1214752197266</v>
+        <v>286.0116577148438</v>
       </c>
       <c r="GC3" t="n">
-        <v>177.0984191894531</v>
+        <v>285.5778503417969</v>
       </c>
       <c r="GD3" t="n">
-        <v>174.1972503662109</v>
+        <v>285.9458923339844</v>
       </c>
       <c r="GE3" t="n">
-        <v>173.7059173583984</v>
+        <v>285.0249938964844</v>
       </c>
       <c r="GF3" t="n">
-        <v>169.4585876464844</v>
+        <v>285.5492248535156</v>
       </c>
       <c r="GG3" t="n">
-        <v>166.8722839355469</v>
+        <v>288.1356506347656</v>
       </c>
       <c r="GH3" t="n">
-        <v>165.4141235351562</v>
+        <v>289.4886169433594</v>
       </c>
       <c r="GI3" t="n">
-        <v>162.7822265625</v>
+        <v>290.1565856933594</v>
       </c>
       <c r="GJ3" t="n">
-        <v>161.9183959960938</v>
+        <v>289.5721740722656</v>
       </c>
       <c r="GK3" t="n">
-        <v>159.165283203125</v>
+        <v>286.1664733886719</v>
       </c>
       <c r="GL3" t="n">
-        <v>155.9432373046875</v>
+        <v>285.0295715332031</v>
       </c>
       <c r="GM3" t="n">
-        <v>151.5413055419922</v>
+        <v>282.0934143066406</v>
       </c>
       <c r="GN3" t="n">
-        <v>152.1786346435547</v>
+        <v>275.4791564941406</v>
       </c>
       <c r="GO3" t="n">
-        <v>151.5045928955078</v>
-      </c>
-      <c r="GP3" t="n">
-        <v>151.3082580566406</v>
-      </c>
-      <c r="GQ3" t="n">
-        <v>152.1970062255859</v>
-      </c>
-      <c r="GR3" t="n">
-        <v>156.4774780273438</v>
-      </c>
-      <c r="GS3" t="n">
-        <v>164.1780700683594</v>
-      </c>
-      <c r="GT3" t="n">
-        <v>174.5316925048828</v>
-      </c>
-      <c r="GU3" t="n">
-        <v>177.3791656494141</v>
-      </c>
-      <c r="GV3" t="n">
-        <v>186.6958923339844</v>
-      </c>
-      <c r="GW3" t="n">
-        <v>200.6371154785156</v>
-      </c>
-      <c r="GX3" t="n">
-        <v>220.5093078613281</v>
-      </c>
-      <c r="GY3" t="n">
-        <v>260.9726257324219</v>
-      </c>
-      <c r="GZ3" t="n">
-        <v>297.2649536132812</v>
-      </c>
-      <c r="HA3" t="n">
-        <v>317.8773193359375</v>
-      </c>
-      <c r="HB3" t="n">
-        <v>346.6147155761719</v>
-      </c>
-      <c r="HC3" t="n">
-        <v>355.9032897949219</v>
-      </c>
-      <c r="HD3" t="n">
-        <v>343.8781127929688</v>
-      </c>
-      <c r="HE3" t="n">
-        <v>333.9399719238281</v>
-      </c>
-      <c r="HF3" t="n">
-        <v>334.2108764648438</v>
-      </c>
-      <c r="HG3" t="n">
-        <v>336.1510925292969</v>
-      </c>
-      <c r="HH3" t="n">
-        <v>337.1562194824219</v>
-      </c>
-      <c r="HI3" t="n">
-        <v>341.9708557128906</v>
-      </c>
-      <c r="HJ3" t="n">
-        <v>341.5763549804688</v>
-      </c>
-      <c r="HK3" t="n">
-        <v>340.014404296875</v>
-      </c>
-      <c r="HL3" t="n">
-        <v>339.1085205078125</v>
-      </c>
-      <c r="HM3" t="n">
-        <v>344.5316772460938</v>
-      </c>
-      <c r="HN3" t="n">
-        <v>353.308837890625</v>
-      </c>
-      <c r="HO3" t="n">
-        <v>355.9217834472656</v>
-      </c>
-      <c r="HP3" t="n">
-        <v>355.5562438964844</v>
-      </c>
-      <c r="HQ3" t="n">
-        <v>355.7347106933594</v>
-      </c>
-      <c r="HR3" t="n">
-        <v>348.7936706542969</v>
-      </c>
-      <c r="HS3" t="n">
-        <v>336.6409912109375</v>
-      </c>
-      <c r="HT3" t="n">
-        <v>332.7424926757812</v>
-      </c>
-      <c r="HU3" t="n">
-        <v>330.0142822265625</v>
-      </c>
-      <c r="HV3" t="n">
-        <v>330.3684387207031</v>
-      </c>
-      <c r="HW3" t="n">
-        <v>329.8789978027344</v>
-      </c>
-      <c r="HX3" t="n">
-        <v>329.6231384277344</v>
-      </c>
-      <c r="HY3" t="n">
-        <v>331.8062744140625</v>
-      </c>
-      <c r="HZ3" t="n">
-        <v>332.3418273925781</v>
-      </c>
-      <c r="IA3" t="n">
-        <v>333.7732238769531</v>
-      </c>
-      <c r="IB3" t="n">
-        <v>334.82861328125</v>
-      </c>
-      <c r="IC3" t="n">
-        <v>335.788330078125</v>
-      </c>
-      <c r="ID3" t="n">
-        <v>336.8335571289062</v>
-      </c>
-      <c r="IE3" t="n">
-        <v>340.5130615234375</v>
-      </c>
-      <c r="IF3" t="n">
-        <v>340.3692626953125</v>
-      </c>
-      <c r="IG3" t="n">
-        <v>340.3224182128906</v>
-      </c>
-      <c r="IH3" t="n">
-        <v>339.6545715332031</v>
-      </c>
-      <c r="II3" t="n">
-        <v>339.4202575683594</v>
-      </c>
-      <c r="IJ3" t="n">
-        <v>339.4271850585938</v>
-      </c>
-      <c r="IK3" t="n">
-        <v>339.6980895996094</v>
-      </c>
-      <c r="IL3" t="n">
-        <v>339.6353149414062</v>
-      </c>
-      <c r="IM3" t="n">
-        <v>339.4042053222656</v>
-      </c>
-      <c r="IN3" t="n">
-        <v>339.1766967773438</v>
-      </c>
-      <c r="IO3" t="n">
-        <v>339.0145263671875</v>
-      </c>
-      <c r="IP3" t="n">
-        <v>339.1039428710938</v>
-      </c>
-      <c r="IQ3" t="n">
-        <v>339.1167602539062</v>
+        <v>274.4942321777344</v>
       </c>
     </row>
     <row r="4">
@@ -2705,754 +2219,592 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>1425.12744140625</v>
+        <v>1007.692443847656</v>
       </c>
       <c r="C4" t="n">
-        <v>1425.635620117188</v>
+        <v>1031.690307617188</v>
       </c>
       <c r="D4" t="n">
-        <v>1426.287841796875</v>
+        <v>1036.139526367188</v>
       </c>
       <c r="E4" t="n">
-        <v>1428.31640625</v>
+        <v>1038.409912109375</v>
       </c>
       <c r="F4" t="n">
-        <v>1432.551025390625</v>
+        <v>1038.378173828125</v>
       </c>
       <c r="G4" t="n">
-        <v>1439.403564453125</v>
+        <v>1038.3837890625</v>
       </c>
       <c r="H4" t="n">
-        <v>1445.666625976562</v>
+        <v>1038.450439453125</v>
       </c>
       <c r="I4" t="n">
-        <v>1451.259399414062</v>
+        <v>1038.499633789062</v>
       </c>
       <c r="J4" t="n">
-        <v>1453.249877929688</v>
+        <v>1038.536499023438</v>
       </c>
       <c r="K4" t="n">
-        <v>1461.672241210938</v>
+        <v>1038.568359375</v>
       </c>
       <c r="L4" t="n">
-        <v>1462.178588867188</v>
+        <v>1038.600463867188</v>
       </c>
       <c r="M4" t="n">
-        <v>1462.367553710938</v>
+        <v>1038.626220703125</v>
       </c>
       <c r="N4" t="n">
-        <v>1461.92431640625</v>
+        <v>1038.648315429688</v>
       </c>
       <c r="O4" t="n">
-        <v>1462.6298828125</v>
+        <v>1038.66796875</v>
       </c>
       <c r="P4" t="n">
-        <v>1461.872314453125</v>
+        <v>1038.685791015625</v>
       </c>
       <c r="Q4" t="n">
-        <v>1460.869262695312</v>
+        <v>1038.701171875</v>
       </c>
       <c r="R4" t="n">
-        <v>1461.11474609375</v>
+        <v>1038.714965820312</v>
       </c>
       <c r="S4" t="n">
-        <v>1461.109252929688</v>
+        <v>1038.7275390625</v>
       </c>
       <c r="T4" t="n">
-        <v>1457.798583984375</v>
+        <v>1038.738647460938</v>
       </c>
       <c r="U4" t="n">
-        <v>1454.338745117188</v>
+        <v>1038.748657226562</v>
       </c>
       <c r="V4" t="n">
-        <v>1444.923461914062</v>
+        <v>1038.757934570312</v>
       </c>
       <c r="W4" t="n">
-        <v>1444.771240234375</v>
+        <v>1038.766723632812</v>
       </c>
       <c r="X4" t="n">
-        <v>1442.263061523438</v>
+        <v>1038.774291992188</v>
       </c>
       <c r="Y4" t="n">
-        <v>1439.6005859375</v>
+        <v>1038.78076171875</v>
       </c>
       <c r="Z4" t="n">
-        <v>1431.348754882812</v>
+        <v>1038.787963867188</v>
       </c>
       <c r="AA4" t="n">
-        <v>1414.11474609375</v>
+        <v>1038.795043945312</v>
       </c>
       <c r="AB4" t="n">
-        <v>1389.351196289062</v>
+        <v>1038.80322265625</v>
       </c>
       <c r="AC4" t="n">
-        <v>1370.689697265625</v>
+        <v>1038.815795898438</v>
       </c>
       <c r="AD4" t="n">
-        <v>1360.9423828125</v>
+        <v>1038.829711914062</v>
       </c>
       <c r="AE4" t="n">
-        <v>1348.55859375</v>
+        <v>1038.839477539062</v>
       </c>
       <c r="AF4" t="n">
-        <v>1342.707275390625</v>
+        <v>1038.855224609375</v>
       </c>
       <c r="AG4" t="n">
-        <v>1329.044555664062</v>
+        <v>1038.8701171875</v>
       </c>
       <c r="AH4" t="n">
-        <v>1315.482177734375</v>
+        <v>1038.883178710938</v>
       </c>
       <c r="AI4" t="n">
-        <v>1301.103149414062</v>
+        <v>1038.897827148438</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1292.715454101562</v>
+        <v>1038.912475585938</v>
       </c>
       <c r="AK4" t="n">
-        <v>1286.770263671875</v>
+        <v>1038.92822265625</v>
       </c>
       <c r="AL4" t="n">
-        <v>1275.979858398438</v>
+        <v>1038.962768554688</v>
       </c>
       <c r="AM4" t="n">
-        <v>1256.57177734375</v>
+        <v>1038.990600585938</v>
       </c>
       <c r="AN4" t="n">
-        <v>1254.160400390625</v>
+        <v>1039.005615234375</v>
       </c>
       <c r="AO4" t="n">
-        <v>1248.176879882812</v>
+        <v>1039.021362304688</v>
       </c>
       <c r="AP4" t="n">
-        <v>1241.454711914062</v>
+        <v>1039.038452148438</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1239.673217773438</v>
+        <v>1038.55078125</v>
       </c>
       <c r="AR4" t="n">
-        <v>1235.844604492188</v>
+        <v>1040.219482421875</v>
       </c>
       <c r="AS4" t="n">
-        <v>1228.789794921875</v>
+        <v>1046.499145507812</v>
       </c>
       <c r="AT4" t="n">
-        <v>1225.660766601562</v>
+        <v>1062.729614257812</v>
       </c>
       <c r="AU4" t="n">
-        <v>1223.390625</v>
+        <v>1068.39501953125</v>
       </c>
       <c r="AV4" t="n">
-        <v>1221.917236328125</v>
+        <v>1069.317749023438</v>
       </c>
       <c r="AW4" t="n">
-        <v>1220.49560546875</v>
+        <v>1090.286010742188</v>
       </c>
       <c r="AX4" t="n">
-        <v>1219.26318359375</v>
+        <v>1086.818481445312</v>
       </c>
       <c r="AY4" t="n">
-        <v>1218.459350585938</v>
+        <v>1086.350708007812</v>
       </c>
       <c r="AZ4" t="n">
-        <v>1217.590209960938</v>
+        <v>1086.451049804688</v>
       </c>
       <c r="BA4" t="n">
-        <v>1216.683959960938</v>
+        <v>1085.9560546875</v>
       </c>
       <c r="BB4" t="n">
-        <v>1215.953125</v>
+        <v>1087.899047851562</v>
       </c>
       <c r="BC4" t="n">
-        <v>1214.739868164062</v>
+        <v>1089.1416015625</v>
       </c>
       <c r="BD4" t="n">
-        <v>1213.538208007812</v>
+        <v>1089.456909179688</v>
       </c>
       <c r="BE4" t="n">
-        <v>1212.977416992188</v>
+        <v>1092.146240234375</v>
       </c>
       <c r="BF4" t="n">
-        <v>1212.413208007812</v>
+        <v>1092.1162109375</v>
       </c>
       <c r="BG4" t="n">
-        <v>1212.021118164062</v>
+        <v>1092.50634765625</v>
       </c>
       <c r="BH4" t="n">
-        <v>1211.932983398438</v>
+        <v>1097.361938476562</v>
       </c>
       <c r="BI4" t="n">
-        <v>1212.011596679688</v>
+        <v>1103.457763671875</v>
       </c>
       <c r="BJ4" t="n">
-        <v>1212.467407226562</v>
+        <v>1107.449096679688</v>
       </c>
       <c r="BK4" t="n">
-        <v>1212.582641601562</v>
+        <v>1109.059692382812</v>
       </c>
       <c r="BL4" t="n">
-        <v>1212.41748046875</v>
+        <v>1115.108276367188</v>
       </c>
       <c r="BM4" t="n">
-        <v>1212.297241210938</v>
+        <v>1125.947509765625</v>
       </c>
       <c r="BN4" t="n">
-        <v>1211.823974609375</v>
+        <v>1141.051147460938</v>
       </c>
       <c r="BO4" t="n">
-        <v>1211.547241210938</v>
+        <v>1150.100463867188</v>
       </c>
       <c r="BP4" t="n">
-        <v>1210.616088867188</v>
+        <v>1154.44921875</v>
       </c>
       <c r="BQ4" t="n">
-        <v>1204.616333007812</v>
+        <v>1158.832763671875</v>
       </c>
       <c r="BR4" t="n">
-        <v>1200.67919921875</v>
+        <v>1162.920532226562</v>
       </c>
       <c r="BS4" t="n">
-        <v>1198.318603515625</v>
+        <v>1160.74560546875</v>
       </c>
       <c r="BT4" t="n">
-        <v>1195.100219726562</v>
+        <v>1160.383056640625</v>
       </c>
       <c r="BU4" t="n">
-        <v>1192.012084960938</v>
+        <v>1162.06494140625</v>
       </c>
       <c r="BV4" t="n">
-        <v>1186.02685546875</v>
+        <v>1163.137084960938</v>
       </c>
       <c r="BW4" t="n">
-        <v>1183.50341796875</v>
+        <v>1169.612548828125</v>
       </c>
       <c r="BX4" t="n">
-        <v>1181.396362304688</v>
+        <v>1174.933715820312</v>
       </c>
       <c r="BY4" t="n">
-        <v>1178.021484375</v>
+        <v>1175.987548828125</v>
       </c>
       <c r="BZ4" t="n">
-        <v>1171.715087890625</v>
+        <v>1185.298828125</v>
       </c>
       <c r="CA4" t="n">
-        <v>1168.6796875</v>
+        <v>1182.338134765625</v>
       </c>
       <c r="CB4" t="n">
-        <v>1165.897094726562</v>
+        <v>1185.983276367188</v>
       </c>
       <c r="CC4" t="n">
-        <v>1163.272705078125</v>
+        <v>1184.423217773438</v>
       </c>
       <c r="CD4" t="n">
-        <v>1162.553955078125</v>
+        <v>1187.555786132812</v>
       </c>
       <c r="CE4" t="n">
-        <v>1161.506103515625</v>
+        <v>1189.199096679688</v>
       </c>
       <c r="CF4" t="n">
-        <v>1159.682006835938</v>
+        <v>1189.277465820312</v>
       </c>
       <c r="CG4" t="n">
-        <v>1158.743530273438</v>
+        <v>1188.731689453125</v>
       </c>
       <c r="CH4" t="n">
-        <v>1158.000854492188</v>
+        <v>1187.497680664062</v>
       </c>
       <c r="CI4" t="n">
-        <v>1157.135620117188</v>
+        <v>1189.205810546875</v>
       </c>
       <c r="CJ4" t="n">
-        <v>1156.455810546875</v>
+        <v>1192.619873046875</v>
       </c>
       <c r="CK4" t="n">
-        <v>1155.79931640625</v>
+        <v>1192.404174804688</v>
       </c>
       <c r="CL4" t="n">
-        <v>1155.04931640625</v>
+        <v>1191.630493164062</v>
       </c>
       <c r="CM4" t="n">
-        <v>1155.135375976562</v>
+        <v>1192.447021484375</v>
       </c>
       <c r="CN4" t="n">
-        <v>1155.198852539062</v>
+        <v>1190.486694335938</v>
       </c>
       <c r="CO4" t="n">
-        <v>1155.734008789062</v>
+        <v>1187.295166015625</v>
       </c>
       <c r="CP4" t="n">
-        <v>1156.096313476562</v>
+        <v>1178.977172851562</v>
       </c>
       <c r="CQ4" t="n">
-        <v>1157.47509765625</v>
+        <v>1174.873291015625</v>
       </c>
       <c r="CR4" t="n">
-        <v>1158.93310546875</v>
+        <v>1169.150756835938</v>
       </c>
       <c r="CS4" t="n">
-        <v>1160.610595703125</v>
+        <v>1168.891967773438</v>
       </c>
       <c r="CT4" t="n">
-        <v>1163.36865234375</v>
+        <v>1168.6845703125</v>
       </c>
       <c r="CU4" t="n">
-        <v>1166.043090820312</v>
+        <v>1167.974975585938</v>
       </c>
       <c r="CV4" t="n">
-        <v>1169.9501953125</v>
+        <v>1166.982543945312</v>
       </c>
       <c r="CW4" t="n">
-        <v>1173.46728515625</v>
+        <v>1165.470336914062</v>
       </c>
       <c r="CX4" t="n">
-        <v>1173.4248046875</v>
+        <v>1163.808837890625</v>
       </c>
       <c r="CY4" t="n">
-        <v>1173.592529296875</v>
+        <v>1161.1552734375</v>
       </c>
       <c r="CZ4" t="n">
-        <v>1173.625</v>
+        <v>1159.62451171875</v>
       </c>
       <c r="DA4" t="n">
-        <v>1173.66748046875</v>
+        <v>1157.644897460938</v>
       </c>
       <c r="DB4" t="n">
-        <v>1173.704223632812</v>
+        <v>1153.168701171875</v>
       </c>
       <c r="DC4" t="n">
-        <v>1173.902954101562</v>
+        <v>1147.806762695312</v>
       </c>
       <c r="DD4" t="n">
-        <v>1174.262573242188</v>
+        <v>1144.471069335938</v>
       </c>
       <c r="DE4" t="n">
-        <v>1174.44091796875</v>
+        <v>1141.598999023438</v>
       </c>
       <c r="DF4" t="n">
-        <v>1172.506225585938</v>
+        <v>1136.239624023438</v>
       </c>
       <c r="DG4" t="n">
-        <v>1162.373291015625</v>
+        <v>1128.574951171875</v>
       </c>
       <c r="DH4" t="n">
-        <v>1160.493286132812</v>
+        <v>1114.361206054688</v>
       </c>
       <c r="DI4" t="n">
-        <v>1159.740356445312</v>
+        <v>1104.155639648438</v>
       </c>
       <c r="DJ4" t="n">
-        <v>1160.1376953125</v>
+        <v>1094.750610351562</v>
       </c>
       <c r="DK4" t="n">
-        <v>1160.687377929688</v>
+        <v>1091.348022460938</v>
       </c>
       <c r="DL4" t="n">
-        <v>1161.832275390625</v>
+        <v>1083.494750976562</v>
       </c>
       <c r="DM4" t="n">
-        <v>1162.653198242188</v>
+        <v>1076.012573242188</v>
       </c>
       <c r="DN4" t="n">
-        <v>1164.622802734375</v>
+        <v>1069.861694335938</v>
       </c>
       <c r="DO4" t="n">
-        <v>1167.508911132812</v>
+        <v>1057.065185546875</v>
       </c>
       <c r="DP4" t="n">
-        <v>1174.192138671875</v>
+        <v>1052.112915039062</v>
       </c>
       <c r="DQ4" t="n">
-        <v>1187.090209960938</v>
+        <v>1046.2412109375</v>
       </c>
       <c r="DR4" t="n">
-        <v>1185.204223632812</v>
+        <v>1043.872436523438</v>
       </c>
       <c r="DS4" t="n">
-        <v>1188.8857421875</v>
+        <v>1042.190185546875</v>
       </c>
       <c r="DT4" t="n">
-        <v>1191.607788085938</v>
+        <v>1042.907958984375</v>
       </c>
       <c r="DU4" t="n">
-        <v>1192.701416015625</v>
+        <v>1042.623168945312</v>
       </c>
       <c r="DV4" t="n">
-        <v>1192.732666015625</v>
+        <v>1042.704467773438</v>
       </c>
       <c r="DW4" t="n">
-        <v>1192.713623046875</v>
+        <v>1044.587036132812</v>
       </c>
       <c r="DX4" t="n">
-        <v>1192.518920898438</v>
+        <v>1050.440795898438</v>
       </c>
       <c r="DY4" t="n">
-        <v>1192.838012695312</v>
+        <v>1065.445068359375</v>
       </c>
       <c r="DZ4" t="n">
-        <v>1193.000244140625</v>
+        <v>1069.846801757812</v>
       </c>
       <c r="EA4" t="n">
-        <v>1193.179809570312</v>
+        <v>1087.065551757812</v>
       </c>
       <c r="EB4" t="n">
-        <v>1193.261474609375</v>
+        <v>1091.892700195312</v>
       </c>
       <c r="EC4" t="n">
-        <v>1193.257080078125</v>
+        <v>1099.295654296875</v>
       </c>
       <c r="ED4" t="n">
-        <v>1192.220336914062</v>
+        <v>1125.1767578125</v>
       </c>
       <c r="EE4" t="n">
-        <v>1188.332397460938</v>
+        <v>1146.42236328125</v>
       </c>
       <c r="EF4" t="n">
-        <v>1173.993774414062</v>
+        <v>1160.169799804688</v>
       </c>
       <c r="EG4" t="n">
-        <v>1172.864379882812</v>
+        <v>1187.117065429688</v>
       </c>
       <c r="EH4" t="n">
-        <v>1170.458740234375</v>
+        <v>1195.395385742188</v>
       </c>
       <c r="EI4" t="n">
-        <v>1169.355590820312</v>
+        <v>1217.6513671875</v>
       </c>
       <c r="EJ4" t="n">
-        <v>1169.688232421875</v>
+        <v>1232.166870117188</v>
       </c>
       <c r="EK4" t="n">
-        <v>1169.452026367188</v>
+        <v>1252.69677734375</v>
       </c>
       <c r="EL4" t="n">
-        <v>1168.993896484375</v>
+        <v>1262.358154296875</v>
       </c>
       <c r="EM4" t="n">
-        <v>1166.21630859375</v>
+        <v>1279.8798828125</v>
       </c>
       <c r="EN4" t="n">
-        <v>1167.20361328125</v>
+        <v>1287.421508789062</v>
       </c>
       <c r="EO4" t="n">
-        <v>1167.68798828125</v>
+        <v>1304.570922851562</v>
       </c>
       <c r="EP4" t="n">
-        <v>1168.079467773438</v>
+        <v>1309.665405273438</v>
       </c>
       <c r="EQ4" t="n">
-        <v>1166.976928710938</v>
+        <v>1310.9892578125</v>
       </c>
       <c r="ER4" t="n">
-        <v>1166.619750976562</v>
+        <v>1314.739624023438</v>
       </c>
       <c r="ES4" t="n">
-        <v>1164.672607421875</v>
+        <v>1321.960327148438</v>
       </c>
       <c r="ET4" t="n">
-        <v>1163.694702148438</v>
+        <v>1324.273681640625</v>
       </c>
       <c r="EU4" t="n">
-        <v>1162.163452148438</v>
+        <v>1323.519165039062</v>
       </c>
       <c r="EV4" t="n">
-        <v>1160.340698242188</v>
+        <v>1328.835571289062</v>
       </c>
       <c r="EW4" t="n">
-        <v>1160.757446289062</v>
+        <v>1315.201416015625</v>
       </c>
       <c r="EX4" t="n">
-        <v>1160.669921875</v>
+        <v>1301.859497070312</v>
       </c>
       <c r="EY4" t="n">
-        <v>1160.58251953125</v>
+        <v>1292.833618164062</v>
       </c>
       <c r="EZ4" t="n">
-        <v>1160.376953125</v>
+        <v>1272.294067382812</v>
       </c>
       <c r="FA4" t="n">
-        <v>1160.278442382812</v>
+        <v>1257.712158203125</v>
       </c>
       <c r="FB4" t="n">
-        <v>1160.185302734375</v>
+        <v>1249.622314453125</v>
       </c>
       <c r="FC4" t="n">
-        <v>1160.038696289062</v>
+        <v>1236.035888671875</v>
       </c>
       <c r="FD4" t="n">
-        <v>1159.995849609375</v>
+        <v>1229.059204101562</v>
       </c>
       <c r="FE4" t="n">
-        <v>1159.986938476562</v>
+        <v>1194.443481445312</v>
       </c>
       <c r="FF4" t="n">
-        <v>1159.9638671875</v>
+        <v>1175.0224609375</v>
       </c>
       <c r="FG4" t="n">
-        <v>1155.095581054688</v>
+        <v>1130.063598632812</v>
       </c>
       <c r="FH4" t="n">
-        <v>1136.457275390625</v>
+        <v>1086.983642578125</v>
       </c>
       <c r="FI4" t="n">
-        <v>1121.27001953125</v>
+        <v>1078.521240234375</v>
       </c>
       <c r="FJ4" t="n">
-        <v>1106.169921875</v>
+        <v>1049.647827148438</v>
       </c>
       <c r="FK4" t="n">
-        <v>1086.50927734375</v>
+        <v>1017.107116699219</v>
       </c>
       <c r="FL4" t="n">
-        <v>1068.68994140625</v>
+        <v>1006.585510253906</v>
       </c>
       <c r="FM4" t="n">
-        <v>1060.780029296875</v>
+        <v>972.7426147460938</v>
       </c>
       <c r="FN4" t="n">
-        <v>1047.12353515625</v>
+        <v>950.5195922851562</v>
       </c>
       <c r="FO4" t="n">
-        <v>1040.773193359375</v>
+        <v>935.64990234375</v>
       </c>
       <c r="FP4" t="n">
-        <v>1027.283325195312</v>
+        <v>912.4019775390625</v>
       </c>
       <c r="FQ4" t="n">
-        <v>997.8563232421875</v>
+        <v>901.7418212890625</v>
       </c>
       <c r="FR4" t="n">
-        <v>993.7757568359375</v>
+        <v>892.1990356445312</v>
       </c>
       <c r="FS4" t="n">
-        <v>974.9407958984375</v>
+        <v>872.0820922851562</v>
       </c>
       <c r="FT4" t="n">
-        <v>952.0077514648438</v>
+        <v>860.3507080078125</v>
       </c>
       <c r="FU4" t="n">
-        <v>943.2442626953125</v>
+        <v>851.1336669921875</v>
       </c>
       <c r="FV4" t="n">
-        <v>931.4595947265625</v>
+        <v>847.3296508789062</v>
       </c>
       <c r="FW4" t="n">
-        <v>921.9760131835938</v>
+        <v>836.8101196289062</v>
       </c>
       <c r="FX4" t="n">
-        <v>908.6636352539062</v>
+        <v>836.822021484375</v>
       </c>
       <c r="FY4" t="n">
-        <v>897.39892578125</v>
+        <v>836.4730834960938</v>
       </c>
       <c r="FZ4" t="n">
-        <v>884.9102783203125</v>
+        <v>836.09765625</v>
       </c>
       <c r="GA4" t="n">
-        <v>874.8578491210938</v>
+        <v>834.692626953125</v>
       </c>
       <c r="GB4" t="n">
-        <v>854.74951171875</v>
+        <v>833.5037841796875</v>
       </c>
       <c r="GC4" t="n">
-        <v>850.6301879882812</v>
+        <v>833.1320190429688</v>
       </c>
       <c r="GD4" t="n">
-        <v>841.9033813476562</v>
+        <v>832.6677856445312</v>
       </c>
       <c r="GE4" t="n">
-        <v>833.5184936523438</v>
+        <v>829.8836669921875</v>
       </c>
       <c r="GF4" t="n">
-        <v>810.6707763671875</v>
+        <v>825.5536499023438</v>
       </c>
       <c r="GG4" t="n">
-        <v>790.4519653320312</v>
+        <v>814.1915283203125</v>
       </c>
       <c r="GH4" t="n">
-        <v>764.4674682617188</v>
+        <v>804.9500122070312</v>
       </c>
       <c r="GI4" t="n">
-        <v>746.96142578125</v>
+        <v>798.1441040039062</v>
       </c>
       <c r="GJ4" t="n">
-        <v>733.4027099609375</v>
+        <v>790.3067016601562</v>
       </c>
       <c r="GK4" t="n">
-        <v>720.2839965820312</v>
+        <v>772.6917114257812</v>
       </c>
       <c r="GL4" t="n">
-        <v>711.310791015625</v>
+        <v>761.1600952148438</v>
       </c>
       <c r="GM4" t="n">
-        <v>700.2802124023438</v>
+        <v>733.309814453125</v>
       </c>
       <c r="GN4" t="n">
-        <v>697.9776000976562</v>
+        <v>710.0560913085938</v>
       </c>
       <c r="GO4" t="n">
-        <v>697.9408569335938</v>
-      </c>
-      <c r="GP4" t="n">
-        <v>698.9539184570312</v>
-      </c>
-      <c r="GQ4" t="n">
-        <v>700.6737670898438</v>
-      </c>
-      <c r="GR4" t="n">
-        <v>708.0503540039062</v>
-      </c>
-      <c r="GS4" t="n">
-        <v>717.0614013671875</v>
-      </c>
-      <c r="GT4" t="n">
-        <v>717.5867309570312</v>
-      </c>
-      <c r="GU4" t="n">
-        <v>715.5765380859375</v>
-      </c>
-      <c r="GV4" t="n">
-        <v>712.7566528320312</v>
-      </c>
-      <c r="GW4" t="n">
-        <v>691.257080078125</v>
-      </c>
-      <c r="GX4" t="n">
-        <v>680.4281005859375</v>
-      </c>
-      <c r="GY4" t="n">
-        <v>661.6268310546875</v>
-      </c>
-      <c r="GZ4" t="n">
-        <v>637.2449951171875</v>
-      </c>
-      <c r="HA4" t="n">
-        <v>637.6536254882812</v>
-      </c>
-      <c r="HB4" t="n">
-        <v>645.3776245117188</v>
-      </c>
-      <c r="HC4" t="n">
-        <v>688.1336669921875</v>
-      </c>
-      <c r="HD4" t="n">
-        <v>713.2449951171875</v>
-      </c>
-      <c r="HE4" t="n">
-        <v>737.7015991210938</v>
-      </c>
-      <c r="HF4" t="n">
-        <v>752.9281616210938</v>
-      </c>
-      <c r="HG4" t="n">
-        <v>753.4976196289062</v>
-      </c>
-      <c r="HH4" t="n">
-        <v>752.7501220703125</v>
-      </c>
-      <c r="HI4" t="n">
-        <v>754.368408203125</v>
-      </c>
-      <c r="HJ4" t="n">
-        <v>755.4716186523438</v>
-      </c>
-      <c r="HK4" t="n">
-        <v>754.93603515625</v>
-      </c>
-      <c r="HL4" t="n">
-        <v>753.3726806640625</v>
-      </c>
-      <c r="HM4" t="n">
-        <v>736.4568481445312</v>
-      </c>
-      <c r="HN4" t="n">
-        <v>703.7258911132812</v>
-      </c>
-      <c r="HO4" t="n">
-        <v>694.94189453125</v>
-      </c>
-      <c r="HP4" t="n">
-        <v>695.251708984375</v>
-      </c>
-      <c r="HQ4" t="n">
-        <v>695.6734008789062</v>
-      </c>
-      <c r="HR4" t="n">
-        <v>694.6566772460938</v>
-      </c>
-      <c r="HS4" t="n">
-        <v>693.2297973632812</v>
-      </c>
-      <c r="HT4" t="n">
-        <v>690.85400390625</v>
-      </c>
-      <c r="HU4" t="n">
-        <v>690.210693359375</v>
-      </c>
-      <c r="HV4" t="n">
-        <v>690.8364868164062</v>
-      </c>
-      <c r="HW4" t="n">
-        <v>690.9898071289062</v>
-      </c>
-      <c r="HX4" t="n">
-        <v>695.552001953125</v>
-      </c>
-      <c r="HY4" t="n">
-        <v>697.7448120117188</v>
-      </c>
-      <c r="HZ4" t="n">
-        <v>707.2435913085938</v>
-      </c>
-      <c r="IA4" t="n">
-        <v>718.5368041992188</v>
-      </c>
-      <c r="IB4" t="n">
-        <v>726.87353515625</v>
-      </c>
-      <c r="IC4" t="n">
-        <v>733.39501953125</v>
-      </c>
-      <c r="ID4" t="n">
-        <v>742.1835327148438</v>
-      </c>
-      <c r="IE4" t="n">
-        <v>753.3634033203125</v>
-      </c>
-      <c r="IF4" t="n">
-        <v>757.7186279296875</v>
-      </c>
-      <c r="IG4" t="n">
-        <v>757.3318481445312</v>
-      </c>
-      <c r="IH4" t="n">
-        <v>754.6678466796875</v>
-      </c>
-      <c r="II4" t="n">
-        <v>751.0365600585938</v>
-      </c>
-      <c r="IJ4" t="n">
-        <v>747.6605224609375</v>
-      </c>
-      <c r="IK4" t="n">
-        <v>742.8121948242188</v>
-      </c>
-      <c r="IL4" t="n">
-        <v>741.330078125</v>
-      </c>
-      <c r="IM4" t="n">
-        <v>740.8602905273438</v>
-      </c>
-      <c r="IN4" t="n">
-        <v>741.399658203125</v>
-      </c>
-      <c r="IO4" t="n">
-        <v>743.0068359375</v>
-      </c>
-      <c r="IP4" t="n">
-        <v>744.0875854492188</v>
-      </c>
-      <c r="IQ4" t="n">
-        <v>744.2880859375</v>
+        <v>703.3295288085938</v>
       </c>
     </row>
   </sheetData>

--- a/right_shoulder_Data.xlsx
+++ b/right_shoulder_Data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:GO4"/>
+  <dimension ref="A1:JM4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,10 +434,8 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>START</t>
-        </is>
+      <c r="A1" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="n">
         <v>0</v>
@@ -1025,1786 +1023,2698 @@
         <v>0</v>
       </c>
       <c r="GO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HD1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ID1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="II1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JD1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JM1" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>165.2842407226562</v>
       </c>
       <c r="B2" t="n">
-        <v>290.4423828125</v>
+        <v>165.4732971191406</v>
       </c>
       <c r="C2" t="n">
-        <v>290.5192260742188</v>
+        <v>165.45703125</v>
       </c>
       <c r="D2" t="n">
-        <v>290.9275817871094</v>
+        <v>165.4586791992188</v>
       </c>
       <c r="E2" t="n">
-        <v>291.3946533203125</v>
+        <v>165.4651794433594</v>
       </c>
       <c r="F2" t="n">
-        <v>291.6824035644531</v>
+        <v>165.5113983154297</v>
       </c>
       <c r="G2" t="n">
-        <v>291.8930053710938</v>
+        <v>165.5495910644531</v>
       </c>
       <c r="H2" t="n">
-        <v>292.0645446777344</v>
+        <v>165.5873718261719</v>
       </c>
       <c r="I2" t="n">
-        <v>292.2351684570312</v>
+        <v>165.5387725830078</v>
       </c>
       <c r="J2" t="n">
-        <v>292.4164428710938</v>
+        <v>165.4855651855469</v>
       </c>
       <c r="K2" t="n">
-        <v>292.5586242675781</v>
+        <v>165.4746398925781</v>
       </c>
       <c r="L2" t="n">
-        <v>292.6677856445312</v>
+        <v>165.517822265625</v>
       </c>
       <c r="M2" t="n">
-        <v>292.7572326660156</v>
+        <v>165.5199890136719</v>
       </c>
       <c r="N2" t="n">
-        <v>292.8309936523438</v>
+        <v>165.5130920410156</v>
       </c>
       <c r="O2" t="n">
-        <v>292.894775390625</v>
+        <v>165.499755859375</v>
       </c>
       <c r="P2" t="n">
-        <v>292.9505004882812</v>
+        <v>165.4816284179688</v>
       </c>
       <c r="Q2" t="n">
-        <v>292.9993591308594</v>
+        <v>165.3330993652344</v>
       </c>
       <c r="R2" t="n">
-        <v>293.0427551269531</v>
+        <v>165.2059631347656</v>
       </c>
       <c r="S2" t="n">
-        <v>293.0813598632812</v>
+        <v>165.0292053222656</v>
       </c>
       <c r="T2" t="n">
-        <v>293.1134033203125</v>
+        <v>164.8126525878906</v>
       </c>
       <c r="U2" t="n">
-        <v>293.1438293457031</v>
+        <v>164.7064361572266</v>
       </c>
       <c r="V2" t="n">
-        <v>293.1666870117188</v>
+        <v>164.8988037109375</v>
       </c>
       <c r="W2" t="n">
-        <v>293.1870727539062</v>
+        <v>167.3380279541016</v>
       </c>
       <c r="X2" t="n">
-        <v>293.2008361816406</v>
+        <v>173.3235473632812</v>
       </c>
       <c r="Y2" t="n">
-        <v>293.2129211425781</v>
+        <v>181.2869567871094</v>
       </c>
       <c r="Z2" t="n">
-        <v>293.2216796875</v>
+        <v>188.700439453125</v>
       </c>
       <c r="AA2" t="n">
-        <v>293.2286071777344</v>
+        <v>195.7635803222656</v>
       </c>
       <c r="AB2" t="n">
-        <v>293.2319946289062</v>
+        <v>201.2960510253906</v>
       </c>
       <c r="AC2" t="n">
-        <v>293.2331237792969</v>
+        <v>205.2499084472656</v>
       </c>
       <c r="AD2" t="n">
-        <v>293.23291015625</v>
+        <v>210.4485931396484</v>
       </c>
       <c r="AE2" t="n">
-        <v>293.2359008789062</v>
+        <v>214.9499206542969</v>
       </c>
       <c r="AF2" t="n">
-        <v>293.2384948730469</v>
+        <v>219.5556945800781</v>
       </c>
       <c r="AG2" t="n">
-        <v>293.2413940429688</v>
+        <v>223.9118041992188</v>
       </c>
       <c r="AH2" t="n">
-        <v>293.2434692382812</v>
+        <v>227.4720001220703</v>
       </c>
       <c r="AI2" t="n">
-        <v>293.2457275390625</v>
+        <v>233.3943481445312</v>
       </c>
       <c r="AJ2" t="n">
-        <v>293.2465209960938</v>
+        <v>237.7224731445312</v>
       </c>
       <c r="AK2" t="n">
-        <v>293.2467651367188</v>
+        <v>240.9950561523438</v>
       </c>
       <c r="AL2" t="n">
-        <v>293.2514038085938</v>
+        <v>246.2602233886719</v>
       </c>
       <c r="AM2" t="n">
-        <v>293.2337036132812</v>
+        <v>246.2782592773438</v>
       </c>
       <c r="AN2" t="n">
-        <v>293.22802734375</v>
+        <v>249.0232086181641</v>
       </c>
       <c r="AO2" t="n">
-        <v>293.2249755859375</v>
+        <v>245.4530487060547</v>
       </c>
       <c r="AP2" t="n">
-        <v>293.3226623535156</v>
+        <v>246.4523620605469</v>
       </c>
       <c r="AQ2" t="n">
-        <v>295.0893859863281</v>
+        <v>246.203857421875</v>
       </c>
       <c r="AR2" t="n">
-        <v>307.9393005371094</v>
+        <v>246.2892303466797</v>
       </c>
       <c r="AS2" t="n">
-        <v>314.03564453125</v>
+        <v>246.8248901367188</v>
       </c>
       <c r="AT2" t="n">
-        <v>327.8863220214844</v>
+        <v>247.787353515625</v>
       </c>
       <c r="AU2" t="n">
-        <v>335.0731201171875</v>
+        <v>248.3480224609375</v>
       </c>
       <c r="AV2" t="n">
-        <v>340.6524047851562</v>
+        <v>246.5239562988281</v>
       </c>
       <c r="AW2" t="n">
-        <v>346.2378540039062</v>
+        <v>245.711669921875</v>
       </c>
       <c r="AX2" t="n">
-        <v>353.7319946289062</v>
+        <v>245.4977416992188</v>
       </c>
       <c r="AY2" t="n">
-        <v>360.9765930175781</v>
+        <v>246.9514770507812</v>
       </c>
       <c r="AZ2" t="n">
-        <v>366.70556640625</v>
+        <v>249.0823059082031</v>
       </c>
       <c r="BA2" t="n">
-        <v>371.9853210449219</v>
+        <v>250.4487915039062</v>
       </c>
       <c r="BB2" t="n">
-        <v>377.3065795898438</v>
+        <v>251.7922668457031</v>
       </c>
       <c r="BC2" t="n">
-        <v>383.1661376953125</v>
+        <v>253.2005310058594</v>
       </c>
       <c r="BD2" t="n">
-        <v>387.49609375</v>
+        <v>255.7192230224609</v>
       </c>
       <c r="BE2" t="n">
-        <v>392.8463745117188</v>
+        <v>257.7169799804688</v>
       </c>
       <c r="BF2" t="n">
-        <v>395.4647216796875</v>
+        <v>260.7739868164062</v>
       </c>
       <c r="BG2" t="n">
-        <v>395.5712890625</v>
+        <v>263.1216735839844</v>
       </c>
       <c r="BH2" t="n">
-        <v>392.6147155761719</v>
+        <v>266.6967468261719</v>
       </c>
       <c r="BI2" t="n">
-        <v>388.6287841796875</v>
+        <v>271.2164001464844</v>
       </c>
       <c r="BJ2" t="n">
-        <v>372.4273986816406</v>
+        <v>273.4754943847656</v>
       </c>
       <c r="BK2" t="n">
-        <v>360.0117492675781</v>
+        <v>276.8092041015625</v>
       </c>
       <c r="BL2" t="n">
-        <v>350.039794921875</v>
+        <v>278.8224182128906</v>
       </c>
       <c r="BM2" t="n">
-        <v>330.575927734375</v>
+        <v>281.8067626953125</v>
       </c>
       <c r="BN2" t="n">
-        <v>320.2844543457031</v>
+        <v>284.4764709472656</v>
       </c>
       <c r="BO2" t="n">
-        <v>312.1980590820312</v>
+        <v>287.5617370605469</v>
       </c>
       <c r="BP2" t="n">
-        <v>304.5439453125</v>
+        <v>290.6587219238281</v>
       </c>
       <c r="BQ2" t="n">
-        <v>297.0726318359375</v>
+        <v>294.4635314941406</v>
       </c>
       <c r="BR2" t="n">
-        <v>288.7527770996094</v>
+        <v>297.2027893066406</v>
       </c>
       <c r="BS2" t="n">
-        <v>279.4629211425781</v>
+        <v>301.5702514648438</v>
       </c>
       <c r="BT2" t="n">
-        <v>269.6588439941406</v>
+        <v>303.6115417480469</v>
       </c>
       <c r="BU2" t="n">
-        <v>261.398681640625</v>
+        <v>307.7890014648438</v>
       </c>
       <c r="BV2" t="n">
-        <v>253.1536560058594</v>
+        <v>310.7020874023438</v>
       </c>
       <c r="BW2" t="n">
-        <v>246.3580474853516</v>
+        <v>313.5210876464844</v>
       </c>
       <c r="BX2" t="n">
-        <v>240.9173736572266</v>
+        <v>315.5168151855469</v>
       </c>
       <c r="BY2" t="n">
-        <v>234.7069549560547</v>
+        <v>318.1410217285156</v>
       </c>
       <c r="BZ2" t="n">
-        <v>231.8462524414062</v>
+        <v>319.6180419921875</v>
       </c>
       <c r="CA2" t="n">
-        <v>224.1448669433594</v>
+        <v>321.98681640625</v>
       </c>
       <c r="CB2" t="n">
-        <v>221.6846923828125</v>
+        <v>323.3194274902344</v>
       </c>
       <c r="CC2" t="n">
-        <v>215.2962951660156</v>
+        <v>324.6004638671875</v>
       </c>
       <c r="CD2" t="n">
-        <v>213.3435821533203</v>
+        <v>325.7998352050781</v>
       </c>
       <c r="CE2" t="n">
-        <v>211.6067504882812</v>
+        <v>326.3927001953125</v>
       </c>
       <c r="CF2" t="n">
-        <v>209.0914611816406</v>
+        <v>326.9292602539062</v>
       </c>
       <c r="CG2" t="n">
-        <v>206.7328186035156</v>
+        <v>327.4931030273438</v>
       </c>
       <c r="CH2" t="n">
-        <v>204.5388946533203</v>
+        <v>327.8331298828125</v>
       </c>
       <c r="CI2" t="n">
-        <v>204.8908843994141</v>
+        <v>328.4280090332031</v>
       </c>
       <c r="CJ2" t="n">
-        <v>206.335205078125</v>
+        <v>329.0890197753906</v>
       </c>
       <c r="CK2" t="n">
-        <v>206.9191131591797</v>
+        <v>329.5281677246094</v>
       </c>
       <c r="CL2" t="n">
-        <v>209.6051788330078</v>
+        <v>329.4408569335938</v>
       </c>
       <c r="CM2" t="n">
-        <v>216.1065368652344</v>
+        <v>329.0759887695312</v>
       </c>
       <c r="CN2" t="n">
-        <v>221.0142517089844</v>
+        <v>328.2405395507812</v>
       </c>
       <c r="CO2" t="n">
-        <v>226.7028656005859</v>
+        <v>326.8727416992188</v>
       </c>
       <c r="CP2" t="n">
-        <v>232.9217376708984</v>
+        <v>325.6837463378906</v>
       </c>
       <c r="CQ2" t="n">
-        <v>243.7340393066406</v>
+        <v>324.4322509765625</v>
       </c>
       <c r="CR2" t="n">
-        <v>260.218994140625</v>
+        <v>322.3349609375</v>
       </c>
       <c r="CS2" t="n">
-        <v>266.1569213867188</v>
+        <v>320.8038330078125</v>
       </c>
       <c r="CT2" t="n">
-        <v>274.3676452636719</v>
+        <v>319.1195678710938</v>
       </c>
       <c r="CU2" t="n">
-        <v>282.4439086914062</v>
+        <v>317.4082336425781</v>
       </c>
       <c r="CV2" t="n">
-        <v>291.9854736328125</v>
+        <v>316.2375183105469</v>
       </c>
       <c r="CW2" t="n">
-        <v>299.3129272460938</v>
+        <v>314.7538452148438</v>
       </c>
       <c r="CX2" t="n">
-        <v>305.8303527832031</v>
+        <v>314.1860046386719</v>
       </c>
       <c r="CY2" t="n">
-        <v>312.4549560546875</v>
+        <v>313.0830993652344</v>
       </c>
       <c r="CZ2" t="n">
-        <v>318.4652709960938</v>
+        <v>311.3898010253906</v>
       </c>
       <c r="DA2" t="n">
-        <v>325.4862060546875</v>
+        <v>309.5291748046875</v>
       </c>
       <c r="DB2" t="n">
-        <v>337.5416870117188</v>
+        <v>308.2593994140625</v>
       </c>
       <c r="DC2" t="n">
-        <v>342.1368103027344</v>
+        <v>306.9388427734375</v>
       </c>
       <c r="DD2" t="n">
-        <v>346.541259765625</v>
+        <v>305.9692077636719</v>
       </c>
       <c r="DE2" t="n">
-        <v>350.44775390625</v>
+        <v>305.1102294921875</v>
       </c>
       <c r="DF2" t="n">
-        <v>353.5924682617188</v>
+        <v>304.3090209960938</v>
       </c>
       <c r="DG2" t="n">
-        <v>355.9215698242188</v>
+        <v>303.9584350585938</v>
       </c>
       <c r="DH2" t="n">
-        <v>358.2069091796875</v>
+        <v>303.2503356933594</v>
       </c>
       <c r="DI2" t="n">
-        <v>358.9885864257812</v>
+        <v>303.044677734375</v>
       </c>
       <c r="DJ2" t="n">
-        <v>359.4366455078125</v>
+        <v>302.7832641601562</v>
       </c>
       <c r="DK2" t="n">
-        <v>359.2839965820312</v>
+        <v>302.7093811035156</v>
       </c>
       <c r="DL2" t="n">
-        <v>359.2073059082031</v>
+        <v>302.1207275390625</v>
       </c>
       <c r="DM2" t="n">
-        <v>357.3294372558594</v>
+        <v>301.39111328125</v>
       </c>
       <c r="DN2" t="n">
-        <v>351.914306640625</v>
+        <v>300.8274841308594</v>
       </c>
       <c r="DO2" t="n">
-        <v>341.9868469238281</v>
+        <v>300.1990051269531</v>
       </c>
       <c r="DP2" t="n">
-        <v>338.760498046875</v>
+        <v>299.8419799804688</v>
       </c>
       <c r="DQ2" t="n">
-        <v>329.791259765625</v>
+        <v>299.3048400878906</v>
       </c>
       <c r="DR2" t="n">
-        <v>325.4715576171875</v>
+        <v>299.0541381835938</v>
       </c>
       <c r="DS2" t="n">
-        <v>322.8311767578125</v>
+        <v>298.9736328125</v>
       </c>
       <c r="DT2" t="n">
-        <v>313.0520324707031</v>
+        <v>298.8053588867188</v>
       </c>
       <c r="DU2" t="n">
-        <v>311.1647033691406</v>
+        <v>298.759521484375</v>
       </c>
       <c r="DV2" t="n">
-        <v>307.05029296875</v>
+        <v>298.73046875</v>
       </c>
       <c r="DW2" t="n">
-        <v>300.7716674804688</v>
+        <v>298.6889038085938</v>
       </c>
       <c r="DX2" t="n">
-        <v>297.3534545898438</v>
+        <v>298.6668395996094</v>
       </c>
       <c r="DY2" t="n">
-        <v>292.6150207519531</v>
+        <v>298.6634216308594</v>
       </c>
       <c r="DZ2" t="n">
-        <v>289.83740234375</v>
+        <v>298.6652526855469</v>
       </c>
       <c r="EA2" t="n">
-        <v>284.1155090332031</v>
+        <v>298.8402099609375</v>
       </c>
       <c r="EB2" t="n">
-        <v>278.69140625</v>
+        <v>299.1535034179688</v>
       </c>
       <c r="EC2" t="n">
-        <v>277.1252136230469</v>
+        <v>300.1664733886719</v>
       </c>
       <c r="ED2" t="n">
-        <v>273.5081787109375</v>
+        <v>300.6091003417969</v>
       </c>
       <c r="EE2" t="n">
-        <v>272.4179992675781</v>
+        <v>302.4243469238281</v>
       </c>
       <c r="EF2" t="n">
-        <v>272.6690673828125</v>
+        <v>303.3536987304688</v>
       </c>
       <c r="EG2" t="n">
-        <v>278.5478515625</v>
+        <v>304.3437194824219</v>
       </c>
       <c r="EH2" t="n">
-        <v>287.1876525878906</v>
+        <v>304.7198181152344</v>
       </c>
       <c r="EI2" t="n">
-        <v>291.5359802246094</v>
+        <v>305.8412170410156</v>
       </c>
       <c r="EJ2" t="n">
-        <v>295.8536987304688</v>
+        <v>306.46923828125</v>
       </c>
       <c r="EK2" t="n">
-        <v>304.2795104980469</v>
+        <v>307.3966064453125</v>
       </c>
       <c r="EL2" t="n">
-        <v>308.9336547851562</v>
+        <v>307.8829956054688</v>
       </c>
       <c r="EM2" t="n">
-        <v>315.4984741210938</v>
+        <v>308.2872314453125</v>
       </c>
       <c r="EN2" t="n">
-        <v>317.9038391113281</v>
+        <v>308.4164428710938</v>
       </c>
       <c r="EO2" t="n">
-        <v>321.6798400878906</v>
+        <v>308.4483642578125</v>
       </c>
       <c r="EP2" t="n">
-        <v>323.1289367675781</v>
+        <v>307.6468505859375</v>
       </c>
       <c r="EQ2" t="n">
-        <v>324.2570190429688</v>
+        <v>307.5074462890625</v>
       </c>
       <c r="ER2" t="n">
-        <v>324.0032348632812</v>
+        <v>307.4072875976562</v>
       </c>
       <c r="ES2" t="n">
-        <v>322.6309814453125</v>
+        <v>307.4545288085938</v>
       </c>
       <c r="ET2" t="n">
-        <v>314.2618103027344</v>
+        <v>307.6236267089844</v>
       </c>
       <c r="EU2" t="n">
-        <v>302.503662109375</v>
+        <v>307.64111328125</v>
       </c>
       <c r="EV2" t="n">
-        <v>297.4405822753906</v>
+        <v>307.6709289550781</v>
       </c>
       <c r="EW2" t="n">
-        <v>282.1426391601562</v>
+        <v>307.6961059570312</v>
       </c>
       <c r="EX2" t="n">
-        <v>276.4322509765625</v>
+        <v>307.6980285644531</v>
       </c>
       <c r="EY2" t="n">
-        <v>273.4835510253906</v>
+        <v>307.6366577148438</v>
       </c>
       <c r="EZ2" t="n">
-        <v>263.5706787109375</v>
+        <v>307.5838317871094</v>
       </c>
       <c r="FA2" t="n">
-        <v>255.4946899414062</v>
+        <v>307.434326171875</v>
       </c>
       <c r="FB2" t="n">
-        <v>250.7740173339844</v>
+        <v>307.3556213378906</v>
       </c>
       <c r="FC2" t="n">
-        <v>246.2837982177734</v>
+        <v>307.2897338867188</v>
       </c>
       <c r="FD2" t="n">
-        <v>247.0690612792969</v>
+        <v>307.1915588378906</v>
       </c>
       <c r="FE2" t="n">
-        <v>242.1086120605469</v>
+        <v>307.1400756835938</v>
       </c>
       <c r="FF2" t="n">
-        <v>238.4887084960938</v>
+        <v>307.0943298339844</v>
       </c>
       <c r="FG2" t="n">
-        <v>236.2819061279297</v>
+        <v>307.1366271972656</v>
       </c>
       <c r="FH2" t="n">
-        <v>237.3619689941406</v>
+        <v>306.5776672363281</v>
       </c>
       <c r="FI2" t="n">
-        <v>245.1476898193359</v>
+        <v>306.6859436035156</v>
       </c>
       <c r="FJ2" t="n">
-        <v>251.465576171875</v>
+        <v>306.8475036621094</v>
       </c>
       <c r="FK2" t="n">
-        <v>266.1308898925781</v>
+        <v>307.01708984375</v>
       </c>
       <c r="FL2" t="n">
-        <v>270.4906616210938</v>
+        <v>307.0974731445312</v>
       </c>
       <c r="FM2" t="n">
-        <v>279.4151611328125</v>
+        <v>307.2303466796875</v>
       </c>
       <c r="FN2" t="n">
-        <v>290.5798034667969</v>
+        <v>307.2883605957031</v>
       </c>
       <c r="FO2" t="n">
-        <v>297.1620178222656</v>
+        <v>307.3145751953125</v>
       </c>
       <c r="FP2" t="n">
-        <v>302.4329833984375</v>
+        <v>307.3335266113281</v>
       </c>
       <c r="FQ2" t="n">
-        <v>311.7979736328125</v>
+        <v>307.3442077636719</v>
       </c>
       <c r="FR2" t="n">
-        <v>315.596923828125</v>
+        <v>307.34765625</v>
       </c>
       <c r="FS2" t="n">
-        <v>322.7059631347656</v>
+        <v>307.6470031738281</v>
       </c>
       <c r="FT2" t="n">
-        <v>328.5297241210938</v>
+        <v>308.1701965332031</v>
       </c>
       <c r="FU2" t="n">
-        <v>332.8636169433594</v>
+        <v>308.3172302246094</v>
       </c>
       <c r="FV2" t="n">
-        <v>333.7833862304688</v>
+        <v>308.4620971679688</v>
       </c>
       <c r="FW2" t="n">
-        <v>334.2545166015625</v>
+        <v>308.6466979980469</v>
       </c>
       <c r="FX2" t="n">
-        <v>334.6489868164062</v>
+        <v>308.7379760742188</v>
       </c>
       <c r="FY2" t="n">
-        <v>333.5205688476562</v>
+        <v>308.8802795410156</v>
       </c>
       <c r="FZ2" t="n">
-        <v>330.0767822265625</v>
+        <v>308.947509765625</v>
       </c>
       <c r="GA2" t="n">
-        <v>319.4273986816406</v>
+        <v>309.0566711425781</v>
       </c>
       <c r="GB2" t="n">
-        <v>312.5114440917969</v>
+        <v>309.1173706054688</v>
       </c>
       <c r="GC2" t="n">
-        <v>297.6370239257812</v>
+        <v>309.1608276367188</v>
       </c>
       <c r="GD2" t="n">
-        <v>290.4371337890625</v>
+        <v>309.1807250976562</v>
       </c>
       <c r="GE2" t="n">
-        <v>274.9360046386719</v>
+        <v>309.191650390625</v>
       </c>
       <c r="GF2" t="n">
-        <v>261.3001098632812</v>
+        <v>309.1856994628906</v>
       </c>
       <c r="GG2" t="n">
-        <v>249.0808715820312</v>
+        <v>309.1672668457031</v>
       </c>
       <c r="GH2" t="n">
-        <v>240.3802795410156</v>
+        <v>308.993896484375</v>
       </c>
       <c r="GI2" t="n">
-        <v>237.0282897949219</v>
+        <v>308.5040283203125</v>
       </c>
       <c r="GJ2" t="n">
-        <v>233.4719543457031</v>
+        <v>308.4868469238281</v>
       </c>
       <c r="GK2" t="n">
-        <v>226.2531127929688</v>
+        <v>307.9754028320312</v>
       </c>
       <c r="GL2" t="n">
-        <v>223.18310546875</v>
+        <v>308.4084167480469</v>
       </c>
       <c r="GM2" t="n">
-        <v>216.7493438720703</v>
+        <v>308.0345458984375</v>
       </c>
       <c r="GN2" t="n">
-        <v>209.7911376953125</v>
+        <v>307.7413940429688</v>
       </c>
       <c r="GO2" t="n">
-        <v>209.2876434326172</v>
+        <v>307.1347961425781</v>
+      </c>
+      <c r="GP2" t="n">
+        <v>305.7501525878906</v>
+      </c>
+      <c r="GQ2" t="n">
+        <v>304.2461547851562</v>
+      </c>
+      <c r="GR2" t="n">
+        <v>303.6970520019531</v>
+      </c>
+      <c r="GS2" t="n">
+        <v>303.564208984375</v>
+      </c>
+      <c r="GT2" t="n">
+        <v>303.3836364746094</v>
+      </c>
+      <c r="GU2" t="n">
+        <v>303.1891479492188</v>
+      </c>
+      <c r="GV2" t="n">
+        <v>302.4343566894531</v>
+      </c>
+      <c r="GW2" t="n">
+        <v>301.3990783691406</v>
+      </c>
+      <c r="GX2" t="n">
+        <v>300.6834411621094</v>
+      </c>
+      <c r="GY2" t="n">
+        <v>299.1629638671875</v>
+      </c>
+      <c r="GZ2" t="n">
+        <v>297.4501037597656</v>
+      </c>
+      <c r="HA2" t="n">
+        <v>296.6072692871094</v>
+      </c>
+      <c r="HB2" t="n">
+        <v>295.3855590820312</v>
+      </c>
+      <c r="HC2" t="n">
+        <v>294.7222900390625</v>
+      </c>
+      <c r="HD2" t="n">
+        <v>294.4535827636719</v>
+      </c>
+      <c r="HE2" t="n">
+        <v>291.9808349609375</v>
+      </c>
+      <c r="HF2" t="n">
+        <v>291.8623962402344</v>
+      </c>
+      <c r="HG2" t="n">
+        <v>290.610595703125</v>
+      </c>
+      <c r="HH2" t="n">
+        <v>289.6123046875</v>
+      </c>
+      <c r="HI2" t="n">
+        <v>288.4693298339844</v>
+      </c>
+      <c r="HJ2" t="n">
+        <v>288.1214904785156</v>
+      </c>
+      <c r="HK2" t="n">
+        <v>287.252685546875</v>
+      </c>
+      <c r="HL2" t="n">
+        <v>286.1893310546875</v>
+      </c>
+      <c r="HM2" t="n">
+        <v>285.0355224609375</v>
+      </c>
+      <c r="HN2" t="n">
+        <v>283.9092712402344</v>
+      </c>
+      <c r="HO2" t="n">
+        <v>282.8995056152344</v>
+      </c>
+      <c r="HP2" t="n">
+        <v>280.8644409179688</v>
+      </c>
+      <c r="HQ2" t="n">
+        <v>277.7450561523438</v>
+      </c>
+      <c r="HR2" t="n">
+        <v>273.489013671875</v>
+      </c>
+      <c r="HS2" t="n">
+        <v>267.9742431640625</v>
+      </c>
+      <c r="HT2" t="n">
+        <v>262.5220947265625</v>
+      </c>
+      <c r="HU2" t="n">
+        <v>255.848876953125</v>
+      </c>
+      <c r="HV2" t="n">
+        <v>251.3537750244141</v>
+      </c>
+      <c r="HW2" t="n">
+        <v>241.5105285644531</v>
+      </c>
+      <c r="HX2" t="n">
+        <v>233.1004028320312</v>
+      </c>
+      <c r="HY2" t="n">
+        <v>226.6961669921875</v>
+      </c>
+      <c r="HZ2" t="n">
+        <v>220.6026916503906</v>
+      </c>
+      <c r="IA2" t="n">
+        <v>215.1232604980469</v>
+      </c>
+      <c r="IB2" t="n">
+        <v>208.9253387451172</v>
+      </c>
+      <c r="IC2" t="n">
+        <v>207.4737243652344</v>
+      </c>
+      <c r="ID2" t="n">
+        <v>204.3668212890625</v>
+      </c>
+      <c r="IE2" t="n">
+        <v>202.22607421875</v>
+      </c>
+      <c r="IF2" t="n">
+        <v>199.5704040527344</v>
+      </c>
+      <c r="IG2" t="n">
+        <v>198.0496826171875</v>
+      </c>
+      <c r="IH2" t="n">
+        <v>200.0787658691406</v>
+      </c>
+      <c r="II2" t="n">
+        <v>200.6235046386719</v>
+      </c>
+      <c r="IJ2" t="n">
+        <v>201.5296630859375</v>
+      </c>
+      <c r="IK2" t="n">
+        <v>209.6371154785156</v>
+      </c>
+      <c r="IL2" t="n">
+        <v>216.5225372314453</v>
+      </c>
+      <c r="IM2" t="n">
+        <v>219.6826324462891</v>
+      </c>
+      <c r="IN2" t="n">
+        <v>198.6484069824219</v>
+      </c>
+      <c r="IO2" t="n">
+        <v>146.78564453125</v>
+      </c>
+      <c r="IP2" t="n">
+        <v>150.6468353271484</v>
+      </c>
+      <c r="IQ2" t="n">
+        <v>167.0579223632812</v>
+      </c>
+      <c r="IR2" t="n">
+        <v>147.5727996826172</v>
+      </c>
+      <c r="IS2" t="n">
+        <v>119.1564788818359</v>
+      </c>
+      <c r="IT2" t="n">
+        <v>115.3876647949219</v>
+      </c>
+      <c r="IU2" t="n">
+        <v>128.1805572509766</v>
+      </c>
+      <c r="IV2" t="n">
+        <v>116.6347427368164</v>
+      </c>
+      <c r="IW2" t="n">
+        <v>96.34619140625</v>
+      </c>
+      <c r="IX2" t="n">
+        <v>85.68678283691406</v>
+      </c>
+      <c r="IY2" t="n">
+        <v>73.8909912109375</v>
+      </c>
+      <c r="IZ2" t="n">
+        <v>70.80781555175781</v>
+      </c>
+      <c r="JA2" t="n">
+        <v>83.96621704101562</v>
+      </c>
+      <c r="JB2" t="n">
+        <v>91.76596069335938</v>
+      </c>
+      <c r="JC2" t="n">
+        <v>102.5720367431641</v>
+      </c>
+      <c r="JD2" t="n">
+        <v>113.9647521972656</v>
+      </c>
+      <c r="JE2" t="n">
+        <v>130.1170196533203</v>
+      </c>
+      <c r="JF2" t="n">
+        <v>142.9163208007812</v>
+      </c>
+      <c r="JG2" t="n">
+        <v>152.6124725341797</v>
+      </c>
+      <c r="JH2" t="n">
+        <v>155.701171875</v>
+      </c>
+      <c r="JI2" t="n">
+        <v>154.3623504638672</v>
+      </c>
+      <c r="JJ2" t="n">
+        <v>149.0090637207031</v>
+      </c>
+      <c r="JK2" t="n">
+        <v>141.8497009277344</v>
+      </c>
+      <c r="JL2" t="n">
+        <v>134.3502197265625</v>
+      </c>
+      <c r="JM2" t="n">
+        <v>128.3270721435547</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0</v>
+        <v>147.4113006591797</v>
       </c>
       <c r="B3" t="n">
-        <v>308.7347412109375</v>
+        <v>147.6620941162109</v>
       </c>
       <c r="C3" t="n">
-        <v>305.3487243652344</v>
+        <v>147.7436218261719</v>
       </c>
       <c r="D3" t="n">
-        <v>303.6473388671875</v>
+        <v>147.86474609375</v>
       </c>
       <c r="E3" t="n">
-        <v>303.3144836425781</v>
+        <v>147.9860076904297</v>
       </c>
       <c r="F3" t="n">
-        <v>303.1664733886719</v>
+        <v>148.1083984375</v>
       </c>
       <c r="G3" t="n">
-        <v>303.0368041992188</v>
+        <v>148.2316284179688</v>
       </c>
       <c r="H3" t="n">
-        <v>302.9078674316406</v>
+        <v>148.3473052978516</v>
       </c>
       <c r="I3" t="n">
-        <v>302.7887878417969</v>
+        <v>148.2989349365234</v>
       </c>
       <c r="J3" t="n">
-        <v>302.6987609863281</v>
+        <v>148.2383422851562</v>
       </c>
       <c r="K3" t="n">
-        <v>302.61474609375</v>
+        <v>148.2520599365234</v>
       </c>
       <c r="L3" t="n">
-        <v>302.54833984375</v>
+        <v>148.4577941894531</v>
       </c>
       <c r="M3" t="n">
-        <v>302.4953308105469</v>
+        <v>148.6472778320312</v>
       </c>
       <c r="N3" t="n">
-        <v>302.4494934082031</v>
+        <v>148.8326110839844</v>
       </c>
       <c r="O3" t="n">
-        <v>302.4117126464844</v>
+        <v>149.0540924072266</v>
       </c>
       <c r="P3" t="n">
-        <v>302.3772583007812</v>
+        <v>149.3193206787109</v>
       </c>
       <c r="Q3" t="n">
-        <v>302.3424987792969</v>
+        <v>149.3280639648438</v>
       </c>
       <c r="R3" t="n">
-        <v>302.3106689453125</v>
+        <v>149.3865203857422</v>
       </c>
       <c r="S3" t="n">
-        <v>302.2827453613281</v>
+        <v>149.4741668701172</v>
       </c>
       <c r="T3" t="n">
-        <v>302.258056640625</v>
+        <v>149.5783996582031</v>
       </c>
       <c r="U3" t="n">
-        <v>302.2357177734375</v>
+        <v>149.6294555664062</v>
       </c>
       <c r="V3" t="n">
-        <v>302.2167358398438</v>
+        <v>149.7503051757812</v>
       </c>
       <c r="W3" t="n">
-        <v>302.1989440917969</v>
+        <v>151.1875762939453</v>
       </c>
       <c r="X3" t="n">
-        <v>302.1840515136719</v>
+        <v>153.5077667236328</v>
       </c>
       <c r="Y3" t="n">
-        <v>302.17138671875</v>
+        <v>154.7263641357422</v>
       </c>
       <c r="Z3" t="n">
-        <v>302.1581115722656</v>
+        <v>154.9227905273438</v>
       </c>
       <c r="AA3" t="n">
-        <v>302.1476440429688</v>
+        <v>156.1238403320312</v>
       </c>
       <c r="AB3" t="n">
-        <v>302.1355590820312</v>
+        <v>155.810546875</v>
       </c>
       <c r="AC3" t="n">
-        <v>302.1234436035156</v>
+        <v>155.9959106445312</v>
       </c>
       <c r="AD3" t="n">
-        <v>302.1138000488281</v>
+        <v>156.4112548828125</v>
       </c>
       <c r="AE3" t="n">
-        <v>302.114013671875</v>
+        <v>156.3729095458984</v>
       </c>
       <c r="AF3" t="n">
-        <v>302.1111450195312</v>
+        <v>156.1865234375</v>
       </c>
       <c r="AG3" t="n">
-        <v>302.1061401367188</v>
+        <v>155.8872680664062</v>
       </c>
       <c r="AH3" t="n">
-        <v>302.1019592285156</v>
+        <v>152.8621520996094</v>
       </c>
       <c r="AI3" t="n">
-        <v>302.097412109375</v>
+        <v>149.5977020263672</v>
       </c>
       <c r="AJ3" t="n">
-        <v>302.0939331054688</v>
+        <v>146.9727172851562</v>
       </c>
       <c r="AK3" t="n">
-        <v>302.0929565429688</v>
+        <v>145.5515747070312</v>
       </c>
       <c r="AL3" t="n">
-        <v>302.0839538574219</v>
+        <v>146.823486328125</v>
       </c>
       <c r="AM3" t="n">
-        <v>302.0845947265625</v>
+        <v>147.3979644775391</v>
       </c>
       <c r="AN3" t="n">
-        <v>302.0834655761719</v>
+        <v>151.9036407470703</v>
       </c>
       <c r="AO3" t="n">
-        <v>302.0812683105469</v>
+        <v>157.1908569335938</v>
       </c>
       <c r="AP3" t="n">
-        <v>302.120361328125</v>
+        <v>160.6668395996094</v>
       </c>
       <c r="AQ3" t="n">
-        <v>303.0008239746094</v>
+        <v>161.8154449462891</v>
       </c>
       <c r="AR3" t="n">
-        <v>299.9588012695312</v>
+        <v>162.5857543945312</v>
       </c>
       <c r="AS3" t="n">
-        <v>298.1947937011719</v>
+        <v>163.5936279296875</v>
       </c>
       <c r="AT3" t="n">
-        <v>297.3087768554688</v>
+        <v>168.9967803955078</v>
       </c>
       <c r="AU3" t="n">
-        <v>297.4563598632812</v>
+        <v>175.6600952148438</v>
       </c>
       <c r="AV3" t="n">
-        <v>297.0536804199219</v>
+        <v>184.7614898681641</v>
       </c>
       <c r="AW3" t="n">
-        <v>296.4934997558594</v>
+        <v>192.9799957275391</v>
       </c>
       <c r="AX3" t="n">
-        <v>296.7874450683594</v>
+        <v>197.1248626708984</v>
       </c>
       <c r="AY3" t="n">
-        <v>297.0632934570312</v>
+        <v>200.3902282714844</v>
       </c>
       <c r="AZ3" t="n">
-        <v>296.60791015625</v>
+        <v>203.7134246826172</v>
       </c>
       <c r="BA3" t="n">
-        <v>296.545654296875</v>
+        <v>206.1075134277344</v>
       </c>
       <c r="BB3" t="n">
-        <v>293.9656066894531</v>
+        <v>207.3510589599609</v>
       </c>
       <c r="BC3" t="n">
-        <v>292.3057250976562</v>
+        <v>208.7405395507812</v>
       </c>
       <c r="BD3" t="n">
-        <v>290.7729187011719</v>
+        <v>209.1539764404297</v>
       </c>
       <c r="BE3" t="n">
-        <v>289.5036926269531</v>
+        <v>209.2859344482422</v>
       </c>
       <c r="BF3" t="n">
-        <v>289.6612854003906</v>
+        <v>208.5887756347656</v>
       </c>
       <c r="BG3" t="n">
-        <v>289.4707946777344</v>
+        <v>208.0143432617188</v>
       </c>
       <c r="BH3" t="n">
-        <v>291.2438659667969</v>
+        <v>208.3872375488281</v>
       </c>
       <c r="BI3" t="n">
-        <v>290.5630493164062</v>
+        <v>209.2379302978516</v>
       </c>
       <c r="BJ3" t="n">
-        <v>293.2235717773438</v>
+        <v>210.8974914550781</v>
       </c>
       <c r="BK3" t="n">
-        <v>296.3472595214844</v>
+        <v>212.7350921630859</v>
       </c>
       <c r="BL3" t="n">
-        <v>296.8901062011719</v>
+        <v>213.3336791992188</v>
       </c>
       <c r="BM3" t="n">
-        <v>300.1117858886719</v>
+        <v>214.4037322998047</v>
       </c>
       <c r="BN3" t="n">
-        <v>300.0061340332031</v>
+        <v>215.494873046875</v>
       </c>
       <c r="BO3" t="n">
-        <v>301.1148681640625</v>
+        <v>217.2848510742188</v>
       </c>
       <c r="BP3" t="n">
-        <v>302.8463134765625</v>
+        <v>218.8343658447266</v>
       </c>
       <c r="BQ3" t="n">
-        <v>304.9571838378906</v>
+        <v>221.4298553466797</v>
       </c>
       <c r="BR3" t="n">
-        <v>305.706298828125</v>
+        <v>222.6690216064453</v>
       </c>
       <c r="BS3" t="n">
-        <v>306.3363037109375</v>
+        <v>226.1415863037109</v>
       </c>
       <c r="BT3" t="n">
-        <v>306.4216003417969</v>
+        <v>227.285400390625</v>
       </c>
       <c r="BU3" t="n">
-        <v>308.1959838867188</v>
+        <v>229.5175628662109</v>
       </c>
       <c r="BV3" t="n">
-        <v>309.3107299804688</v>
+        <v>230.6131744384766</v>
       </c>
       <c r="BW3" t="n">
-        <v>309.8090209960938</v>
+        <v>231.5856323242188</v>
       </c>
       <c r="BX3" t="n">
-        <v>311.4296264648438</v>
+        <v>231.8776092529297</v>
       </c>
       <c r="BY3" t="n">
-        <v>312.1716918945312</v>
+        <v>232.8954467773438</v>
       </c>
       <c r="BZ3" t="n">
-        <v>313.0222473144531</v>
+        <v>232.7973327636719</v>
       </c>
       <c r="CA3" t="n">
-        <v>312.0871276855469</v>
+        <v>233.6390228271484</v>
       </c>
       <c r="CB3" t="n">
-        <v>313.884765625</v>
+        <v>233.6195068359375</v>
       </c>
       <c r="CC3" t="n">
-        <v>312.8320922851562</v>
+        <v>233.8280487060547</v>
       </c>
       <c r="CD3" t="n">
-        <v>314.08984375</v>
+        <v>234.1764984130859</v>
       </c>
       <c r="CE3" t="n">
-        <v>314.96923828125</v>
+        <v>233.7681884765625</v>
       </c>
       <c r="CF3" t="n">
-        <v>315.0030212402344</v>
+        <v>233.5941162109375</v>
       </c>
       <c r="CG3" t="n">
-        <v>314.7111206054688</v>
+        <v>233.5297393798828</v>
       </c>
       <c r="CH3" t="n">
-        <v>314.0549621582031</v>
+        <v>233.7827911376953</v>
       </c>
       <c r="CI3" t="n">
-        <v>314.3670043945312</v>
+        <v>233.9078216552734</v>
       </c>
       <c r="CJ3" t="n">
-        <v>313.4542846679688</v>
+        <v>234.0743408203125</v>
       </c>
       <c r="CK3" t="n">
-        <v>310.7740173339844</v>
+        <v>234.3279266357422</v>
       </c>
       <c r="CL3" t="n">
-        <v>308.5473327636719</v>
+        <v>235.205078125</v>
       </c>
       <c r="CM3" t="n">
-        <v>307.8727722167969</v>
+        <v>235.6103820800781</v>
       </c>
       <c r="CN3" t="n">
-        <v>305.4145812988281</v>
+        <v>236.5833740234375</v>
       </c>
       <c r="CO3" t="n">
-        <v>303.988037109375</v>
+        <v>237.1662445068359</v>
       </c>
       <c r="CP3" t="n">
-        <v>303.9721374511719</v>
+        <v>238.5445709228516</v>
       </c>
       <c r="CQ3" t="n">
-        <v>302.8714904785156</v>
+        <v>239.4187469482422</v>
       </c>
       <c r="CR3" t="n">
-        <v>301.5599975585938</v>
+        <v>239.7247314453125</v>
       </c>
       <c r="CS3" t="n">
-        <v>300.9049072265625</v>
+        <v>240.9936676025391</v>
       </c>
       <c r="CT3" t="n">
-        <v>300.5645141601562</v>
+        <v>240.8764953613281</v>
       </c>
       <c r="CU3" t="n">
-        <v>298.2809143066406</v>
+        <v>240.9188690185547</v>
       </c>
       <c r="CV3" t="n">
-        <v>298.6100769042969</v>
+        <v>241.0076599121094</v>
       </c>
       <c r="CW3" t="n">
-        <v>296.88330078125</v>
+        <v>241.2504730224609</v>
       </c>
       <c r="CX3" t="n">
-        <v>297.1596374511719</v>
+        <v>241.4305725097656</v>
       </c>
       <c r="CY3" t="n">
-        <v>297.4104614257812</v>
+        <v>242.8724975585938</v>
       </c>
       <c r="CZ3" t="n">
-        <v>296.2936096191406</v>
+        <v>242.7858276367188</v>
       </c>
       <c r="DA3" t="n">
-        <v>296.9016418457031</v>
+        <v>243.30908203125</v>
       </c>
       <c r="DB3" t="n">
-        <v>295.4850463867188</v>
+        <v>243.2398834228516</v>
       </c>
       <c r="DC3" t="n">
-        <v>296.3933410644531</v>
+        <v>243.4297027587891</v>
       </c>
       <c r="DD3" t="n">
-        <v>296.10791015625</v>
+        <v>243.9127044677734</v>
       </c>
       <c r="DE3" t="n">
-        <v>296.216796875</v>
+        <v>244.15869140625</v>
       </c>
       <c r="DF3" t="n">
-        <v>296.7870788574219</v>
+        <v>244.3163146972656</v>
       </c>
       <c r="DG3" t="n">
-        <v>297.3848876953125</v>
+        <v>244.750732421875</v>
       </c>
       <c r="DH3" t="n">
-        <v>297.8065490722656</v>
+        <v>245.6606140136719</v>
       </c>
       <c r="DI3" t="n">
-        <v>298.4139709472656</v>
+        <v>246.0549774169922</v>
       </c>
       <c r="DJ3" t="n">
-        <v>299.0257568359375</v>
+        <v>246.2174072265625</v>
       </c>
       <c r="DK3" t="n">
-        <v>299.3790893554688</v>
+        <v>246.4107818603516</v>
       </c>
       <c r="DL3" t="n">
-        <v>299.898681640625</v>
+        <v>246.2662658691406</v>
       </c>
       <c r="DM3" t="n">
-        <v>299.5476989746094</v>
+        <v>245.9268646240234</v>
       </c>
       <c r="DN3" t="n">
-        <v>300.9205322265625</v>
+        <v>245.9518737792969</v>
       </c>
       <c r="DO3" t="n">
-        <v>301.232666015625</v>
+        <v>246.3719787597656</v>
       </c>
       <c r="DP3" t="n">
-        <v>298.3611755371094</v>
+        <v>246.4366455078125</v>
       </c>
       <c r="DQ3" t="n">
-        <v>286.8189392089844</v>
+        <v>246.4950866699219</v>
       </c>
       <c r="DR3" t="n">
-        <v>279.9117736816406</v>
+        <v>246.5210418701172</v>
       </c>
       <c r="DS3" t="n">
-        <v>274.3554077148438</v>
+        <v>246.5978088378906</v>
       </c>
       <c r="DT3" t="n">
-        <v>255.9562377929688</v>
+        <v>246.6643218994141</v>
       </c>
       <c r="DU3" t="n">
-        <v>252.0270233154297</v>
+        <v>246.6958770751953</v>
       </c>
       <c r="DV3" t="n">
-        <v>244.0424499511719</v>
+        <v>246.7234954833984</v>
       </c>
       <c r="DW3" t="n">
-        <v>231.1153106689453</v>
+        <v>246.7666320800781</v>
       </c>
       <c r="DX3" t="n">
-        <v>224.6999053955078</v>
+        <v>246.8061981201172</v>
       </c>
       <c r="DY3" t="n">
-        <v>218.0170135498047</v>
+        <v>246.8264923095703</v>
       </c>
       <c r="DZ3" t="n">
-        <v>217.7528839111328</v>
+        <v>246.8591918945312</v>
       </c>
       <c r="EA3" t="n">
-        <v>219.6693115234375</v>
+        <v>247.1256103515625</v>
       </c>
       <c r="EB3" t="n">
-        <v>233.5741577148438</v>
+        <v>247.5037841796875</v>
       </c>
       <c r="EC3" t="n">
-        <v>243.1543121337891</v>
+        <v>248.0580749511719</v>
       </c>
       <c r="ED3" t="n">
-        <v>266.2431030273438</v>
+        <v>247.9630889892578</v>
       </c>
       <c r="EE3" t="n">
-        <v>288.6080627441406</v>
+        <v>246.9462280273438</v>
       </c>
       <c r="EF3" t="n">
-        <v>294.7366638183594</v>
+        <v>246.4126434326172</v>
       </c>
       <c r="EG3" t="n">
-        <v>311.7865905761719</v>
+        <v>245.9542541503906</v>
       </c>
       <c r="EH3" t="n">
-        <v>323.9014282226562</v>
+        <v>245.8230743408203</v>
       </c>
       <c r="EI3" t="n">
-        <v>322.9037170410156</v>
+        <v>246.2735137939453</v>
       </c>
       <c r="EJ3" t="n">
-        <v>325.1316528320312</v>
+        <v>246.6141662597656</v>
       </c>
       <c r="EK3" t="n">
-        <v>329.5819396972656</v>
+        <v>246.538330078125</v>
       </c>
       <c r="EL3" t="n">
-        <v>328.4899291992188</v>
+        <v>246.4794464111328</v>
       </c>
       <c r="EM3" t="n">
-        <v>324.9923095703125</v>
+        <v>246.2203216552734</v>
       </c>
       <c r="EN3" t="n">
-        <v>324.4920654296875</v>
+        <v>246.1684875488281</v>
       </c>
       <c r="EO3" t="n">
-        <v>323.6980895996094</v>
+        <v>246.1579284667969</v>
       </c>
       <c r="EP3" t="n">
-        <v>323.9891967773438</v>
+        <v>244.9378356933594</v>
       </c>
       <c r="EQ3" t="n">
-        <v>325.9388732910156</v>
+        <v>244.7527923583984</v>
       </c>
       <c r="ER3" t="n">
-        <v>326.7236633300781</v>
+        <v>244.4554443359375</v>
       </c>
       <c r="ES3" t="n">
-        <v>327.3063354492188</v>
+        <v>244.4596557617188</v>
       </c>
       <c r="ET3" t="n">
-        <v>329.7982788085938</v>
+        <v>244.2652740478516</v>
       </c>
       <c r="EU3" t="n">
-        <v>332.6650695800781</v>
+        <v>244.2575988769531</v>
       </c>
       <c r="EV3" t="n">
-        <v>335.394287109375</v>
+        <v>244.2339782714844</v>
       </c>
       <c r="EW3" t="n">
-        <v>338.9842224121094</v>
+        <v>244.2038726806641</v>
       </c>
       <c r="EX3" t="n">
-        <v>343.0094909667969</v>
+        <v>244.1877593994141</v>
       </c>
       <c r="EY3" t="n">
-        <v>346.4621276855469</v>
+        <v>244.2070159912109</v>
       </c>
       <c r="EZ3" t="n">
-        <v>348.7341613769531</v>
+        <v>244.2099609375</v>
       </c>
       <c r="FA3" t="n">
-        <v>347.8561706542969</v>
+        <v>244.2614135742188</v>
       </c>
       <c r="FB3" t="n">
-        <v>346.7175598144531</v>
+        <v>244.2859191894531</v>
       </c>
       <c r="FC3" t="n">
-        <v>342.6274108886719</v>
+        <v>244.3062744140625</v>
       </c>
       <c r="FD3" t="n">
-        <v>341.5365905761719</v>
+        <v>244.3471832275391</v>
       </c>
       <c r="FE3" t="n">
-        <v>339.0836486816406</v>
+        <v>244.3504180908203</v>
       </c>
       <c r="FF3" t="n">
-        <v>336.465576171875</v>
+        <v>244.3373413085938</v>
       </c>
       <c r="FG3" t="n">
-        <v>335.6887512207031</v>
+        <v>244.3942108154297</v>
       </c>
       <c r="FH3" t="n">
-        <v>329.254150390625</v>
+        <v>243.2894287109375</v>
       </c>
       <c r="FI3" t="n">
-        <v>328.5282592773438</v>
+        <v>243.1887817382812</v>
       </c>
       <c r="FJ3" t="n">
-        <v>326.9332580566406</v>
+        <v>243.0538330078125</v>
       </c>
       <c r="FK3" t="n">
-        <v>322.6022644042969</v>
+        <v>242.9451904296875</v>
       </c>
       <c r="FL3" t="n">
-        <v>321.398193359375</v>
+        <v>242.9027404785156</v>
       </c>
       <c r="FM3" t="n">
-        <v>320.9249267578125</v>
+        <v>242.8320465087891</v>
       </c>
       <c r="FN3" t="n">
-        <v>316.6316223144531</v>
+        <v>242.8025512695312</v>
       </c>
       <c r="FO3" t="n">
-        <v>317.3031616210938</v>
+        <v>242.7900390625</v>
       </c>
       <c r="FP3" t="n">
-        <v>318.3632507324219</v>
+        <v>242.7830047607422</v>
       </c>
       <c r="FQ3" t="n">
-        <v>316.9224548339844</v>
+        <v>242.7942810058594</v>
       </c>
       <c r="FR3" t="n">
-        <v>314.845947265625</v>
+        <v>242.8077850341797</v>
       </c>
       <c r="FS3" t="n">
-        <v>309.733642578125</v>
+        <v>243.4449920654297</v>
       </c>
       <c r="FT3" t="n">
-        <v>305.3201293945312</v>
+        <v>244.4407653808594</v>
       </c>
       <c r="FU3" t="n">
-        <v>299.3432922363281</v>
+        <v>244.7582244873047</v>
       </c>
       <c r="FV3" t="n">
-        <v>296.5288696289062</v>
+        <v>244.9329986572266</v>
       </c>
       <c r="FW3" t="n">
-        <v>290.0298156738281</v>
+        <v>245.0185241699219</v>
       </c>
       <c r="FX3" t="n">
-        <v>289.1861267089844</v>
+        <v>245.0562591552734</v>
       </c>
       <c r="FY3" t="n">
-        <v>287.6033020019531</v>
+        <v>245.2270355224609</v>
       </c>
       <c r="FZ3" t="n">
-        <v>286.8148803710938</v>
+        <v>245.3292236328125</v>
       </c>
       <c r="GA3" t="n">
-        <v>286.88525390625</v>
+        <v>245.5041198730469</v>
       </c>
       <c r="GB3" t="n">
-        <v>286.0116577148438</v>
+        <v>245.6340942382812</v>
       </c>
       <c r="GC3" t="n">
-        <v>285.5778503417969</v>
+        <v>245.8557434082031</v>
       </c>
       <c r="GD3" t="n">
-        <v>285.9458923339844</v>
+        <v>246.0874633789062</v>
       </c>
       <c r="GE3" t="n">
-        <v>285.0249938964844</v>
+        <v>246.1669616699219</v>
       </c>
       <c r="GF3" t="n">
-        <v>285.5492248535156</v>
+        <v>246.1941375732422</v>
       </c>
       <c r="GG3" t="n">
-        <v>288.1356506347656</v>
+        <v>246.1284027099609</v>
       </c>
       <c r="GH3" t="n">
-        <v>289.4886169433594</v>
+        <v>245.6611328125</v>
       </c>
       <c r="GI3" t="n">
-        <v>290.1565856933594</v>
+        <v>244.4351043701172</v>
       </c>
       <c r="GJ3" t="n">
-        <v>289.5721740722656</v>
+        <v>244.2456970214844</v>
       </c>
       <c r="GK3" t="n">
-        <v>286.1664733886719</v>
+        <v>242.9844818115234</v>
       </c>
       <c r="GL3" t="n">
-        <v>285.0295715332031</v>
+        <v>243.5153961181641</v>
       </c>
       <c r="GM3" t="n">
-        <v>282.0934143066406</v>
+        <v>243.0469970703125</v>
       </c>
       <c r="GN3" t="n">
-        <v>275.4791564941406</v>
+        <v>242.9453430175781</v>
       </c>
       <c r="GO3" t="n">
-        <v>274.4942321777344</v>
+        <v>243.1370849609375</v>
+      </c>
+      <c r="GP3" t="n">
+        <v>243.6826171875</v>
+      </c>
+      <c r="GQ3" t="n">
+        <v>244.1740875244141</v>
+      </c>
+      <c r="GR3" t="n">
+        <v>244.4543609619141</v>
+      </c>
+      <c r="GS3" t="n">
+        <v>244.4529266357422</v>
+      </c>
+      <c r="GT3" t="n">
+        <v>244.4694061279297</v>
+      </c>
+      <c r="GU3" t="n">
+        <v>244.4845886230469</v>
+      </c>
+      <c r="GV3" t="n">
+        <v>244.0123291015625</v>
+      </c>
+      <c r="GW3" t="n">
+        <v>242.9765777587891</v>
+      </c>
+      <c r="GX3" t="n">
+        <v>242.9272003173828</v>
+      </c>
+      <c r="GY3" t="n">
+        <v>243.6432037353516</v>
+      </c>
+      <c r="GZ3" t="n">
+        <v>243.7388153076172</v>
+      </c>
+      <c r="HA3" t="n">
+        <v>243.0289916992188</v>
+      </c>
+      <c r="HB3" t="n">
+        <v>243.1399688720703</v>
+      </c>
+      <c r="HC3" t="n">
+        <v>242.3919067382812</v>
+      </c>
+      <c r="HD3" t="n">
+        <v>242.2882232666016</v>
+      </c>
+      <c r="HE3" t="n">
+        <v>241.9307556152344</v>
+      </c>
+      <c r="HF3" t="n">
+        <v>241.7581481933594</v>
+      </c>
+      <c r="HG3" t="n">
+        <v>241.8326873779297</v>
+      </c>
+      <c r="HH3" t="n">
+        <v>240.2029876708984</v>
+      </c>
+      <c r="HI3" t="n">
+        <v>234.8364410400391</v>
+      </c>
+      <c r="HJ3" t="n">
+        <v>232.7490844726562</v>
+      </c>
+      <c r="HK3" t="n">
+        <v>230.2538299560547</v>
+      </c>
+      <c r="HL3" t="n">
+        <v>229.306884765625</v>
+      </c>
+      <c r="HM3" t="n">
+        <v>228.4507751464844</v>
+      </c>
+      <c r="HN3" t="n">
+        <v>227.0814208984375</v>
+      </c>
+      <c r="HO3" t="n">
+        <v>222.4904632568359</v>
+      </c>
+      <c r="HP3" t="n">
+        <v>219.9788360595703</v>
+      </c>
+      <c r="HQ3" t="n">
+        <v>219.2104187011719</v>
+      </c>
+      <c r="HR3" t="n">
+        <v>218.6123352050781</v>
+      </c>
+      <c r="HS3" t="n">
+        <v>218.2371368408203</v>
+      </c>
+      <c r="HT3" t="n">
+        <v>218.4520874023438</v>
+      </c>
+      <c r="HU3" t="n">
+        <v>216.8443603515625</v>
+      </c>
+      <c r="HV3" t="n">
+        <v>216.3133697509766</v>
+      </c>
+      <c r="HW3" t="n">
+        <v>209.3194274902344</v>
+      </c>
+      <c r="HX3" t="n">
+        <v>203.9832763671875</v>
+      </c>
+      <c r="HY3" t="n">
+        <v>201.3072967529297</v>
+      </c>
+      <c r="HZ3" t="n">
+        <v>199.8358306884766</v>
+      </c>
+      <c r="IA3" t="n">
+        <v>195.9420166015625</v>
+      </c>
+      <c r="IB3" t="n">
+        <v>189.5003967285156</v>
+      </c>
+      <c r="IC3" t="n">
+        <v>188.25830078125</v>
+      </c>
+      <c r="ID3" t="n">
+        <v>186.0301666259766</v>
+      </c>
+      <c r="IE3" t="n">
+        <v>183.53076171875</v>
+      </c>
+      <c r="IF3" t="n">
+        <v>180.3990173339844</v>
+      </c>
+      <c r="IG3" t="n">
+        <v>177.2291870117188</v>
+      </c>
+      <c r="IH3" t="n">
+        <v>172.5625305175781</v>
+      </c>
+      <c r="II3" t="n">
+        <v>168.8822174072266</v>
+      </c>
+      <c r="IJ3" t="n">
+        <v>165.1943511962891</v>
+      </c>
+      <c r="IK3" t="n">
+        <v>164.8713989257812</v>
+      </c>
+      <c r="IL3" t="n">
+        <v>167.30810546875</v>
+      </c>
+      <c r="IM3" t="n">
+        <v>163.6993408203125</v>
+      </c>
+      <c r="IN3" t="n">
+        <v>191.3810119628906</v>
+      </c>
+      <c r="IO3" t="n">
+        <v>256.9449768066406</v>
+      </c>
+      <c r="IP3" t="n">
+        <v>294.1513061523438</v>
+      </c>
+      <c r="IQ3" t="n">
+        <v>291.2828979492188</v>
+      </c>
+      <c r="IR3" t="n">
+        <v>264.4606628417969</v>
+      </c>
+      <c r="IS3" t="n">
+        <v>244.3491821289062</v>
+      </c>
+      <c r="IT3" t="n">
+        <v>231.1254119873047</v>
+      </c>
+      <c r="IU3" t="n">
+        <v>223.0869903564453</v>
+      </c>
+      <c r="IV3" t="n">
+        <v>189.1759185791016</v>
+      </c>
+      <c r="IW3" t="n">
+        <v>142.6765899658203</v>
+      </c>
+      <c r="IX3" t="n">
+        <v>159.8278045654297</v>
+      </c>
+      <c r="IY3" t="n">
+        <v>189.0911560058594</v>
+      </c>
+      <c r="IZ3" t="n">
+        <v>226.6051940917969</v>
+      </c>
+      <c r="JA3" t="n">
+        <v>255.5748596191406</v>
+      </c>
+      <c r="JB3" t="n">
+        <v>279.2926025390625</v>
+      </c>
+      <c r="JC3" t="n">
+        <v>284.9049072265625</v>
+      </c>
+      <c r="JD3" t="n">
+        <v>287.2178039550781</v>
+      </c>
+      <c r="JE3" t="n">
+        <v>285.2352905273438</v>
+      </c>
+      <c r="JF3" t="n">
+        <v>289.8016662597656</v>
+      </c>
+      <c r="JG3" t="n">
+        <v>295.0075988769531</v>
+      </c>
+      <c r="JH3" t="n">
+        <v>298.3392028808594</v>
+      </c>
+      <c r="JI3" t="n">
+        <v>298.1472778320312</v>
+      </c>
+      <c r="JJ3" t="n">
+        <v>300.3104553222656</v>
+      </c>
+      <c r="JK3" t="n">
+        <v>299.4000854492188</v>
+      </c>
+      <c r="JL3" t="n">
+        <v>299.4345397949219</v>
+      </c>
+      <c r="JM3" t="n">
+        <v>296.607421875</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0</v>
+        <v>955.1826171875</v>
       </c>
       <c r="B4" t="n">
-        <v>1007.692443847656</v>
+        <v>954.93603515625</v>
       </c>
       <c r="C4" t="n">
-        <v>1031.690307617188</v>
+        <v>954.7288208007812</v>
       </c>
       <c r="D4" t="n">
-        <v>1036.139526367188</v>
+        <v>954.48193359375</v>
       </c>
       <c r="E4" t="n">
-        <v>1038.409912109375</v>
+        <v>954.2600708007812</v>
       </c>
       <c r="F4" t="n">
-        <v>1038.378173828125</v>
+        <v>954.3414306640625</v>
       </c>
       <c r="G4" t="n">
-        <v>1038.3837890625</v>
+        <v>954.33349609375</v>
       </c>
       <c r="H4" t="n">
-        <v>1038.450439453125</v>
+        <v>954.3331909179688</v>
       </c>
       <c r="I4" t="n">
-        <v>1038.499633789062</v>
+        <v>954.3408813476562</v>
       </c>
       <c r="J4" t="n">
-        <v>1038.536499023438</v>
+        <v>954.348388671875</v>
       </c>
       <c r="K4" t="n">
-        <v>1038.568359375</v>
+        <v>954.3545532226562</v>
       </c>
       <c r="L4" t="n">
-        <v>1038.600463867188</v>
+        <v>954.2725830078125</v>
       </c>
       <c r="M4" t="n">
-        <v>1038.626220703125</v>
+        <v>954.1865844726562</v>
       </c>
       <c r="N4" t="n">
-        <v>1038.648315429688</v>
+        <v>954.24560546875</v>
       </c>
       <c r="O4" t="n">
-        <v>1038.66796875</v>
+        <v>954.3063354492188</v>
       </c>
       <c r="P4" t="n">
-        <v>1038.685791015625</v>
+        <v>954.368408203125</v>
       </c>
       <c r="Q4" t="n">
-        <v>1038.701171875</v>
+        <v>954.4038696289062</v>
       </c>
       <c r="R4" t="n">
-        <v>1038.714965820312</v>
+        <v>954.457763671875</v>
       </c>
       <c r="S4" t="n">
-        <v>1038.7275390625</v>
+        <v>954.5090942382812</v>
       </c>
       <c r="T4" t="n">
-        <v>1038.738647460938</v>
+        <v>954.5003662109375</v>
       </c>
       <c r="U4" t="n">
-        <v>1038.748657226562</v>
+        <v>954.4539794921875</v>
       </c>
       <c r="V4" t="n">
-        <v>1038.757934570312</v>
+        <v>954.4494018554688</v>
       </c>
       <c r="W4" t="n">
-        <v>1038.766723632812</v>
+        <v>955.5327758789062</v>
       </c>
       <c r="X4" t="n">
-        <v>1038.774291992188</v>
+        <v>962.8427124023438</v>
       </c>
       <c r="Y4" t="n">
-        <v>1038.78076171875</v>
+        <v>977.3599853515625</v>
       </c>
       <c r="Z4" t="n">
-        <v>1038.787963867188</v>
+        <v>990.792236328125</v>
       </c>
       <c r="AA4" t="n">
-        <v>1038.795043945312</v>
+        <v>998.1162109375</v>
       </c>
       <c r="AB4" t="n">
-        <v>1038.80322265625</v>
+        <v>1004.584350585938</v>
       </c>
       <c r="AC4" t="n">
-        <v>1038.815795898438</v>
+        <v>1006.034729003906</v>
       </c>
       <c r="AD4" t="n">
-        <v>1038.829711914062</v>
+        <v>1008.334045410156</v>
       </c>
       <c r="AE4" t="n">
-        <v>1038.839477539062</v>
+        <v>1008.40966796875</v>
       </c>
       <c r="AF4" t="n">
-        <v>1038.855224609375</v>
+        <v>1009.189819335938</v>
       </c>
       <c r="AG4" t="n">
-        <v>1038.8701171875</v>
+        <v>1010.301513671875</v>
       </c>
       <c r="AH4" t="n">
-        <v>1038.883178710938</v>
+        <v>1015.679077148438</v>
       </c>
       <c r="AI4" t="n">
-        <v>1038.897827148438</v>
+        <v>1025.200927734375</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1038.912475585938</v>
+        <v>1030.679077148438</v>
       </c>
       <c r="AK4" t="n">
-        <v>1038.92822265625</v>
+        <v>1036.577880859375</v>
       </c>
       <c r="AL4" t="n">
-        <v>1038.962768554688</v>
+        <v>1046.10302734375</v>
       </c>
       <c r="AM4" t="n">
-        <v>1038.990600585938</v>
+        <v>1054.916015625</v>
       </c>
       <c r="AN4" t="n">
-        <v>1039.005615234375</v>
+        <v>1065.284790039062</v>
       </c>
       <c r="AO4" t="n">
-        <v>1039.021362304688</v>
+        <v>1072.0712890625</v>
       </c>
       <c r="AP4" t="n">
-        <v>1039.038452148438</v>
+        <v>1083.877319335938</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1038.55078125</v>
+        <v>1097.385498046875</v>
       </c>
       <c r="AR4" t="n">
-        <v>1040.219482421875</v>
+        <v>1113.137084960938</v>
       </c>
       <c r="AS4" t="n">
-        <v>1046.499145507812</v>
+        <v>1132.99560546875</v>
       </c>
       <c r="AT4" t="n">
-        <v>1062.729614257812</v>
+        <v>1149.498291015625</v>
       </c>
       <c r="AU4" t="n">
-        <v>1068.39501953125</v>
+        <v>1167.686279296875</v>
       </c>
       <c r="AV4" t="n">
-        <v>1069.317749023438</v>
+        <v>1191.786743164062</v>
       </c>
       <c r="AW4" t="n">
-        <v>1090.286010742188</v>
+        <v>1223.828491210938</v>
       </c>
       <c r="AX4" t="n">
-        <v>1086.818481445312</v>
+        <v>1253.497314453125</v>
       </c>
       <c r="AY4" t="n">
-        <v>1086.350708007812</v>
+        <v>1283.0078125</v>
       </c>
       <c r="AZ4" t="n">
-        <v>1086.451049804688</v>
+        <v>1308.436401367188</v>
       </c>
       <c r="BA4" t="n">
-        <v>1085.9560546875</v>
+        <v>1329.626586914062</v>
       </c>
       <c r="BB4" t="n">
-        <v>1087.899047851562</v>
+        <v>1357.773681640625</v>
       </c>
       <c r="BC4" t="n">
-        <v>1089.1416015625</v>
+        <v>1379.804077148438</v>
       </c>
       <c r="BD4" t="n">
-        <v>1089.456909179688</v>
+        <v>1402.817504882812</v>
       </c>
       <c r="BE4" t="n">
-        <v>1092.146240234375</v>
+        <v>1418.979736328125</v>
       </c>
       <c r="BF4" t="n">
-        <v>1092.1162109375</v>
+        <v>1446.4912109375</v>
       </c>
       <c r="BG4" t="n">
-        <v>1092.50634765625</v>
+        <v>1461.844360351562</v>
       </c>
       <c r="BH4" t="n">
-        <v>1097.361938476562</v>
+        <v>1482.711791992188</v>
       </c>
       <c r="BI4" t="n">
-        <v>1103.457763671875</v>
+        <v>1513.546020507812</v>
       </c>
       <c r="BJ4" t="n">
-        <v>1107.449096679688</v>
+        <v>1529.8828125</v>
       </c>
       <c r="BK4" t="n">
-        <v>1109.059692382812</v>
+        <v>1556.638793945312</v>
       </c>
       <c r="BL4" t="n">
-        <v>1115.108276367188</v>
+        <v>1567.58203125</v>
       </c>
       <c r="BM4" t="n">
-        <v>1125.947509765625</v>
+        <v>1591.234252929688</v>
       </c>
       <c r="BN4" t="n">
-        <v>1141.051147460938</v>
+        <v>1606.484497070312</v>
       </c>
       <c r="BO4" t="n">
-        <v>1150.100463867188</v>
+        <v>1626.130004882812</v>
       </c>
       <c r="BP4" t="n">
-        <v>1154.44921875</v>
+        <v>1646.147338867188</v>
       </c>
       <c r="BQ4" t="n">
-        <v>1158.832763671875</v>
+        <v>1672.954223632812</v>
       </c>
       <c r="BR4" t="n">
-        <v>1162.920532226562</v>
+        <v>1689.062255859375</v>
       </c>
       <c r="BS4" t="n">
-        <v>1160.74560546875</v>
+        <v>1712.167236328125</v>
       </c>
       <c r="BT4" t="n">
-        <v>1160.383056640625</v>
+        <v>1716.604614257812</v>
       </c>
       <c r="BU4" t="n">
-        <v>1162.06494140625</v>
+        <v>1743.447265625</v>
       </c>
       <c r="BV4" t="n">
-        <v>1163.137084960938</v>
+        <v>1760.3583984375</v>
       </c>
       <c r="BW4" t="n">
-        <v>1169.612548828125</v>
+        <v>1787.742919921875</v>
       </c>
       <c r="BX4" t="n">
-        <v>1174.933715820312</v>
+        <v>1806.278442382812</v>
       </c>
       <c r="BY4" t="n">
-        <v>1175.987548828125</v>
+        <v>1831.259399414062</v>
       </c>
       <c r="BZ4" t="n">
-        <v>1185.298828125</v>
+        <v>1834.716430664062</v>
       </c>
       <c r="CA4" t="n">
-        <v>1182.338134765625</v>
+        <v>1861.685668945312</v>
       </c>
       <c r="CB4" t="n">
-        <v>1185.983276367188</v>
+        <v>1862.328002929688</v>
       </c>
       <c r="CC4" t="n">
-        <v>1184.423217773438</v>
+        <v>1876.734008789062</v>
       </c>
       <c r="CD4" t="n">
-        <v>1187.555786132812</v>
+        <v>1884.48974609375</v>
       </c>
       <c r="CE4" t="n">
-        <v>1189.199096679688</v>
+        <v>1913.641357421875</v>
       </c>
       <c r="CF4" t="n">
-        <v>1189.277465820312</v>
+        <v>1929.419677734375</v>
       </c>
       <c r="CG4" t="n">
-        <v>1188.731689453125</v>
+        <v>1958.439453125</v>
       </c>
       <c r="CH4" t="n">
-        <v>1187.497680664062</v>
+        <v>1966.214111328125</v>
       </c>
       <c r="CI4" t="n">
-        <v>1189.205810546875</v>
+        <v>1968.508422851562</v>
       </c>
       <c r="CJ4" t="n">
-        <v>1192.619873046875</v>
+        <v>1977.1982421875</v>
       </c>
       <c r="CK4" t="n">
-        <v>1192.404174804688</v>
+        <v>2001.63916015625</v>
       </c>
       <c r="CL4" t="n">
-        <v>1191.630493164062</v>
+        <v>2004.391845703125</v>
       </c>
       <c r="CM4" t="n">
-        <v>1192.447021484375</v>
+        <v>2006.850708007812</v>
       </c>
       <c r="CN4" t="n">
-        <v>1190.486694335938</v>
+        <v>2017.814331054688</v>
       </c>
       <c r="CO4" t="n">
-        <v>1187.295166015625</v>
+        <v>2021.663696289062</v>
       </c>
       <c r="CP4" t="n">
-        <v>1178.977172851562</v>
+        <v>2039.064697265625</v>
       </c>
       <c r="CQ4" t="n">
-        <v>1174.873291015625</v>
+        <v>2042.209106445312</v>
       </c>
       <c r="CR4" t="n">
-        <v>1169.150756835938</v>
+        <v>2052.668212890625</v>
       </c>
       <c r="CS4" t="n">
-        <v>1168.891967773438</v>
+        <v>2059.6416015625</v>
       </c>
       <c r="CT4" t="n">
-        <v>1168.6845703125</v>
+        <v>2085.8017578125</v>
       </c>
       <c r="CU4" t="n">
-        <v>1167.974975585938</v>
+        <v>2089.06591796875</v>
       </c>
       <c r="CV4" t="n">
-        <v>1166.982543945312</v>
+        <v>2116.9072265625</v>
       </c>
       <c r="CW4" t="n">
-        <v>1165.470336914062</v>
+        <v>2117.021484375</v>
       </c>
       <c r="CX4" t="n">
-        <v>1163.808837890625</v>
+        <v>2141.14013671875</v>
       </c>
       <c r="CY4" t="n">
-        <v>1161.1552734375</v>
+        <v>2166.6650390625</v>
       </c>
       <c r="CZ4" t="n">
-        <v>1159.62451171875</v>
+        <v>2157.655517578125</v>
       </c>
       <c r="DA4" t="n">
-        <v>1157.644897460938</v>
+        <v>2179.495361328125</v>
       </c>
       <c r="DB4" t="n">
-        <v>1153.168701171875</v>
+        <v>2185.776123046875</v>
       </c>
       <c r="DC4" t="n">
-        <v>1147.806762695312</v>
+        <v>2185.74853515625</v>
       </c>
       <c r="DD4" t="n">
-        <v>1144.471069335938</v>
+        <v>2185.962890625</v>
       </c>
       <c r="DE4" t="n">
-        <v>1141.598999023438</v>
+        <v>2186.599609375</v>
       </c>
       <c r="DF4" t="n">
-        <v>1136.239624023438</v>
+        <v>2187.47900390625</v>
       </c>
       <c r="DG4" t="n">
-        <v>1128.574951171875</v>
+        <v>2201.406494140625</v>
       </c>
       <c r="DH4" t="n">
-        <v>1114.361206054688</v>
+        <v>2203.544677734375</v>
       </c>
       <c r="DI4" t="n">
-        <v>1104.155639648438</v>
+        <v>2203.502197265625</v>
       </c>
       <c r="DJ4" t="n">
-        <v>1094.750610351562</v>
+        <v>2203.545166015625</v>
       </c>
       <c r="DK4" t="n">
-        <v>1091.348022460938</v>
+        <v>2210.63623046875</v>
       </c>
       <c r="DL4" t="n">
-        <v>1083.494750976562</v>
+        <v>2209.048828125</v>
       </c>
       <c r="DM4" t="n">
-        <v>1076.012573242188</v>
+        <v>2207.376708984375</v>
       </c>
       <c r="DN4" t="n">
-        <v>1069.861694335938</v>
+        <v>2207.4462890625</v>
       </c>
       <c r="DO4" t="n">
-        <v>1057.065185546875</v>
+        <v>2207.688232421875</v>
       </c>
       <c r="DP4" t="n">
-        <v>1052.112915039062</v>
+        <v>2207.716552734375</v>
       </c>
       <c r="DQ4" t="n">
-        <v>1046.2412109375</v>
+        <v>2207.760986328125</v>
       </c>
       <c r="DR4" t="n">
-        <v>1043.872436523438</v>
+        <v>2207.781982421875</v>
       </c>
       <c r="DS4" t="n">
-        <v>1042.190185546875</v>
+        <v>2207.81640625</v>
       </c>
       <c r="DT4" t="n">
-        <v>1042.907958984375</v>
+        <v>2207.862060546875</v>
       </c>
       <c r="DU4" t="n">
-        <v>1042.623168945312</v>
+        <v>2207.87646484375</v>
       </c>
       <c r="DV4" t="n">
-        <v>1042.704467773438</v>
+        <v>2207.890869140625</v>
       </c>
       <c r="DW4" t="n">
-        <v>1044.587036132812</v>
+        <v>2207.904541015625</v>
       </c>
       <c r="DX4" t="n">
-        <v>1050.440795898438</v>
+        <v>2207.90234375</v>
       </c>
       <c r="DY4" t="n">
-        <v>1065.445068359375</v>
+        <v>2207.857421875</v>
       </c>
       <c r="DZ4" t="n">
-        <v>1069.846801757812</v>
+        <v>2207.790771484375</v>
       </c>
       <c r="EA4" t="n">
-        <v>1087.065551757812</v>
+        <v>2207.041015625</v>
       </c>
       <c r="EB4" t="n">
-        <v>1091.892700195312</v>
+        <v>2206.342529296875</v>
       </c>
       <c r="EC4" t="n">
-        <v>1099.295654296875</v>
+        <v>2204.216552734375</v>
       </c>
       <c r="ED4" t="n">
-        <v>1125.1767578125</v>
+        <v>2203.240234375</v>
       </c>
       <c r="EE4" t="n">
-        <v>1146.42236328125</v>
+        <v>2201.83154296875</v>
       </c>
       <c r="EF4" t="n">
-        <v>1160.169799804688</v>
+        <v>2199.783935546875</v>
       </c>
       <c r="EG4" t="n">
-        <v>1187.117065429688</v>
+        <v>2195.84326171875</v>
       </c>
       <c r="EH4" t="n">
-        <v>1195.395385742188</v>
+        <v>2194.6103515625</v>
       </c>
       <c r="EI4" t="n">
-        <v>1217.6513671875</v>
+        <v>2191.169189453125</v>
       </c>
       <c r="EJ4" t="n">
-        <v>1232.166870117188</v>
+        <v>2187.775146484375</v>
       </c>
       <c r="EK4" t="n">
-        <v>1252.69677734375</v>
+        <v>2188.095947265625</v>
       </c>
       <c r="EL4" t="n">
-        <v>1262.358154296875</v>
+        <v>2189.9658203125</v>
       </c>
       <c r="EM4" t="n">
-        <v>1279.8798828125</v>
+        <v>2191.270751953125</v>
       </c>
       <c r="EN4" t="n">
-        <v>1287.421508789062</v>
+        <v>2189.79736328125</v>
       </c>
       <c r="EO4" t="n">
-        <v>1304.570922851562</v>
+        <v>2189.782958984375</v>
       </c>
       <c r="EP4" t="n">
-        <v>1309.665405273438</v>
+        <v>2189.47509765625</v>
       </c>
       <c r="EQ4" t="n">
-        <v>1310.9892578125</v>
+        <v>2186.632568359375</v>
       </c>
       <c r="ER4" t="n">
-        <v>1314.739624023438</v>
+        <v>2178.383056640625</v>
       </c>
       <c r="ES4" t="n">
-        <v>1321.960327148438</v>
+        <v>2174.134765625</v>
       </c>
       <c r="ET4" t="n">
-        <v>1324.273681640625</v>
+        <v>2178.66796875</v>
       </c>
       <c r="EU4" t="n">
-        <v>1323.519165039062</v>
+        <v>2177.781494140625</v>
       </c>
       <c r="EV4" t="n">
-        <v>1328.835571289062</v>
+        <v>2178.5029296875</v>
       </c>
       <c r="EW4" t="n">
-        <v>1315.201416015625</v>
+        <v>2178.514892578125</v>
       </c>
       <c r="EX4" t="n">
-        <v>1301.859497070312</v>
+        <v>2179.7197265625</v>
       </c>
       <c r="EY4" t="n">
-        <v>1292.833618164062</v>
+        <v>2179.67041015625</v>
       </c>
       <c r="EZ4" t="n">
-        <v>1272.294067382812</v>
+        <v>2179.684814453125</v>
       </c>
       <c r="FA4" t="n">
-        <v>1257.712158203125</v>
+        <v>2179.740234375</v>
       </c>
       <c r="FB4" t="n">
-        <v>1249.622314453125</v>
+        <v>2179.7861328125</v>
       </c>
       <c r="FC4" t="n">
-        <v>1236.035888671875</v>
+        <v>2179.83056640625</v>
       </c>
       <c r="FD4" t="n">
-        <v>1229.059204101562</v>
+        <v>2179.91796875</v>
       </c>
       <c r="FE4" t="n">
-        <v>1194.443481445312</v>
+        <v>2179.974609375</v>
       </c>
       <c r="FF4" t="n">
-        <v>1175.0224609375</v>
+        <v>2180.023193359375</v>
       </c>
       <c r="FG4" t="n">
-        <v>1130.063598632812</v>
+        <v>2180.10595703125</v>
       </c>
       <c r="FH4" t="n">
-        <v>1086.983642578125</v>
+        <v>2174.433349609375</v>
       </c>
       <c r="FI4" t="n">
-        <v>1078.521240234375</v>
+        <v>2169.819580078125</v>
       </c>
       <c r="FJ4" t="n">
-        <v>1049.647827148438</v>
+        <v>2170.873291015625</v>
       </c>
       <c r="FK4" t="n">
-        <v>1017.107116699219</v>
+        <v>2170.688232421875</v>
       </c>
       <c r="FL4" t="n">
-        <v>1006.585510253906</v>
+        <v>2170.550048828125</v>
       </c>
       <c r="FM4" t="n">
-        <v>972.7426147460938</v>
+        <v>2170.45361328125</v>
       </c>
       <c r="FN4" t="n">
-        <v>950.5195922851562</v>
+        <v>2170.42333984375</v>
       </c>
       <c r="FO4" t="n">
-        <v>935.64990234375</v>
+        <v>2170.3740234375</v>
       </c>
       <c r="FP4" t="n">
-        <v>912.4019775390625</v>
+        <v>2170.30908203125</v>
       </c>
       <c r="FQ4" t="n">
-        <v>901.7418212890625</v>
+        <v>2170.384033203125</v>
       </c>
       <c r="FR4" t="n">
-        <v>892.1990356445312</v>
+        <v>2170.3544921875</v>
       </c>
       <c r="FS4" t="n">
-        <v>872.0820922851562</v>
+        <v>2168.51806640625</v>
       </c>
       <c r="FT4" t="n">
-        <v>860.3507080078125</v>
+        <v>2168.54443359375</v>
       </c>
       <c r="FU4" t="n">
-        <v>851.1336669921875</v>
+        <v>2168.4267578125</v>
       </c>
       <c r="FV4" t="n">
-        <v>847.3296508789062</v>
+        <v>2168.417724609375</v>
       </c>
       <c r="FW4" t="n">
-        <v>836.8101196289062</v>
+        <v>2168.362060546875</v>
       </c>
       <c r="FX4" t="n">
-        <v>836.822021484375</v>
+        <v>2168.238525390625</v>
       </c>
       <c r="FY4" t="n">
-        <v>836.4730834960938</v>
+        <v>2168.166015625</v>
       </c>
       <c r="FZ4" t="n">
-        <v>836.09765625</v>
+        <v>2168.117431640625</v>
       </c>
       <c r="GA4" t="n">
-        <v>834.692626953125</v>
+        <v>2168.056884765625</v>
       </c>
       <c r="GB4" t="n">
-        <v>833.5037841796875</v>
+        <v>2167.979736328125</v>
       </c>
       <c r="GC4" t="n">
-        <v>833.1320190429688</v>
+        <v>2167.833984375</v>
       </c>
       <c r="GD4" t="n">
-        <v>832.6677856445312</v>
+        <v>2167.7138671875</v>
       </c>
       <c r="GE4" t="n">
-        <v>829.8836669921875</v>
+        <v>2167.60791015625</v>
       </c>
       <c r="GF4" t="n">
-        <v>825.5536499023438</v>
+        <v>2167.42529296875</v>
       </c>
       <c r="GG4" t="n">
-        <v>814.1915283203125</v>
+        <v>2167.335693359375</v>
       </c>
       <c r="GH4" t="n">
-        <v>804.9500122070312</v>
+        <v>2166.81201171875</v>
       </c>
       <c r="GI4" t="n">
-        <v>798.1441040039062</v>
+        <v>2165.795654296875</v>
       </c>
       <c r="GJ4" t="n">
-        <v>790.3067016601562</v>
+        <v>2165.411865234375</v>
       </c>
       <c r="GK4" t="n">
-        <v>772.6917114257812</v>
+        <v>2165.59228515625</v>
       </c>
       <c r="GL4" t="n">
-        <v>761.1600952148438</v>
+        <v>2165.105224609375</v>
       </c>
       <c r="GM4" t="n">
-        <v>733.309814453125</v>
+        <v>2157.63330078125</v>
       </c>
       <c r="GN4" t="n">
-        <v>710.0560913085938</v>
+        <v>2160.115234375</v>
       </c>
       <c r="GO4" t="n">
-        <v>703.3295288085938</v>
+        <v>2159.703125</v>
+      </c>
+      <c r="GP4" t="n">
+        <v>2162.138427734375</v>
+      </c>
+      <c r="GQ4" t="n">
+        <v>2162.09912109375</v>
+      </c>
+      <c r="GR4" t="n">
+        <v>2162.634521484375</v>
+      </c>
+      <c r="GS4" t="n">
+        <v>2163.10986328125</v>
+      </c>
+      <c r="GT4" t="n">
+        <v>2163.24658203125</v>
+      </c>
+      <c r="GU4" t="n">
+        <v>2162.985107421875</v>
+      </c>
+      <c r="GV4" t="n">
+        <v>2162.61083984375</v>
+      </c>
+      <c r="GW4" t="n">
+        <v>2161.685546875</v>
+      </c>
+      <c r="GX4" t="n">
+        <v>2156.32568359375</v>
+      </c>
+      <c r="GY4" t="n">
+        <v>2143.26806640625</v>
+      </c>
+      <c r="GZ4" t="n">
+        <v>2116.57177734375</v>
+      </c>
+      <c r="HA4" t="n">
+        <v>2116.775390625</v>
+      </c>
+      <c r="HB4" t="n">
+        <v>2083.146484375</v>
+      </c>
+      <c r="HC4" t="n">
+        <v>2066.171630859375</v>
+      </c>
+      <c r="HD4" t="n">
+        <v>2060.968994140625</v>
+      </c>
+      <c r="HE4" t="n">
+        <v>2010.251342773438</v>
+      </c>
+      <c r="HF4" t="n">
+        <v>2002.926635742188</v>
+      </c>
+      <c r="HG4" t="n">
+        <v>1942.944946289062</v>
+      </c>
+      <c r="HH4" t="n">
+        <v>1891.801879882812</v>
+      </c>
+      <c r="HI4" t="n">
+        <v>1858.88330078125</v>
+      </c>
+      <c r="HJ4" t="n">
+        <v>1839.6962890625</v>
+      </c>
+      <c r="HK4" t="n">
+        <v>1792.156372070312</v>
+      </c>
+      <c r="HL4" t="n">
+        <v>1745.126586914062</v>
+      </c>
+      <c r="HM4" t="n">
+        <v>1718.856201171875</v>
+      </c>
+      <c r="HN4" t="n">
+        <v>1708.449584960938</v>
+      </c>
+      <c r="HO4" t="n">
+        <v>1688.307861328125</v>
+      </c>
+      <c r="HP4" t="n">
+        <v>1654.480224609375</v>
+      </c>
+      <c r="HQ4" t="n">
+        <v>1626.991821289062</v>
+      </c>
+      <c r="HR4" t="n">
+        <v>1591.284057617188</v>
+      </c>
+      <c r="HS4" t="n">
+        <v>1546.377685546875</v>
+      </c>
+      <c r="HT4" t="n">
+        <v>1505.812377929688</v>
+      </c>
+      <c r="HU4" t="n">
+        <v>1464.301391601562</v>
+      </c>
+      <c r="HV4" t="n">
+        <v>1433.510864257812</v>
+      </c>
+      <c r="HW4" t="n">
+        <v>1390.576416015625</v>
+      </c>
+      <c r="HX4" t="n">
+        <v>1345.44921875</v>
+      </c>
+      <c r="HY4" t="n">
+        <v>1306.0087890625</v>
+      </c>
+      <c r="HZ4" t="n">
+        <v>1271.444213867188</v>
+      </c>
+      <c r="IA4" t="n">
+        <v>1242.253784179688</v>
+      </c>
+      <c r="IB4" t="n">
+        <v>1189.979614257812</v>
+      </c>
+      <c r="IC4" t="n">
+        <v>1177.115356445312</v>
+      </c>
+      <c r="ID4" t="n">
+        <v>1146.905029296875</v>
+      </c>
+      <c r="IE4" t="n">
+        <v>1118.279663085938</v>
+      </c>
+      <c r="IF4" t="n">
+        <v>1076.94580078125</v>
+      </c>
+      <c r="IG4" t="n">
+        <v>1029.748046875</v>
+      </c>
+      <c r="IH4" t="n">
+        <v>981.31298828125</v>
+      </c>
+      <c r="II4" t="n">
+        <v>927.6936645507812</v>
+      </c>
+      <c r="IJ4" t="n">
+        <v>882.7676391601562</v>
+      </c>
+      <c r="IK4" t="n">
+        <v>848.4986572265625</v>
+      </c>
+      <c r="IL4" t="n">
+        <v>819.5790405273438</v>
+      </c>
+      <c r="IM4" t="n">
+        <v>795.6070556640625</v>
+      </c>
+      <c r="IN4" t="n">
+        <v>717.640869140625</v>
+      </c>
+      <c r="IO4" t="n">
+        <v>569.2091674804688</v>
+      </c>
+      <c r="IP4" t="n">
+        <v>450.7431945800781</v>
+      </c>
+      <c r="IQ4" t="n">
+        <v>431.2535705566406</v>
+      </c>
+      <c r="IR4" t="n">
+        <v>437.9371948242188</v>
+      </c>
+      <c r="IS4" t="n">
+        <v>469.2113037109375</v>
+      </c>
+      <c r="IT4" t="n">
+        <v>543.0006713867188</v>
+      </c>
+      <c r="IU4" t="n">
+        <v>589.8070678710938</v>
+      </c>
+      <c r="IV4" t="n">
+        <v>671.234375</v>
+      </c>
+      <c r="IW4" t="n">
+        <v>707.2218627929688</v>
+      </c>
+      <c r="IX4" t="n">
+        <v>702.8800048828125</v>
+      </c>
+      <c r="IY4" t="n">
+        <v>702.2297973632812</v>
+      </c>
+      <c r="IZ4" t="n">
+        <v>707.4618530273438</v>
+      </c>
+      <c r="JA4" t="n">
+        <v>742.624755859375</v>
+      </c>
+      <c r="JB4" t="n">
+        <v>797.6527099609375</v>
+      </c>
+      <c r="JC4" t="n">
+        <v>845.0875244140625</v>
+      </c>
+      <c r="JD4" t="n">
+        <v>879.5494384765625</v>
+      </c>
+      <c r="JE4" t="n">
+        <v>925.81298828125</v>
+      </c>
+      <c r="JF4" t="n">
+        <v>958.40673828125</v>
+      </c>
+      <c r="JG4" t="n">
+        <v>975.7825927734375</v>
+      </c>
+      <c r="JH4" t="n">
+        <v>978.2420043945312</v>
+      </c>
+      <c r="JI4" t="n">
+        <v>973.6436767578125</v>
+      </c>
+      <c r="JJ4" t="n">
+        <v>948.8807373046875</v>
+      </c>
+      <c r="JK4" t="n">
+        <v>919.9098510742188</v>
+      </c>
+      <c r="JL4" t="n">
+        <v>887.6058959960938</v>
+      </c>
+      <c r="JM4" t="n">
+        <v>860.419189453125</v>
       </c>
     </row>
   </sheetData>

--- a/right_shoulder_Data.xlsx
+++ b/right_shoulder_Data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:JM4"/>
+  <dimension ref="A1:GQ4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1031,2690 +1031,1802 @@
       <c r="GQ1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="GR1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GT1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HL1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HO1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HP1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HQ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HR1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HS1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HT1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HU1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HV1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HW1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HX1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HY1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HZ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IA1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IB1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IC1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="ID1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IE1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IF1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IG1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IH1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="II1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IJ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IK1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IL1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IM1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IN1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IO1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IP1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IQ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IR1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IS1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IT1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IU1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IV1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IW1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IX1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IY1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IZ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JA1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JB1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JC1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JD1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JE1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JF1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JG1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JH1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JI1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JJ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JK1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JL1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JM1" s="1" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>165.2842407226562</v>
+        <v>349.6113891601562</v>
       </c>
       <c r="B2" t="n">
-        <v>165.4732971191406</v>
+        <v>347.9901733398438</v>
       </c>
       <c r="C2" t="n">
-        <v>165.45703125</v>
+        <v>348.1336059570312</v>
       </c>
       <c r="D2" t="n">
-        <v>165.4586791992188</v>
+        <v>348.0704345703125</v>
       </c>
       <c r="E2" t="n">
-        <v>165.4651794433594</v>
+        <v>347.819580078125</v>
       </c>
       <c r="F2" t="n">
-        <v>165.5113983154297</v>
+        <v>347.2883911132812</v>
       </c>
       <c r="G2" t="n">
-        <v>165.5495910644531</v>
+        <v>346.5960693359375</v>
       </c>
       <c r="H2" t="n">
-        <v>165.5873718261719</v>
+        <v>345.3518981933594</v>
       </c>
       <c r="I2" t="n">
-        <v>165.5387725830078</v>
+        <v>343.8501586914062</v>
       </c>
       <c r="J2" t="n">
-        <v>165.4855651855469</v>
+        <v>341.8650817871094</v>
       </c>
       <c r="K2" t="n">
-        <v>165.4746398925781</v>
+        <v>339.700439453125</v>
       </c>
       <c r="L2" t="n">
-        <v>165.517822265625</v>
+        <v>338.1569213867188</v>
       </c>
       <c r="M2" t="n">
-        <v>165.5199890136719</v>
+        <v>337.559326171875</v>
       </c>
       <c r="N2" t="n">
-        <v>165.5130920410156</v>
+        <v>332.5225219726562</v>
       </c>
       <c r="O2" t="n">
-        <v>165.499755859375</v>
+        <v>327.5393981933594</v>
       </c>
       <c r="P2" t="n">
-        <v>165.4816284179688</v>
+        <v>326.2763061523438</v>
       </c>
       <c r="Q2" t="n">
-        <v>165.3330993652344</v>
+        <v>322.4644165039062</v>
       </c>
       <c r="R2" t="n">
-        <v>165.2059631347656</v>
+        <v>321.9601745605469</v>
       </c>
       <c r="S2" t="n">
-        <v>165.0292053222656</v>
+        <v>318.0243835449219</v>
       </c>
       <c r="T2" t="n">
-        <v>164.8126525878906</v>
+        <v>317.4457397460938</v>
       </c>
       <c r="U2" t="n">
-        <v>164.7064361572266</v>
+        <v>313.6850891113281</v>
       </c>
       <c r="V2" t="n">
-        <v>164.8988037109375</v>
+        <v>311.7944030761719</v>
       </c>
       <c r="W2" t="n">
-        <v>167.3380279541016</v>
+        <v>310.0547180175781</v>
       </c>
       <c r="X2" t="n">
-        <v>173.3235473632812</v>
+        <v>310.1348266601562</v>
       </c>
       <c r="Y2" t="n">
-        <v>181.2869567871094</v>
+        <v>309.7860412597656</v>
       </c>
       <c r="Z2" t="n">
-        <v>188.700439453125</v>
+        <v>308.9689636230469</v>
       </c>
       <c r="AA2" t="n">
-        <v>195.7635803222656</v>
+        <v>307.7440185546875</v>
       </c>
       <c r="AB2" t="n">
-        <v>201.2960510253906</v>
+        <v>306.3894348144531</v>
       </c>
       <c r="AC2" t="n">
-        <v>205.2499084472656</v>
+        <v>305.7533874511719</v>
       </c>
       <c r="AD2" t="n">
-        <v>210.4485931396484</v>
+        <v>305.6366882324219</v>
       </c>
       <c r="AE2" t="n">
-        <v>214.9499206542969</v>
+        <v>305.282958984375</v>
       </c>
       <c r="AF2" t="n">
-        <v>219.5556945800781</v>
+        <v>305.1858215332031</v>
       </c>
       <c r="AG2" t="n">
-        <v>223.9118041992188</v>
+        <v>305.4061584472656</v>
       </c>
       <c r="AH2" t="n">
-        <v>227.4720001220703</v>
+        <v>306.0078735351562</v>
       </c>
       <c r="AI2" t="n">
-        <v>233.3943481445312</v>
+        <v>306.7142944335938</v>
       </c>
       <c r="AJ2" t="n">
-        <v>237.7224731445312</v>
+        <v>307.5147705078125</v>
       </c>
       <c r="AK2" t="n">
-        <v>240.9950561523438</v>
+        <v>308.4433288574219</v>
       </c>
       <c r="AL2" t="n">
-        <v>246.2602233886719</v>
+        <v>309.655517578125</v>
       </c>
       <c r="AM2" t="n">
-        <v>246.2782592773438</v>
+        <v>310.9412231445312</v>
       </c>
       <c r="AN2" t="n">
-        <v>249.0232086181641</v>
+        <v>311.7817077636719</v>
       </c>
       <c r="AO2" t="n">
-        <v>245.4530487060547</v>
+        <v>312.4179992675781</v>
       </c>
       <c r="AP2" t="n">
-        <v>246.4523620605469</v>
+        <v>312.8186340332031</v>
       </c>
       <c r="AQ2" t="n">
-        <v>246.203857421875</v>
+        <v>312.6614990234375</v>
       </c>
       <c r="AR2" t="n">
-        <v>246.2892303466797</v>
+        <v>313.0085754394531</v>
       </c>
       <c r="AS2" t="n">
-        <v>246.8248901367188</v>
+        <v>312.3702697753906</v>
       </c>
       <c r="AT2" t="n">
-        <v>247.787353515625</v>
+        <v>310.8919067382812</v>
       </c>
       <c r="AU2" t="n">
-        <v>248.3480224609375</v>
+        <v>307.8599243164062</v>
       </c>
       <c r="AV2" t="n">
-        <v>246.5239562988281</v>
+        <v>303.1949462890625</v>
       </c>
       <c r="AW2" t="n">
-        <v>245.711669921875</v>
+        <v>298.7937927246094</v>
       </c>
       <c r="AX2" t="n">
-        <v>245.4977416992188</v>
+        <v>290.9353332519531</v>
       </c>
       <c r="AY2" t="n">
-        <v>246.9514770507812</v>
+        <v>285.6881103515625</v>
       </c>
       <c r="AZ2" t="n">
-        <v>249.0823059082031</v>
+        <v>276.3511962890625</v>
       </c>
       <c r="BA2" t="n">
-        <v>250.4487915039062</v>
+        <v>269.57470703125</v>
       </c>
       <c r="BB2" t="n">
-        <v>251.7922668457031</v>
+        <v>259.3715209960938</v>
       </c>
       <c r="BC2" t="n">
-        <v>253.2005310058594</v>
+        <v>251.6805267333984</v>
       </c>
       <c r="BD2" t="n">
-        <v>255.7192230224609</v>
+        <v>245.613525390625</v>
       </c>
       <c r="BE2" t="n">
-        <v>257.7169799804688</v>
+        <v>237.7083129882812</v>
       </c>
       <c r="BF2" t="n">
-        <v>260.7739868164062</v>
+        <v>229.8796691894531</v>
       </c>
       <c r="BG2" t="n">
-        <v>263.1216735839844</v>
+        <v>222.8686828613281</v>
       </c>
       <c r="BH2" t="n">
-        <v>266.6967468261719</v>
+        <v>216.5543823242188</v>
       </c>
       <c r="BI2" t="n">
-        <v>271.2164001464844</v>
+        <v>212.2564544677734</v>
       </c>
       <c r="BJ2" t="n">
-        <v>273.4754943847656</v>
+        <v>207.9113464355469</v>
       </c>
       <c r="BK2" t="n">
-        <v>276.8092041015625</v>
+        <v>205.5967712402344</v>
       </c>
       <c r="BL2" t="n">
-        <v>278.8224182128906</v>
+        <v>202.377685546875</v>
       </c>
       <c r="BM2" t="n">
-        <v>281.8067626953125</v>
+        <v>199.0917358398438</v>
       </c>
       <c r="BN2" t="n">
-        <v>284.4764709472656</v>
+        <v>196.1153259277344</v>
       </c>
       <c r="BO2" t="n">
-        <v>287.5617370605469</v>
+        <v>193.4826965332031</v>
       </c>
       <c r="BP2" t="n">
-        <v>290.6587219238281</v>
+        <v>191.2676696777344</v>
       </c>
       <c r="BQ2" t="n">
-        <v>294.4635314941406</v>
+        <v>189.1537170410156</v>
       </c>
       <c r="BR2" t="n">
-        <v>297.2027893066406</v>
+        <v>187.5986480712891</v>
       </c>
       <c r="BS2" t="n">
-        <v>301.5702514648438</v>
+        <v>186.5213317871094</v>
       </c>
       <c r="BT2" t="n">
-        <v>303.6115417480469</v>
+        <v>185.6910858154297</v>
       </c>
       <c r="BU2" t="n">
-        <v>307.7890014648438</v>
+        <v>185.3154907226562</v>
       </c>
       <c r="BV2" t="n">
-        <v>310.7020874023438</v>
+        <v>185.0818023681641</v>
       </c>
       <c r="BW2" t="n">
-        <v>313.5210876464844</v>
+        <v>184.911376953125</v>
       </c>
       <c r="BX2" t="n">
-        <v>315.5168151855469</v>
+        <v>184.7187194824219</v>
       </c>
       <c r="BY2" t="n">
-        <v>318.1410217285156</v>
+        <v>184.48681640625</v>
       </c>
       <c r="BZ2" t="n">
-        <v>319.6180419921875</v>
+        <v>184.2446136474609</v>
       </c>
       <c r="CA2" t="n">
-        <v>321.98681640625</v>
+        <v>183.9733276367188</v>
       </c>
       <c r="CB2" t="n">
-        <v>323.3194274902344</v>
+        <v>183.7041015625</v>
       </c>
       <c r="CC2" t="n">
-        <v>324.6004638671875</v>
+        <v>183.4252166748047</v>
       </c>
       <c r="CD2" t="n">
-        <v>325.7998352050781</v>
+        <v>183.1331481933594</v>
       </c>
       <c r="CE2" t="n">
-        <v>326.3927001953125</v>
+        <v>182.8564147949219</v>
       </c>
       <c r="CF2" t="n">
-        <v>326.9292602539062</v>
+        <v>182.5951843261719</v>
       </c>
       <c r="CG2" t="n">
-        <v>327.4931030273438</v>
+        <v>182.4263916015625</v>
       </c>
       <c r="CH2" t="n">
-        <v>327.8331298828125</v>
+        <v>182.2918853759766</v>
       </c>
       <c r="CI2" t="n">
-        <v>328.4280090332031</v>
+        <v>182.1680908203125</v>
       </c>
       <c r="CJ2" t="n">
-        <v>329.0890197753906</v>
+        <v>182.0974731445312</v>
       </c>
       <c r="CK2" t="n">
-        <v>329.5281677246094</v>
+        <v>182.0603942871094</v>
       </c>
       <c r="CL2" t="n">
-        <v>329.4408569335938</v>
+        <v>182.0660095214844</v>
       </c>
       <c r="CM2" t="n">
-        <v>329.0759887695312</v>
+        <v>182.0555725097656</v>
       </c>
       <c r="CN2" t="n">
-        <v>328.2405395507812</v>
+        <v>182.0624084472656</v>
       </c>
       <c r="CO2" t="n">
-        <v>326.8727416992188</v>
+        <v>182.1241760253906</v>
       </c>
       <c r="CP2" t="n">
-        <v>325.6837463378906</v>
+        <v>182.19287109375</v>
       </c>
       <c r="CQ2" t="n">
-        <v>324.4322509765625</v>
+        <v>182.3441162109375</v>
       </c>
       <c r="CR2" t="n">
-        <v>322.3349609375</v>
+        <v>182.4461212158203</v>
       </c>
       <c r="CS2" t="n">
-        <v>320.8038330078125</v>
+        <v>182.3181457519531</v>
       </c>
       <c r="CT2" t="n">
-        <v>319.1195678710938</v>
+        <v>181.6573791503906</v>
       </c>
       <c r="CU2" t="n">
-        <v>317.4082336425781</v>
+        <v>181.0245056152344</v>
       </c>
       <c r="CV2" t="n">
-        <v>316.2375183105469</v>
+        <v>180.6823577880859</v>
       </c>
       <c r="CW2" t="n">
-        <v>314.7538452148438</v>
+        <v>180.4519805908203</v>
       </c>
       <c r="CX2" t="n">
-        <v>314.1860046386719</v>
+        <v>180.6866149902344</v>
       </c>
       <c r="CY2" t="n">
-        <v>313.0830993652344</v>
+        <v>181.4949035644531</v>
       </c>
       <c r="CZ2" t="n">
-        <v>311.3898010253906</v>
+        <v>182.6038513183594</v>
       </c>
       <c r="DA2" t="n">
-        <v>309.5291748046875</v>
+        <v>184.185302734375</v>
       </c>
       <c r="DB2" t="n">
-        <v>308.2593994140625</v>
+        <v>186.219970703125</v>
       </c>
       <c r="DC2" t="n">
-        <v>306.9388427734375</v>
+        <v>188.2669067382812</v>
       </c>
       <c r="DD2" t="n">
-        <v>305.9692077636719</v>
+        <v>190.4539184570312</v>
       </c>
       <c r="DE2" t="n">
-        <v>305.1102294921875</v>
+        <v>192.7409515380859</v>
       </c>
       <c r="DF2" t="n">
-        <v>304.3090209960938</v>
+        <v>194.6091461181641</v>
       </c>
       <c r="DG2" t="n">
-        <v>303.9584350585938</v>
+        <v>197.1792907714844</v>
       </c>
       <c r="DH2" t="n">
-        <v>303.2503356933594</v>
+        <v>200.6464233398438</v>
       </c>
       <c r="DI2" t="n">
-        <v>303.044677734375</v>
+        <v>204.549072265625</v>
       </c>
       <c r="DJ2" t="n">
-        <v>302.7832641601562</v>
+        <v>208.3087768554688</v>
       </c>
       <c r="DK2" t="n">
-        <v>302.7093811035156</v>
+        <v>214.258544921875</v>
       </c>
       <c r="DL2" t="n">
-        <v>302.1207275390625</v>
+        <v>226.2031555175781</v>
       </c>
       <c r="DM2" t="n">
-        <v>301.39111328125</v>
+        <v>233.8098754882812</v>
       </c>
       <c r="DN2" t="n">
-        <v>300.8274841308594</v>
+        <v>241.9976806640625</v>
       </c>
       <c r="DO2" t="n">
-        <v>300.1990051269531</v>
+        <v>250.8511199951172</v>
       </c>
       <c r="DP2" t="n">
-        <v>299.8419799804688</v>
+        <v>266.1212768554688</v>
       </c>
       <c r="DQ2" t="n">
-        <v>299.3048400878906</v>
+        <v>272.3394775390625</v>
       </c>
       <c r="DR2" t="n">
-        <v>299.0541381835938</v>
+        <v>278.3329162597656</v>
       </c>
       <c r="DS2" t="n">
-        <v>298.9736328125</v>
+        <v>291.8485717773438</v>
       </c>
       <c r="DT2" t="n">
-        <v>298.8053588867188</v>
+        <v>298.2962951660156</v>
       </c>
       <c r="DU2" t="n">
-        <v>298.759521484375</v>
+        <v>304.2054138183594</v>
       </c>
       <c r="DV2" t="n">
-        <v>298.73046875</v>
+        <v>313.388427734375</v>
       </c>
       <c r="DW2" t="n">
-        <v>298.6889038085938</v>
+        <v>322.4624938964844</v>
       </c>
       <c r="DX2" t="n">
-        <v>298.6668395996094</v>
+        <v>326.6192321777344</v>
       </c>
       <c r="DY2" t="n">
-        <v>298.6634216308594</v>
+        <v>330.3692932128906</v>
       </c>
       <c r="DZ2" t="n">
-        <v>298.6652526855469</v>
+        <v>334.1367797851562</v>
       </c>
       <c r="EA2" t="n">
-        <v>298.8402099609375</v>
+        <v>335.2019653320312</v>
       </c>
       <c r="EB2" t="n">
-        <v>299.1535034179688</v>
+        <v>337.4572143554688</v>
       </c>
       <c r="EC2" t="n">
-        <v>300.1664733886719</v>
+        <v>338.1829833984375</v>
       </c>
       <c r="ED2" t="n">
-        <v>300.6091003417969</v>
+        <v>338.6798095703125</v>
       </c>
       <c r="EE2" t="n">
-        <v>302.4243469238281</v>
+        <v>338.8428344726562</v>
       </c>
       <c r="EF2" t="n">
-        <v>303.3536987304688</v>
+        <v>338.9625244140625</v>
       </c>
       <c r="EG2" t="n">
-        <v>304.3437194824219</v>
+        <v>338.7452392578125</v>
       </c>
       <c r="EH2" t="n">
-        <v>304.7198181152344</v>
+        <v>336.1558532714844</v>
       </c>
       <c r="EI2" t="n">
-        <v>305.8412170410156</v>
+        <v>325.642333984375</v>
       </c>
       <c r="EJ2" t="n">
-        <v>306.46923828125</v>
+        <v>319.1990661621094</v>
       </c>
       <c r="EK2" t="n">
-        <v>307.3966064453125</v>
+        <v>309.7228088378906</v>
       </c>
       <c r="EL2" t="n">
-        <v>307.8829956054688</v>
+        <v>302.7251586914062</v>
       </c>
       <c r="EM2" t="n">
-        <v>308.2872314453125</v>
+        <v>288.3971862792969</v>
       </c>
       <c r="EN2" t="n">
-        <v>308.4164428710938</v>
+        <v>281.46728515625</v>
       </c>
       <c r="EO2" t="n">
-        <v>308.4483642578125</v>
+        <v>268.1561279296875</v>
       </c>
       <c r="EP2" t="n">
-        <v>307.6468505859375</v>
+        <v>261.1015319824219</v>
       </c>
       <c r="EQ2" t="n">
-        <v>307.5074462890625</v>
+        <v>245.4673767089844</v>
       </c>
       <c r="ER2" t="n">
-        <v>307.4072875976562</v>
+        <v>238.3446350097656</v>
       </c>
       <c r="ES2" t="n">
-        <v>307.4545288085938</v>
+        <v>225.494140625</v>
       </c>
       <c r="ET2" t="n">
-        <v>307.6236267089844</v>
+        <v>221.5330810546875</v>
       </c>
       <c r="EU2" t="n">
-        <v>307.64111328125</v>
+        <v>216.1384887695312</v>
       </c>
       <c r="EV2" t="n">
-        <v>307.6709289550781</v>
+        <v>208.3656463623047</v>
       </c>
       <c r="EW2" t="n">
-        <v>307.6961059570312</v>
+        <v>200.6233520507812</v>
       </c>
       <c r="EX2" t="n">
-        <v>307.6980285644531</v>
+        <v>195.9992370605469</v>
       </c>
       <c r="EY2" t="n">
-        <v>307.6366577148438</v>
+        <v>189.3833923339844</v>
       </c>
       <c r="EZ2" t="n">
-        <v>307.5838317871094</v>
+        <v>185.0495758056641</v>
       </c>
       <c r="FA2" t="n">
-        <v>307.434326171875</v>
+        <v>183.64453125</v>
       </c>
       <c r="FB2" t="n">
-        <v>307.3556213378906</v>
+        <v>183.8234710693359</v>
       </c>
       <c r="FC2" t="n">
-        <v>307.2897338867188</v>
+        <v>191.2556610107422</v>
       </c>
       <c r="FD2" t="n">
-        <v>307.1915588378906</v>
+        <v>196.4776611328125</v>
       </c>
       <c r="FE2" t="n">
-        <v>307.1400756835938</v>
+        <v>196.4689025878906</v>
       </c>
       <c r="FF2" t="n">
-        <v>307.0943298339844</v>
+        <v>197.1726837158203</v>
       </c>
       <c r="FG2" t="n">
-        <v>307.1366271972656</v>
+        <v>200.8663024902344</v>
       </c>
       <c r="FH2" t="n">
-        <v>306.5776672363281</v>
+        <v>213.5574188232422</v>
       </c>
       <c r="FI2" t="n">
-        <v>306.6859436035156</v>
+        <v>217.4546203613281</v>
       </c>
       <c r="FJ2" t="n">
-        <v>306.8475036621094</v>
+        <v>224.2218933105469</v>
       </c>
       <c r="FK2" t="n">
-        <v>307.01708984375</v>
+        <v>233.1093139648438</v>
       </c>
       <c r="FL2" t="n">
-        <v>307.0974731445312</v>
+        <v>255.0069885253906</v>
       </c>
       <c r="FM2" t="n">
-        <v>307.2303466796875</v>
+        <v>261.9219970703125</v>
       </c>
       <c r="FN2" t="n">
-        <v>307.2883605957031</v>
+        <v>272.4078674316406</v>
       </c>
       <c r="FO2" t="n">
-        <v>307.3145751953125</v>
+        <v>292.2948303222656</v>
       </c>
       <c r="FP2" t="n">
-        <v>307.3335266113281</v>
+        <v>314.0246276855469</v>
       </c>
       <c r="FQ2" t="n">
-        <v>307.3442077636719</v>
+        <v>324.3567504882812</v>
       </c>
       <c r="FR2" t="n">
-        <v>307.34765625</v>
+        <v>342.139892578125</v>
       </c>
       <c r="FS2" t="n">
-        <v>307.6470031738281</v>
+        <v>345.6409301757812</v>
       </c>
       <c r="FT2" t="n">
-        <v>308.1701965332031</v>
+        <v>352.8370666503906</v>
       </c>
       <c r="FU2" t="n">
-        <v>308.3172302246094</v>
+        <v>371.533935546875</v>
       </c>
       <c r="FV2" t="n">
-        <v>308.4620971679688</v>
+        <v>380.4620971679688</v>
       </c>
       <c r="FW2" t="n">
-        <v>308.6466979980469</v>
+        <v>392.6183471679688</v>
       </c>
       <c r="FX2" t="n">
-        <v>308.7379760742188</v>
+        <v>400.2109985351562</v>
       </c>
       <c r="FY2" t="n">
-        <v>308.8802795410156</v>
+        <v>402.86572265625</v>
       </c>
       <c r="FZ2" t="n">
-        <v>308.947509765625</v>
+        <v>405.6744995117188</v>
       </c>
       <c r="GA2" t="n">
-        <v>309.0566711425781</v>
+        <v>408.2974243164062</v>
       </c>
       <c r="GB2" t="n">
-        <v>309.1173706054688</v>
+        <v>409.326171875</v>
       </c>
       <c r="GC2" t="n">
-        <v>309.1608276367188</v>
+        <v>408.3277893066406</v>
       </c>
       <c r="GD2" t="n">
-        <v>309.1807250976562</v>
+        <v>403.5224914550781</v>
       </c>
       <c r="GE2" t="n">
-        <v>309.191650390625</v>
+        <v>399.3467407226562</v>
       </c>
       <c r="GF2" t="n">
-        <v>309.1856994628906</v>
+        <v>392.9480590820312</v>
       </c>
       <c r="GG2" t="n">
-        <v>309.1672668457031</v>
+        <v>374.34521484375</v>
       </c>
       <c r="GH2" t="n">
-        <v>308.993896484375</v>
+        <v>364.5753784179688</v>
       </c>
       <c r="GI2" t="n">
-        <v>308.5040283203125</v>
+        <v>345.7460327148438</v>
       </c>
       <c r="GJ2" t="n">
-        <v>308.4868469238281</v>
+        <v>333.74365234375</v>
       </c>
       <c r="GK2" t="n">
-        <v>307.9754028320312</v>
+        <v>318.0531616210938</v>
       </c>
       <c r="GL2" t="n">
-        <v>308.4084167480469</v>
+        <v>303.8849182128906</v>
       </c>
       <c r="GM2" t="n">
-        <v>308.0345458984375</v>
+        <v>299.0804138183594</v>
       </c>
       <c r="GN2" t="n">
-        <v>307.7413940429688</v>
+        <v>283.0708312988281</v>
       </c>
       <c r="GO2" t="n">
-        <v>307.1347961425781</v>
+        <v>279.135498046875</v>
       </c>
       <c r="GP2" t="n">
-        <v>305.7501525878906</v>
+        <v>263.9632568359375</v>
       </c>
       <c r="GQ2" t="n">
-        <v>304.2461547851562</v>
-      </c>
-      <c r="GR2" t="n">
-        <v>303.6970520019531</v>
-      </c>
-      <c r="GS2" t="n">
-        <v>303.564208984375</v>
-      </c>
-      <c r="GT2" t="n">
-        <v>303.3836364746094</v>
-      </c>
-      <c r="GU2" t="n">
-        <v>303.1891479492188</v>
-      </c>
-      <c r="GV2" t="n">
-        <v>302.4343566894531</v>
-      </c>
-      <c r="GW2" t="n">
-        <v>301.3990783691406</v>
-      </c>
-      <c r="GX2" t="n">
-        <v>300.6834411621094</v>
-      </c>
-      <c r="GY2" t="n">
-        <v>299.1629638671875</v>
-      </c>
-      <c r="GZ2" t="n">
-        <v>297.4501037597656</v>
-      </c>
-      <c r="HA2" t="n">
-        <v>296.6072692871094</v>
-      </c>
-      <c r="HB2" t="n">
-        <v>295.3855590820312</v>
-      </c>
-      <c r="HC2" t="n">
-        <v>294.7222900390625</v>
-      </c>
-      <c r="HD2" t="n">
-        <v>294.4535827636719</v>
-      </c>
-      <c r="HE2" t="n">
-        <v>291.9808349609375</v>
-      </c>
-      <c r="HF2" t="n">
-        <v>291.8623962402344</v>
-      </c>
-      <c r="HG2" t="n">
-        <v>290.610595703125</v>
-      </c>
-      <c r="HH2" t="n">
-        <v>289.6123046875</v>
-      </c>
-      <c r="HI2" t="n">
-        <v>288.4693298339844</v>
-      </c>
-      <c r="HJ2" t="n">
-        <v>288.1214904785156</v>
-      </c>
-      <c r="HK2" t="n">
-        <v>287.252685546875</v>
-      </c>
-      <c r="HL2" t="n">
-        <v>286.1893310546875</v>
-      </c>
-      <c r="HM2" t="n">
-        <v>285.0355224609375</v>
-      </c>
-      <c r="HN2" t="n">
-        <v>283.9092712402344</v>
-      </c>
-      <c r="HO2" t="n">
-        <v>282.8995056152344</v>
-      </c>
-      <c r="HP2" t="n">
-        <v>280.8644409179688</v>
-      </c>
-      <c r="HQ2" t="n">
-        <v>277.7450561523438</v>
-      </c>
-      <c r="HR2" t="n">
-        <v>273.489013671875</v>
-      </c>
-      <c r="HS2" t="n">
-        <v>267.9742431640625</v>
-      </c>
-      <c r="HT2" t="n">
-        <v>262.5220947265625</v>
-      </c>
-      <c r="HU2" t="n">
-        <v>255.848876953125</v>
-      </c>
-      <c r="HV2" t="n">
-        <v>251.3537750244141</v>
-      </c>
-      <c r="HW2" t="n">
-        <v>241.5105285644531</v>
-      </c>
-      <c r="HX2" t="n">
-        <v>233.1004028320312</v>
-      </c>
-      <c r="HY2" t="n">
-        <v>226.6961669921875</v>
-      </c>
-      <c r="HZ2" t="n">
-        <v>220.6026916503906</v>
-      </c>
-      <c r="IA2" t="n">
-        <v>215.1232604980469</v>
-      </c>
-      <c r="IB2" t="n">
-        <v>208.9253387451172</v>
-      </c>
-      <c r="IC2" t="n">
-        <v>207.4737243652344</v>
-      </c>
-      <c r="ID2" t="n">
-        <v>204.3668212890625</v>
-      </c>
-      <c r="IE2" t="n">
-        <v>202.22607421875</v>
-      </c>
-      <c r="IF2" t="n">
-        <v>199.5704040527344</v>
-      </c>
-      <c r="IG2" t="n">
-        <v>198.0496826171875</v>
-      </c>
-      <c r="IH2" t="n">
-        <v>200.0787658691406</v>
-      </c>
-      <c r="II2" t="n">
-        <v>200.6235046386719</v>
-      </c>
-      <c r="IJ2" t="n">
-        <v>201.5296630859375</v>
-      </c>
-      <c r="IK2" t="n">
-        <v>209.6371154785156</v>
-      </c>
-      <c r="IL2" t="n">
-        <v>216.5225372314453</v>
-      </c>
-      <c r="IM2" t="n">
-        <v>219.6826324462891</v>
-      </c>
-      <c r="IN2" t="n">
-        <v>198.6484069824219</v>
-      </c>
-      <c r="IO2" t="n">
-        <v>146.78564453125</v>
-      </c>
-      <c r="IP2" t="n">
-        <v>150.6468353271484</v>
-      </c>
-      <c r="IQ2" t="n">
-        <v>167.0579223632812</v>
-      </c>
-      <c r="IR2" t="n">
-        <v>147.5727996826172</v>
-      </c>
-      <c r="IS2" t="n">
-        <v>119.1564788818359</v>
-      </c>
-      <c r="IT2" t="n">
-        <v>115.3876647949219</v>
-      </c>
-      <c r="IU2" t="n">
-        <v>128.1805572509766</v>
-      </c>
-      <c r="IV2" t="n">
-        <v>116.6347427368164</v>
-      </c>
-      <c r="IW2" t="n">
-        <v>96.34619140625</v>
-      </c>
-      <c r="IX2" t="n">
-        <v>85.68678283691406</v>
-      </c>
-      <c r="IY2" t="n">
-        <v>73.8909912109375</v>
-      </c>
-      <c r="IZ2" t="n">
-        <v>70.80781555175781</v>
-      </c>
-      <c r="JA2" t="n">
-        <v>83.96621704101562</v>
-      </c>
-      <c r="JB2" t="n">
-        <v>91.76596069335938</v>
-      </c>
-      <c r="JC2" t="n">
-        <v>102.5720367431641</v>
-      </c>
-      <c r="JD2" t="n">
-        <v>113.9647521972656</v>
-      </c>
-      <c r="JE2" t="n">
-        <v>130.1170196533203</v>
-      </c>
-      <c r="JF2" t="n">
-        <v>142.9163208007812</v>
-      </c>
-      <c r="JG2" t="n">
-        <v>152.6124725341797</v>
-      </c>
-      <c r="JH2" t="n">
-        <v>155.701171875</v>
-      </c>
-      <c r="JI2" t="n">
-        <v>154.3623504638672</v>
-      </c>
-      <c r="JJ2" t="n">
-        <v>149.0090637207031</v>
-      </c>
-      <c r="JK2" t="n">
-        <v>141.8497009277344</v>
-      </c>
-      <c r="JL2" t="n">
-        <v>134.3502197265625</v>
-      </c>
-      <c r="JM2" t="n">
-        <v>128.3270721435547</v>
+        <v>258.2367858886719</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>147.4113006591797</v>
+        <v>275.2561340332031</v>
       </c>
       <c r="B3" t="n">
-        <v>147.6620941162109</v>
+        <v>274.3500061035156</v>
       </c>
       <c r="C3" t="n">
-        <v>147.7436218261719</v>
+        <v>271.0771484375</v>
       </c>
       <c r="D3" t="n">
-        <v>147.86474609375</v>
+        <v>271.2003784179688</v>
       </c>
       <c r="E3" t="n">
-        <v>147.9860076904297</v>
+        <v>270.6869812011719</v>
       </c>
       <c r="F3" t="n">
-        <v>148.1083984375</v>
+        <v>269.4945373535156</v>
       </c>
       <c r="G3" t="n">
-        <v>148.2316284179688</v>
+        <v>266.2899475097656</v>
       </c>
       <c r="H3" t="n">
-        <v>148.3473052978516</v>
+        <v>262.2166137695312</v>
       </c>
       <c r="I3" t="n">
-        <v>148.2989349365234</v>
+        <v>258.2564392089844</v>
       </c>
       <c r="J3" t="n">
-        <v>148.2383422851562</v>
+        <v>252.9044189453125</v>
       </c>
       <c r="K3" t="n">
-        <v>148.2520599365234</v>
+        <v>245.403076171875</v>
       </c>
       <c r="L3" t="n">
-        <v>148.4577941894531</v>
+        <v>239.1784973144531</v>
       </c>
       <c r="M3" t="n">
-        <v>148.6472778320312</v>
+        <v>232.1430511474609</v>
       </c>
       <c r="N3" t="n">
-        <v>148.8326110839844</v>
+        <v>226.3537292480469</v>
       </c>
       <c r="O3" t="n">
-        <v>149.0540924072266</v>
+        <v>220.102294921875</v>
       </c>
       <c r="P3" t="n">
-        <v>149.3193206787109</v>
+        <v>212.0589141845703</v>
       </c>
       <c r="Q3" t="n">
-        <v>149.3280639648438</v>
+        <v>208.6685485839844</v>
       </c>
       <c r="R3" t="n">
-        <v>149.3865203857422</v>
+        <v>202.08544921875</v>
       </c>
       <c r="S3" t="n">
-        <v>149.4741668701172</v>
+        <v>198.1559600830078</v>
       </c>
       <c r="T3" t="n">
-        <v>149.5783996582031</v>
+        <v>190.1711883544922</v>
       </c>
       <c r="U3" t="n">
-        <v>149.6294555664062</v>
+        <v>186.4018859863281</v>
       </c>
       <c r="V3" t="n">
-        <v>149.7503051757812</v>
+        <v>182.2209777832031</v>
       </c>
       <c r="W3" t="n">
-        <v>151.1875762939453</v>
+        <v>179.6849517822266</v>
       </c>
       <c r="X3" t="n">
-        <v>153.5077667236328</v>
+        <v>178.6030578613281</v>
       </c>
       <c r="Y3" t="n">
-        <v>154.7263641357422</v>
+        <v>176.6309204101562</v>
       </c>
       <c r="Z3" t="n">
-        <v>154.9227905273438</v>
+        <v>174.0304260253906</v>
       </c>
       <c r="AA3" t="n">
-        <v>156.1238403320312</v>
+        <v>171.5553436279297</v>
       </c>
       <c r="AB3" t="n">
-        <v>155.810546875</v>
+        <v>169.1775817871094</v>
       </c>
       <c r="AC3" t="n">
-        <v>155.9959106445312</v>
+        <v>168.0083312988281</v>
       </c>
       <c r="AD3" t="n">
-        <v>156.4112548828125</v>
+        <v>167.7317962646484</v>
       </c>
       <c r="AE3" t="n">
-        <v>156.3729095458984</v>
+        <v>167.3479919433594</v>
       </c>
       <c r="AF3" t="n">
-        <v>156.1865234375</v>
+        <v>166.7449951171875</v>
       </c>
       <c r="AG3" t="n">
-        <v>155.8872680664062</v>
+        <v>165.7668609619141</v>
       </c>
       <c r="AH3" t="n">
-        <v>152.8621520996094</v>
+        <v>164.7606048583984</v>
       </c>
       <c r="AI3" t="n">
-        <v>149.5977020263672</v>
+        <v>163.745361328125</v>
       </c>
       <c r="AJ3" t="n">
-        <v>146.9727172851562</v>
+        <v>162.522705078125</v>
       </c>
       <c r="AK3" t="n">
-        <v>145.5515747070312</v>
+        <v>161.2848205566406</v>
       </c>
       <c r="AL3" t="n">
-        <v>146.823486328125</v>
+        <v>160.49365234375</v>
       </c>
       <c r="AM3" t="n">
-        <v>147.3979644775391</v>
+        <v>159.9982299804688</v>
       </c>
       <c r="AN3" t="n">
-        <v>151.9036407470703</v>
+        <v>159.5420532226562</v>
       </c>
       <c r="AO3" t="n">
-        <v>157.1908569335938</v>
+        <v>159.1089172363281</v>
       </c>
       <c r="AP3" t="n">
-        <v>160.6668395996094</v>
+        <v>158.7061614990234</v>
       </c>
       <c r="AQ3" t="n">
-        <v>161.8154449462891</v>
+        <v>158.3576202392578</v>
       </c>
       <c r="AR3" t="n">
-        <v>162.5857543945312</v>
+        <v>158.7787017822266</v>
       </c>
       <c r="AS3" t="n">
-        <v>163.5936279296875</v>
+        <v>159.2943572998047</v>
       </c>
       <c r="AT3" t="n">
-        <v>168.9967803955078</v>
+        <v>160.4510192871094</v>
       </c>
       <c r="AU3" t="n">
-        <v>175.6600952148438</v>
+        <v>161.3645324707031</v>
       </c>
       <c r="AV3" t="n">
-        <v>184.7614898681641</v>
+        <v>160.9179077148438</v>
       </c>
       <c r="AW3" t="n">
-        <v>192.9799957275391</v>
+        <v>161.3958282470703</v>
       </c>
       <c r="AX3" t="n">
-        <v>197.1248626708984</v>
+        <v>162.0137176513672</v>
       </c>
       <c r="AY3" t="n">
-        <v>200.3902282714844</v>
+        <v>166.0122985839844</v>
       </c>
       <c r="AZ3" t="n">
-        <v>203.7134246826172</v>
+        <v>165.6834716796875</v>
       </c>
       <c r="BA3" t="n">
-        <v>206.1075134277344</v>
+        <v>169.5998077392578</v>
       </c>
       <c r="BB3" t="n">
-        <v>207.3510589599609</v>
+        <v>168.7421417236328</v>
       </c>
       <c r="BC3" t="n">
-        <v>208.7405395507812</v>
+        <v>170.2727508544922</v>
       </c>
       <c r="BD3" t="n">
-        <v>209.1539764404297</v>
+        <v>171.1849212646484</v>
       </c>
       <c r="BE3" t="n">
-        <v>209.2859344482422</v>
+        <v>170.8385925292969</v>
       </c>
       <c r="BF3" t="n">
-        <v>208.5887756347656</v>
+        <v>172.0182189941406</v>
       </c>
       <c r="BG3" t="n">
-        <v>208.0143432617188</v>
+        <v>172.4967041015625</v>
       </c>
       <c r="BH3" t="n">
-        <v>208.3872375488281</v>
+        <v>172.2483673095703</v>
       </c>
       <c r="BI3" t="n">
-        <v>209.2379302978516</v>
+        <v>172.6187438964844</v>
       </c>
       <c r="BJ3" t="n">
-        <v>210.8974914550781</v>
+        <v>171.5372772216797</v>
       </c>
       <c r="BK3" t="n">
-        <v>212.7350921630859</v>
+        <v>172.3458709716797</v>
       </c>
       <c r="BL3" t="n">
-        <v>213.3336791992188</v>
+        <v>171.7347869873047</v>
       </c>
       <c r="BM3" t="n">
-        <v>214.4037322998047</v>
+        <v>171.8931884765625</v>
       </c>
       <c r="BN3" t="n">
-        <v>215.494873046875</v>
+        <v>172.4907379150391</v>
       </c>
       <c r="BO3" t="n">
-        <v>217.2848510742188</v>
+        <v>172.7144470214844</v>
       </c>
       <c r="BP3" t="n">
-        <v>218.8343658447266</v>
+        <v>172.9539184570312</v>
       </c>
       <c r="BQ3" t="n">
-        <v>221.4298553466797</v>
+        <v>172.5654602050781</v>
       </c>
       <c r="BR3" t="n">
-        <v>222.6690216064453</v>
+        <v>172.4012756347656</v>
       </c>
       <c r="BS3" t="n">
-        <v>226.1415863037109</v>
+        <v>172.3391571044922</v>
       </c>
       <c r="BT3" t="n">
-        <v>227.285400390625</v>
+        <v>172.37451171875</v>
       </c>
       <c r="BU3" t="n">
-        <v>229.5175628662109</v>
+        <v>172.6823577880859</v>
       </c>
       <c r="BV3" t="n">
-        <v>230.6131744384766</v>
+        <v>172.8185272216797</v>
       </c>
       <c r="BW3" t="n">
-        <v>231.5856323242188</v>
+        <v>172.9512176513672</v>
       </c>
       <c r="BX3" t="n">
-        <v>231.8776092529297</v>
+        <v>173.0991516113281</v>
       </c>
       <c r="BY3" t="n">
-        <v>232.8954467773438</v>
+        <v>173.2718200683594</v>
       </c>
       <c r="BZ3" t="n">
-        <v>232.7973327636719</v>
+        <v>173.4516448974609</v>
       </c>
       <c r="CA3" t="n">
-        <v>233.6390228271484</v>
+        <v>173.6573028564453</v>
       </c>
       <c r="CB3" t="n">
-        <v>233.6195068359375</v>
+        <v>173.8706970214844</v>
       </c>
       <c r="CC3" t="n">
-        <v>233.8280487060547</v>
+        <v>174.0903930664062</v>
       </c>
       <c r="CD3" t="n">
-        <v>234.1764984130859</v>
+        <v>174.3190765380859</v>
       </c>
       <c r="CE3" t="n">
-        <v>233.7681884765625</v>
+        <v>174.5360412597656</v>
       </c>
       <c r="CF3" t="n">
-        <v>233.5941162109375</v>
+        <v>174.7404632568359</v>
       </c>
       <c r="CG3" t="n">
-        <v>233.5297393798828</v>
+        <v>174.8813171386719</v>
       </c>
       <c r="CH3" t="n">
-        <v>233.7827911376953</v>
+        <v>174.998779296875</v>
       </c>
       <c r="CI3" t="n">
-        <v>233.9078216552734</v>
+        <v>175.1214599609375</v>
       </c>
       <c r="CJ3" t="n">
-        <v>234.0743408203125</v>
+        <v>175.3379821777344</v>
       </c>
       <c r="CK3" t="n">
-        <v>234.3279266357422</v>
+        <v>175.5234527587891</v>
       </c>
       <c r="CL3" t="n">
-        <v>235.205078125</v>
+        <v>175.754638671875</v>
       </c>
       <c r="CM3" t="n">
-        <v>235.6103820800781</v>
+        <v>175.8777313232422</v>
       </c>
       <c r="CN3" t="n">
-        <v>236.5833740234375</v>
+        <v>176.0235900878906</v>
       </c>
       <c r="CO3" t="n">
-        <v>237.1662445068359</v>
+        <v>176.1526794433594</v>
       </c>
       <c r="CP3" t="n">
-        <v>238.5445709228516</v>
+        <v>176.2855377197266</v>
       </c>
       <c r="CQ3" t="n">
-        <v>239.4187469482422</v>
+        <v>176.5021057128906</v>
       </c>
       <c r="CR3" t="n">
-        <v>239.7247314453125</v>
+        <v>176.5375823974609</v>
       </c>
       <c r="CS3" t="n">
-        <v>240.9936676025391</v>
+        <v>176.4112243652344</v>
       </c>
       <c r="CT3" t="n">
-        <v>240.8764953613281</v>
+        <v>176.0200347900391</v>
       </c>
       <c r="CU3" t="n">
-        <v>240.9188690185547</v>
+        <v>175.5685729980469</v>
       </c>
       <c r="CV3" t="n">
-        <v>241.0076599121094</v>
+        <v>175.2755279541016</v>
       </c>
       <c r="CW3" t="n">
-        <v>241.2504730224609</v>
+        <v>175.0284881591797</v>
       </c>
       <c r="CX3" t="n">
-        <v>241.4305725097656</v>
+        <v>174.9406127929688</v>
       </c>
       <c r="CY3" t="n">
-        <v>242.8724975585938</v>
+        <v>174.5316467285156</v>
       </c>
       <c r="CZ3" t="n">
-        <v>242.7858276367188</v>
+        <v>173.9716644287109</v>
       </c>
       <c r="DA3" t="n">
-        <v>243.30908203125</v>
+        <v>173.4772491455078</v>
       </c>
       <c r="DB3" t="n">
-        <v>243.2398834228516</v>
+        <v>173.5677337646484</v>
       </c>
       <c r="DC3" t="n">
-        <v>243.4297027587891</v>
+        <v>174.0277557373047</v>
       </c>
       <c r="DD3" t="n">
-        <v>243.9127044677734</v>
+        <v>174.7702178955078</v>
       </c>
       <c r="DE3" t="n">
-        <v>244.15869140625</v>
+        <v>175.1927642822266</v>
       </c>
       <c r="DF3" t="n">
-        <v>244.3163146972656</v>
+        <v>174.8840179443359</v>
       </c>
       <c r="DG3" t="n">
-        <v>244.750732421875</v>
+        <v>174.9400329589844</v>
       </c>
       <c r="DH3" t="n">
-        <v>245.6606140136719</v>
+        <v>175.3283538818359</v>
       </c>
       <c r="DI3" t="n">
-        <v>246.0549774169922</v>
+        <v>175.4873046875</v>
       </c>
       <c r="DJ3" t="n">
-        <v>246.2174072265625</v>
+        <v>175.2994995117188</v>
       </c>
       <c r="DK3" t="n">
-        <v>246.4107818603516</v>
+        <v>176.6825714111328</v>
       </c>
       <c r="DL3" t="n">
-        <v>246.2662658691406</v>
+        <v>179.3843994140625</v>
       </c>
       <c r="DM3" t="n">
-        <v>245.9268646240234</v>
+        <v>181.2540740966797</v>
       </c>
       <c r="DN3" t="n">
-        <v>245.9518737792969</v>
+        <v>180.1072387695312</v>
       </c>
       <c r="DO3" t="n">
-        <v>246.3719787597656</v>
+        <v>179.1736602783203</v>
       </c>
       <c r="DP3" t="n">
-        <v>246.4366455078125</v>
+        <v>181.7393341064453</v>
       </c>
       <c r="DQ3" t="n">
-        <v>246.4950866699219</v>
+        <v>182.6721343994141</v>
       </c>
       <c r="DR3" t="n">
-        <v>246.5210418701172</v>
+        <v>182.6852569580078</v>
       </c>
       <c r="DS3" t="n">
-        <v>246.5978088378906</v>
+        <v>181.9189910888672</v>
       </c>
       <c r="DT3" t="n">
-        <v>246.6643218994141</v>
+        <v>180.79541015625</v>
       </c>
       <c r="DU3" t="n">
-        <v>246.6958770751953</v>
+        <v>178.7774200439453</v>
       </c>
       <c r="DV3" t="n">
-        <v>246.7234954833984</v>
+        <v>170.1451263427734</v>
       </c>
       <c r="DW3" t="n">
-        <v>246.7666320800781</v>
+        <v>164.9816436767578</v>
       </c>
       <c r="DX3" t="n">
-        <v>246.8061981201172</v>
+        <v>163.6750335693359</v>
       </c>
       <c r="DY3" t="n">
-        <v>246.8264923095703</v>
+        <v>162.56494140625</v>
       </c>
       <c r="DZ3" t="n">
-        <v>246.8591918945312</v>
+        <v>161.3610076904297</v>
       </c>
       <c r="EA3" t="n">
-        <v>247.1256103515625</v>
+        <v>160.8597869873047</v>
       </c>
       <c r="EB3" t="n">
-        <v>247.5037841796875</v>
+        <v>160.1059265136719</v>
       </c>
       <c r="EC3" t="n">
-        <v>248.0580749511719</v>
+        <v>159.6312408447266</v>
       </c>
       <c r="ED3" t="n">
-        <v>247.9630889892578</v>
+        <v>158.5176696777344</v>
       </c>
       <c r="EE3" t="n">
-        <v>246.9462280273438</v>
+        <v>158.0417327880859</v>
       </c>
       <c r="EF3" t="n">
-        <v>246.4126434326172</v>
+        <v>157.4861755371094</v>
       </c>
       <c r="EG3" t="n">
-        <v>245.9542541503906</v>
+        <v>156.0635070800781</v>
       </c>
       <c r="EH3" t="n">
-        <v>245.8230743408203</v>
+        <v>154.0464782714844</v>
       </c>
       <c r="EI3" t="n">
-        <v>246.2735137939453</v>
+        <v>154.1972961425781</v>
       </c>
       <c r="EJ3" t="n">
-        <v>246.6141662597656</v>
+        <v>156.2038421630859</v>
       </c>
       <c r="EK3" t="n">
-        <v>246.538330078125</v>
+        <v>155.7613220214844</v>
       </c>
       <c r="EL3" t="n">
-        <v>246.4794464111328</v>
+        <v>154.2656860351562</v>
       </c>
       <c r="EM3" t="n">
-        <v>246.2203216552734</v>
+        <v>154.1493225097656</v>
       </c>
       <c r="EN3" t="n">
-        <v>246.1684875488281</v>
+        <v>154.4277801513672</v>
       </c>
       <c r="EO3" t="n">
-        <v>246.1579284667969</v>
+        <v>155.6009979248047</v>
       </c>
       <c r="EP3" t="n">
-        <v>244.9378356933594</v>
+        <v>155.7098846435547</v>
       </c>
       <c r="EQ3" t="n">
-        <v>244.7527923583984</v>
+        <v>155.6942596435547</v>
       </c>
       <c r="ER3" t="n">
-        <v>244.4554443359375</v>
+        <v>156.7170257568359</v>
       </c>
       <c r="ES3" t="n">
-        <v>244.4596557617188</v>
+        <v>159.2293395996094</v>
       </c>
       <c r="ET3" t="n">
-        <v>244.2652740478516</v>
+        <v>160.5906219482422</v>
       </c>
       <c r="EU3" t="n">
-        <v>244.2575988769531</v>
+        <v>159.4589385986328</v>
       </c>
       <c r="EV3" t="n">
-        <v>244.2339782714844</v>
+        <v>159.8792114257812</v>
       </c>
       <c r="EW3" t="n">
-        <v>244.2038726806641</v>
+        <v>159.2761993408203</v>
       </c>
       <c r="EX3" t="n">
-        <v>244.1877593994141</v>
+        <v>159.5582122802734</v>
       </c>
       <c r="EY3" t="n">
-        <v>244.2070159912109</v>
+        <v>157.9200439453125</v>
       </c>
       <c r="EZ3" t="n">
-        <v>244.2099609375</v>
+        <v>157.5895233154297</v>
       </c>
       <c r="FA3" t="n">
-        <v>244.2614135742188</v>
+        <v>158.0313110351562</v>
       </c>
       <c r="FB3" t="n">
-        <v>244.2859191894531</v>
+        <v>158.7383728027344</v>
       </c>
       <c r="FC3" t="n">
-        <v>244.3062744140625</v>
+        <v>159.6059417724609</v>
       </c>
       <c r="FD3" t="n">
-        <v>244.3471832275391</v>
+        <v>164.0211791992188</v>
       </c>
       <c r="FE3" t="n">
-        <v>244.3504180908203</v>
+        <v>169.0812377929688</v>
       </c>
       <c r="FF3" t="n">
-        <v>244.3373413085938</v>
+        <v>179.138427734375</v>
       </c>
       <c r="FG3" t="n">
-        <v>244.3942108154297</v>
+        <v>183.6266937255859</v>
       </c>
       <c r="FH3" t="n">
-        <v>243.2894287109375</v>
+        <v>194.4116058349609</v>
       </c>
       <c r="FI3" t="n">
-        <v>243.1887817382812</v>
+        <v>198.6795501708984</v>
       </c>
       <c r="FJ3" t="n">
-        <v>243.0538330078125</v>
+        <v>216.8085327148438</v>
       </c>
       <c r="FK3" t="n">
-        <v>242.9451904296875</v>
+        <v>231.9276885986328</v>
       </c>
       <c r="FL3" t="n">
-        <v>242.9027404785156</v>
+        <v>247.7743682861328</v>
       </c>
       <c r="FM3" t="n">
-        <v>242.8320465087891</v>
+        <v>252.9560546875</v>
       </c>
       <c r="FN3" t="n">
-        <v>242.8025512695312</v>
+        <v>262.5816345214844</v>
       </c>
       <c r="FO3" t="n">
-        <v>242.7900390625</v>
+        <v>279.8055114746094</v>
       </c>
       <c r="FP3" t="n">
-        <v>242.7830047607422</v>
+        <v>295.2964782714844</v>
       </c>
       <c r="FQ3" t="n">
-        <v>242.7942810058594</v>
+        <v>299.0913391113281</v>
       </c>
       <c r="FR3" t="n">
-        <v>242.8077850341797</v>
+        <v>293.0845336914062</v>
       </c>
       <c r="FS3" t="n">
-        <v>243.4449920654297</v>
+        <v>287.0412292480469</v>
       </c>
       <c r="FT3" t="n">
-        <v>244.4407653808594</v>
+        <v>279.0268859863281</v>
       </c>
       <c r="FU3" t="n">
-        <v>244.7582244873047</v>
+        <v>272.1744079589844</v>
       </c>
       <c r="FV3" t="n">
-        <v>244.9329986572266</v>
+        <v>271.7728881835938</v>
       </c>
       <c r="FW3" t="n">
-        <v>245.0185241699219</v>
+        <v>272.7968444824219</v>
       </c>
       <c r="FX3" t="n">
-        <v>245.0562591552734</v>
+        <v>272.675048828125</v>
       </c>
       <c r="FY3" t="n">
-        <v>245.2270355224609</v>
+        <v>272.5184631347656</v>
       </c>
       <c r="FZ3" t="n">
-        <v>245.3292236328125</v>
+        <v>273.0525817871094</v>
       </c>
       <c r="GA3" t="n">
-        <v>245.5041198730469</v>
+        <v>272.3039855957031</v>
       </c>
       <c r="GB3" t="n">
-        <v>245.6340942382812</v>
+        <v>271.6471252441406</v>
       </c>
       <c r="GC3" t="n">
-        <v>245.8557434082031</v>
+        <v>270.6080322265625</v>
       </c>
       <c r="GD3" t="n">
-        <v>246.0874633789062</v>
+        <v>269.4268188476562</v>
       </c>
       <c r="GE3" t="n">
-        <v>246.1669616699219</v>
+        <v>268.8739318847656</v>
       </c>
       <c r="GF3" t="n">
-        <v>246.1941375732422</v>
+        <v>267.40087890625</v>
       </c>
       <c r="GG3" t="n">
-        <v>246.1284027099609</v>
+        <v>272.649169921875</v>
       </c>
       <c r="GH3" t="n">
-        <v>245.6611328125</v>
+        <v>274.3286743164062</v>
       </c>
       <c r="GI3" t="n">
-        <v>244.4351043701172</v>
+        <v>277.0025939941406</v>
       </c>
       <c r="GJ3" t="n">
-        <v>244.2456970214844</v>
+        <v>282.7745056152344</v>
       </c>
       <c r="GK3" t="n">
-        <v>242.9844818115234</v>
+        <v>293.3366088867188</v>
       </c>
       <c r="GL3" t="n">
-        <v>243.5153961181641</v>
+        <v>296.7113037109375</v>
       </c>
       <c r="GM3" t="n">
-        <v>243.0469970703125</v>
+        <v>294.4110717773438</v>
       </c>
       <c r="GN3" t="n">
-        <v>242.9453430175781</v>
+        <v>288.4481201171875</v>
       </c>
       <c r="GO3" t="n">
-        <v>243.1370849609375</v>
+        <v>286.1195373535156</v>
       </c>
       <c r="GP3" t="n">
-        <v>243.6826171875</v>
+        <v>276.2175903320312</v>
       </c>
       <c r="GQ3" t="n">
-        <v>244.1740875244141</v>
-      </c>
-      <c r="GR3" t="n">
-        <v>244.4543609619141</v>
-      </c>
-      <c r="GS3" t="n">
-        <v>244.4529266357422</v>
-      </c>
-      <c r="GT3" t="n">
-        <v>244.4694061279297</v>
-      </c>
-      <c r="GU3" t="n">
-        <v>244.4845886230469</v>
-      </c>
-      <c r="GV3" t="n">
-        <v>244.0123291015625</v>
-      </c>
-      <c r="GW3" t="n">
-        <v>242.9765777587891</v>
-      </c>
-      <c r="GX3" t="n">
-        <v>242.9272003173828</v>
-      </c>
-      <c r="GY3" t="n">
-        <v>243.6432037353516</v>
-      </c>
-      <c r="GZ3" t="n">
-        <v>243.7388153076172</v>
-      </c>
-      <c r="HA3" t="n">
-        <v>243.0289916992188</v>
-      </c>
-      <c r="HB3" t="n">
-        <v>243.1399688720703</v>
-      </c>
-      <c r="HC3" t="n">
-        <v>242.3919067382812</v>
-      </c>
-      <c r="HD3" t="n">
-        <v>242.2882232666016</v>
-      </c>
-      <c r="HE3" t="n">
-        <v>241.9307556152344</v>
-      </c>
-      <c r="HF3" t="n">
-        <v>241.7581481933594</v>
-      </c>
-      <c r="HG3" t="n">
-        <v>241.8326873779297</v>
-      </c>
-      <c r="HH3" t="n">
-        <v>240.2029876708984</v>
-      </c>
-      <c r="HI3" t="n">
-        <v>234.8364410400391</v>
-      </c>
-      <c r="HJ3" t="n">
-        <v>232.7490844726562</v>
-      </c>
-      <c r="HK3" t="n">
-        <v>230.2538299560547</v>
-      </c>
-      <c r="HL3" t="n">
-        <v>229.306884765625</v>
-      </c>
-      <c r="HM3" t="n">
-        <v>228.4507751464844</v>
-      </c>
-      <c r="HN3" t="n">
-        <v>227.0814208984375</v>
-      </c>
-      <c r="HO3" t="n">
-        <v>222.4904632568359</v>
-      </c>
-      <c r="HP3" t="n">
-        <v>219.9788360595703</v>
-      </c>
-      <c r="HQ3" t="n">
-        <v>219.2104187011719</v>
-      </c>
-      <c r="HR3" t="n">
-        <v>218.6123352050781</v>
-      </c>
-      <c r="HS3" t="n">
-        <v>218.2371368408203</v>
-      </c>
-      <c r="HT3" t="n">
-        <v>218.4520874023438</v>
-      </c>
-      <c r="HU3" t="n">
-        <v>216.8443603515625</v>
-      </c>
-      <c r="HV3" t="n">
-        <v>216.3133697509766</v>
-      </c>
-      <c r="HW3" t="n">
-        <v>209.3194274902344</v>
-      </c>
-      <c r="HX3" t="n">
-        <v>203.9832763671875</v>
-      </c>
-      <c r="HY3" t="n">
-        <v>201.3072967529297</v>
-      </c>
-      <c r="HZ3" t="n">
-        <v>199.8358306884766</v>
-      </c>
-      <c r="IA3" t="n">
-        <v>195.9420166015625</v>
-      </c>
-      <c r="IB3" t="n">
-        <v>189.5003967285156</v>
-      </c>
-      <c r="IC3" t="n">
-        <v>188.25830078125</v>
-      </c>
-      <c r="ID3" t="n">
-        <v>186.0301666259766</v>
-      </c>
-      <c r="IE3" t="n">
-        <v>183.53076171875</v>
-      </c>
-      <c r="IF3" t="n">
-        <v>180.3990173339844</v>
-      </c>
-      <c r="IG3" t="n">
-        <v>177.2291870117188</v>
-      </c>
-      <c r="IH3" t="n">
-        <v>172.5625305175781</v>
-      </c>
-      <c r="II3" t="n">
-        <v>168.8822174072266</v>
-      </c>
-      <c r="IJ3" t="n">
-        <v>165.1943511962891</v>
-      </c>
-      <c r="IK3" t="n">
-        <v>164.8713989257812</v>
-      </c>
-      <c r="IL3" t="n">
-        <v>167.30810546875</v>
-      </c>
-      <c r="IM3" t="n">
-        <v>163.6993408203125</v>
-      </c>
-      <c r="IN3" t="n">
-        <v>191.3810119628906</v>
-      </c>
-      <c r="IO3" t="n">
-        <v>256.9449768066406</v>
-      </c>
-      <c r="IP3" t="n">
-        <v>294.1513061523438</v>
-      </c>
-      <c r="IQ3" t="n">
-        <v>291.2828979492188</v>
-      </c>
-      <c r="IR3" t="n">
-        <v>264.4606628417969</v>
-      </c>
-      <c r="IS3" t="n">
-        <v>244.3491821289062</v>
-      </c>
-      <c r="IT3" t="n">
-        <v>231.1254119873047</v>
-      </c>
-      <c r="IU3" t="n">
-        <v>223.0869903564453</v>
-      </c>
-      <c r="IV3" t="n">
-        <v>189.1759185791016</v>
-      </c>
-      <c r="IW3" t="n">
-        <v>142.6765899658203</v>
-      </c>
-      <c r="IX3" t="n">
-        <v>159.8278045654297</v>
-      </c>
-      <c r="IY3" t="n">
-        <v>189.0911560058594</v>
-      </c>
-      <c r="IZ3" t="n">
-        <v>226.6051940917969</v>
-      </c>
-      <c r="JA3" t="n">
-        <v>255.5748596191406</v>
-      </c>
-      <c r="JB3" t="n">
-        <v>279.2926025390625</v>
-      </c>
-      <c r="JC3" t="n">
-        <v>284.9049072265625</v>
-      </c>
-      <c r="JD3" t="n">
-        <v>287.2178039550781</v>
-      </c>
-      <c r="JE3" t="n">
-        <v>285.2352905273438</v>
-      </c>
-      <c r="JF3" t="n">
-        <v>289.8016662597656</v>
-      </c>
-      <c r="JG3" t="n">
-        <v>295.0075988769531</v>
-      </c>
-      <c r="JH3" t="n">
-        <v>298.3392028808594</v>
-      </c>
-      <c r="JI3" t="n">
-        <v>298.1472778320312</v>
-      </c>
-      <c r="JJ3" t="n">
-        <v>300.3104553222656</v>
-      </c>
-      <c r="JK3" t="n">
-        <v>299.4000854492188</v>
-      </c>
-      <c r="JL3" t="n">
-        <v>299.4345397949219</v>
-      </c>
-      <c r="JM3" t="n">
-        <v>296.607421875</v>
+        <v>280.0767211914062</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>955.1826171875</v>
+        <v>1244.113647460938</v>
       </c>
       <c r="B4" t="n">
-        <v>954.93603515625</v>
+        <v>1227.322143554688</v>
       </c>
       <c r="C4" t="n">
-        <v>954.7288208007812</v>
+        <v>1232.789794921875</v>
       </c>
       <c r="D4" t="n">
-        <v>954.48193359375</v>
+        <v>1225.408569335938</v>
       </c>
       <c r="E4" t="n">
-        <v>954.2600708007812</v>
+        <v>1221.681640625</v>
       </c>
       <c r="F4" t="n">
-        <v>954.3414306640625</v>
+        <v>1220.235229492188</v>
       </c>
       <c r="G4" t="n">
-        <v>954.33349609375</v>
+        <v>1223.476806640625</v>
       </c>
       <c r="H4" t="n">
-        <v>954.3331909179688</v>
+        <v>1224.260986328125</v>
       </c>
       <c r="I4" t="n">
-        <v>954.3408813476562</v>
+        <v>1224.39453125</v>
       </c>
       <c r="J4" t="n">
-        <v>954.348388671875</v>
+        <v>1228.315795898438</v>
       </c>
       <c r="K4" t="n">
-        <v>954.3545532226562</v>
+        <v>1237.002807617188</v>
       </c>
       <c r="L4" t="n">
-        <v>954.2725830078125</v>
+        <v>1254.602783203125</v>
       </c>
       <c r="M4" t="n">
-        <v>954.1865844726562</v>
+        <v>1271.379150390625</v>
       </c>
       <c r="N4" t="n">
-        <v>954.24560546875</v>
+        <v>1286.080078125</v>
       </c>
       <c r="O4" t="n">
-        <v>954.3063354492188</v>
+        <v>1304.84375</v>
       </c>
       <c r="P4" t="n">
-        <v>954.368408203125</v>
+        <v>1329.570556640625</v>
       </c>
       <c r="Q4" t="n">
-        <v>954.4038696289062</v>
+        <v>1330.735961914062</v>
       </c>
       <c r="R4" t="n">
-        <v>954.457763671875</v>
+        <v>1352.99267578125</v>
       </c>
       <c r="S4" t="n">
-        <v>954.5090942382812</v>
+        <v>1354.475341796875</v>
       </c>
       <c r="T4" t="n">
-        <v>954.5003662109375</v>
+        <v>1378.460083007812</v>
       </c>
       <c r="U4" t="n">
-        <v>954.4539794921875</v>
+        <v>1377.3583984375</v>
       </c>
       <c r="V4" t="n">
-        <v>954.4494018554688</v>
+        <v>1382.5361328125</v>
       </c>
       <c r="W4" t="n">
-        <v>955.5327758789062</v>
+        <v>1381.767700195312</v>
       </c>
       <c r="X4" t="n">
-        <v>962.8427124023438</v>
+        <v>1384.15771484375</v>
       </c>
       <c r="Y4" t="n">
-        <v>977.3599853515625</v>
+        <v>1387.922973632812</v>
       </c>
       <c r="Z4" t="n">
-        <v>990.792236328125</v>
+        <v>1392.639770507812</v>
       </c>
       <c r="AA4" t="n">
-        <v>998.1162109375</v>
+        <v>1393.999389648438</v>
       </c>
       <c r="AB4" t="n">
-        <v>1004.584350585938</v>
+        <v>1393.056518554688</v>
       </c>
       <c r="AC4" t="n">
-        <v>1006.034729003906</v>
+        <v>1391.150634765625</v>
       </c>
       <c r="AD4" t="n">
-        <v>1008.334045410156</v>
+        <v>1390.36962890625</v>
       </c>
       <c r="AE4" t="n">
-        <v>1008.40966796875</v>
+        <v>1387.334716796875</v>
       </c>
       <c r="AF4" t="n">
-        <v>1009.189819335938</v>
+        <v>1378.538818359375</v>
       </c>
       <c r="AG4" t="n">
-        <v>1010.301513671875</v>
+        <v>1367.570556640625</v>
       </c>
       <c r="AH4" t="n">
-        <v>1015.679077148438</v>
+        <v>1360.5732421875</v>
       </c>
       <c r="AI4" t="n">
-        <v>1025.200927734375</v>
+        <v>1354.620849609375</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1030.679077148438</v>
+        <v>1349.372436523438</v>
       </c>
       <c r="AK4" t="n">
-        <v>1036.577880859375</v>
+        <v>1346.712524414062</v>
       </c>
       <c r="AL4" t="n">
-        <v>1046.10302734375</v>
+        <v>1347.683959960938</v>
       </c>
       <c r="AM4" t="n">
-        <v>1054.916015625</v>
+        <v>1349.01904296875</v>
       </c>
       <c r="AN4" t="n">
-        <v>1065.284790039062</v>
+        <v>1347.692138671875</v>
       </c>
       <c r="AO4" t="n">
-        <v>1072.0712890625</v>
+        <v>1346.390258789062</v>
       </c>
       <c r="AP4" t="n">
-        <v>1083.877319335938</v>
+        <v>1344.589477539062</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1097.385498046875</v>
+        <v>1337.988647460938</v>
       </c>
       <c r="AR4" t="n">
-        <v>1113.137084960938</v>
+        <v>1333.264770507812</v>
       </c>
       <c r="AS4" t="n">
-        <v>1132.99560546875</v>
+        <v>1330.7470703125</v>
       </c>
       <c r="AT4" t="n">
-        <v>1149.498291015625</v>
+        <v>1328.902221679688</v>
       </c>
       <c r="AU4" t="n">
-        <v>1167.686279296875</v>
+        <v>1329.545654296875</v>
       </c>
       <c r="AV4" t="n">
-        <v>1191.786743164062</v>
+        <v>1328.1123046875</v>
       </c>
       <c r="AW4" t="n">
-        <v>1223.828491210938</v>
+        <v>1328.172485351562</v>
       </c>
       <c r="AX4" t="n">
-        <v>1253.497314453125</v>
+        <v>1327.66943359375</v>
       </c>
       <c r="AY4" t="n">
-        <v>1283.0078125</v>
+        <v>1328.893798828125</v>
       </c>
       <c r="AZ4" t="n">
-        <v>1308.436401367188</v>
+        <v>1327.967041015625</v>
       </c>
       <c r="BA4" t="n">
-        <v>1329.626586914062</v>
+        <v>1331.719604492188</v>
       </c>
       <c r="BB4" t="n">
-        <v>1357.773681640625</v>
+        <v>1335.262939453125</v>
       </c>
       <c r="BC4" t="n">
-        <v>1379.804077148438</v>
+        <v>1335.348876953125</v>
       </c>
       <c r="BD4" t="n">
-        <v>1402.817504882812</v>
+        <v>1339.252075195312</v>
       </c>
       <c r="BE4" t="n">
-        <v>1418.979736328125</v>
+        <v>1344.287841796875</v>
       </c>
       <c r="BF4" t="n">
-        <v>1446.4912109375</v>
+        <v>1347.846313476562</v>
       </c>
       <c r="BG4" t="n">
-        <v>1461.844360351562</v>
+        <v>1351.924438476562</v>
       </c>
       <c r="BH4" t="n">
-        <v>1482.711791992188</v>
+        <v>1353.389404296875</v>
       </c>
       <c r="BI4" t="n">
-        <v>1513.546020507812</v>
+        <v>1355.95166015625</v>
       </c>
       <c r="BJ4" t="n">
-        <v>1529.8828125</v>
+        <v>1356.521118164062</v>
       </c>
       <c r="BK4" t="n">
-        <v>1556.638793945312</v>
+        <v>1360.54931640625</v>
       </c>
       <c r="BL4" t="n">
-        <v>1567.58203125</v>
+        <v>1361.384033203125</v>
       </c>
       <c r="BM4" t="n">
-        <v>1591.234252929688</v>
+        <v>1365.234375</v>
       </c>
       <c r="BN4" t="n">
-        <v>1606.484497070312</v>
+        <v>1366.228637695312</v>
       </c>
       <c r="BO4" t="n">
-        <v>1626.130004882812</v>
+        <v>1366.811279296875</v>
       </c>
       <c r="BP4" t="n">
-        <v>1646.147338867188</v>
+        <v>1368.184814453125</v>
       </c>
       <c r="BQ4" t="n">
-        <v>1672.954223632812</v>
+        <v>1369.01123046875</v>
       </c>
       <c r="BR4" t="n">
-        <v>1689.062255859375</v>
+        <v>1368.817016601562</v>
       </c>
       <c r="BS4" t="n">
-        <v>1712.167236328125</v>
+        <v>1368.796508789062</v>
       </c>
       <c r="BT4" t="n">
-        <v>1716.604614257812</v>
+        <v>1368.9033203125</v>
       </c>
       <c r="BU4" t="n">
-        <v>1743.447265625</v>
+        <v>1369.132446289062</v>
       </c>
       <c r="BV4" t="n">
-        <v>1760.3583984375</v>
+        <v>1369.202514648438</v>
       </c>
       <c r="BW4" t="n">
-        <v>1787.742919921875</v>
+        <v>1369.22265625</v>
       </c>
       <c r="BX4" t="n">
-        <v>1806.278442382812</v>
+        <v>1369.251708984375</v>
       </c>
       <c r="BY4" t="n">
-        <v>1831.259399414062</v>
+        <v>1369.286987304688</v>
       </c>
       <c r="BZ4" t="n">
-        <v>1834.716430664062</v>
+        <v>1369.326782226562</v>
       </c>
       <c r="CA4" t="n">
-        <v>1861.685668945312</v>
+        <v>1369.381225585938</v>
       </c>
       <c r="CB4" t="n">
-        <v>1862.328002929688</v>
+        <v>1369.43408203125</v>
       </c>
       <c r="CC4" t="n">
-        <v>1876.734008789062</v>
+        <v>1369.502197265625</v>
       </c>
       <c r="CD4" t="n">
-        <v>1884.48974609375</v>
+        <v>1369.56298828125</v>
       </c>
       <c r="CE4" t="n">
-        <v>1913.641357421875</v>
+        <v>1369.671997070312</v>
       </c>
       <c r="CF4" t="n">
-        <v>1929.419677734375</v>
+        <v>1369.773681640625</v>
       </c>
       <c r="CG4" t="n">
-        <v>1958.439453125</v>
+        <v>1369.859497070312</v>
       </c>
       <c r="CH4" t="n">
-        <v>1966.214111328125</v>
+        <v>1369.940063476562</v>
       </c>
       <c r="CI4" t="n">
-        <v>1968.508422851562</v>
+        <v>1369.983520507812</v>
       </c>
       <c r="CJ4" t="n">
-        <v>1977.1982421875</v>
+        <v>1370.043212890625</v>
       </c>
       <c r="CK4" t="n">
-        <v>2001.63916015625</v>
+        <v>1370.031372070312</v>
       </c>
       <c r="CL4" t="n">
-        <v>2004.391845703125</v>
+        <v>1369.990356445312</v>
       </c>
       <c r="CM4" t="n">
-        <v>2006.850708007812</v>
+        <v>1369.95751953125</v>
       </c>
       <c r="CN4" t="n">
-        <v>2017.814331054688</v>
+        <v>1369.920776367188</v>
       </c>
       <c r="CO4" t="n">
-        <v>2021.663696289062</v>
+        <v>1369.86083984375</v>
       </c>
       <c r="CP4" t="n">
-        <v>2039.064697265625</v>
+        <v>1369.758666992188</v>
       </c>
       <c r="CQ4" t="n">
-        <v>2042.209106445312</v>
+        <v>1369.612426757812</v>
       </c>
       <c r="CR4" t="n">
-        <v>2052.668212890625</v>
+        <v>1369.07080078125</v>
       </c>
       <c r="CS4" t="n">
-        <v>2059.6416015625</v>
+        <v>1367.560668945312</v>
       </c>
       <c r="CT4" t="n">
-        <v>2085.8017578125</v>
+        <v>1360.752319335938</v>
       </c>
       <c r="CU4" t="n">
-        <v>2089.06591796875</v>
+        <v>1353.580688476562</v>
       </c>
       <c r="CV4" t="n">
-        <v>2116.9072265625</v>
+        <v>1349.193481445312</v>
       </c>
       <c r="CW4" t="n">
-        <v>2117.021484375</v>
+        <v>1345.53466796875</v>
       </c>
       <c r="CX4" t="n">
-        <v>2141.14013671875</v>
+        <v>1345.652221679688</v>
       </c>
       <c r="CY4" t="n">
-        <v>2166.6650390625</v>
+        <v>1345.887573242188</v>
       </c>
       <c r="CZ4" t="n">
-        <v>2157.655517578125</v>
+        <v>1346.22509765625</v>
       </c>
       <c r="DA4" t="n">
-        <v>2179.495361328125</v>
+        <v>1346.566650390625</v>
       </c>
       <c r="DB4" t="n">
-        <v>2185.776123046875</v>
+        <v>1346.556030273438</v>
       </c>
       <c r="DC4" t="n">
-        <v>2185.74853515625</v>
+        <v>1346.289306640625</v>
       </c>
       <c r="DD4" t="n">
-        <v>2185.962890625</v>
+        <v>1345.86865234375</v>
       </c>
       <c r="DE4" t="n">
-        <v>2186.599609375</v>
+        <v>1345.65576171875</v>
       </c>
       <c r="DF4" t="n">
-        <v>2187.47900390625</v>
+        <v>1345.92431640625</v>
       </c>
       <c r="DG4" t="n">
-        <v>2201.406494140625</v>
+        <v>1345.960571289062</v>
       </c>
       <c r="DH4" t="n">
-        <v>2203.544677734375</v>
+        <v>1345.835571289062</v>
       </c>
       <c r="DI4" t="n">
-        <v>2203.502197265625</v>
+        <v>1345.878051757812</v>
       </c>
       <c r="DJ4" t="n">
-        <v>2203.545166015625</v>
+        <v>1346.19189453125</v>
       </c>
       <c r="DK4" t="n">
-        <v>2210.63623046875</v>
+        <v>1352.175415039062</v>
       </c>
       <c r="DL4" t="n">
-        <v>2209.048828125</v>
+        <v>1353.131469726562</v>
       </c>
       <c r="DM4" t="n">
-        <v>2207.376708984375</v>
+        <v>1353.403442382812</v>
       </c>
       <c r="DN4" t="n">
-        <v>2207.4462890625</v>
+        <v>1352.187377929688</v>
       </c>
       <c r="DO4" t="n">
-        <v>2207.688232421875</v>
+        <v>1351.334594726562</v>
       </c>
       <c r="DP4" t="n">
-        <v>2207.716552734375</v>
+        <v>1351.1640625</v>
       </c>
       <c r="DQ4" t="n">
-        <v>2207.760986328125</v>
+        <v>1345.919555664062</v>
       </c>
       <c r="DR4" t="n">
-        <v>2207.781982421875</v>
+        <v>1339.183959960938</v>
       </c>
       <c r="DS4" t="n">
-        <v>2207.81640625</v>
+        <v>1322.699340820312</v>
       </c>
       <c r="DT4" t="n">
-        <v>2207.862060546875</v>
+        <v>1317.16748046875</v>
       </c>
       <c r="DU4" t="n">
-        <v>2207.87646484375</v>
+        <v>1316.075073242188</v>
       </c>
       <c r="DV4" t="n">
-        <v>2207.890869140625</v>
+        <v>1314.08203125</v>
       </c>
       <c r="DW4" t="n">
-        <v>2207.904541015625</v>
+        <v>1310.5126953125</v>
       </c>
       <c r="DX4" t="n">
-        <v>2207.90234375</v>
+        <v>1308.104248046875</v>
       </c>
       <c r="DY4" t="n">
-        <v>2207.857421875</v>
+        <v>1303.666381835938</v>
       </c>
       <c r="DZ4" t="n">
-        <v>2207.790771484375</v>
+        <v>1295.588134765625</v>
       </c>
       <c r="EA4" t="n">
-        <v>2207.041015625</v>
+        <v>1291.918212890625</v>
       </c>
       <c r="EB4" t="n">
-        <v>2206.342529296875</v>
+        <v>1283.078735351562</v>
       </c>
       <c r="EC4" t="n">
-        <v>2204.216552734375</v>
+        <v>1277.765747070312</v>
       </c>
       <c r="ED4" t="n">
-        <v>2203.240234375</v>
+        <v>1258.0771484375</v>
       </c>
       <c r="EE4" t="n">
-        <v>2201.83154296875</v>
+        <v>1249.773193359375</v>
       </c>
       <c r="EF4" t="n">
-        <v>2199.783935546875</v>
+        <v>1244.091064453125</v>
       </c>
       <c r="EG4" t="n">
-        <v>2195.84326171875</v>
+        <v>1227.363891601562</v>
       </c>
       <c r="EH4" t="n">
-        <v>2194.6103515625</v>
+        <v>1219.929809570312</v>
       </c>
       <c r="EI4" t="n">
-        <v>2191.169189453125</v>
+        <v>1200.74658203125</v>
       </c>
       <c r="EJ4" t="n">
-        <v>2187.775146484375</v>
+        <v>1190.388916015625</v>
       </c>
       <c r="EK4" t="n">
-        <v>2188.095947265625</v>
+        <v>1163.988403320312</v>
       </c>
       <c r="EL4" t="n">
-        <v>2189.9658203125</v>
+        <v>1137.939331054688</v>
       </c>
       <c r="EM4" t="n">
-        <v>2191.270751953125</v>
+        <v>1103.765991210938</v>
       </c>
       <c r="EN4" t="n">
-        <v>2189.79736328125</v>
+        <v>1095.56787109375</v>
       </c>
       <c r="EO4" t="n">
-        <v>2189.782958984375</v>
+        <v>1069.0927734375</v>
       </c>
       <c r="EP4" t="n">
-        <v>2189.47509765625</v>
+        <v>1059.58349609375</v>
       </c>
       <c r="EQ4" t="n">
-        <v>2186.632568359375</v>
+        <v>1029.914672851562</v>
       </c>
       <c r="ER4" t="n">
-        <v>2178.383056640625</v>
+        <v>1020.806579589844</v>
       </c>
       <c r="ES4" t="n">
-        <v>2174.134765625</v>
+        <v>996.730224609375</v>
       </c>
       <c r="ET4" t="n">
-        <v>2178.66796875</v>
+        <v>988.832275390625</v>
       </c>
       <c r="EU4" t="n">
-        <v>2177.781494140625</v>
+        <v>978.0176391601562</v>
       </c>
       <c r="EV4" t="n">
-        <v>2178.5029296875</v>
+        <v>961.3196411132812</v>
       </c>
       <c r="EW4" t="n">
-        <v>2178.514892578125</v>
+        <v>947.3143920898438</v>
       </c>
       <c r="EX4" t="n">
-        <v>2179.7197265625</v>
+        <v>936.598876953125</v>
       </c>
       <c r="EY4" t="n">
-        <v>2179.67041015625</v>
+        <v>922.5267333984375</v>
       </c>
       <c r="EZ4" t="n">
-        <v>2179.684814453125</v>
+        <v>908.6171264648438</v>
       </c>
       <c r="FA4" t="n">
-        <v>2179.740234375</v>
+        <v>899.2132568359375</v>
       </c>
       <c r="FB4" t="n">
-        <v>2179.7861328125</v>
+        <v>889.1103515625</v>
       </c>
       <c r="FC4" t="n">
-        <v>2179.83056640625</v>
+        <v>878.6708984375</v>
       </c>
       <c r="FD4" t="n">
-        <v>2179.91796875</v>
+        <v>865.9380493164062</v>
       </c>
       <c r="FE4" t="n">
-        <v>2179.974609375</v>
+        <v>858.7467651367188</v>
       </c>
       <c r="FF4" t="n">
-        <v>2180.023193359375</v>
+        <v>853.461669921875</v>
       </c>
       <c r="FG4" t="n">
-        <v>2180.10595703125</v>
+        <v>855.7291259765625</v>
       </c>
       <c r="FH4" t="n">
-        <v>2174.433349609375</v>
+        <v>866.1087646484375</v>
       </c>
       <c r="FI4" t="n">
-        <v>2169.819580078125</v>
+        <v>874.5333251953125</v>
       </c>
       <c r="FJ4" t="n">
-        <v>2170.873291015625</v>
+        <v>883.6121826171875</v>
       </c>
       <c r="FK4" t="n">
-        <v>2170.688232421875</v>
+        <v>882.2737426757812</v>
       </c>
       <c r="FL4" t="n">
-        <v>2170.550048828125</v>
+        <v>890.3200073242188</v>
       </c>
       <c r="FM4" t="n">
-        <v>2170.45361328125</v>
+        <v>892.0993041992188</v>
       </c>
       <c r="FN4" t="n">
-        <v>2170.42333984375</v>
+        <v>888.8680419921875</v>
       </c>
       <c r="FO4" t="n">
-        <v>2170.3740234375</v>
+        <v>884.763671875</v>
       </c>
       <c r="FP4" t="n">
-        <v>2170.30908203125</v>
+        <v>890.1625366210938</v>
       </c>
       <c r="FQ4" t="n">
-        <v>2170.384033203125</v>
+        <v>896.944091796875</v>
       </c>
       <c r="FR4" t="n">
-        <v>2170.3544921875</v>
+        <v>920.9352416992188</v>
       </c>
       <c r="FS4" t="n">
-        <v>2168.51806640625</v>
+        <v>925.4952392578125</v>
       </c>
       <c r="FT4" t="n">
-        <v>2168.54443359375</v>
+        <v>934.5465087890625</v>
       </c>
       <c r="FU4" t="n">
-        <v>2168.4267578125</v>
+        <v>921.119140625</v>
       </c>
       <c r="FV4" t="n">
-        <v>2168.417724609375</v>
+        <v>921.2938232421875</v>
       </c>
       <c r="FW4" t="n">
-        <v>2168.362060546875</v>
+        <v>923.5580444335938</v>
       </c>
       <c r="FX4" t="n">
-        <v>2168.238525390625</v>
+        <v>923.703125</v>
       </c>
       <c r="FY4" t="n">
-        <v>2168.166015625</v>
+        <v>923.6492309570312</v>
       </c>
       <c r="FZ4" t="n">
-        <v>2168.117431640625</v>
+        <v>924.2714233398438</v>
       </c>
       <c r="GA4" t="n">
-        <v>2168.056884765625</v>
+        <v>923.382568359375</v>
       </c>
       <c r="GB4" t="n">
-        <v>2167.979736328125</v>
+        <v>923.2046508789062</v>
       </c>
       <c r="GC4" t="n">
-        <v>2167.833984375</v>
+        <v>913.7704467773438</v>
       </c>
       <c r="GD4" t="n">
-        <v>2167.7138671875</v>
+        <v>906.21044921875</v>
       </c>
       <c r="GE4" t="n">
-        <v>2167.60791015625</v>
+        <v>904.9270629882812</v>
       </c>
       <c r="GF4" t="n">
-        <v>2167.42529296875</v>
+        <v>901.5908203125</v>
       </c>
       <c r="GG4" t="n">
-        <v>2167.335693359375</v>
+        <v>899.7565307617188</v>
       </c>
       <c r="GH4" t="n">
-        <v>2166.81201171875</v>
+        <v>907.7947387695312</v>
       </c>
       <c r="GI4" t="n">
-        <v>2165.795654296875</v>
+        <v>903.9783325195312</v>
       </c>
       <c r="GJ4" t="n">
-        <v>2165.411865234375</v>
+        <v>882.745361328125</v>
       </c>
       <c r="GK4" t="n">
-        <v>2165.59228515625</v>
+        <v>852.077880859375</v>
       </c>
       <c r="GL4" t="n">
-        <v>2165.105224609375</v>
+        <v>825.5328979492188</v>
       </c>
       <c r="GM4" t="n">
-        <v>2157.63330078125</v>
+        <v>838.7572631835938</v>
       </c>
       <c r="GN4" t="n">
-        <v>2160.115234375</v>
+        <v>831.3522338867188</v>
       </c>
       <c r="GO4" t="n">
-        <v>2159.703125</v>
+        <v>830.56689453125</v>
       </c>
       <c r="GP4" t="n">
-        <v>2162.138427734375</v>
+        <v>815.59814453125</v>
       </c>
       <c r="GQ4" t="n">
-        <v>2162.09912109375</v>
-      </c>
-      <c r="GR4" t="n">
-        <v>2162.634521484375</v>
-      </c>
-      <c r="GS4" t="n">
-        <v>2163.10986328125</v>
-      </c>
-      <c r="GT4" t="n">
-        <v>2163.24658203125</v>
-      </c>
-      <c r="GU4" t="n">
-        <v>2162.985107421875</v>
-      </c>
-      <c r="GV4" t="n">
-        <v>2162.61083984375</v>
-      </c>
-      <c r="GW4" t="n">
-        <v>2161.685546875</v>
-      </c>
-      <c r="GX4" t="n">
-        <v>2156.32568359375</v>
-      </c>
-      <c r="GY4" t="n">
-        <v>2143.26806640625</v>
-      </c>
-      <c r="GZ4" t="n">
-        <v>2116.57177734375</v>
-      </c>
-      <c r="HA4" t="n">
-        <v>2116.775390625</v>
-      </c>
-      <c r="HB4" t="n">
-        <v>2083.146484375</v>
-      </c>
-      <c r="HC4" t="n">
-        <v>2066.171630859375</v>
-      </c>
-      <c r="HD4" t="n">
-        <v>2060.968994140625</v>
-      </c>
-      <c r="HE4" t="n">
-        <v>2010.251342773438</v>
-      </c>
-      <c r="HF4" t="n">
-        <v>2002.926635742188</v>
-      </c>
-      <c r="HG4" t="n">
-        <v>1942.944946289062</v>
-      </c>
-      <c r="HH4" t="n">
-        <v>1891.801879882812</v>
-      </c>
-      <c r="HI4" t="n">
-        <v>1858.88330078125</v>
-      </c>
-      <c r="HJ4" t="n">
-        <v>1839.6962890625</v>
-      </c>
-      <c r="HK4" t="n">
-        <v>1792.156372070312</v>
-      </c>
-      <c r="HL4" t="n">
-        <v>1745.126586914062</v>
-      </c>
-      <c r="HM4" t="n">
-        <v>1718.856201171875</v>
-      </c>
-      <c r="HN4" t="n">
-        <v>1708.449584960938</v>
-      </c>
-      <c r="HO4" t="n">
-        <v>1688.307861328125</v>
-      </c>
-      <c r="HP4" t="n">
-        <v>1654.480224609375</v>
-      </c>
-      <c r="HQ4" t="n">
-        <v>1626.991821289062</v>
-      </c>
-      <c r="HR4" t="n">
-        <v>1591.284057617188</v>
-      </c>
-      <c r="HS4" t="n">
-        <v>1546.377685546875</v>
-      </c>
-      <c r="HT4" t="n">
-        <v>1505.812377929688</v>
-      </c>
-      <c r="HU4" t="n">
-        <v>1464.301391601562</v>
-      </c>
-      <c r="HV4" t="n">
-        <v>1433.510864257812</v>
-      </c>
-      <c r="HW4" t="n">
-        <v>1390.576416015625</v>
-      </c>
-      <c r="HX4" t="n">
-        <v>1345.44921875</v>
-      </c>
-      <c r="HY4" t="n">
-        <v>1306.0087890625</v>
-      </c>
-      <c r="HZ4" t="n">
-        <v>1271.444213867188</v>
-      </c>
-      <c r="IA4" t="n">
-        <v>1242.253784179688</v>
-      </c>
-      <c r="IB4" t="n">
-        <v>1189.979614257812</v>
-      </c>
-      <c r="IC4" t="n">
-        <v>1177.115356445312</v>
-      </c>
-      <c r="ID4" t="n">
-        <v>1146.905029296875</v>
-      </c>
-      <c r="IE4" t="n">
-        <v>1118.279663085938</v>
-      </c>
-      <c r="IF4" t="n">
-        <v>1076.94580078125</v>
-      </c>
-      <c r="IG4" t="n">
-        <v>1029.748046875</v>
-      </c>
-      <c r="IH4" t="n">
-        <v>981.31298828125</v>
-      </c>
-      <c r="II4" t="n">
-        <v>927.6936645507812</v>
-      </c>
-      <c r="IJ4" t="n">
-        <v>882.7676391601562</v>
-      </c>
-      <c r="IK4" t="n">
-        <v>848.4986572265625</v>
-      </c>
-      <c r="IL4" t="n">
-        <v>819.5790405273438</v>
-      </c>
-      <c r="IM4" t="n">
-        <v>795.6070556640625</v>
-      </c>
-      <c r="IN4" t="n">
-        <v>717.640869140625</v>
-      </c>
-      <c r="IO4" t="n">
-        <v>569.2091674804688</v>
-      </c>
-      <c r="IP4" t="n">
-        <v>450.7431945800781</v>
-      </c>
-      <c r="IQ4" t="n">
-        <v>431.2535705566406</v>
-      </c>
-      <c r="IR4" t="n">
-        <v>437.9371948242188</v>
-      </c>
-      <c r="IS4" t="n">
-        <v>469.2113037109375</v>
-      </c>
-      <c r="IT4" t="n">
-        <v>543.0006713867188</v>
-      </c>
-      <c r="IU4" t="n">
-        <v>589.8070678710938</v>
-      </c>
-      <c r="IV4" t="n">
-        <v>671.234375</v>
-      </c>
-      <c r="IW4" t="n">
-        <v>707.2218627929688</v>
-      </c>
-      <c r="IX4" t="n">
-        <v>702.8800048828125</v>
-      </c>
-      <c r="IY4" t="n">
-        <v>702.2297973632812</v>
-      </c>
-      <c r="IZ4" t="n">
-        <v>707.4618530273438</v>
-      </c>
-      <c r="JA4" t="n">
-        <v>742.624755859375</v>
-      </c>
-      <c r="JB4" t="n">
-        <v>797.6527099609375</v>
-      </c>
-      <c r="JC4" t="n">
-        <v>845.0875244140625</v>
-      </c>
-      <c r="JD4" t="n">
-        <v>879.5494384765625</v>
-      </c>
-      <c r="JE4" t="n">
-        <v>925.81298828125</v>
-      </c>
-      <c r="JF4" t="n">
-        <v>958.40673828125</v>
-      </c>
-      <c r="JG4" t="n">
-        <v>975.7825927734375</v>
-      </c>
-      <c r="JH4" t="n">
-        <v>978.2420043945312</v>
-      </c>
-      <c r="JI4" t="n">
-        <v>973.6436767578125</v>
-      </c>
-      <c r="JJ4" t="n">
-        <v>948.8807373046875</v>
-      </c>
-      <c r="JK4" t="n">
-        <v>919.9098510742188</v>
-      </c>
-      <c r="JL4" t="n">
-        <v>887.6058959960938</v>
-      </c>
-      <c r="JM4" t="n">
-        <v>860.419189453125</v>
+        <v>796.8202514648438</v>
       </c>
     </row>
   </sheetData>

--- a/right_shoulder_Data.xlsx
+++ b/right_shoulder_Data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:GQ4"/>
+  <dimension ref="A1:LD4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1031,1802 +1031,3206 @@
       <c r="GQ1" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="GR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HD1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ID1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="II1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JD1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KD1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LD1" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>349.6113891601562</v>
+        <v>270.0093383789062</v>
       </c>
       <c r="B2" t="n">
-        <v>347.9901733398438</v>
+        <v>266.1836547851562</v>
       </c>
       <c r="C2" t="n">
-        <v>348.1336059570312</v>
+        <v>267.3888854980469</v>
       </c>
       <c r="D2" t="n">
-        <v>348.0704345703125</v>
+        <v>268.4429931640625</v>
       </c>
       <c r="E2" t="n">
-        <v>347.819580078125</v>
+        <v>269.1606750488281</v>
       </c>
       <c r="F2" t="n">
-        <v>347.2883911132812</v>
+        <v>270.4120178222656</v>
       </c>
       <c r="G2" t="n">
-        <v>346.5960693359375</v>
+        <v>272.0999755859375</v>
       </c>
       <c r="H2" t="n">
-        <v>345.3518981933594</v>
+        <v>273.9989624023438</v>
       </c>
       <c r="I2" t="n">
-        <v>343.8501586914062</v>
+        <v>276.2535095214844</v>
       </c>
       <c r="J2" t="n">
-        <v>341.8650817871094</v>
+        <v>277.397216796875</v>
       </c>
       <c r="K2" t="n">
-        <v>339.700439453125</v>
+        <v>279.2524719238281</v>
       </c>
       <c r="L2" t="n">
-        <v>338.1569213867188</v>
+        <v>281.0760498046875</v>
       </c>
       <c r="M2" t="n">
-        <v>337.559326171875</v>
+        <v>282.2815246582031</v>
       </c>
       <c r="N2" t="n">
-        <v>332.5225219726562</v>
+        <v>283.4291076660156</v>
       </c>
       <c r="O2" t="n">
-        <v>327.5393981933594</v>
+        <v>284.5537109375</v>
       </c>
       <c r="P2" t="n">
-        <v>326.2763061523438</v>
+        <v>285.6548156738281</v>
       </c>
       <c r="Q2" t="n">
-        <v>322.4644165039062</v>
+        <v>286.8167114257812</v>
       </c>
       <c r="R2" t="n">
-        <v>321.9601745605469</v>
+        <v>287.8153381347656</v>
       </c>
       <c r="S2" t="n">
-        <v>318.0243835449219</v>
+        <v>288.5323791503906</v>
       </c>
       <c r="T2" t="n">
-        <v>317.4457397460938</v>
+        <v>289.2704162597656</v>
       </c>
       <c r="U2" t="n">
-        <v>313.6850891113281</v>
+        <v>289.7633666992188</v>
       </c>
       <c r="V2" t="n">
-        <v>311.7944030761719</v>
+        <v>289.3133239746094</v>
       </c>
       <c r="W2" t="n">
-        <v>310.0547180175781</v>
+        <v>289.1568298339844</v>
       </c>
       <c r="X2" t="n">
-        <v>310.1348266601562</v>
+        <v>287.5592651367188</v>
       </c>
       <c r="Y2" t="n">
-        <v>309.7860412597656</v>
+        <v>286.2763061523438</v>
       </c>
       <c r="Z2" t="n">
-        <v>308.9689636230469</v>
+        <v>285.4569396972656</v>
       </c>
       <c r="AA2" t="n">
-        <v>307.7440185546875</v>
+        <v>285.0525817871094</v>
       </c>
       <c r="AB2" t="n">
-        <v>306.3894348144531</v>
+        <v>283.2224426269531</v>
       </c>
       <c r="AC2" t="n">
-        <v>305.7533874511719</v>
+        <v>282.5975036621094</v>
       </c>
       <c r="AD2" t="n">
-        <v>305.6366882324219</v>
+        <v>281.4867248535156</v>
       </c>
       <c r="AE2" t="n">
-        <v>305.282958984375</v>
+        <v>281.2248229980469</v>
       </c>
       <c r="AF2" t="n">
-        <v>305.1858215332031</v>
+        <v>281.2999267578125</v>
       </c>
       <c r="AG2" t="n">
-        <v>305.4061584472656</v>
+        <v>281.2951965332031</v>
       </c>
       <c r="AH2" t="n">
-        <v>306.0078735351562</v>
+        <v>281.6354064941406</v>
       </c>
       <c r="AI2" t="n">
-        <v>306.7142944335938</v>
+        <v>281.8088073730469</v>
       </c>
       <c r="AJ2" t="n">
-        <v>307.5147705078125</v>
+        <v>281.8645324707031</v>
       </c>
       <c r="AK2" t="n">
-        <v>308.4433288574219</v>
+        <v>282.0447387695312</v>
       </c>
       <c r="AL2" t="n">
-        <v>309.655517578125</v>
+        <v>282.1981201171875</v>
       </c>
       <c r="AM2" t="n">
-        <v>310.9412231445312</v>
+        <v>282.3542785644531</v>
       </c>
       <c r="AN2" t="n">
-        <v>311.7817077636719</v>
+        <v>282.6629333496094</v>
       </c>
       <c r="AO2" t="n">
-        <v>312.4179992675781</v>
+        <v>283.2373046875</v>
       </c>
       <c r="AP2" t="n">
-        <v>312.8186340332031</v>
+        <v>284.401123046875</v>
       </c>
       <c r="AQ2" t="n">
-        <v>312.6614990234375</v>
+        <v>286.1951599121094</v>
       </c>
       <c r="AR2" t="n">
-        <v>313.0085754394531</v>
+        <v>288.0808715820312</v>
       </c>
       <c r="AS2" t="n">
-        <v>312.3702697753906</v>
+        <v>289.7047119140625</v>
       </c>
       <c r="AT2" t="n">
-        <v>310.8919067382812</v>
+        <v>291.5731201171875</v>
       </c>
       <c r="AU2" t="n">
-        <v>307.8599243164062</v>
+        <v>292.9451293945312</v>
       </c>
       <c r="AV2" t="n">
-        <v>303.1949462890625</v>
+        <v>293.7907409667969</v>
       </c>
       <c r="AW2" t="n">
-        <v>298.7937927246094</v>
+        <v>294.5116882324219</v>
       </c>
       <c r="AX2" t="n">
-        <v>290.9353332519531</v>
+        <v>294.7594604492188</v>
       </c>
       <c r="AY2" t="n">
-        <v>285.6881103515625</v>
+        <v>294.9265747070312</v>
       </c>
       <c r="AZ2" t="n">
-        <v>276.3511962890625</v>
+        <v>294.9783020019531</v>
       </c>
       <c r="BA2" t="n">
-        <v>269.57470703125</v>
+        <v>294.9748229980469</v>
       </c>
       <c r="BB2" t="n">
-        <v>259.3715209960938</v>
+        <v>294.8846740722656</v>
       </c>
       <c r="BC2" t="n">
-        <v>251.6805267333984</v>
+        <v>294.9008178710938</v>
       </c>
       <c r="BD2" t="n">
-        <v>245.613525390625</v>
+        <v>294.8328857421875</v>
       </c>
       <c r="BE2" t="n">
-        <v>237.7083129882812</v>
+        <v>294.8625183105469</v>
       </c>
       <c r="BF2" t="n">
-        <v>229.8796691894531</v>
+        <v>294.7612915039062</v>
       </c>
       <c r="BG2" t="n">
-        <v>222.8686828613281</v>
+        <v>294.4454345703125</v>
       </c>
       <c r="BH2" t="n">
-        <v>216.5543823242188</v>
+        <v>294.1559753417969</v>
       </c>
       <c r="BI2" t="n">
-        <v>212.2564544677734</v>
+        <v>293.8172607421875</v>
       </c>
       <c r="BJ2" t="n">
-        <v>207.9113464355469</v>
+        <v>293.2663879394531</v>
       </c>
       <c r="BK2" t="n">
-        <v>205.5967712402344</v>
+        <v>292.8544311523438</v>
       </c>
       <c r="BL2" t="n">
-        <v>202.377685546875</v>
+        <v>292.4087524414062</v>
       </c>
       <c r="BM2" t="n">
-        <v>199.0917358398438</v>
+        <v>291.9368591308594</v>
       </c>
       <c r="BN2" t="n">
-        <v>196.1153259277344</v>
+        <v>291.4237365722656</v>
       </c>
       <c r="BO2" t="n">
-        <v>193.4826965332031</v>
+        <v>290.9711608886719</v>
       </c>
       <c r="BP2" t="n">
-        <v>191.2676696777344</v>
+        <v>290.7242736816406</v>
       </c>
       <c r="BQ2" t="n">
-        <v>189.1537170410156</v>
+        <v>290.5233764648438</v>
       </c>
       <c r="BR2" t="n">
-        <v>187.5986480712891</v>
+        <v>290.4151611328125</v>
       </c>
       <c r="BS2" t="n">
-        <v>186.5213317871094</v>
+        <v>290.4659118652344</v>
       </c>
       <c r="BT2" t="n">
-        <v>185.6910858154297</v>
+        <v>290.4959411621094</v>
       </c>
       <c r="BU2" t="n">
-        <v>185.3154907226562</v>
+        <v>290.6198425292969</v>
       </c>
       <c r="BV2" t="n">
-        <v>185.0818023681641</v>
+        <v>290.6482238769531</v>
       </c>
       <c r="BW2" t="n">
-        <v>184.911376953125</v>
+        <v>290.6313781738281</v>
       </c>
       <c r="BX2" t="n">
-        <v>184.7187194824219</v>
+        <v>290.4917297363281</v>
       </c>
       <c r="BY2" t="n">
-        <v>184.48681640625</v>
+        <v>290.3856201171875</v>
       </c>
       <c r="BZ2" t="n">
-        <v>184.2446136474609</v>
+        <v>290.3739624023438</v>
       </c>
       <c r="CA2" t="n">
-        <v>183.9733276367188</v>
+        <v>290.2104187011719</v>
       </c>
       <c r="CB2" t="n">
-        <v>183.7041015625</v>
+        <v>290.1115417480469</v>
       </c>
       <c r="CC2" t="n">
-        <v>183.4252166748047</v>
+        <v>290.0171203613281</v>
       </c>
       <c r="CD2" t="n">
-        <v>183.1331481933594</v>
+        <v>289.9319152832031</v>
       </c>
       <c r="CE2" t="n">
-        <v>182.8564147949219</v>
+        <v>289.8404846191406</v>
       </c>
       <c r="CF2" t="n">
-        <v>182.5951843261719</v>
+        <v>289.7582702636719</v>
       </c>
       <c r="CG2" t="n">
-        <v>182.4263916015625</v>
+        <v>289.6829223632812</v>
       </c>
       <c r="CH2" t="n">
-        <v>182.2918853759766</v>
+        <v>289.6215209960938</v>
       </c>
       <c r="CI2" t="n">
-        <v>182.1680908203125</v>
+        <v>289.5531616210938</v>
       </c>
       <c r="CJ2" t="n">
-        <v>182.0974731445312</v>
+        <v>289.4906616210938</v>
       </c>
       <c r="CK2" t="n">
-        <v>182.0603942871094</v>
+        <v>289.4542846679688</v>
       </c>
       <c r="CL2" t="n">
-        <v>182.0660095214844</v>
+        <v>289.4270324707031</v>
       </c>
       <c r="CM2" t="n">
-        <v>182.0555725097656</v>
+        <v>289.3775329589844</v>
       </c>
       <c r="CN2" t="n">
-        <v>182.0624084472656</v>
+        <v>289.3196411132812</v>
       </c>
       <c r="CO2" t="n">
-        <v>182.1241760253906</v>
+        <v>289.2500610351562</v>
       </c>
       <c r="CP2" t="n">
-        <v>182.19287109375</v>
+        <v>289.1685180664062</v>
       </c>
       <c r="CQ2" t="n">
-        <v>182.3441162109375</v>
+        <v>289.044921875</v>
       </c>
       <c r="CR2" t="n">
-        <v>182.4461212158203</v>
+        <v>289.0384216308594</v>
       </c>
       <c r="CS2" t="n">
-        <v>182.3181457519531</v>
+        <v>289.1017761230469</v>
       </c>
       <c r="CT2" t="n">
-        <v>181.6573791503906</v>
+        <v>289.1865539550781</v>
       </c>
       <c r="CU2" t="n">
-        <v>181.0245056152344</v>
+        <v>289.2855834960938</v>
       </c>
       <c r="CV2" t="n">
-        <v>180.6823577880859</v>
+        <v>289.3611755371094</v>
       </c>
       <c r="CW2" t="n">
-        <v>180.4519805908203</v>
+        <v>289.4037170410156</v>
       </c>
       <c r="CX2" t="n">
-        <v>180.6866149902344</v>
+        <v>289.5040283203125</v>
       </c>
       <c r="CY2" t="n">
-        <v>181.4949035644531</v>
+        <v>289.5799560546875</v>
       </c>
       <c r="CZ2" t="n">
-        <v>182.6038513183594</v>
+        <v>289.5651550292969</v>
       </c>
       <c r="DA2" t="n">
-        <v>184.185302734375</v>
+        <v>289.5173950195312</v>
       </c>
       <c r="DB2" t="n">
-        <v>186.219970703125</v>
+        <v>289.4130859375</v>
       </c>
       <c r="DC2" t="n">
-        <v>188.2669067382812</v>
+        <v>289.3434753417969</v>
       </c>
       <c r="DD2" t="n">
-        <v>190.4539184570312</v>
+        <v>289.2599792480469</v>
       </c>
       <c r="DE2" t="n">
-        <v>192.7409515380859</v>
+        <v>289.1684265136719</v>
       </c>
       <c r="DF2" t="n">
-        <v>194.6091461181641</v>
+        <v>289.0826416015625</v>
       </c>
       <c r="DG2" t="n">
-        <v>197.1792907714844</v>
+        <v>288.9895629882812</v>
       </c>
       <c r="DH2" t="n">
-        <v>200.6464233398438</v>
+        <v>288.8597106933594</v>
       </c>
       <c r="DI2" t="n">
-        <v>204.549072265625</v>
+        <v>288.7182006835938</v>
       </c>
       <c r="DJ2" t="n">
-        <v>208.3087768554688</v>
+        <v>288.5721130371094</v>
       </c>
       <c r="DK2" t="n">
-        <v>214.258544921875</v>
+        <v>288.2727966308594</v>
       </c>
       <c r="DL2" t="n">
-        <v>226.2031555175781</v>
+        <v>287.6727600097656</v>
       </c>
       <c r="DM2" t="n">
-        <v>233.8098754882812</v>
+        <v>287.4466247558594</v>
       </c>
       <c r="DN2" t="n">
-        <v>241.9976806640625</v>
+        <v>287.2162170410156</v>
       </c>
       <c r="DO2" t="n">
-        <v>250.8511199951172</v>
+        <v>287.197265625</v>
       </c>
       <c r="DP2" t="n">
-        <v>266.1212768554688</v>
+        <v>287.1805114746094</v>
       </c>
       <c r="DQ2" t="n">
-        <v>272.3394775390625</v>
+        <v>287.1529846191406</v>
       </c>
       <c r="DR2" t="n">
-        <v>278.3329162597656</v>
+        <v>287.1253662109375</v>
       </c>
       <c r="DS2" t="n">
-        <v>291.8485717773438</v>
+        <v>287.026123046875</v>
       </c>
       <c r="DT2" t="n">
-        <v>298.2962951660156</v>
+        <v>286.7839660644531</v>
       </c>
       <c r="DU2" t="n">
-        <v>304.2054138183594</v>
+        <v>286.6497192382812</v>
       </c>
       <c r="DV2" t="n">
-        <v>313.388427734375</v>
+        <v>286.3445739746094</v>
       </c>
       <c r="DW2" t="n">
-        <v>322.4624938964844</v>
+        <v>286.1956481933594</v>
       </c>
       <c r="DX2" t="n">
-        <v>326.6192321777344</v>
+        <v>286.0284423828125</v>
       </c>
       <c r="DY2" t="n">
-        <v>330.3692932128906</v>
+        <v>285.7073364257812</v>
       </c>
       <c r="DZ2" t="n">
-        <v>334.1367797851562</v>
+        <v>285.5684814453125</v>
       </c>
       <c r="EA2" t="n">
-        <v>335.2019653320312</v>
+        <v>285.2915344238281</v>
       </c>
       <c r="EB2" t="n">
-        <v>337.4572143554688</v>
+        <v>285.2096862792969</v>
       </c>
       <c r="EC2" t="n">
-        <v>338.1829833984375</v>
+        <v>285.1061706542969</v>
       </c>
       <c r="ED2" t="n">
-        <v>338.6798095703125</v>
+        <v>284.9494018554688</v>
       </c>
       <c r="EE2" t="n">
-        <v>338.8428344726562</v>
+        <v>284.8777770996094</v>
       </c>
       <c r="EF2" t="n">
-        <v>338.9625244140625</v>
+        <v>284.7431640625</v>
       </c>
       <c r="EG2" t="n">
-        <v>338.7452392578125</v>
+        <v>284.6748657226562</v>
       </c>
       <c r="EH2" t="n">
-        <v>336.1558532714844</v>
+        <v>284.6349792480469</v>
       </c>
       <c r="EI2" t="n">
-        <v>325.642333984375</v>
+        <v>284.6051025390625</v>
       </c>
       <c r="EJ2" t="n">
-        <v>319.1990661621094</v>
+        <v>284.6009216308594</v>
       </c>
       <c r="EK2" t="n">
-        <v>309.7228088378906</v>
+        <v>284.5833129882812</v>
       </c>
       <c r="EL2" t="n">
-        <v>302.7251586914062</v>
+        <v>284.5710754394531</v>
       </c>
       <c r="EM2" t="n">
-        <v>288.3971862792969</v>
+        <v>284.6137084960938</v>
       </c>
       <c r="EN2" t="n">
-        <v>281.46728515625</v>
+        <v>284.7389221191406</v>
       </c>
       <c r="EO2" t="n">
-        <v>268.1561279296875</v>
+        <v>284.8847351074219</v>
       </c>
       <c r="EP2" t="n">
-        <v>261.1015319824219</v>
+        <v>285.0083923339844</v>
       </c>
       <c r="EQ2" t="n">
-        <v>245.4673767089844</v>
+        <v>285.0372009277344</v>
       </c>
       <c r="ER2" t="n">
-        <v>238.3446350097656</v>
+        <v>285.3094482421875</v>
       </c>
       <c r="ES2" t="n">
-        <v>225.494140625</v>
+        <v>285.2811889648438</v>
       </c>
       <c r="ET2" t="n">
-        <v>221.5330810546875</v>
+        <v>285.3708801269531</v>
       </c>
       <c r="EU2" t="n">
-        <v>216.1384887695312</v>
+        <v>285.3738708496094</v>
       </c>
       <c r="EV2" t="n">
-        <v>208.3656463623047</v>
+        <v>285.3661804199219</v>
       </c>
       <c r="EW2" t="n">
-        <v>200.6233520507812</v>
+        <v>285.2489318847656</v>
       </c>
       <c r="EX2" t="n">
-        <v>195.9992370605469</v>
+        <v>285.2493896484375</v>
       </c>
       <c r="EY2" t="n">
-        <v>189.3833923339844</v>
+        <v>285.3067932128906</v>
       </c>
       <c r="EZ2" t="n">
-        <v>185.0495758056641</v>
+        <v>285.3505249023438</v>
       </c>
       <c r="FA2" t="n">
-        <v>183.64453125</v>
+        <v>285.3595275878906</v>
       </c>
       <c r="FB2" t="n">
-        <v>183.8234710693359</v>
+        <v>285.3662719726562</v>
       </c>
       <c r="FC2" t="n">
-        <v>191.2556610107422</v>
+        <v>285.4119262695312</v>
       </c>
       <c r="FD2" t="n">
-        <v>196.4776611328125</v>
+        <v>285.4246215820312</v>
       </c>
       <c r="FE2" t="n">
-        <v>196.4689025878906</v>
+        <v>285.4166259765625</v>
       </c>
       <c r="FF2" t="n">
-        <v>197.1726837158203</v>
+        <v>285.4086608886719</v>
       </c>
       <c r="FG2" t="n">
-        <v>200.8663024902344</v>
+        <v>285.3464965820312</v>
       </c>
       <c r="FH2" t="n">
-        <v>213.5574188232422</v>
+        <v>285.2579956054688</v>
       </c>
       <c r="FI2" t="n">
-        <v>217.4546203613281</v>
+        <v>284.9840393066406</v>
       </c>
       <c r="FJ2" t="n">
-        <v>224.2218933105469</v>
+        <v>284.64990234375</v>
       </c>
       <c r="FK2" t="n">
-        <v>233.1093139648438</v>
+        <v>284.4565734863281</v>
       </c>
       <c r="FL2" t="n">
-        <v>255.0069885253906</v>
+        <v>283.8642883300781</v>
       </c>
       <c r="FM2" t="n">
-        <v>261.9219970703125</v>
+        <v>283.4419555664062</v>
       </c>
       <c r="FN2" t="n">
-        <v>272.4078674316406</v>
+        <v>282.8179321289062</v>
       </c>
       <c r="FO2" t="n">
-        <v>292.2948303222656</v>
+        <v>282.6304016113281</v>
       </c>
       <c r="FP2" t="n">
-        <v>314.0246276855469</v>
+        <v>282.6041870117188</v>
       </c>
       <c r="FQ2" t="n">
-        <v>324.3567504882812</v>
+        <v>282.5872192382812</v>
       </c>
       <c r="FR2" t="n">
-        <v>342.139892578125</v>
+        <v>282.5919799804688</v>
       </c>
       <c r="FS2" t="n">
-        <v>345.6409301757812</v>
+        <v>282.5600891113281</v>
       </c>
       <c r="FT2" t="n">
-        <v>352.8370666503906</v>
+        <v>282.5697326660156</v>
       </c>
       <c r="FU2" t="n">
-        <v>371.533935546875</v>
+        <v>282.5438232421875</v>
       </c>
       <c r="FV2" t="n">
-        <v>380.4620971679688</v>
+        <v>282.4922180175781</v>
       </c>
       <c r="FW2" t="n">
-        <v>392.6183471679688</v>
+        <v>282.4239807128906</v>
       </c>
       <c r="FX2" t="n">
-        <v>400.2109985351562</v>
+        <v>282.3797302246094</v>
       </c>
       <c r="FY2" t="n">
-        <v>402.86572265625</v>
+        <v>282.3659362792969</v>
       </c>
       <c r="FZ2" t="n">
-        <v>405.6744995117188</v>
+        <v>282.5682678222656</v>
       </c>
       <c r="GA2" t="n">
-        <v>408.2974243164062</v>
+        <v>282.6447143554688</v>
       </c>
       <c r="GB2" t="n">
-        <v>409.326171875</v>
+        <v>282.6766357421875</v>
       </c>
       <c r="GC2" t="n">
-        <v>408.3277893066406</v>
+        <v>282.7910461425781</v>
       </c>
       <c r="GD2" t="n">
-        <v>403.5224914550781</v>
+        <v>282.7207641601562</v>
       </c>
       <c r="GE2" t="n">
-        <v>399.3467407226562</v>
+        <v>282.5974426269531</v>
       </c>
       <c r="GF2" t="n">
-        <v>392.9480590820312</v>
+        <v>282.4772338867188</v>
       </c>
       <c r="GG2" t="n">
-        <v>374.34521484375</v>
+        <v>282.5072937011719</v>
       </c>
       <c r="GH2" t="n">
-        <v>364.5753784179688</v>
+        <v>282.4903259277344</v>
       </c>
       <c r="GI2" t="n">
-        <v>345.7460327148438</v>
+        <v>282.4804992675781</v>
       </c>
       <c r="GJ2" t="n">
-        <v>333.74365234375</v>
+        <v>282.5020141601562</v>
       </c>
       <c r="GK2" t="n">
-        <v>318.0531616210938</v>
+        <v>282.5650329589844</v>
       </c>
       <c r="GL2" t="n">
-        <v>303.8849182128906</v>
+        <v>282.60302734375</v>
       </c>
       <c r="GM2" t="n">
-        <v>299.0804138183594</v>
+        <v>282.6334838867188</v>
       </c>
       <c r="GN2" t="n">
-        <v>283.0708312988281</v>
+        <v>282.6414794921875</v>
       </c>
       <c r="GO2" t="n">
-        <v>279.135498046875</v>
+        <v>282.6355590820312</v>
       </c>
       <c r="GP2" t="n">
-        <v>263.9632568359375</v>
+        <v>282.6026916503906</v>
       </c>
       <c r="GQ2" t="n">
-        <v>258.2367858886719</v>
+        <v>282.5175476074219</v>
+      </c>
+      <c r="GR2" t="n">
+        <v>282.4822998046875</v>
+      </c>
+      <c r="GS2" t="n">
+        <v>282.4284362792969</v>
+      </c>
+      <c r="GT2" t="n">
+        <v>282.3994750976562</v>
+      </c>
+      <c r="GU2" t="n">
+        <v>282.3864135742188</v>
+      </c>
+      <c r="GV2" t="n">
+        <v>282.2398376464844</v>
+      </c>
+      <c r="GW2" t="n">
+        <v>282.1723022460938</v>
+      </c>
+      <c r="GX2" t="n">
+        <v>282.1123046875</v>
+      </c>
+      <c r="GY2" t="n">
+        <v>282.0780639648438</v>
+      </c>
+      <c r="GZ2" t="n">
+        <v>282.0527038574219</v>
+      </c>
+      <c r="HA2" t="n">
+        <v>282.0318603515625</v>
+      </c>
+      <c r="HB2" t="n">
+        <v>282.0193481445312</v>
+      </c>
+      <c r="HC2" t="n">
+        <v>281.9780578613281</v>
+      </c>
+      <c r="HD2" t="n">
+        <v>281.8987731933594</v>
+      </c>
+      <c r="HE2" t="n">
+        <v>281.8443908691406</v>
+      </c>
+      <c r="HF2" t="n">
+        <v>281.7529296875</v>
+      </c>
+      <c r="HG2" t="n">
+        <v>281.8209533691406</v>
+      </c>
+      <c r="HH2" t="n">
+        <v>282.0628967285156</v>
+      </c>
+      <c r="HI2" t="n">
+        <v>282.139404296875</v>
+      </c>
+      <c r="HJ2" t="n">
+        <v>282.19677734375</v>
+      </c>
+      <c r="HK2" t="n">
+        <v>282.2080078125</v>
+      </c>
+      <c r="HL2" t="n">
+        <v>282.2393188476562</v>
+      </c>
+      <c r="HM2" t="n">
+        <v>282.2537841796875</v>
+      </c>
+      <c r="HN2" t="n">
+        <v>282.2801208496094</v>
+      </c>
+      <c r="HO2" t="n">
+        <v>282.3058471679688</v>
+      </c>
+      <c r="HP2" t="n">
+        <v>282.3399047851562</v>
+      </c>
+      <c r="HQ2" t="n">
+        <v>282.3859558105469</v>
+      </c>
+      <c r="HR2" t="n">
+        <v>282.3256530761719</v>
+      </c>
+      <c r="HS2" t="n">
+        <v>282.3829040527344</v>
+      </c>
+      <c r="HT2" t="n">
+        <v>282.3950500488281</v>
+      </c>
+      <c r="HU2" t="n">
+        <v>282.3607177734375</v>
+      </c>
+      <c r="HV2" t="n">
+        <v>282.3283996582031</v>
+      </c>
+      <c r="HW2" t="n">
+        <v>282.2928466796875</v>
+      </c>
+      <c r="HX2" t="n">
+        <v>282.34765625</v>
+      </c>
+      <c r="HY2" t="n">
+        <v>282.4010925292969</v>
+      </c>
+      <c r="HZ2" t="n">
+        <v>282.3475341796875</v>
+      </c>
+      <c r="IA2" t="n">
+        <v>282.2004699707031</v>
+      </c>
+      <c r="IB2" t="n">
+        <v>282.1548461914062</v>
+      </c>
+      <c r="IC2" t="n">
+        <v>282.1383972167969</v>
+      </c>
+      <c r="ID2" t="n">
+        <v>282.083740234375</v>
+      </c>
+      <c r="IE2" t="n">
+        <v>282.0334777832031</v>
+      </c>
+      <c r="IF2" t="n">
+        <v>281.9893798828125</v>
+      </c>
+      <c r="IG2" t="n">
+        <v>281.9615478515625</v>
+      </c>
+      <c r="IH2" t="n">
+        <v>281.9613342285156</v>
+      </c>
+      <c r="II2" t="n">
+        <v>281.94921875</v>
+      </c>
+      <c r="IJ2" t="n">
+        <v>281.8659973144531</v>
+      </c>
+      <c r="IK2" t="n">
+        <v>281.7627563476562</v>
+      </c>
+      <c r="IL2" t="n">
+        <v>281.6444091796875</v>
+      </c>
+      <c r="IM2" t="n">
+        <v>281.4782409667969</v>
+      </c>
+      <c r="IN2" t="n">
+        <v>281.4627685546875</v>
+      </c>
+      <c r="IO2" t="n">
+        <v>281.5889892578125</v>
+      </c>
+      <c r="IP2" t="n">
+        <v>281.733642578125</v>
+      </c>
+      <c r="IQ2" t="n">
+        <v>281.916748046875</v>
+      </c>
+      <c r="IR2" t="n">
+        <v>282.0778503417969</v>
+      </c>
+      <c r="IS2" t="n">
+        <v>282.2394104003906</v>
+      </c>
+      <c r="IT2" t="n">
+        <v>282.2384033203125</v>
+      </c>
+      <c r="IU2" t="n">
+        <v>282.2384948730469</v>
+      </c>
+      <c r="IV2" t="n">
+        <v>282.7865905761719</v>
+      </c>
+      <c r="IW2" t="n">
+        <v>282.6792602539062</v>
+      </c>
+      <c r="IX2" t="n">
+        <v>282.927734375</v>
+      </c>
+      <c r="IY2" t="n">
+        <v>283.6730651855469</v>
+      </c>
+      <c r="IZ2" t="n">
+        <v>283.4769897460938</v>
+      </c>
+      <c r="JA2" t="n">
+        <v>282.9244079589844</v>
+      </c>
+      <c r="JB2" t="n">
+        <v>282.6618957519531</v>
+      </c>
+      <c r="JC2" t="n">
+        <v>282.3328552246094</v>
+      </c>
+      <c r="JD2" t="n">
+        <v>281.9668884277344</v>
+      </c>
+      <c r="JE2" t="n">
+        <v>281.7220764160156</v>
+      </c>
+      <c r="JF2" t="n">
+        <v>281.6076049804688</v>
+      </c>
+      <c r="JG2" t="n">
+        <v>281.4909362792969</v>
+      </c>
+      <c r="JH2" t="n">
+        <v>281.2115783691406</v>
+      </c>
+      <c r="JI2" t="n">
+        <v>280.8395080566406</v>
+      </c>
+      <c r="JJ2" t="n">
+        <v>280.4930114746094</v>
+      </c>
+      <c r="JK2" t="n">
+        <v>280.2101135253906</v>
+      </c>
+      <c r="JL2" t="n">
+        <v>279.9985656738281</v>
+      </c>
+      <c r="JM2" t="n">
+        <v>279.9861450195312</v>
+      </c>
+      <c r="JN2" t="n">
+        <v>280.0157470703125</v>
+      </c>
+      <c r="JO2" t="n">
+        <v>280.1040649414062</v>
+      </c>
+      <c r="JP2" t="n">
+        <v>280.1581726074219</v>
+      </c>
+      <c r="JQ2" t="n">
+        <v>279.671875</v>
+      </c>
+      <c r="JR2" t="n">
+        <v>279.5712585449219</v>
+      </c>
+      <c r="JS2" t="n">
+        <v>279.8401489257812</v>
+      </c>
+      <c r="JT2" t="n">
+        <v>280.3412475585938</v>
+      </c>
+      <c r="JU2" t="n">
+        <v>280.5201721191406</v>
+      </c>
+      <c r="JV2" t="n">
+        <v>280.6343688964844</v>
+      </c>
+      <c r="JW2" t="n">
+        <v>280.5782775878906</v>
+      </c>
+      <c r="JX2" t="n">
+        <v>280.2418823242188</v>
+      </c>
+      <c r="JY2" t="n">
+        <v>279.9869689941406</v>
+      </c>
+      <c r="JZ2" t="n">
+        <v>279.7741394042969</v>
+      </c>
+      <c r="KA2" t="n">
+        <v>278.7384338378906</v>
+      </c>
+      <c r="KB2" t="n">
+        <v>278.3764953613281</v>
+      </c>
+      <c r="KC2" t="n">
+        <v>276.9309387207031</v>
+      </c>
+      <c r="KD2" t="n">
+        <v>274.0856628417969</v>
+      </c>
+      <c r="KE2" t="n">
+        <v>273.6250915527344</v>
+      </c>
+      <c r="KF2" t="n">
+        <v>272.8438720703125</v>
+      </c>
+      <c r="KG2" t="n">
+        <v>271.3258972167969</v>
+      </c>
+      <c r="KH2" t="n">
+        <v>270.1905822753906</v>
+      </c>
+      <c r="KI2" t="n">
+        <v>269.0362548828125</v>
+      </c>
+      <c r="KJ2" t="n">
+        <v>268.2045288085938</v>
+      </c>
+      <c r="KK2" t="n">
+        <v>267.3770446777344</v>
+      </c>
+      <c r="KL2" t="n">
+        <v>266.9706726074219</v>
+      </c>
+      <c r="KM2" t="n">
+        <v>268.2369384765625</v>
+      </c>
+      <c r="KN2" t="n">
+        <v>270.977783203125</v>
+      </c>
+      <c r="KO2" t="n">
+        <v>275.2792053222656</v>
+      </c>
+      <c r="KP2" t="n">
+        <v>276.3078308105469</v>
+      </c>
+      <c r="KQ2" t="n">
+        <v>277.4670104980469</v>
+      </c>
+      <c r="KR2" t="n">
+        <v>277.6713256835938</v>
+      </c>
+      <c r="KS2" t="n">
+        <v>277.0217895507812</v>
+      </c>
+      <c r="KT2" t="n">
+        <v>275.6465148925781</v>
+      </c>
+      <c r="KU2" t="n">
+        <v>269.7369384765625</v>
+      </c>
+      <c r="KV2" t="n">
+        <v>263.1148681640625</v>
+      </c>
+      <c r="KW2" t="n">
+        <v>257.2750549316406</v>
+      </c>
+      <c r="KX2" t="n">
+        <v>247.4042358398438</v>
+      </c>
+      <c r="KY2" t="n">
+        <v>240.0508728027344</v>
+      </c>
+      <c r="KZ2" t="n">
+        <v>233.9404602050781</v>
+      </c>
+      <c r="LA2" t="n">
+        <v>228.0292510986328</v>
+      </c>
+      <c r="LB2" t="n">
+        <v>223.29150390625</v>
+      </c>
+      <c r="LC2" t="n">
+        <v>220.8677062988281</v>
+      </c>
+      <c r="LD2" t="n">
+        <v>219.2450561523438</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>275.2561340332031</v>
+        <v>214.1087646484375</v>
       </c>
       <c r="B3" t="n">
-        <v>274.3500061035156</v>
+        <v>208.1370086669922</v>
       </c>
       <c r="C3" t="n">
-        <v>271.0771484375</v>
+        <v>209.5269317626953</v>
       </c>
       <c r="D3" t="n">
-        <v>271.2003784179688</v>
+        <v>211.3016357421875</v>
       </c>
       <c r="E3" t="n">
-        <v>270.6869812011719</v>
+        <v>212.2159881591797</v>
       </c>
       <c r="F3" t="n">
-        <v>269.4945373535156</v>
+        <v>212.9130096435547</v>
       </c>
       <c r="G3" t="n">
-        <v>266.2899475097656</v>
+        <v>213.7204437255859</v>
       </c>
       <c r="H3" t="n">
-        <v>262.2166137695312</v>
+        <v>214.2448272705078</v>
       </c>
       <c r="I3" t="n">
-        <v>258.2564392089844</v>
+        <v>216.5667877197266</v>
       </c>
       <c r="J3" t="n">
-        <v>252.9044189453125</v>
+        <v>218.5540161132812</v>
       </c>
       <c r="K3" t="n">
-        <v>245.403076171875</v>
+        <v>222.8377532958984</v>
       </c>
       <c r="L3" t="n">
-        <v>239.1784973144531</v>
+        <v>227.0533142089844</v>
       </c>
       <c r="M3" t="n">
-        <v>232.1430511474609</v>
+        <v>230.1917419433594</v>
       </c>
       <c r="N3" t="n">
-        <v>226.3537292480469</v>
+        <v>231.5298004150391</v>
       </c>
       <c r="O3" t="n">
-        <v>220.102294921875</v>
+        <v>232.2520599365234</v>
       </c>
       <c r="P3" t="n">
-        <v>212.0589141845703</v>
+        <v>232.5230712890625</v>
       </c>
       <c r="Q3" t="n">
-        <v>208.6685485839844</v>
+        <v>232.2809906005859</v>
       </c>
       <c r="R3" t="n">
-        <v>202.08544921875</v>
+        <v>230.6976776123047</v>
       </c>
       <c r="S3" t="n">
-        <v>198.1559600830078</v>
+        <v>229.9288024902344</v>
       </c>
       <c r="T3" t="n">
-        <v>190.1711883544922</v>
+        <v>229.7537231445312</v>
       </c>
       <c r="U3" t="n">
-        <v>186.4018859863281</v>
+        <v>229.8902130126953</v>
       </c>
       <c r="V3" t="n">
-        <v>182.2209777832031</v>
+        <v>230.3058471679688</v>
       </c>
       <c r="W3" t="n">
-        <v>179.6849517822266</v>
+        <v>233.3176879882812</v>
       </c>
       <c r="X3" t="n">
-        <v>178.6030578613281</v>
+        <v>235.3519287109375</v>
       </c>
       <c r="Y3" t="n">
-        <v>176.6309204101562</v>
+        <v>237.8044738769531</v>
       </c>
       <c r="Z3" t="n">
-        <v>174.0304260253906</v>
+        <v>241.4734802246094</v>
       </c>
       <c r="AA3" t="n">
-        <v>171.5553436279297</v>
+        <v>245.949462890625</v>
       </c>
       <c r="AB3" t="n">
-        <v>169.1775817871094</v>
+        <v>247.5099029541016</v>
       </c>
       <c r="AC3" t="n">
-        <v>168.0083312988281</v>
+        <v>250.684326171875</v>
       </c>
       <c r="AD3" t="n">
-        <v>167.7317962646484</v>
+        <v>251.6156311035156</v>
       </c>
       <c r="AE3" t="n">
-        <v>167.3479919433594</v>
+        <v>253.2410125732422</v>
       </c>
       <c r="AF3" t="n">
-        <v>166.7449951171875</v>
+        <v>255.2262268066406</v>
       </c>
       <c r="AG3" t="n">
-        <v>165.7668609619141</v>
+        <v>256.2945251464844</v>
       </c>
       <c r="AH3" t="n">
-        <v>164.7606048583984</v>
+        <v>257.3429870605469</v>
       </c>
       <c r="AI3" t="n">
-        <v>163.745361328125</v>
+        <v>257.337158203125</v>
       </c>
       <c r="AJ3" t="n">
-        <v>162.522705078125</v>
+        <v>257.1483154296875</v>
       </c>
       <c r="AK3" t="n">
-        <v>161.2848205566406</v>
+        <v>257.0796203613281</v>
       </c>
       <c r="AL3" t="n">
-        <v>160.49365234375</v>
+        <v>257.0395812988281</v>
       </c>
       <c r="AM3" t="n">
-        <v>159.9982299804688</v>
+        <v>256.9841918945312</v>
       </c>
       <c r="AN3" t="n">
-        <v>159.5420532226562</v>
+        <v>257.1458435058594</v>
       </c>
       <c r="AO3" t="n">
-        <v>159.1089172363281</v>
+        <v>257.3802795410156</v>
       </c>
       <c r="AP3" t="n">
-        <v>158.7061614990234</v>
+        <v>257.6829223632812</v>
       </c>
       <c r="AQ3" t="n">
-        <v>158.3576202392578</v>
+        <v>257.7738037109375</v>
       </c>
       <c r="AR3" t="n">
-        <v>158.7787017822266</v>
+        <v>257.5772094726562</v>
       </c>
       <c r="AS3" t="n">
-        <v>159.2943572998047</v>
+        <v>257.5054626464844</v>
       </c>
       <c r="AT3" t="n">
-        <v>160.4510192871094</v>
+        <v>258.2706909179688</v>
       </c>
       <c r="AU3" t="n">
-        <v>161.3645324707031</v>
+        <v>259.2444152832031</v>
       </c>
       <c r="AV3" t="n">
-        <v>160.9179077148438</v>
+        <v>260.0831604003906</v>
       </c>
       <c r="AW3" t="n">
-        <v>161.3958282470703</v>
+        <v>261.0389404296875</v>
       </c>
       <c r="AX3" t="n">
-        <v>162.0137176513672</v>
+        <v>261.2186889648438</v>
       </c>
       <c r="AY3" t="n">
-        <v>166.0122985839844</v>
+        <v>261.4153442382812</v>
       </c>
       <c r="AZ3" t="n">
-        <v>165.6834716796875</v>
+        <v>261.6093444824219</v>
       </c>
       <c r="BA3" t="n">
-        <v>169.5998077392578</v>
+        <v>261.6101989746094</v>
       </c>
       <c r="BB3" t="n">
-        <v>168.7421417236328</v>
+        <v>261.6284484863281</v>
       </c>
       <c r="BC3" t="n">
-        <v>170.2727508544922</v>
+        <v>261.6040954589844</v>
       </c>
       <c r="BD3" t="n">
-        <v>171.1849212646484</v>
+        <v>261.6017456054688</v>
       </c>
       <c r="BE3" t="n">
-        <v>170.8385925292969</v>
+        <v>261.5729064941406</v>
       </c>
       <c r="BF3" t="n">
-        <v>172.0182189941406</v>
+        <v>261.5409851074219</v>
       </c>
       <c r="BG3" t="n">
-        <v>172.4967041015625</v>
+        <v>261.5587463378906</v>
       </c>
       <c r="BH3" t="n">
-        <v>172.2483673095703</v>
+        <v>261.5850524902344</v>
       </c>
       <c r="BI3" t="n">
-        <v>172.6187438964844</v>
+        <v>261.6530456542969</v>
       </c>
       <c r="BJ3" t="n">
-        <v>171.5372772216797</v>
+        <v>261.7951049804688</v>
       </c>
       <c r="BK3" t="n">
-        <v>172.3458709716797</v>
+        <v>261.9052429199219</v>
       </c>
       <c r="BL3" t="n">
-        <v>171.7347869873047</v>
+        <v>261.910888671875</v>
       </c>
       <c r="BM3" t="n">
-        <v>171.8931884765625</v>
+        <v>261.7739562988281</v>
       </c>
       <c r="BN3" t="n">
-        <v>172.4907379150391</v>
+        <v>261.5062255859375</v>
       </c>
       <c r="BO3" t="n">
-        <v>172.7144470214844</v>
+        <v>261.3830871582031</v>
       </c>
       <c r="BP3" t="n">
-        <v>172.9539184570312</v>
+        <v>261.5021667480469</v>
       </c>
       <c r="BQ3" t="n">
-        <v>172.5654602050781</v>
+        <v>261.59521484375</v>
       </c>
       <c r="BR3" t="n">
-        <v>172.4012756347656</v>
+        <v>261.6953125</v>
       </c>
       <c r="BS3" t="n">
-        <v>172.3391571044922</v>
+        <v>261.9757995605469</v>
       </c>
       <c r="BT3" t="n">
-        <v>172.37451171875</v>
+        <v>262.2965087890625</v>
       </c>
       <c r="BU3" t="n">
-        <v>172.6823577880859</v>
+        <v>262.8387145996094</v>
       </c>
       <c r="BV3" t="n">
-        <v>172.8185272216797</v>
+        <v>263.1768188476562</v>
       </c>
       <c r="BW3" t="n">
-        <v>172.9512176513672</v>
+        <v>263.426513671875</v>
       </c>
       <c r="BX3" t="n">
-        <v>173.0991516113281</v>
+        <v>263.4440612792969</v>
       </c>
       <c r="BY3" t="n">
-        <v>173.2718200683594</v>
+        <v>263.3695983886719</v>
       </c>
       <c r="BZ3" t="n">
-        <v>173.4516448974609</v>
+        <v>263.3993530273438</v>
       </c>
       <c r="CA3" t="n">
-        <v>173.6573028564453</v>
+        <v>263.4954833984375</v>
       </c>
       <c r="CB3" t="n">
-        <v>173.8706970214844</v>
+        <v>263.5518188476562</v>
       </c>
       <c r="CC3" t="n">
-        <v>174.0903930664062</v>
+        <v>263.6051025390625</v>
       </c>
       <c r="CD3" t="n">
-        <v>174.3190765380859</v>
+        <v>263.6528625488281</v>
       </c>
       <c r="CE3" t="n">
-        <v>174.5360412597656</v>
+        <v>263.70458984375</v>
       </c>
       <c r="CF3" t="n">
-        <v>174.7404632568359</v>
+        <v>263.7511291503906</v>
       </c>
       <c r="CG3" t="n">
-        <v>174.8813171386719</v>
+        <v>263.7936706542969</v>
       </c>
       <c r="CH3" t="n">
-        <v>174.998779296875</v>
+        <v>263.8297729492188</v>
       </c>
       <c r="CI3" t="n">
-        <v>175.1214599609375</v>
+        <v>263.86865234375</v>
       </c>
       <c r="CJ3" t="n">
-        <v>175.3379821777344</v>
+        <v>263.9032592773438</v>
       </c>
       <c r="CK3" t="n">
-        <v>175.5234527587891</v>
+        <v>263.9226989746094</v>
       </c>
       <c r="CL3" t="n">
-        <v>175.754638671875</v>
+        <v>263.935546875</v>
       </c>
       <c r="CM3" t="n">
-        <v>175.8777313232422</v>
+        <v>263.9207153320312</v>
       </c>
       <c r="CN3" t="n">
-        <v>176.0235900878906</v>
+        <v>263.9145812988281</v>
       </c>
       <c r="CO3" t="n">
-        <v>176.1526794433594</v>
+        <v>263.9173889160156</v>
       </c>
       <c r="CP3" t="n">
-        <v>176.2855377197266</v>
+        <v>263.9184875488281</v>
       </c>
       <c r="CQ3" t="n">
-        <v>176.5021057128906</v>
+        <v>263.9448852539062</v>
       </c>
       <c r="CR3" t="n">
-        <v>176.5375823974609</v>
+        <v>263.7688598632812</v>
       </c>
       <c r="CS3" t="n">
-        <v>176.4112243652344</v>
+        <v>263.5838012695312</v>
       </c>
       <c r="CT3" t="n">
-        <v>176.0200347900391</v>
+        <v>263.3945922851562</v>
       </c>
       <c r="CU3" t="n">
-        <v>175.5685729980469</v>
+        <v>263.2235717773438</v>
       </c>
       <c r="CV3" t="n">
-        <v>175.2755279541016</v>
+        <v>263.096435546875</v>
       </c>
       <c r="CW3" t="n">
-        <v>175.0284881591797</v>
+        <v>262.9141540527344</v>
       </c>
       <c r="CX3" t="n">
-        <v>174.9406127929688</v>
+        <v>262.8490295410156</v>
       </c>
       <c r="CY3" t="n">
-        <v>174.5316467285156</v>
+        <v>262.8567504882812</v>
       </c>
       <c r="CZ3" t="n">
-        <v>173.9716644287109</v>
+        <v>262.8638305664062</v>
       </c>
       <c r="DA3" t="n">
-        <v>173.4772491455078</v>
+        <v>262.8869323730469</v>
       </c>
       <c r="DB3" t="n">
-        <v>173.5677337646484</v>
+        <v>262.9281616210938</v>
       </c>
       <c r="DC3" t="n">
-        <v>174.0277557373047</v>
+        <v>262.9666137695312</v>
       </c>
       <c r="DD3" t="n">
-        <v>174.7702178955078</v>
+        <v>263.0108337402344</v>
       </c>
       <c r="DE3" t="n">
-        <v>175.1927642822266</v>
+        <v>263.0592346191406</v>
       </c>
       <c r="DF3" t="n">
-        <v>174.8840179443359</v>
+        <v>263.10400390625</v>
       </c>
       <c r="DG3" t="n">
-        <v>174.9400329589844</v>
+        <v>263.1527404785156</v>
       </c>
       <c r="DH3" t="n">
-        <v>175.3283538818359</v>
+        <v>263.21923828125</v>
       </c>
       <c r="DI3" t="n">
-        <v>175.4873046875</v>
+        <v>263.290283203125</v>
       </c>
       <c r="DJ3" t="n">
-        <v>175.2994995117188</v>
+        <v>263.3646240234375</v>
       </c>
       <c r="DK3" t="n">
-        <v>176.6825714111328</v>
+        <v>263.5216979980469</v>
       </c>
       <c r="DL3" t="n">
-        <v>179.3843994140625</v>
+        <v>263.8422241210938</v>
       </c>
       <c r="DM3" t="n">
-        <v>181.2540740966797</v>
+        <v>263.9639587402344</v>
       </c>
       <c r="DN3" t="n">
-        <v>180.1072387695312</v>
+        <v>264.0882263183594</v>
       </c>
       <c r="DO3" t="n">
-        <v>179.1736602783203</v>
+        <v>264.0977172851562</v>
       </c>
       <c r="DP3" t="n">
-        <v>181.7393341064453</v>
+        <v>264.1006469726562</v>
       </c>
       <c r="DQ3" t="n">
-        <v>182.6721343994141</v>
+        <v>264.0895080566406</v>
       </c>
       <c r="DR3" t="n">
-        <v>182.6852569580078</v>
+        <v>264.0752258300781</v>
       </c>
       <c r="DS3" t="n">
-        <v>181.9189910888672</v>
+        <v>263.9917907714844</v>
       </c>
       <c r="DT3" t="n">
-        <v>180.79541015625</v>
+        <v>263.8549194335938</v>
       </c>
       <c r="DU3" t="n">
-        <v>178.7774200439453</v>
+        <v>263.8181457519531</v>
       </c>
       <c r="DV3" t="n">
-        <v>170.1451263427734</v>
+        <v>263.7539978027344</v>
       </c>
       <c r="DW3" t="n">
-        <v>164.9816436767578</v>
+        <v>263.7448120117188</v>
       </c>
       <c r="DX3" t="n">
-        <v>163.6750335693359</v>
+        <v>263.7251281738281</v>
       </c>
       <c r="DY3" t="n">
-        <v>162.56494140625</v>
+        <v>263.6972351074219</v>
       </c>
       <c r="DZ3" t="n">
-        <v>161.3610076904297</v>
+        <v>263.72314453125</v>
       </c>
       <c r="EA3" t="n">
-        <v>160.8597869873047</v>
+        <v>263.8108825683594</v>
       </c>
       <c r="EB3" t="n">
-        <v>160.1059265136719</v>
+        <v>263.891357421875</v>
       </c>
       <c r="EC3" t="n">
-        <v>159.6312408447266</v>
+        <v>263.9545593261719</v>
       </c>
       <c r="ED3" t="n">
-        <v>158.5176696777344</v>
+        <v>264.0905151367188</v>
       </c>
       <c r="EE3" t="n">
-        <v>158.0417327880859</v>
+        <v>264.1579895019531</v>
       </c>
       <c r="EF3" t="n">
-        <v>157.4861755371094</v>
+        <v>264.2922973632812</v>
       </c>
       <c r="EG3" t="n">
-        <v>156.0635070800781</v>
+        <v>264.3652954101562</v>
       </c>
       <c r="EH3" t="n">
-        <v>154.0464782714844</v>
+        <v>264.4280090332031</v>
       </c>
       <c r="EI3" t="n">
-        <v>154.1972961425781</v>
+        <v>264.4861450195312</v>
       </c>
       <c r="EJ3" t="n">
-        <v>156.2038421630859</v>
+        <v>264.4193725585938</v>
       </c>
       <c r="EK3" t="n">
-        <v>155.7613220214844</v>
+        <v>264.2661743164062</v>
       </c>
       <c r="EL3" t="n">
-        <v>154.2656860351562</v>
+        <v>264.1709594726562</v>
       </c>
       <c r="EM3" t="n">
-        <v>154.1493225097656</v>
+        <v>263.9993591308594</v>
       </c>
       <c r="EN3" t="n">
-        <v>154.4277801513672</v>
+        <v>264.0355529785156</v>
       </c>
       <c r="EO3" t="n">
-        <v>155.6009979248047</v>
+        <v>263.963623046875</v>
       </c>
       <c r="EP3" t="n">
-        <v>155.7098846435547</v>
+        <v>263.917236328125</v>
       </c>
       <c r="EQ3" t="n">
-        <v>155.6942596435547</v>
+        <v>263.886474609375</v>
       </c>
       <c r="ER3" t="n">
-        <v>156.7170257568359</v>
+        <v>263.787841796875</v>
       </c>
       <c r="ES3" t="n">
-        <v>159.2293395996094</v>
+        <v>263.8003540039062</v>
       </c>
       <c r="ET3" t="n">
-        <v>160.5906219482422</v>
+        <v>263.7845153808594</v>
       </c>
       <c r="EU3" t="n">
-        <v>159.4589385986328</v>
+        <v>263.798095703125</v>
       </c>
       <c r="EV3" t="n">
-        <v>159.8792114257812</v>
+        <v>263.8001708984375</v>
       </c>
       <c r="EW3" t="n">
-        <v>159.2761993408203</v>
+        <v>263.8407592773438</v>
       </c>
       <c r="EX3" t="n">
-        <v>159.5582122802734</v>
+        <v>263.8285217285156</v>
       </c>
       <c r="EY3" t="n">
-        <v>157.9200439453125</v>
+        <v>263.803955078125</v>
       </c>
       <c r="EZ3" t="n">
-        <v>157.5895233154297</v>
+        <v>263.7863464355469</v>
       </c>
       <c r="FA3" t="n">
-        <v>158.0313110351562</v>
+        <v>263.7771606445312</v>
       </c>
       <c r="FB3" t="n">
-        <v>158.7383728027344</v>
+        <v>263.7727355957031</v>
       </c>
       <c r="FC3" t="n">
-        <v>159.6059417724609</v>
+        <v>263.7620239257812</v>
       </c>
       <c r="FD3" t="n">
-        <v>164.0211791992188</v>
+        <v>263.7727966308594</v>
       </c>
       <c r="FE3" t="n">
-        <v>169.0812377929688</v>
+        <v>263.7838439941406</v>
       </c>
       <c r="FF3" t="n">
-        <v>179.138427734375</v>
+        <v>263.8003540039062</v>
       </c>
       <c r="FG3" t="n">
-        <v>183.6266937255859</v>
+        <v>263.8452758789062</v>
       </c>
       <c r="FH3" t="n">
-        <v>194.4116058349609</v>
+        <v>263.8636474609375</v>
       </c>
       <c r="FI3" t="n">
-        <v>198.6795501708984</v>
+        <v>263.8794555664062</v>
       </c>
       <c r="FJ3" t="n">
-        <v>216.8085327148438</v>
+        <v>263.8981018066406</v>
       </c>
       <c r="FK3" t="n">
-        <v>231.9276885986328</v>
+        <v>263.9204711914062</v>
       </c>
       <c r="FL3" t="n">
-        <v>247.7743682861328</v>
+        <v>264.0783996582031</v>
       </c>
       <c r="FM3" t="n">
-        <v>252.9560546875</v>
+        <v>264.2505493164062</v>
       </c>
       <c r="FN3" t="n">
-        <v>262.5816345214844</v>
+        <v>264.5020141601562</v>
       </c>
       <c r="FO3" t="n">
-        <v>279.8055114746094</v>
+        <v>264.5559692382812</v>
       </c>
       <c r="FP3" t="n">
-        <v>295.2964782714844</v>
+        <v>264.6695251464844</v>
       </c>
       <c r="FQ3" t="n">
-        <v>299.0913391113281</v>
+        <v>264.7001647949219</v>
       </c>
       <c r="FR3" t="n">
-        <v>293.0845336914062</v>
+        <v>264.7825927734375</v>
       </c>
       <c r="FS3" t="n">
-        <v>287.0412292480469</v>
+        <v>264.8052062988281</v>
       </c>
       <c r="FT3" t="n">
-        <v>279.0268859863281</v>
+        <v>264.8557434082031</v>
       </c>
       <c r="FU3" t="n">
-        <v>272.1744079589844</v>
+        <v>264.8089294433594</v>
       </c>
       <c r="FV3" t="n">
-        <v>271.7728881835938</v>
+        <v>264.6828918457031</v>
       </c>
       <c r="FW3" t="n">
-        <v>272.7968444824219</v>
+        <v>264.4573669433594</v>
       </c>
       <c r="FX3" t="n">
-        <v>272.675048828125</v>
+        <v>264.30078125</v>
       </c>
       <c r="FY3" t="n">
-        <v>272.5184631347656</v>
+        <v>264.0319519042969</v>
       </c>
       <c r="FZ3" t="n">
-        <v>273.0525817871094</v>
+        <v>264.1208190917969</v>
       </c>
       <c r="GA3" t="n">
-        <v>272.3039855957031</v>
+        <v>264.3726196289062</v>
       </c>
       <c r="GB3" t="n">
-        <v>271.6471252441406</v>
+        <v>264.4934387207031</v>
       </c>
       <c r="GC3" t="n">
-        <v>270.6080322265625</v>
+        <v>264.806884765625</v>
       </c>
       <c r="GD3" t="n">
-        <v>269.4268188476562</v>
+        <v>264.7262878417969</v>
       </c>
       <c r="GE3" t="n">
-        <v>268.8739318847656</v>
+        <v>264.5797119140625</v>
       </c>
       <c r="GF3" t="n">
-        <v>267.40087890625</v>
+        <v>264.4332275390625</v>
       </c>
       <c r="GG3" t="n">
-        <v>272.649169921875</v>
+        <v>264.4359436035156</v>
       </c>
       <c r="GH3" t="n">
-        <v>274.3286743164062</v>
+        <v>264.4506225585938</v>
       </c>
       <c r="GI3" t="n">
-        <v>277.0025939941406</v>
+        <v>264.4495544433594</v>
       </c>
       <c r="GJ3" t="n">
-        <v>282.7745056152344</v>
+        <v>264.4416198730469</v>
       </c>
       <c r="GK3" t="n">
-        <v>293.3366088867188</v>
+        <v>264.4061279296875</v>
       </c>
       <c r="GL3" t="n">
-        <v>296.7113037109375</v>
+        <v>264.3833923339844</v>
       </c>
       <c r="GM3" t="n">
-        <v>294.4110717773438</v>
+        <v>264.3659973144531</v>
       </c>
       <c r="GN3" t="n">
-        <v>288.4481201171875</v>
+        <v>264.3630676269531</v>
       </c>
       <c r="GO3" t="n">
-        <v>286.1195373535156</v>
+        <v>264.3686218261719</v>
       </c>
       <c r="GP3" t="n">
-        <v>276.2175903320312</v>
+        <v>264.38818359375</v>
       </c>
       <c r="GQ3" t="n">
-        <v>280.0767211914062</v>
+        <v>264.4347839355469</v>
+      </c>
+      <c r="GR3" t="n">
+        <v>264.4546813964844</v>
+      </c>
+      <c r="GS3" t="n">
+        <v>264.4856567382812</v>
+      </c>
+      <c r="GT3" t="n">
+        <v>264.6112670898438</v>
+      </c>
+      <c r="GU3" t="n">
+        <v>264.7812194824219</v>
+      </c>
+      <c r="GV3" t="n">
+        <v>264.71728515625</v>
+      </c>
+      <c r="GW3" t="n">
+        <v>264.7877502441406</v>
+      </c>
+      <c r="GX3" t="n">
+        <v>264.8179016113281</v>
+      </c>
+      <c r="GY3" t="n">
+        <v>264.8446044921875</v>
+      </c>
+      <c r="GZ3" t="n">
+        <v>264.8728942871094</v>
+      </c>
+      <c r="HA3" t="n">
+        <v>264.8963928222656</v>
+      </c>
+      <c r="HB3" t="n">
+        <v>264.8998413085938</v>
+      </c>
+      <c r="HC3" t="n">
+        <v>264.868896484375</v>
+      </c>
+      <c r="HD3" t="n">
+        <v>264.7483825683594</v>
+      </c>
+      <c r="HE3" t="n">
+        <v>264.5321655273438</v>
+      </c>
+      <c r="HF3" t="n">
+        <v>264.1605224609375</v>
+      </c>
+      <c r="HG3" t="n">
+        <v>263.8019104003906</v>
+      </c>
+      <c r="HH3" t="n">
+        <v>263.9615783691406</v>
+      </c>
+      <c r="HI3" t="n">
+        <v>263.833740234375</v>
+      </c>
+      <c r="HJ3" t="n">
+        <v>263.8119201660156</v>
+      </c>
+      <c r="HK3" t="n">
+        <v>263.8001098632812</v>
+      </c>
+      <c r="HL3" t="n">
+        <v>263.7869873046875</v>
+      </c>
+      <c r="HM3" t="n">
+        <v>263.7811584472656</v>
+      </c>
+      <c r="HN3" t="n">
+        <v>263.77099609375</v>
+      </c>
+      <c r="HO3" t="n">
+        <v>263.7609558105469</v>
+      </c>
+      <c r="HP3" t="n">
+        <v>263.7469482421875</v>
+      </c>
+      <c r="HQ3" t="n">
+        <v>263.7311706542969</v>
+      </c>
+      <c r="HR3" t="n">
+        <v>263.7543334960938</v>
+      </c>
+      <c r="HS3" t="n">
+        <v>263.7385559082031</v>
+      </c>
+      <c r="HT3" t="n">
+        <v>263.73193359375</v>
+      </c>
+      <c r="HU3" t="n">
+        <v>263.7291259765625</v>
+      </c>
+      <c r="HV3" t="n">
+        <v>263.7604370117188</v>
+      </c>
+      <c r="HW3" t="n">
+        <v>263.8161926269531</v>
+      </c>
+      <c r="HX3" t="n">
+        <v>264.0074157714844</v>
+      </c>
+      <c r="HY3" t="n">
+        <v>264.3054809570312</v>
+      </c>
+      <c r="HZ3" t="n">
+        <v>264.4599304199219</v>
+      </c>
+      <c r="IA3" t="n">
+        <v>264.4937438964844</v>
+      </c>
+      <c r="IB3" t="n">
+        <v>264.4740295410156</v>
+      </c>
+      <c r="IC3" t="n">
+        <v>264.4988708496094</v>
+      </c>
+      <c r="ID3" t="n">
+        <v>264.5767211914062</v>
+      </c>
+      <c r="IE3" t="n">
+        <v>264.6310424804688</v>
+      </c>
+      <c r="IF3" t="n">
+        <v>264.6763000488281</v>
+      </c>
+      <c r="IG3" t="n">
+        <v>264.7139892578125</v>
+      </c>
+      <c r="IH3" t="n">
+        <v>264.7833251953125</v>
+      </c>
+      <c r="II3" t="n">
+        <v>264.8297424316406</v>
+      </c>
+      <c r="IJ3" t="n">
+        <v>264.7377014160156</v>
+      </c>
+      <c r="IK3" t="n">
+        <v>264.6046142578125</v>
+      </c>
+      <c r="IL3" t="n">
+        <v>264.4181518554688</v>
+      </c>
+      <c r="IM3" t="n">
+        <v>263.9923400878906</v>
+      </c>
+      <c r="IN3" t="n">
+        <v>263.6845703125</v>
+      </c>
+      <c r="IO3" t="n">
+        <v>263.7354736328125</v>
+      </c>
+      <c r="IP3" t="n">
+        <v>263.8013000488281</v>
+      </c>
+      <c r="IQ3" t="n">
+        <v>263.9452819824219</v>
+      </c>
+      <c r="IR3" t="n">
+        <v>264.1465454101562</v>
+      </c>
+      <c r="IS3" t="n">
+        <v>264.4390258789062</v>
+      </c>
+      <c r="IT3" t="n">
+        <v>264.4485473632812</v>
+      </c>
+      <c r="IU3" t="n">
+        <v>264.5068969726562</v>
+      </c>
+      <c r="IV3" t="n">
+        <v>265.0348510742188</v>
+      </c>
+      <c r="IW3" t="n">
+        <v>264.4131469726562</v>
+      </c>
+      <c r="IX3" t="n">
+        <v>264.1029968261719</v>
+      </c>
+      <c r="IY3" t="n">
+        <v>264.6769714355469</v>
+      </c>
+      <c r="IZ3" t="n">
+        <v>264.8269653320312</v>
+      </c>
+      <c r="JA3" t="n">
+        <v>264.3885498046875</v>
+      </c>
+      <c r="JB3" t="n">
+        <v>264.3186950683594</v>
+      </c>
+      <c r="JC3" t="n">
+        <v>264.3464050292969</v>
+      </c>
+      <c r="JD3" t="n">
+        <v>264.4637145996094</v>
+      </c>
+      <c r="JE3" t="n">
+        <v>264.4857482910156</v>
+      </c>
+      <c r="JF3" t="n">
+        <v>264.5496520996094</v>
+      </c>
+      <c r="JG3" t="n">
+        <v>264.6087951660156</v>
+      </c>
+      <c r="JH3" t="n">
+        <v>264.7503662109375</v>
+      </c>
+      <c r="JI3" t="n">
+        <v>264.9429321289062</v>
+      </c>
+      <c r="JJ3" t="n">
+        <v>265.1259765625</v>
+      </c>
+      <c r="JK3" t="n">
+        <v>265.2787475585938</v>
+      </c>
+      <c r="JL3" t="n">
+        <v>265.3946228027344</v>
+      </c>
+      <c r="JM3" t="n">
+        <v>265.3960266113281</v>
+      </c>
+      <c r="JN3" t="n">
+        <v>265.3707580566406</v>
+      </c>
+      <c r="JO3" t="n">
+        <v>265.3114929199219</v>
+      </c>
+      <c r="JP3" t="n">
+        <v>265.1893310546875</v>
+      </c>
+      <c r="JQ3" t="n">
+        <v>263.6921997070312</v>
+      </c>
+      <c r="JR3" t="n">
+        <v>262.6702270507812</v>
+      </c>
+      <c r="JS3" t="n">
+        <v>262.6775512695312</v>
+      </c>
+      <c r="JT3" t="n">
+        <v>263.0442504882812</v>
+      </c>
+      <c r="JU3" t="n">
+        <v>263.3260192871094</v>
+      </c>
+      <c r="JV3" t="n">
+        <v>263.6013793945312</v>
+      </c>
+      <c r="JW3" t="n">
+        <v>263.9237365722656</v>
+      </c>
+      <c r="JX3" t="n">
+        <v>263.9951171875</v>
+      </c>
+      <c r="JY3" t="n">
+        <v>264.1302490234375</v>
+      </c>
+      <c r="JZ3" t="n">
+        <v>264.2363586425781</v>
+      </c>
+      <c r="KA3" t="n">
+        <v>263.1610412597656</v>
+      </c>
+      <c r="KB3" t="n">
+        <v>262.8873901367188</v>
+      </c>
+      <c r="KC3" t="n">
+        <v>262.8903503417969</v>
+      </c>
+      <c r="KD3" t="n">
+        <v>262.9561767578125</v>
+      </c>
+      <c r="KE3" t="n">
+        <v>262.7174987792969</v>
+      </c>
+      <c r="KF3" t="n">
+        <v>262.3545837402344</v>
+      </c>
+      <c r="KG3" t="n">
+        <v>261.5722351074219</v>
+      </c>
+      <c r="KH3" t="n">
+        <v>260.9450378417969</v>
+      </c>
+      <c r="KI3" t="n">
+        <v>259.7630004882812</v>
+      </c>
+      <c r="KJ3" t="n">
+        <v>259.1802368164062</v>
+      </c>
+      <c r="KK3" t="n">
+        <v>259.0723266601562</v>
+      </c>
+      <c r="KL3" t="n">
+        <v>259.6488952636719</v>
+      </c>
+      <c r="KM3" t="n">
+        <v>259.3007507324219</v>
+      </c>
+      <c r="KN3" t="n">
+        <v>256.2951965332031</v>
+      </c>
+      <c r="KO3" t="n">
+        <v>246.1446838378906</v>
+      </c>
+      <c r="KP3" t="n">
+        <v>240.7517700195312</v>
+      </c>
+      <c r="KQ3" t="n">
+        <v>238.178955078125</v>
+      </c>
+      <c r="KR3" t="n">
+        <v>233.9231872558594</v>
+      </c>
+      <c r="KS3" t="n">
+        <v>225.1560821533203</v>
+      </c>
+      <c r="KT3" t="n">
+        <v>222.9614715576172</v>
+      </c>
+      <c r="KU3" t="n">
+        <v>221.6607208251953</v>
+      </c>
+      <c r="KV3" t="n">
+        <v>221.3825225830078</v>
+      </c>
+      <c r="KW3" t="n">
+        <v>221.1852569580078</v>
+      </c>
+      <c r="KX3" t="n">
+        <v>216.7543334960938</v>
+      </c>
+      <c r="KY3" t="n">
+        <v>211.0033264160156</v>
+      </c>
+      <c r="KZ3" t="n">
+        <v>203.6252288818359</v>
+      </c>
+      <c r="LA3" t="n">
+        <v>197.9809112548828</v>
+      </c>
+      <c r="LB3" t="n">
+        <v>194.8549957275391</v>
+      </c>
+      <c r="LC3" t="n">
+        <v>193.2296752929688</v>
+      </c>
+      <c r="LD3" t="n">
+        <v>191.7529296875</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1244.113647460938</v>
+        <v>849.0117797851562</v>
       </c>
       <c r="B4" t="n">
-        <v>1227.322143554688</v>
+        <v>862.5350952148438</v>
       </c>
       <c r="C4" t="n">
-        <v>1232.789794921875</v>
+        <v>882.7583618164062</v>
       </c>
       <c r="D4" t="n">
-        <v>1225.408569335938</v>
+        <v>909.8248901367188</v>
       </c>
       <c r="E4" t="n">
-        <v>1221.681640625</v>
+        <v>936.3955688476562</v>
       </c>
       <c r="F4" t="n">
-        <v>1220.235229492188</v>
+        <v>971.39111328125</v>
       </c>
       <c r="G4" t="n">
-        <v>1223.476806640625</v>
+        <v>1008.266845703125</v>
       </c>
       <c r="H4" t="n">
-        <v>1224.260986328125</v>
+        <v>1044.10498046875</v>
       </c>
       <c r="I4" t="n">
-        <v>1224.39453125</v>
+        <v>1086.579223632812</v>
       </c>
       <c r="J4" t="n">
-        <v>1228.315795898438</v>
+        <v>1134.355590820312</v>
       </c>
       <c r="K4" t="n">
-        <v>1237.002807617188</v>
+        <v>1176.06689453125</v>
       </c>
       <c r="L4" t="n">
-        <v>1254.602783203125</v>
+        <v>1218.685546875</v>
       </c>
       <c r="M4" t="n">
-        <v>1271.379150390625</v>
+        <v>1262.954467773438</v>
       </c>
       <c r="N4" t="n">
-        <v>1286.080078125</v>
+        <v>1306.4033203125</v>
       </c>
       <c r="O4" t="n">
-        <v>1304.84375</v>
+        <v>1350.031494140625</v>
       </c>
       <c r="P4" t="n">
-        <v>1329.570556640625</v>
+        <v>1387.702270507812</v>
       </c>
       <c r="Q4" t="n">
-        <v>1330.735961914062</v>
+        <v>1423.044555664062</v>
       </c>
       <c r="R4" t="n">
-        <v>1352.99267578125</v>
+        <v>1460.077270507812</v>
       </c>
       <c r="S4" t="n">
-        <v>1354.475341796875</v>
+        <v>1490.26513671875</v>
       </c>
       <c r="T4" t="n">
-        <v>1378.460083007812</v>
+        <v>1523.45654296875</v>
       </c>
       <c r="U4" t="n">
-        <v>1377.3583984375</v>
+        <v>1555.879150390625</v>
       </c>
       <c r="V4" t="n">
-        <v>1382.5361328125</v>
+        <v>1571.152465820312</v>
       </c>
       <c r="W4" t="n">
-        <v>1381.767700195312</v>
+        <v>1605.022827148438</v>
       </c>
       <c r="X4" t="n">
-        <v>1384.15771484375</v>
+        <v>1635.000610351562</v>
       </c>
       <c r="Y4" t="n">
-        <v>1387.922973632812</v>
+        <v>1669.220581054688</v>
       </c>
       <c r="Z4" t="n">
-        <v>1392.639770507812</v>
+        <v>1682.600708007812</v>
       </c>
       <c r="AA4" t="n">
-        <v>1393.999389648438</v>
+        <v>1713.486938476562</v>
       </c>
       <c r="AB4" t="n">
-        <v>1393.056518554688</v>
+        <v>1739.225830078125</v>
       </c>
       <c r="AC4" t="n">
-        <v>1391.150634765625</v>
+        <v>1776.954467773438</v>
       </c>
       <c r="AD4" t="n">
-        <v>1390.36962890625</v>
+        <v>1800.895751953125</v>
       </c>
       <c r="AE4" t="n">
-        <v>1387.334716796875</v>
+        <v>1819.950439453125</v>
       </c>
       <c r="AF4" t="n">
-        <v>1378.538818359375</v>
+        <v>1851.663940429688</v>
       </c>
       <c r="AG4" t="n">
-        <v>1367.570556640625</v>
+        <v>1867.827270507812</v>
       </c>
       <c r="AH4" t="n">
-        <v>1360.5732421875</v>
+        <v>1899.053344726562</v>
       </c>
       <c r="AI4" t="n">
-        <v>1354.620849609375</v>
+        <v>1921.904296875</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1349.372436523438</v>
+        <v>1948.319946289062</v>
       </c>
       <c r="AK4" t="n">
-        <v>1346.712524414062</v>
+        <v>1967.817260742188</v>
       </c>
       <c r="AL4" t="n">
-        <v>1347.683959960938</v>
+        <v>1987.659790039062</v>
       </c>
       <c r="AM4" t="n">
-        <v>1349.01904296875</v>
+        <v>1998.535034179688</v>
       </c>
       <c r="AN4" t="n">
-        <v>1347.692138671875</v>
+        <v>2004.005249023438</v>
       </c>
       <c r="AO4" t="n">
-        <v>1346.390258789062</v>
+        <v>2017.467407226562</v>
       </c>
       <c r="AP4" t="n">
-        <v>1344.589477539062</v>
+        <v>2021.339233398438</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1337.988647460938</v>
+        <v>2028.015014648438</v>
       </c>
       <c r="AR4" t="n">
-        <v>1333.264770507812</v>
+        <v>2031.71875</v>
       </c>
       <c r="AS4" t="n">
-        <v>1330.7470703125</v>
+        <v>2035.285522460938</v>
       </c>
       <c r="AT4" t="n">
-        <v>1328.902221679688</v>
+        <v>2039.580200195312</v>
       </c>
       <c r="AU4" t="n">
-        <v>1329.545654296875</v>
+        <v>2043.980590820312</v>
       </c>
       <c r="AV4" t="n">
-        <v>1328.1123046875</v>
+        <v>2052.28515625</v>
       </c>
       <c r="AW4" t="n">
-        <v>1328.172485351562</v>
+        <v>2058.14501953125</v>
       </c>
       <c r="AX4" t="n">
-        <v>1327.66943359375</v>
+        <v>2060.55224609375</v>
       </c>
       <c r="AY4" t="n">
-        <v>1328.893798828125</v>
+        <v>2067.376220703125</v>
       </c>
       <c r="AZ4" t="n">
-        <v>1327.967041015625</v>
+        <v>2073.68310546875</v>
       </c>
       <c r="BA4" t="n">
-        <v>1331.719604492188</v>
+        <v>2077.63623046875</v>
       </c>
       <c r="BB4" t="n">
-        <v>1335.262939453125</v>
+        <v>2082.856201171875</v>
       </c>
       <c r="BC4" t="n">
-        <v>1335.348876953125</v>
+        <v>2085.705810546875</v>
       </c>
       <c r="BD4" t="n">
-        <v>1339.252075195312</v>
+        <v>2092.912841796875</v>
       </c>
       <c r="BE4" t="n">
-        <v>1344.287841796875</v>
+        <v>2093.435791015625</v>
       </c>
       <c r="BF4" t="n">
-        <v>1347.846313476562</v>
+        <v>2097.083984375</v>
       </c>
       <c r="BG4" t="n">
-        <v>1351.924438476562</v>
+        <v>2106.113525390625</v>
       </c>
       <c r="BH4" t="n">
-        <v>1353.389404296875</v>
+        <v>2109.374755859375</v>
       </c>
       <c r="BI4" t="n">
-        <v>1355.95166015625</v>
+        <v>2108.998779296875</v>
       </c>
       <c r="BJ4" t="n">
-        <v>1356.521118164062</v>
+        <v>2119.18212890625</v>
       </c>
       <c r="BK4" t="n">
-        <v>1360.54931640625</v>
+        <v>2121.13671875</v>
       </c>
       <c r="BL4" t="n">
-        <v>1361.384033203125</v>
+        <v>2122.139892578125</v>
       </c>
       <c r="BM4" t="n">
-        <v>1365.234375</v>
+        <v>2123.46142578125</v>
       </c>
       <c r="BN4" t="n">
-        <v>1366.228637695312</v>
+        <v>2125.25048828125</v>
       </c>
       <c r="BO4" t="n">
-        <v>1366.811279296875</v>
+        <v>2126.7861328125</v>
       </c>
       <c r="BP4" t="n">
-        <v>1368.184814453125</v>
+        <v>2128.47412109375</v>
       </c>
       <c r="BQ4" t="n">
-        <v>1369.01123046875</v>
+        <v>2129.263916015625</v>
       </c>
       <c r="BR4" t="n">
-        <v>1368.817016601562</v>
+        <v>2130.559326171875</v>
       </c>
       <c r="BS4" t="n">
-        <v>1368.796508789062</v>
+        <v>2129.395751953125</v>
       </c>
       <c r="BT4" t="n">
-        <v>1368.9033203125</v>
+        <v>2129.542236328125</v>
       </c>
       <c r="BU4" t="n">
-        <v>1369.132446289062</v>
+        <v>2129.24560546875</v>
       </c>
       <c r="BV4" t="n">
-        <v>1369.202514648438</v>
+        <v>2128.778076171875</v>
       </c>
       <c r="BW4" t="n">
-        <v>1369.22265625</v>
+        <v>2128.353515625</v>
       </c>
       <c r="BX4" t="n">
-        <v>1369.251708984375</v>
+        <v>2127.748779296875</v>
       </c>
       <c r="BY4" t="n">
-        <v>1369.286987304688</v>
+        <v>2124.43359375</v>
       </c>
       <c r="BZ4" t="n">
-        <v>1369.326782226562</v>
+        <v>2119.896728515625</v>
       </c>
       <c r="CA4" t="n">
-        <v>1369.381225585938</v>
+        <v>2118.083740234375</v>
       </c>
       <c r="CB4" t="n">
-        <v>1369.43408203125</v>
+        <v>2117.828857421875</v>
       </c>
       <c r="CC4" t="n">
-        <v>1369.502197265625</v>
+        <v>2117.74462890625</v>
       </c>
       <c r="CD4" t="n">
-        <v>1369.56298828125</v>
+        <v>2117.7021484375</v>
       </c>
       <c r="CE4" t="n">
-        <v>1369.671997070312</v>
+        <v>2117.57763671875</v>
       </c>
       <c r="CF4" t="n">
-        <v>1369.773681640625</v>
+        <v>2117.466064453125</v>
       </c>
       <c r="CG4" t="n">
-        <v>1369.859497070312</v>
+        <v>2117.36865234375</v>
       </c>
       <c r="CH4" t="n">
-        <v>1369.940063476562</v>
+        <v>2117.133056640625</v>
       </c>
       <c r="CI4" t="n">
-        <v>1369.983520507812</v>
+        <v>2116.927978515625</v>
       </c>
       <c r="CJ4" t="n">
-        <v>1370.043212890625</v>
+        <v>2116.519775390625</v>
       </c>
       <c r="CK4" t="n">
-        <v>1370.031372070312</v>
+        <v>2116.142822265625</v>
       </c>
       <c r="CL4" t="n">
-        <v>1369.990356445312</v>
+        <v>2115.857421875</v>
       </c>
       <c r="CM4" t="n">
-        <v>1369.95751953125</v>
+        <v>2115.677978515625</v>
       </c>
       <c r="CN4" t="n">
-        <v>1369.920776367188</v>
+        <v>2115.09716796875</v>
       </c>
       <c r="CO4" t="n">
-        <v>1369.86083984375</v>
+        <v>2115.157470703125</v>
       </c>
       <c r="CP4" t="n">
-        <v>1369.758666992188</v>
+        <v>2115.954345703125</v>
       </c>
       <c r="CQ4" t="n">
-        <v>1369.612426757812</v>
+        <v>2124.566162109375</v>
       </c>
       <c r="CR4" t="n">
-        <v>1369.07080078125</v>
+        <v>2124.852783203125</v>
       </c>
       <c r="CS4" t="n">
-        <v>1367.560668945312</v>
+        <v>2125.093994140625</v>
       </c>
       <c r="CT4" t="n">
-        <v>1360.752319335938</v>
+        <v>2124.619873046875</v>
       </c>
       <c r="CU4" t="n">
-        <v>1353.580688476562</v>
+        <v>2122.1357421875</v>
       </c>
       <c r="CV4" t="n">
-        <v>1349.193481445312</v>
+        <v>2120.88134765625</v>
       </c>
       <c r="CW4" t="n">
-        <v>1345.53466796875</v>
+        <v>2121.986083984375</v>
       </c>
       <c r="CX4" t="n">
-        <v>1345.652221679688</v>
+        <v>2122.0244140625</v>
       </c>
       <c r="CY4" t="n">
-        <v>1345.887573242188</v>
+        <v>2122.151611328125</v>
       </c>
       <c r="CZ4" t="n">
-        <v>1346.22509765625</v>
+        <v>2122.217041015625</v>
       </c>
       <c r="DA4" t="n">
-        <v>1346.566650390625</v>
+        <v>2122.22705078125</v>
       </c>
       <c r="DB4" t="n">
-        <v>1346.556030273438</v>
+        <v>2121.738037109375</v>
       </c>
       <c r="DC4" t="n">
-        <v>1346.289306640625</v>
+        <v>2121.667236328125</v>
       </c>
       <c r="DD4" t="n">
-        <v>1345.86865234375</v>
+        <v>2121.53076171875</v>
       </c>
       <c r="DE4" t="n">
-        <v>1345.65576171875</v>
+        <v>2121.41845703125</v>
       </c>
       <c r="DF4" t="n">
-        <v>1345.92431640625</v>
+        <v>2121.302978515625</v>
       </c>
       <c r="DG4" t="n">
-        <v>1345.960571289062</v>
+        <v>2121.180419921875</v>
       </c>
       <c r="DH4" t="n">
-        <v>1345.835571289062</v>
+        <v>2121.00830078125</v>
       </c>
       <c r="DI4" t="n">
-        <v>1345.878051757812</v>
+        <v>2120.796630859375</v>
       </c>
       <c r="DJ4" t="n">
-        <v>1346.19189453125</v>
+        <v>2120.576171875</v>
       </c>
       <c r="DK4" t="n">
-        <v>1352.175415039062</v>
+        <v>2119.9423828125</v>
       </c>
       <c r="DL4" t="n">
-        <v>1353.131469726562</v>
+        <v>2119.06005859375</v>
       </c>
       <c r="DM4" t="n">
-        <v>1353.403442382812</v>
+        <v>2118.8115234375</v>
       </c>
       <c r="DN4" t="n">
-        <v>1352.187377929688</v>
+        <v>2118.664306640625</v>
       </c>
       <c r="DO4" t="n">
-        <v>1351.334594726562</v>
+        <v>2118.68408203125</v>
       </c>
       <c r="DP4" t="n">
-        <v>1351.1640625</v>
+        <v>2118.657470703125</v>
       </c>
       <c r="DQ4" t="n">
-        <v>1345.919555664062</v>
+        <v>2118.678955078125</v>
       </c>
       <c r="DR4" t="n">
-        <v>1339.183959960938</v>
+        <v>2118.70166015625</v>
       </c>
       <c r="DS4" t="n">
-        <v>1322.699340820312</v>
+        <v>2118.845458984375</v>
       </c>
       <c r="DT4" t="n">
-        <v>1317.16748046875</v>
+        <v>2119.106689453125</v>
       </c>
       <c r="DU4" t="n">
-        <v>1316.075073242188</v>
+        <v>2119.197265625</v>
       </c>
       <c r="DV4" t="n">
-        <v>1314.08203125</v>
+        <v>2119.36279296875</v>
       </c>
       <c r="DW4" t="n">
-        <v>1310.5126953125</v>
+        <v>2119.407470703125</v>
       </c>
       <c r="DX4" t="n">
-        <v>1308.104248046875</v>
+        <v>2119.47314453125</v>
       </c>
       <c r="DY4" t="n">
-        <v>1303.666381835938</v>
+        <v>2119.58203125</v>
       </c>
       <c r="DZ4" t="n">
-        <v>1295.588134765625</v>
+        <v>2119.591796875</v>
       </c>
       <c r="EA4" t="n">
-        <v>1291.918212890625</v>
+        <v>2119.518798828125</v>
       </c>
       <c r="EB4" t="n">
-        <v>1283.078735351562</v>
+        <v>2119.422607421875</v>
       </c>
       <c r="EC4" t="n">
-        <v>1277.765747070312</v>
+        <v>2119.36376953125</v>
       </c>
       <c r="ED4" t="n">
-        <v>1258.0771484375</v>
+        <v>2119.22265625</v>
       </c>
       <c r="EE4" t="n">
-        <v>1249.773193359375</v>
+        <v>2119.1708984375</v>
       </c>
       <c r="EF4" t="n">
-        <v>1244.091064453125</v>
+        <v>2119.072509765625</v>
       </c>
       <c r="EG4" t="n">
-        <v>1227.363891601562</v>
+        <v>2119.011474609375</v>
       </c>
       <c r="EH4" t="n">
-        <v>1219.929809570312</v>
+        <v>2118.97802734375</v>
       </c>
       <c r="EI4" t="n">
-        <v>1200.74658203125</v>
+        <v>2118.9521484375</v>
       </c>
       <c r="EJ4" t="n">
-        <v>1190.388916015625</v>
+        <v>2118.9453125</v>
       </c>
       <c r="EK4" t="n">
-        <v>1163.988403320312</v>
+        <v>2118.9521484375</v>
       </c>
       <c r="EL4" t="n">
-        <v>1137.939331054688</v>
+        <v>2118.950439453125</v>
       </c>
       <c r="EM4" t="n">
-        <v>1103.765991210938</v>
+        <v>2120.841796875</v>
       </c>
       <c r="EN4" t="n">
-        <v>1095.56787109375</v>
+        <v>2120.37353515625</v>
       </c>
       <c r="EO4" t="n">
-        <v>1069.0927734375</v>
+        <v>2120.52978515625</v>
       </c>
       <c r="EP4" t="n">
-        <v>1059.58349609375</v>
+        <v>2116.69140625</v>
       </c>
       <c r="EQ4" t="n">
-        <v>1029.914672851562</v>
+        <v>2124.802734375</v>
       </c>
       <c r="ER4" t="n">
-        <v>1020.806579589844</v>
+        <v>2115.826416015625</v>
       </c>
       <c r="ES4" t="n">
-        <v>996.730224609375</v>
+        <v>2117.779296875</v>
       </c>
       <c r="ET4" t="n">
-        <v>988.832275390625</v>
+        <v>2114.500732421875</v>
       </c>
       <c r="EU4" t="n">
-        <v>978.0176391601562</v>
+        <v>2114.4931640625</v>
       </c>
       <c r="EV4" t="n">
-        <v>961.3196411132812</v>
+        <v>2114.645751953125</v>
       </c>
       <c r="EW4" t="n">
-        <v>947.3143920898438</v>
+        <v>2121.0732421875</v>
       </c>
       <c r="EX4" t="n">
-        <v>936.598876953125</v>
+        <v>2125.575439453125</v>
       </c>
       <c r="EY4" t="n">
-        <v>922.5267333984375</v>
+        <v>2124.26416015625</v>
       </c>
       <c r="EZ4" t="n">
-        <v>908.6171264648438</v>
+        <v>2122.73974609375</v>
       </c>
       <c r="FA4" t="n">
-        <v>899.2132568359375</v>
+        <v>2124.312255859375</v>
       </c>
       <c r="FB4" t="n">
-        <v>889.1103515625</v>
+        <v>2124.712158203125</v>
       </c>
       <c r="FC4" t="n">
-        <v>878.6708984375</v>
+        <v>2122.447509765625</v>
       </c>
       <c r="FD4" t="n">
-        <v>865.9380493164062</v>
+        <v>2120.70263671875</v>
       </c>
       <c r="FE4" t="n">
-        <v>858.7467651367188</v>
+        <v>2120.184326171875</v>
       </c>
       <c r="FF4" t="n">
-        <v>853.461669921875</v>
+        <v>2119.63671875</v>
       </c>
       <c r="FG4" t="n">
-        <v>855.7291259765625</v>
+        <v>2116.07177734375</v>
       </c>
       <c r="FH4" t="n">
-        <v>866.1087646484375</v>
+        <v>2116.11962890625</v>
       </c>
       <c r="FI4" t="n">
-        <v>874.5333251953125</v>
+        <v>2116.258544921875</v>
       </c>
       <c r="FJ4" t="n">
-        <v>883.6121826171875</v>
+        <v>2116.274169921875</v>
       </c>
       <c r="FK4" t="n">
-        <v>882.2737426757812</v>
+        <v>2116.299560546875</v>
       </c>
       <c r="FL4" t="n">
-        <v>890.3200073242188</v>
+        <v>2116.18310546875</v>
       </c>
       <c r="FM4" t="n">
-        <v>892.0993041992188</v>
+        <v>2115.999267578125</v>
       </c>
       <c r="FN4" t="n">
-        <v>888.8680419921875</v>
+        <v>2115.788818359375</v>
       </c>
       <c r="FO4" t="n">
-        <v>884.763671875</v>
+        <v>2115.809326171875</v>
       </c>
       <c r="FP4" t="n">
-        <v>890.1625366210938</v>
+        <v>2115.87646484375</v>
       </c>
       <c r="FQ4" t="n">
-        <v>896.944091796875</v>
+        <v>2116.013916015625</v>
       </c>
       <c r="FR4" t="n">
-        <v>920.9352416992188</v>
+        <v>2117.2958984375</v>
       </c>
       <c r="FS4" t="n">
-        <v>925.4952392578125</v>
+        <v>2122.112548828125</v>
       </c>
       <c r="FT4" t="n">
-        <v>934.5465087890625</v>
+        <v>2128.73583984375</v>
       </c>
       <c r="FU4" t="n">
-        <v>921.119140625</v>
+        <v>2128.238525390625</v>
       </c>
       <c r="FV4" t="n">
-        <v>921.2938232421875</v>
+        <v>2128.310302734375</v>
       </c>
       <c r="FW4" t="n">
-        <v>923.5580444335938</v>
+        <v>2128.082763671875</v>
       </c>
       <c r="FX4" t="n">
-        <v>923.703125</v>
+        <v>2127.91748046875</v>
       </c>
       <c r="FY4" t="n">
-        <v>923.6492309570312</v>
+        <v>2120.9365234375</v>
       </c>
       <c r="FZ4" t="n">
-        <v>924.2714233398438</v>
+        <v>2111.5029296875</v>
       </c>
       <c r="GA4" t="n">
-        <v>923.382568359375</v>
+        <v>2112.23046875</v>
       </c>
       <c r="GB4" t="n">
-        <v>923.2046508789062</v>
+        <v>2112.597412109375</v>
       </c>
       <c r="GC4" t="n">
-        <v>913.7704467773438</v>
+        <v>2112.656982421875</v>
       </c>
       <c r="GD4" t="n">
-        <v>906.21044921875</v>
+        <v>2113.03662109375</v>
       </c>
       <c r="GE4" t="n">
-        <v>904.9270629882812</v>
+        <v>2113.89794921875</v>
       </c>
       <c r="GF4" t="n">
-        <v>901.5908203125</v>
+        <v>2115.27392578125</v>
       </c>
       <c r="GG4" t="n">
-        <v>899.7565307617188</v>
+        <v>2113.78125</v>
       </c>
       <c r="GH4" t="n">
-        <v>907.7947387695312</v>
+        <v>2114.17578125</v>
       </c>
       <c r="GI4" t="n">
-        <v>903.9783325195312</v>
+        <v>2114.6376953125</v>
       </c>
       <c r="GJ4" t="n">
-        <v>882.745361328125</v>
+        <v>2114.702880859375</v>
       </c>
       <c r="GK4" t="n">
-        <v>852.077880859375</v>
+        <v>2114.778076171875</v>
       </c>
       <c r="GL4" t="n">
-        <v>825.5328979492188</v>
+        <v>2114.82275390625</v>
       </c>
       <c r="GM4" t="n">
-        <v>838.7572631835938</v>
+        <v>2114.866455078125</v>
       </c>
       <c r="GN4" t="n">
-        <v>831.3522338867188</v>
+        <v>2114.88330078125</v>
       </c>
       <c r="GO4" t="n">
-        <v>830.56689453125</v>
+        <v>2114.88916015625</v>
       </c>
       <c r="GP4" t="n">
-        <v>815.59814453125</v>
+        <v>2115.01416015625</v>
       </c>
       <c r="GQ4" t="n">
-        <v>796.8202514648438</v>
+        <v>2115.259033203125</v>
+      </c>
+      <c r="GR4" t="n">
+        <v>2115.445068359375</v>
+      </c>
+      <c r="GS4" t="n">
+        <v>2115.77734375</v>
+      </c>
+      <c r="GT4" t="n">
+        <v>2117.062255859375</v>
+      </c>
+      <c r="GU4" t="n">
+        <v>2117.229248046875</v>
+      </c>
+      <c r="GV4" t="n">
+        <v>2117.303955078125</v>
+      </c>
+      <c r="GW4" t="n">
+        <v>2117.19189453125</v>
+      </c>
+      <c r="GX4" t="n">
+        <v>2117.139892578125</v>
+      </c>
+      <c r="GY4" t="n">
+        <v>2117.128662109375</v>
+      </c>
+      <c r="GZ4" t="n">
+        <v>2117.126220703125</v>
+      </c>
+      <c r="HA4" t="n">
+        <v>2117.15673828125</v>
+      </c>
+      <c r="HB4" t="n">
+        <v>2117.136474609375</v>
+      </c>
+      <c r="HC4" t="n">
+        <v>2117.10009765625</v>
+      </c>
+      <c r="HD4" t="n">
+        <v>2117.046630859375</v>
+      </c>
+      <c r="HE4" t="n">
+        <v>2117.01220703125</v>
+      </c>
+      <c r="HF4" t="n">
+        <v>2116.943115234375</v>
+      </c>
+      <c r="HG4" t="n">
+        <v>2115.692626953125</v>
+      </c>
+      <c r="HH4" t="n">
+        <v>2113.5341796875</v>
+      </c>
+      <c r="HI4" t="n">
+        <v>2112.57568359375</v>
+      </c>
+      <c r="HJ4" t="n">
+        <v>2111.412841796875</v>
+      </c>
+      <c r="HK4" t="n">
+        <v>2111.66650390625</v>
+      </c>
+      <c r="HL4" t="n">
+        <v>2111.613525390625</v>
+      </c>
+      <c r="HM4" t="n">
+        <v>2111.59521484375</v>
+      </c>
+      <c r="HN4" t="n">
+        <v>2111.58935546875</v>
+      </c>
+      <c r="HO4" t="n">
+        <v>2111.6181640625</v>
+      </c>
+      <c r="HP4" t="n">
+        <v>2111.650390625</v>
+      </c>
+      <c r="HQ4" t="n">
+        <v>2111.716796875</v>
+      </c>
+      <c r="HR4" t="n">
+        <v>2118.200927734375</v>
+      </c>
+      <c r="HS4" t="n">
+        <v>2116.25634765625</v>
+      </c>
+      <c r="HT4" t="n">
+        <v>2116.309326171875</v>
+      </c>
+      <c r="HU4" t="n">
+        <v>2116.705078125</v>
+      </c>
+      <c r="HV4" t="n">
+        <v>2116.664794921875</v>
+      </c>
+      <c r="HW4" t="n">
+        <v>2116.681640625</v>
+      </c>
+      <c r="HX4" t="n">
+        <v>2116.8388671875</v>
+      </c>
+      <c r="HY4" t="n">
+        <v>2116.835693359375</v>
+      </c>
+      <c r="HZ4" t="n">
+        <v>2116.68701171875</v>
+      </c>
+      <c r="IA4" t="n">
+        <v>2116.641357421875</v>
+      </c>
+      <c r="IB4" t="n">
+        <v>2116.70166015625</v>
+      </c>
+      <c r="IC4" t="n">
+        <v>2111.978515625</v>
+      </c>
+      <c r="ID4" t="n">
+        <v>2112.55029296875</v>
+      </c>
+      <c r="IE4" t="n">
+        <v>2112.491943359375</v>
+      </c>
+      <c r="IF4" t="n">
+        <v>2112.47900390625</v>
+      </c>
+      <c r="IG4" t="n">
+        <v>2112.556884765625</v>
+      </c>
+      <c r="IH4" t="n">
+        <v>2112.536376953125</v>
+      </c>
+      <c r="II4" t="n">
+        <v>2112.53662109375</v>
+      </c>
+      <c r="IJ4" t="n">
+        <v>2112.46044921875</v>
+      </c>
+      <c r="IK4" t="n">
+        <v>2112.359130859375</v>
+      </c>
+      <c r="IL4" t="n">
+        <v>2112.240478515625</v>
+      </c>
+      <c r="IM4" t="n">
+        <v>2112.064208984375</v>
+      </c>
+      <c r="IN4" t="n">
+        <v>2111.98876953125</v>
+      </c>
+      <c r="IO4" t="n">
+        <v>2111.6845703125</v>
+      </c>
+      <c r="IP4" t="n">
+        <v>2111.262451171875</v>
+      </c>
+      <c r="IQ4" t="n">
+        <v>2110.600341796875</v>
+      </c>
+      <c r="IR4" t="n">
+        <v>2109.8896484375</v>
+      </c>
+      <c r="IS4" t="n">
+        <v>2109.199951171875</v>
+      </c>
+      <c r="IT4" t="n">
+        <v>2108.142333984375</v>
+      </c>
+      <c r="IU4" t="n">
+        <v>2108.047607421875</v>
+      </c>
+      <c r="IV4" t="n">
+        <v>2106.831787109375</v>
+      </c>
+      <c r="IW4" t="n">
+        <v>2119.685791015625</v>
+      </c>
+      <c r="IX4" t="n">
+        <v>2121.45263671875</v>
+      </c>
+      <c r="IY4" t="n">
+        <v>2109.455322265625</v>
+      </c>
+      <c r="IZ4" t="n">
+        <v>2112.280517578125</v>
+      </c>
+      <c r="JA4" t="n">
+        <v>2110.915771484375</v>
+      </c>
+      <c r="JB4" t="n">
+        <v>2108.99169921875</v>
+      </c>
+      <c r="JC4" t="n">
+        <v>2109.285400390625</v>
+      </c>
+      <c r="JD4" t="n">
+        <v>2108.061767578125</v>
+      </c>
+      <c r="JE4" t="n">
+        <v>2106.787109375</v>
+      </c>
+      <c r="JF4" t="n">
+        <v>2105.709228515625</v>
+      </c>
+      <c r="JG4" t="n">
+        <v>2105.71240234375</v>
+      </c>
+      <c r="JH4" t="n">
+        <v>2105.437255859375</v>
+      </c>
+      <c r="JI4" t="n">
+        <v>2105.198974609375</v>
+      </c>
+      <c r="JJ4" t="n">
+        <v>2104.97216796875</v>
+      </c>
+      <c r="JK4" t="n">
+        <v>2104.771240234375</v>
+      </c>
+      <c r="JL4" t="n">
+        <v>2104.6162109375</v>
+      </c>
+      <c r="JM4" t="n">
+        <v>2104.609130859375</v>
+      </c>
+      <c r="JN4" t="n">
+        <v>2104.63623046875</v>
+      </c>
+      <c r="JO4" t="n">
+        <v>2104.654541015625</v>
+      </c>
+      <c r="JP4" t="n">
+        <v>2104.66455078125</v>
+      </c>
+      <c r="JQ4" t="n">
+        <v>2104.306884765625</v>
+      </c>
+      <c r="JR4" t="n">
+        <v>2103.731689453125</v>
+      </c>
+      <c r="JS4" t="n">
+        <v>2097.34814453125</v>
+      </c>
+      <c r="JT4" t="n">
+        <v>2094.267822265625</v>
+      </c>
+      <c r="JU4" t="n">
+        <v>2094.315185546875</v>
+      </c>
+      <c r="JV4" t="n">
+        <v>2094.248291015625</v>
+      </c>
+      <c r="JW4" t="n">
+        <v>2093.350341796875</v>
+      </c>
+      <c r="JX4" t="n">
+        <v>2083.340576171875</v>
+      </c>
+      <c r="JY4" t="n">
+        <v>2070.6123046875</v>
+      </c>
+      <c r="JZ4" t="n">
+        <v>2062.77978515625</v>
+      </c>
+      <c r="KA4" t="n">
+        <v>2064.23876953125</v>
+      </c>
+      <c r="KB4" t="n">
+        <v>2055.444091796875</v>
+      </c>
+      <c r="KC4" t="n">
+        <v>2046.0478515625</v>
+      </c>
+      <c r="KD4" t="n">
+        <v>2034.41259765625</v>
+      </c>
+      <c r="KE4" t="n">
+        <v>2031.674194335938</v>
+      </c>
+      <c r="KF4" t="n">
+        <v>2025.329833984375</v>
+      </c>
+      <c r="KG4" t="n">
+        <v>1998.346557617188</v>
+      </c>
+      <c r="KH4" t="n">
+        <v>1975.588623046875</v>
+      </c>
+      <c r="KI4" t="n">
+        <v>1948.169189453125</v>
+      </c>
+      <c r="KJ4" t="n">
+        <v>1905.01318359375</v>
+      </c>
+      <c r="KK4" t="n">
+        <v>1870.656005859375</v>
+      </c>
+      <c r="KL4" t="n">
+        <v>1804.034423828125</v>
+      </c>
+      <c r="KM4" t="n">
+        <v>1741.205200195312</v>
+      </c>
+      <c r="KN4" t="n">
+        <v>1689.75830078125</v>
+      </c>
+      <c r="KO4" t="n">
+        <v>1601.404052734375</v>
+      </c>
+      <c r="KP4" t="n">
+        <v>1551.562744140625</v>
+      </c>
+      <c r="KQ4" t="n">
+        <v>1504.698852539062</v>
+      </c>
+      <c r="KR4" t="n">
+        <v>1449.01806640625</v>
+      </c>
+      <c r="KS4" t="n">
+        <v>1374.3896484375</v>
+      </c>
+      <c r="KT4" t="n">
+        <v>1311.853759765625</v>
+      </c>
+      <c r="KU4" t="n">
+        <v>1206.551879882812</v>
+      </c>
+      <c r="KV4" t="n">
+        <v>1134.054565429688</v>
+      </c>
+      <c r="KW4" t="n">
+        <v>1061.875244140625</v>
+      </c>
+      <c r="KX4" t="n">
+        <v>962.3186645507812</v>
+      </c>
+      <c r="KY4" t="n">
+        <v>903.966552734375</v>
+      </c>
+      <c r="KZ4" t="n">
+        <v>854.0013427734375</v>
+      </c>
+      <c r="LA4" t="n">
+        <v>802.0913696289062</v>
+      </c>
+      <c r="LB4" t="n">
+        <v>764.5223999023438</v>
+      </c>
+      <c r="LC4" t="n">
+        <v>742.1966552734375</v>
+      </c>
+      <c r="LD4" t="n">
+        <v>726.0091552734375</v>
       </c>
     </row>
   </sheetData>

--- a/right_shoulder_Data.xlsx
+++ b/right_shoulder_Data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:LD4"/>
+  <dimension ref="A1:MF4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1382,2855 +1382,3191 @@
       <c r="LD1" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="LE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MD1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ME1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MF1" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>270.0093383789062</v>
+        <v>224.1821136474609</v>
       </c>
       <c r="B2" t="n">
-        <v>266.1836547851562</v>
+        <v>223.9608154296875</v>
       </c>
       <c r="C2" t="n">
-        <v>267.3888854980469</v>
+        <v>225.2828674316406</v>
       </c>
       <c r="D2" t="n">
-        <v>268.4429931640625</v>
+        <v>225.1584167480469</v>
       </c>
       <c r="E2" t="n">
-        <v>269.1606750488281</v>
+        <v>225.7858581542969</v>
       </c>
       <c r="F2" t="n">
-        <v>270.4120178222656</v>
+        <v>225.0879211425781</v>
       </c>
       <c r="G2" t="n">
-        <v>272.0999755859375</v>
+        <v>223.8389282226562</v>
       </c>
       <c r="H2" t="n">
-        <v>273.9989624023438</v>
+        <v>223.2823028564453</v>
       </c>
       <c r="I2" t="n">
-        <v>276.2535095214844</v>
+        <v>223.2989196777344</v>
       </c>
       <c r="J2" t="n">
-        <v>277.397216796875</v>
+        <v>224.1135406494141</v>
       </c>
       <c r="K2" t="n">
-        <v>279.2524719238281</v>
+        <v>225.1325225830078</v>
       </c>
       <c r="L2" t="n">
-        <v>281.0760498046875</v>
+        <v>226.343505859375</v>
       </c>
       <c r="M2" t="n">
-        <v>282.2815246582031</v>
+        <v>227.6875610351562</v>
       </c>
       <c r="N2" t="n">
-        <v>283.4291076660156</v>
+        <v>229.5208435058594</v>
       </c>
       <c r="O2" t="n">
-        <v>284.5537109375</v>
+        <v>232.0227966308594</v>
       </c>
       <c r="P2" t="n">
-        <v>285.6548156738281</v>
+        <v>233.4503479003906</v>
       </c>
       <c r="Q2" t="n">
-        <v>286.8167114257812</v>
+        <v>234.7259216308594</v>
       </c>
       <c r="R2" t="n">
-        <v>287.8153381347656</v>
+        <v>236.9404449462891</v>
       </c>
       <c r="S2" t="n">
-        <v>288.5323791503906</v>
+        <v>238.7803955078125</v>
       </c>
       <c r="T2" t="n">
-        <v>289.2704162597656</v>
+        <v>240.6226348876953</v>
       </c>
       <c r="U2" t="n">
-        <v>289.7633666992188</v>
+        <v>243.5420227050781</v>
       </c>
       <c r="V2" t="n">
-        <v>289.3133239746094</v>
+        <v>246.8657836914062</v>
       </c>
       <c r="W2" t="n">
-        <v>289.1568298339844</v>
+        <v>249.5059967041016</v>
       </c>
       <c r="X2" t="n">
-        <v>287.5592651367188</v>
+        <v>253.1244659423828</v>
       </c>
       <c r="Y2" t="n">
-        <v>286.2763061523438</v>
+        <v>255.7308349609375</v>
       </c>
       <c r="Z2" t="n">
-        <v>285.4569396972656</v>
+        <v>259.1126403808594</v>
       </c>
       <c r="AA2" t="n">
-        <v>285.0525817871094</v>
+        <v>262.2997436523438</v>
       </c>
       <c r="AB2" t="n">
-        <v>283.2224426269531</v>
+        <v>264.48974609375</v>
       </c>
       <c r="AC2" t="n">
-        <v>282.5975036621094</v>
+        <v>266.456298828125</v>
       </c>
       <c r="AD2" t="n">
-        <v>281.4867248535156</v>
+        <v>268.4476928710938</v>
       </c>
       <c r="AE2" t="n">
-        <v>281.2248229980469</v>
+        <v>270.5641479492188</v>
       </c>
       <c r="AF2" t="n">
-        <v>281.2999267578125</v>
+        <v>272.0960083007812</v>
       </c>
       <c r="AG2" t="n">
-        <v>281.2951965332031</v>
+        <v>273.3719787597656</v>
       </c>
       <c r="AH2" t="n">
-        <v>281.6354064941406</v>
+        <v>275.0941162109375</v>
       </c>
       <c r="AI2" t="n">
-        <v>281.8088073730469</v>
+        <v>276.5248107910156</v>
       </c>
       <c r="AJ2" t="n">
-        <v>281.8645324707031</v>
+        <v>277.3606872558594</v>
       </c>
       <c r="AK2" t="n">
-        <v>282.0447387695312</v>
+        <v>278.1025695800781</v>
       </c>
       <c r="AL2" t="n">
-        <v>282.1981201171875</v>
+        <v>278.4123840332031</v>
       </c>
       <c r="AM2" t="n">
-        <v>282.3542785644531</v>
+        <v>278.5911254882812</v>
       </c>
       <c r="AN2" t="n">
-        <v>282.6629333496094</v>
+        <v>278.8473510742188</v>
       </c>
       <c r="AO2" t="n">
-        <v>283.2373046875</v>
+        <v>278.5604858398438</v>
       </c>
       <c r="AP2" t="n">
-        <v>284.401123046875</v>
+        <v>277.4965515136719</v>
       </c>
       <c r="AQ2" t="n">
-        <v>286.1951599121094</v>
+        <v>276.9513244628906</v>
       </c>
       <c r="AR2" t="n">
-        <v>288.0808715820312</v>
+        <v>276.0106811523438</v>
       </c>
       <c r="AS2" t="n">
-        <v>289.7047119140625</v>
+        <v>275.5846862792969</v>
       </c>
       <c r="AT2" t="n">
-        <v>291.5731201171875</v>
+        <v>274.14990234375</v>
       </c>
       <c r="AU2" t="n">
-        <v>292.9451293945312</v>
+        <v>273.2193908691406</v>
       </c>
       <c r="AV2" t="n">
-        <v>293.7907409667969</v>
+        <v>272.2425231933594</v>
       </c>
       <c r="AW2" t="n">
-        <v>294.5116882324219</v>
+        <v>271.2073364257812</v>
       </c>
       <c r="AX2" t="n">
-        <v>294.7594604492188</v>
+        <v>270.2295837402344</v>
       </c>
       <c r="AY2" t="n">
-        <v>294.9265747070312</v>
+        <v>269.7575378417969</v>
       </c>
       <c r="AZ2" t="n">
-        <v>294.9783020019531</v>
+        <v>270.0359497070312</v>
       </c>
       <c r="BA2" t="n">
-        <v>294.9748229980469</v>
+        <v>270.0501403808594</v>
       </c>
       <c r="BB2" t="n">
-        <v>294.8846740722656</v>
+        <v>270.0583801269531</v>
       </c>
       <c r="BC2" t="n">
-        <v>294.9008178710938</v>
+        <v>269.9089965820312</v>
       </c>
       <c r="BD2" t="n">
-        <v>294.8328857421875</v>
+        <v>270.3279113769531</v>
       </c>
       <c r="BE2" t="n">
-        <v>294.8625183105469</v>
+        <v>270.1084289550781</v>
       </c>
       <c r="BF2" t="n">
-        <v>294.7612915039062</v>
+        <v>270.6575927734375</v>
       </c>
       <c r="BG2" t="n">
-        <v>294.4454345703125</v>
+        <v>271.124755859375</v>
       </c>
       <c r="BH2" t="n">
-        <v>294.1559753417969</v>
+        <v>271.4886169433594</v>
       </c>
       <c r="BI2" t="n">
-        <v>293.8172607421875</v>
+        <v>272.4240417480469</v>
       </c>
       <c r="BJ2" t="n">
-        <v>293.2663879394531</v>
+        <v>273.673583984375</v>
       </c>
       <c r="BK2" t="n">
-        <v>292.8544311523438</v>
+        <v>275.197021484375</v>
       </c>
       <c r="BL2" t="n">
-        <v>292.4087524414062</v>
+        <v>276.8268432617188</v>
       </c>
       <c r="BM2" t="n">
-        <v>291.9368591308594</v>
+        <v>278.2334899902344</v>
       </c>
       <c r="BN2" t="n">
-        <v>291.4237365722656</v>
+        <v>279.6911315917969</v>
       </c>
       <c r="BO2" t="n">
-        <v>290.9711608886719</v>
+        <v>280.9080505371094</v>
       </c>
       <c r="BP2" t="n">
-        <v>290.7242736816406</v>
+        <v>281.9098205566406</v>
       </c>
       <c r="BQ2" t="n">
-        <v>290.5233764648438</v>
+        <v>282.738037109375</v>
       </c>
       <c r="BR2" t="n">
-        <v>290.4151611328125</v>
+        <v>283.6441040039062</v>
       </c>
       <c r="BS2" t="n">
-        <v>290.4659118652344</v>
+        <v>284.1946411132812</v>
       </c>
       <c r="BT2" t="n">
-        <v>290.4959411621094</v>
+        <v>284.3561706542969</v>
       </c>
       <c r="BU2" t="n">
-        <v>290.6198425292969</v>
+        <v>284.3959045410156</v>
       </c>
       <c r="BV2" t="n">
-        <v>290.6482238769531</v>
+        <v>284.2895202636719</v>
       </c>
       <c r="BW2" t="n">
-        <v>290.6313781738281</v>
+        <v>284.0174865722656</v>
       </c>
       <c r="BX2" t="n">
-        <v>290.4917297363281</v>
+        <v>283.6180419921875</v>
       </c>
       <c r="BY2" t="n">
-        <v>290.3856201171875</v>
+        <v>283.1006469726562</v>
       </c>
       <c r="BZ2" t="n">
-        <v>290.3739624023438</v>
+        <v>282.0890808105469</v>
       </c>
       <c r="CA2" t="n">
-        <v>290.2104187011719</v>
+        <v>281.0409545898438</v>
       </c>
       <c r="CB2" t="n">
-        <v>290.1115417480469</v>
+        <v>280.0474853515625</v>
       </c>
       <c r="CC2" t="n">
-        <v>290.0171203613281</v>
+        <v>279.4642028808594</v>
       </c>
       <c r="CD2" t="n">
-        <v>289.9319152832031</v>
+        <v>278.9408569335938</v>
       </c>
       <c r="CE2" t="n">
-        <v>289.8404846191406</v>
+        <v>278.8457641601562</v>
       </c>
       <c r="CF2" t="n">
-        <v>289.7582702636719</v>
+        <v>278.7394409179688</v>
       </c>
       <c r="CG2" t="n">
-        <v>289.6829223632812</v>
+        <v>278.5401916503906</v>
       </c>
       <c r="CH2" t="n">
-        <v>289.6215209960938</v>
+        <v>278.3125305175781</v>
       </c>
       <c r="CI2" t="n">
-        <v>289.5531616210938</v>
+        <v>277.9471740722656</v>
       </c>
       <c r="CJ2" t="n">
-        <v>289.4906616210938</v>
+        <v>277.7085876464844</v>
       </c>
       <c r="CK2" t="n">
-        <v>289.4542846679688</v>
+        <v>277.3900146484375</v>
       </c>
       <c r="CL2" t="n">
-        <v>289.4270324707031</v>
+        <v>277.1641540527344</v>
       </c>
       <c r="CM2" t="n">
-        <v>289.3775329589844</v>
+        <v>277.0463562011719</v>
       </c>
       <c r="CN2" t="n">
-        <v>289.3196411132812</v>
+        <v>276.9260559082031</v>
       </c>
       <c r="CO2" t="n">
-        <v>289.2500610351562</v>
+        <v>276.6438598632812</v>
       </c>
       <c r="CP2" t="n">
-        <v>289.1685180664062</v>
+        <v>276.4573059082031</v>
       </c>
       <c r="CQ2" t="n">
-        <v>289.044921875</v>
+        <v>276.569580078125</v>
       </c>
       <c r="CR2" t="n">
-        <v>289.0384216308594</v>
+        <v>276.6839294433594</v>
       </c>
       <c r="CS2" t="n">
-        <v>289.1017761230469</v>
+        <v>276.2322387695312</v>
       </c>
       <c r="CT2" t="n">
-        <v>289.1865539550781</v>
+        <v>276.2592468261719</v>
       </c>
       <c r="CU2" t="n">
-        <v>289.2855834960938</v>
+        <v>276.1502075195312</v>
       </c>
       <c r="CV2" t="n">
-        <v>289.3611755371094</v>
+        <v>275.9347839355469</v>
       </c>
       <c r="CW2" t="n">
-        <v>289.4037170410156</v>
+        <v>275.9889221191406</v>
       </c>
       <c r="CX2" t="n">
-        <v>289.5040283203125</v>
+        <v>275.9810180664062</v>
       </c>
       <c r="CY2" t="n">
-        <v>289.5799560546875</v>
+        <v>275.9765014648438</v>
       </c>
       <c r="CZ2" t="n">
-        <v>289.5651550292969</v>
+        <v>275.9488830566406</v>
       </c>
       <c r="DA2" t="n">
-        <v>289.5173950195312</v>
+        <v>275.9369506835938</v>
       </c>
       <c r="DB2" t="n">
-        <v>289.4130859375</v>
+        <v>275.8905639648438</v>
       </c>
       <c r="DC2" t="n">
-        <v>289.3434753417969</v>
+        <v>275.8642883300781</v>
       </c>
       <c r="DD2" t="n">
-        <v>289.2599792480469</v>
+        <v>275.8282775878906</v>
       </c>
       <c r="DE2" t="n">
-        <v>289.1684265136719</v>
+        <v>275.8233337402344</v>
       </c>
       <c r="DF2" t="n">
-        <v>289.0826416015625</v>
+        <v>275.8167114257812</v>
       </c>
       <c r="DG2" t="n">
-        <v>288.9895629882812</v>
+        <v>275.842041015625</v>
       </c>
       <c r="DH2" t="n">
-        <v>288.8597106933594</v>
+        <v>275.8732299804688</v>
       </c>
       <c r="DI2" t="n">
-        <v>288.7182006835938</v>
+        <v>275.9532775878906</v>
       </c>
       <c r="DJ2" t="n">
-        <v>288.5721130371094</v>
+        <v>276.0184936523438</v>
       </c>
       <c r="DK2" t="n">
-        <v>288.2727966308594</v>
+        <v>276.0711364746094</v>
       </c>
       <c r="DL2" t="n">
-        <v>287.6727600097656</v>
+        <v>276.0716552734375</v>
       </c>
       <c r="DM2" t="n">
-        <v>287.4466247558594</v>
+        <v>276.070068359375</v>
       </c>
       <c r="DN2" t="n">
-        <v>287.2162170410156</v>
+        <v>276.0692138671875</v>
       </c>
       <c r="DO2" t="n">
-        <v>287.197265625</v>
+        <v>276.0688171386719</v>
       </c>
       <c r="DP2" t="n">
-        <v>287.1805114746094</v>
+        <v>276.0683898925781</v>
       </c>
       <c r="DQ2" t="n">
-        <v>287.1529846191406</v>
+        <v>276.0675964355469</v>
       </c>
       <c r="DR2" t="n">
-        <v>287.1253662109375</v>
+        <v>276.0662841796875</v>
       </c>
       <c r="DS2" t="n">
-        <v>287.026123046875</v>
+        <v>276.0661315917969</v>
       </c>
       <c r="DT2" t="n">
-        <v>286.7839660644531</v>
+        <v>276.0658264160156</v>
       </c>
       <c r="DU2" t="n">
-        <v>286.6497192382812</v>
+        <v>276.0655517578125</v>
       </c>
       <c r="DV2" t="n">
-        <v>286.3445739746094</v>
+        <v>276.0652465820312</v>
       </c>
       <c r="DW2" t="n">
-        <v>286.1956481933594</v>
+        <v>276.0647888183594</v>
       </c>
       <c r="DX2" t="n">
-        <v>286.0284423828125</v>
+        <v>276.064697265625</v>
       </c>
       <c r="DY2" t="n">
-        <v>285.7073364257812</v>
+        <v>276.0647277832031</v>
       </c>
       <c r="DZ2" t="n">
-        <v>285.5684814453125</v>
+        <v>276.0644836425781</v>
       </c>
       <c r="EA2" t="n">
-        <v>285.2915344238281</v>
+        <v>276.0643310546875</v>
       </c>
       <c r="EB2" t="n">
-        <v>285.2096862792969</v>
+        <v>276.1430358886719</v>
       </c>
       <c r="EC2" t="n">
-        <v>285.1061706542969</v>
+        <v>276.1956176757812</v>
       </c>
       <c r="ED2" t="n">
-        <v>284.9494018554688</v>
+        <v>276.266845703125</v>
       </c>
       <c r="EE2" t="n">
-        <v>284.8777770996094</v>
+        <v>276.134033203125</v>
       </c>
       <c r="EF2" t="n">
-        <v>284.7431640625</v>
+        <v>276.2727355957031</v>
       </c>
       <c r="EG2" t="n">
-        <v>284.6748657226562</v>
+        <v>276.2239074707031</v>
       </c>
       <c r="EH2" t="n">
-        <v>284.6349792480469</v>
+        <v>276.2275390625</v>
       </c>
       <c r="EI2" t="n">
-        <v>284.6051025390625</v>
+        <v>276.2185974121094</v>
       </c>
       <c r="EJ2" t="n">
-        <v>284.6009216308594</v>
+        <v>276.2313842773438</v>
       </c>
       <c r="EK2" t="n">
-        <v>284.5833129882812</v>
+        <v>276.2394104003906</v>
       </c>
       <c r="EL2" t="n">
-        <v>284.5710754394531</v>
+        <v>276.2449035644531</v>
       </c>
       <c r="EM2" t="n">
-        <v>284.6137084960938</v>
+        <v>276.2488403320312</v>
       </c>
       <c r="EN2" t="n">
-        <v>284.7389221191406</v>
+        <v>276.2490844726562</v>
       </c>
       <c r="EO2" t="n">
-        <v>284.8847351074219</v>
+        <v>276.2493286132812</v>
       </c>
       <c r="EP2" t="n">
-        <v>285.0083923339844</v>
+        <v>276.248046875</v>
       </c>
       <c r="EQ2" t="n">
-        <v>285.0372009277344</v>
+        <v>276.247314453125</v>
       </c>
       <c r="ER2" t="n">
-        <v>285.3094482421875</v>
+        <v>276.2452392578125</v>
       </c>
       <c r="ES2" t="n">
-        <v>285.2811889648438</v>
+        <v>276.2430725097656</v>
       </c>
       <c r="ET2" t="n">
-        <v>285.3708801269531</v>
+        <v>276.2362060546875</v>
       </c>
       <c r="EU2" t="n">
-        <v>285.3738708496094</v>
+        <v>276.2510070800781</v>
       </c>
       <c r="EV2" t="n">
-        <v>285.3661804199219</v>
+        <v>276.2323608398438</v>
       </c>
       <c r="EW2" t="n">
-        <v>285.2489318847656</v>
+        <v>276.2372436523438</v>
       </c>
       <c r="EX2" t="n">
-        <v>285.2493896484375</v>
+        <v>276.2489929199219</v>
       </c>
       <c r="EY2" t="n">
-        <v>285.3067932128906</v>
+        <v>276.2641906738281</v>
       </c>
       <c r="EZ2" t="n">
-        <v>285.3505249023438</v>
+        <v>276.2673034667969</v>
       </c>
       <c r="FA2" t="n">
-        <v>285.3595275878906</v>
+        <v>276.2624206542969</v>
       </c>
       <c r="FB2" t="n">
-        <v>285.3662719726562</v>
+        <v>276.2576904296875</v>
       </c>
       <c r="FC2" t="n">
-        <v>285.4119262695312</v>
+        <v>276.2561645507812</v>
       </c>
       <c r="FD2" t="n">
-        <v>285.4246215820312</v>
+        <v>276.2555847167969</v>
       </c>
       <c r="FE2" t="n">
-        <v>285.4166259765625</v>
+        <v>276.2551574707031</v>
       </c>
       <c r="FF2" t="n">
-        <v>285.4086608886719</v>
+        <v>276.2546997070312</v>
       </c>
       <c r="FG2" t="n">
-        <v>285.3464965820312</v>
+        <v>276.2544860839844</v>
       </c>
       <c r="FH2" t="n">
-        <v>285.2579956054688</v>
+        <v>276.2464599609375</v>
       </c>
       <c r="FI2" t="n">
-        <v>284.9840393066406</v>
+        <v>276.2713012695312</v>
       </c>
       <c r="FJ2" t="n">
-        <v>284.64990234375</v>
+        <v>276.2843627929688</v>
       </c>
       <c r="FK2" t="n">
-        <v>284.4565734863281</v>
+        <v>276.2833251953125</v>
       </c>
       <c r="FL2" t="n">
-        <v>283.8642883300781</v>
+        <v>276.1968688964844</v>
       </c>
       <c r="FM2" t="n">
-        <v>283.4419555664062</v>
+        <v>276.1359252929688</v>
       </c>
       <c r="FN2" t="n">
-        <v>282.8179321289062</v>
+        <v>276.142822265625</v>
       </c>
       <c r="FO2" t="n">
-        <v>282.6304016113281</v>
+        <v>276.2506713867188</v>
       </c>
       <c r="FP2" t="n">
-        <v>282.6041870117188</v>
+        <v>276.2443542480469</v>
       </c>
       <c r="FQ2" t="n">
-        <v>282.5872192382812</v>
+        <v>276.2373962402344</v>
       </c>
       <c r="FR2" t="n">
-        <v>282.5919799804688</v>
+        <v>276.2411804199219</v>
       </c>
       <c r="FS2" t="n">
-        <v>282.5600891113281</v>
+        <v>276.2494506835938</v>
       </c>
       <c r="FT2" t="n">
-        <v>282.5697326660156</v>
+        <v>276.2572021484375</v>
       </c>
       <c r="FU2" t="n">
-        <v>282.5438232421875</v>
+        <v>276.3062438964844</v>
       </c>
       <c r="FV2" t="n">
-        <v>282.4922180175781</v>
+        <v>276.3196105957031</v>
       </c>
       <c r="FW2" t="n">
-        <v>282.4239807128906</v>
+        <v>276.3005676269531</v>
       </c>
       <c r="FX2" t="n">
-        <v>282.3797302246094</v>
+        <v>276.2442016601562</v>
       </c>
       <c r="FY2" t="n">
-        <v>282.3659362792969</v>
+        <v>276.2277221679688</v>
       </c>
       <c r="FZ2" t="n">
-        <v>282.5682678222656</v>
+        <v>276.1884765625</v>
       </c>
       <c r="GA2" t="n">
-        <v>282.6447143554688</v>
+        <v>276.0903625488281</v>
       </c>
       <c r="GB2" t="n">
-        <v>282.6766357421875</v>
+        <v>275.954833984375</v>
       </c>
       <c r="GC2" t="n">
-        <v>282.7910461425781</v>
+        <v>275.7306518554688</v>
       </c>
       <c r="GD2" t="n">
-        <v>282.7207641601562</v>
+        <v>275.5836181640625</v>
       </c>
       <c r="GE2" t="n">
-        <v>282.5974426269531</v>
+        <v>275.5312194824219</v>
       </c>
       <c r="GF2" t="n">
-        <v>282.4772338867188</v>
+        <v>275.4420471191406</v>
       </c>
       <c r="GG2" t="n">
-        <v>282.5072937011719</v>
+        <v>275.3056335449219</v>
       </c>
       <c r="GH2" t="n">
-        <v>282.4903259277344</v>
+        <v>275.2277526855469</v>
       </c>
       <c r="GI2" t="n">
-        <v>282.4804992675781</v>
+        <v>275.1412353515625</v>
       </c>
       <c r="GJ2" t="n">
-        <v>282.5020141601562</v>
+        <v>275.0853576660156</v>
       </c>
       <c r="GK2" t="n">
-        <v>282.5650329589844</v>
+        <v>275.0310974121094</v>
       </c>
       <c r="GL2" t="n">
-        <v>282.60302734375</v>
+        <v>274.9937438964844</v>
       </c>
       <c r="GM2" t="n">
-        <v>282.6334838867188</v>
+        <v>274.9824523925781</v>
       </c>
       <c r="GN2" t="n">
-        <v>282.6414794921875</v>
+        <v>274.9620361328125</v>
       </c>
       <c r="GO2" t="n">
-        <v>282.6355590820312</v>
+        <v>274.9558410644531</v>
       </c>
       <c r="GP2" t="n">
-        <v>282.6026916503906</v>
+        <v>274.9544372558594</v>
       </c>
       <c r="GQ2" t="n">
-        <v>282.5175476074219</v>
+        <v>274.9795532226562</v>
       </c>
       <c r="GR2" t="n">
-        <v>282.4822998046875</v>
+        <v>275.0049438476562</v>
       </c>
       <c r="GS2" t="n">
-        <v>282.4284362792969</v>
+        <v>275.1078491210938</v>
       </c>
       <c r="GT2" t="n">
-        <v>282.3994750976562</v>
+        <v>275.3146057128906</v>
       </c>
       <c r="GU2" t="n">
-        <v>282.3864135742188</v>
+        <v>275.4208679199219</v>
       </c>
       <c r="GV2" t="n">
-        <v>282.2398376464844</v>
+        <v>275.4443664550781</v>
       </c>
       <c r="GW2" t="n">
-        <v>282.1723022460938</v>
+        <v>275.4773559570312</v>
       </c>
       <c r="GX2" t="n">
-        <v>282.1123046875</v>
+        <v>275.4946594238281</v>
       </c>
       <c r="GY2" t="n">
-        <v>282.0780639648438</v>
+        <v>275.4971923828125</v>
       </c>
       <c r="GZ2" t="n">
-        <v>282.0527038574219</v>
+        <v>275.4793090820312</v>
       </c>
       <c r="HA2" t="n">
-        <v>282.0318603515625</v>
+        <v>275.4686584472656</v>
       </c>
       <c r="HB2" t="n">
-        <v>282.0193481445312</v>
+        <v>275.5043029785156</v>
       </c>
       <c r="HC2" t="n">
-        <v>281.9780578613281</v>
+        <v>275.5088806152344</v>
       </c>
       <c r="HD2" t="n">
-        <v>281.8987731933594</v>
+        <v>275.5373840332031</v>
       </c>
       <c r="HE2" t="n">
-        <v>281.8443908691406</v>
+        <v>275.6895141601562</v>
       </c>
       <c r="HF2" t="n">
-        <v>281.7529296875</v>
+        <v>275.8224487304688</v>
       </c>
       <c r="HG2" t="n">
-        <v>281.8209533691406</v>
+        <v>275.8129577636719</v>
       </c>
       <c r="HH2" t="n">
-        <v>282.0628967285156</v>
+        <v>275.8360595703125</v>
       </c>
       <c r="HI2" t="n">
-        <v>282.139404296875</v>
+        <v>275.8521118164062</v>
       </c>
       <c r="HJ2" t="n">
-        <v>282.19677734375</v>
+        <v>275.8703918457031</v>
       </c>
       <c r="HK2" t="n">
-        <v>282.2080078125</v>
+        <v>275.8733520507812</v>
       </c>
       <c r="HL2" t="n">
-        <v>282.2393188476562</v>
+        <v>275.7304077148438</v>
       </c>
       <c r="HM2" t="n">
-        <v>282.2537841796875</v>
+        <v>275.7353515625</v>
       </c>
       <c r="HN2" t="n">
-        <v>282.2801208496094</v>
+        <v>275.7427673339844</v>
       </c>
       <c r="HO2" t="n">
-        <v>282.3058471679688</v>
+        <v>275.7658081054688</v>
       </c>
       <c r="HP2" t="n">
-        <v>282.3399047851562</v>
+        <v>275.764892578125</v>
       </c>
       <c r="HQ2" t="n">
-        <v>282.3859558105469</v>
+        <v>275.7732849121094</v>
       </c>
       <c r="HR2" t="n">
-        <v>282.3256530761719</v>
+        <v>275.8290710449219</v>
       </c>
       <c r="HS2" t="n">
-        <v>282.3829040527344</v>
+        <v>275.8366088867188</v>
       </c>
       <c r="HT2" t="n">
-        <v>282.3950500488281</v>
+        <v>275.8880310058594</v>
       </c>
       <c r="HU2" t="n">
-        <v>282.3607177734375</v>
+        <v>275.8749389648438</v>
       </c>
       <c r="HV2" t="n">
-        <v>282.3283996582031</v>
+        <v>275.9932556152344</v>
       </c>
       <c r="HW2" t="n">
-        <v>282.2928466796875</v>
+        <v>276.0736389160156</v>
       </c>
       <c r="HX2" t="n">
-        <v>282.34765625</v>
+        <v>276.0574951171875</v>
       </c>
       <c r="HY2" t="n">
-        <v>282.4010925292969</v>
+        <v>275.9605407714844</v>
       </c>
       <c r="HZ2" t="n">
-        <v>282.3475341796875</v>
+        <v>275.9140625</v>
       </c>
       <c r="IA2" t="n">
-        <v>282.2004699707031</v>
+        <v>275.9017028808594</v>
       </c>
       <c r="IB2" t="n">
-        <v>282.1548461914062</v>
+        <v>276.0053100585938</v>
       </c>
       <c r="IC2" t="n">
-        <v>282.1383972167969</v>
+        <v>275.9740600585938</v>
       </c>
       <c r="ID2" t="n">
-        <v>282.083740234375</v>
+        <v>275.9532775878906</v>
       </c>
       <c r="IE2" t="n">
-        <v>282.0334777832031</v>
+        <v>275.9258117675781</v>
       </c>
       <c r="IF2" t="n">
-        <v>281.9893798828125</v>
+        <v>275.9137573242188</v>
       </c>
       <c r="IG2" t="n">
-        <v>281.9615478515625</v>
+        <v>275.9023132324219</v>
       </c>
       <c r="IH2" t="n">
-        <v>281.9613342285156</v>
+        <v>275.6661071777344</v>
       </c>
       <c r="II2" t="n">
-        <v>281.94921875</v>
+        <v>275.7392883300781</v>
       </c>
       <c r="IJ2" t="n">
-        <v>281.8659973144531</v>
+        <v>275.6841125488281</v>
       </c>
       <c r="IK2" t="n">
-        <v>281.7627563476562</v>
+        <v>275.73974609375</v>
       </c>
       <c r="IL2" t="n">
-        <v>281.6444091796875</v>
+        <v>275.734619140625</v>
       </c>
       <c r="IM2" t="n">
-        <v>281.4782409667969</v>
+        <v>275.7516174316406</v>
       </c>
       <c r="IN2" t="n">
-        <v>281.4627685546875</v>
+        <v>275.7684936523438</v>
       </c>
       <c r="IO2" t="n">
-        <v>281.5889892578125</v>
+        <v>275.8054809570312</v>
       </c>
       <c r="IP2" t="n">
-        <v>281.733642578125</v>
+        <v>275.7393493652344</v>
       </c>
       <c r="IQ2" t="n">
-        <v>281.916748046875</v>
+        <v>275.7281799316406</v>
       </c>
       <c r="IR2" t="n">
-        <v>282.0778503417969</v>
+        <v>275.6692810058594</v>
       </c>
       <c r="IS2" t="n">
-        <v>282.2394104003906</v>
+        <v>275.6447143554688</v>
       </c>
       <c r="IT2" t="n">
-        <v>282.2384033203125</v>
+        <v>275.6138000488281</v>
       </c>
       <c r="IU2" t="n">
-        <v>282.2384948730469</v>
+        <v>275.5417175292969</v>
       </c>
       <c r="IV2" t="n">
-        <v>282.7865905761719</v>
+        <v>275.4945373535156</v>
       </c>
       <c r="IW2" t="n">
-        <v>282.6792602539062</v>
+        <v>275.5103759765625</v>
       </c>
       <c r="IX2" t="n">
-        <v>282.927734375</v>
+        <v>275.5141296386719</v>
       </c>
       <c r="IY2" t="n">
-        <v>283.6730651855469</v>
+        <v>275.5026550292969</v>
       </c>
       <c r="IZ2" t="n">
-        <v>283.4769897460938</v>
+        <v>275.4620666503906</v>
       </c>
       <c r="JA2" t="n">
-        <v>282.9244079589844</v>
+        <v>275.3382873535156</v>
       </c>
       <c r="JB2" t="n">
-        <v>282.6618957519531</v>
+        <v>275.1958312988281</v>
       </c>
       <c r="JC2" t="n">
-        <v>282.3328552246094</v>
+        <v>275.0519104003906</v>
       </c>
       <c r="JD2" t="n">
-        <v>281.9668884277344</v>
+        <v>274.9056091308594</v>
       </c>
       <c r="JE2" t="n">
-        <v>281.7220764160156</v>
+        <v>274.8405456542969</v>
       </c>
       <c r="JF2" t="n">
-        <v>281.6076049804688</v>
+        <v>274.7828979492188</v>
       </c>
       <c r="JG2" t="n">
-        <v>281.4909362792969</v>
+        <v>274.8732604980469</v>
       </c>
       <c r="JH2" t="n">
-        <v>281.2115783691406</v>
+        <v>274.8917236328125</v>
       </c>
       <c r="JI2" t="n">
-        <v>280.8395080566406</v>
+        <v>274.9005432128906</v>
       </c>
       <c r="JJ2" t="n">
-        <v>280.4930114746094</v>
+        <v>274.9182434082031</v>
       </c>
       <c r="JK2" t="n">
-        <v>280.2101135253906</v>
+        <v>274.9742431640625</v>
       </c>
       <c r="JL2" t="n">
-        <v>279.9985656738281</v>
+        <v>274.8760986328125</v>
       </c>
       <c r="JM2" t="n">
-        <v>279.9861450195312</v>
+        <v>274.8876647949219</v>
       </c>
       <c r="JN2" t="n">
-        <v>280.0157470703125</v>
+        <v>274.934814453125</v>
       </c>
       <c r="JO2" t="n">
-        <v>280.1040649414062</v>
+        <v>274.9427795410156</v>
       </c>
       <c r="JP2" t="n">
-        <v>280.1581726074219</v>
+        <v>274.9483337402344</v>
       </c>
       <c r="JQ2" t="n">
-        <v>279.671875</v>
+        <v>274.9640502929688</v>
       </c>
       <c r="JR2" t="n">
-        <v>279.5712585449219</v>
+        <v>275.18603515625</v>
       </c>
       <c r="JS2" t="n">
-        <v>279.8401489257812</v>
+        <v>274.98046875</v>
       </c>
       <c r="JT2" t="n">
-        <v>280.3412475585938</v>
+        <v>274.7054748535156</v>
       </c>
       <c r="JU2" t="n">
-        <v>280.5201721191406</v>
+        <v>274.971923828125</v>
       </c>
       <c r="JV2" t="n">
-        <v>280.6343688964844</v>
+        <v>274.9666748046875</v>
       </c>
       <c r="JW2" t="n">
-        <v>280.5782775878906</v>
+        <v>274.9510498046875</v>
       </c>
       <c r="JX2" t="n">
-        <v>280.2418823242188</v>
+        <v>274.97021484375</v>
       </c>
       <c r="JY2" t="n">
-        <v>279.9869689941406</v>
+        <v>274.9862365722656</v>
       </c>
       <c r="JZ2" t="n">
-        <v>279.7741394042969</v>
+        <v>274.9721984863281</v>
       </c>
       <c r="KA2" t="n">
-        <v>278.7384338378906</v>
+        <v>275.0671997070312</v>
       </c>
       <c r="KB2" t="n">
-        <v>278.3764953613281</v>
+        <v>276.3202209472656</v>
       </c>
       <c r="KC2" t="n">
-        <v>276.9309387207031</v>
+        <v>279.0771789550781</v>
       </c>
       <c r="KD2" t="n">
-        <v>274.0856628417969</v>
+        <v>279.7189636230469</v>
       </c>
       <c r="KE2" t="n">
-        <v>273.6250915527344</v>
+        <v>279.9286499023438</v>
       </c>
       <c r="KF2" t="n">
-        <v>272.8438720703125</v>
+        <v>279.9798583984375</v>
       </c>
       <c r="KG2" t="n">
-        <v>271.3258972167969</v>
+        <v>280.0037231445312</v>
       </c>
       <c r="KH2" t="n">
-        <v>270.1905822753906</v>
+        <v>280.0735473632812</v>
       </c>
       <c r="KI2" t="n">
-        <v>269.0362548828125</v>
+        <v>280.1940307617188</v>
       </c>
       <c r="KJ2" t="n">
-        <v>268.2045288085938</v>
+        <v>280.2091979980469</v>
       </c>
       <c r="KK2" t="n">
-        <v>267.3770446777344</v>
+        <v>280.2285461425781</v>
       </c>
       <c r="KL2" t="n">
-        <v>266.9706726074219</v>
+        <v>280.2074584960938</v>
       </c>
       <c r="KM2" t="n">
-        <v>268.2369384765625</v>
+        <v>280.2208251953125</v>
       </c>
       <c r="KN2" t="n">
-        <v>270.977783203125</v>
+        <v>280.2409057617188</v>
       </c>
       <c r="KO2" t="n">
-        <v>275.2792053222656</v>
+        <v>280.5914306640625</v>
       </c>
       <c r="KP2" t="n">
-        <v>276.3078308105469</v>
+        <v>283.7568969726562</v>
       </c>
       <c r="KQ2" t="n">
-        <v>277.4670104980469</v>
+        <v>286.5992126464844</v>
       </c>
       <c r="KR2" t="n">
-        <v>277.6713256835938</v>
+        <v>288.5552673339844</v>
       </c>
       <c r="KS2" t="n">
-        <v>277.0217895507812</v>
+        <v>288.6675415039062</v>
       </c>
       <c r="KT2" t="n">
-        <v>275.6465148925781</v>
+        <v>289.1851501464844</v>
       </c>
       <c r="KU2" t="n">
-        <v>269.7369384765625</v>
+        <v>288.5773620605469</v>
       </c>
       <c r="KV2" t="n">
-        <v>263.1148681640625</v>
+        <v>285.3532104492188</v>
       </c>
       <c r="KW2" t="n">
-        <v>257.2750549316406</v>
+        <v>280.6170654296875</v>
       </c>
       <c r="KX2" t="n">
-        <v>247.4042358398438</v>
+        <v>274.1288757324219</v>
       </c>
       <c r="KY2" t="n">
-        <v>240.0508728027344</v>
+        <v>270.1098327636719</v>
       </c>
       <c r="KZ2" t="n">
-        <v>233.9404602050781</v>
+        <v>264.4045715332031</v>
       </c>
       <c r="LA2" t="n">
-        <v>228.0292510986328</v>
+        <v>259.6160278320312</v>
       </c>
       <c r="LB2" t="n">
-        <v>223.29150390625</v>
+        <v>254.6216125488281</v>
       </c>
       <c r="LC2" t="n">
-        <v>220.8677062988281</v>
+        <v>252.0646667480469</v>
       </c>
       <c r="LD2" t="n">
-        <v>219.2450561523438</v>
+        <v>249.2645568847656</v>
+      </c>
+      <c r="LE2" t="n">
+        <v>247.5133056640625</v>
+      </c>
+      <c r="LF2" t="n">
+        <v>243.6134948730469</v>
+      </c>
+      <c r="LG2" t="n">
+        <v>238.5216979980469</v>
+      </c>
+      <c r="LH2" t="n">
+        <v>228.9429016113281</v>
+      </c>
+      <c r="LI2" t="n">
+        <v>213.232666015625</v>
+      </c>
+      <c r="LJ2" t="n">
+        <v>191.1250457763672</v>
+      </c>
+      <c r="LK2" t="n">
+        <v>174.0260620117188</v>
+      </c>
+      <c r="LL2" t="n">
+        <v>142.1178588867188</v>
+      </c>
+      <c r="LM2" t="n">
+        <v>107.8839569091797</v>
+      </c>
+      <c r="LN2" t="n">
+        <v>82.13268280029297</v>
+      </c>
+      <c r="LO2" t="n">
+        <v>75.45903778076172</v>
+      </c>
+      <c r="LP2" t="n">
+        <v>82.50847625732422</v>
+      </c>
+      <c r="LQ2" t="n">
+        <v>117.1042785644531</v>
+      </c>
+      <c r="LR2" t="n">
+        <v>126.8336410522461</v>
+      </c>
+      <c r="LS2" t="n">
+        <v>96.82209014892578</v>
+      </c>
+      <c r="LT2" t="n">
+        <v>105.4554061889648</v>
+      </c>
+      <c r="LU2" t="n">
+        <v>117.9867095947266</v>
+      </c>
+      <c r="LV2" t="n">
+        <v>119.0868759155273</v>
+      </c>
+      <c r="LW2" t="n">
+        <v>114.0583038330078</v>
+      </c>
+      <c r="LX2" t="n">
+        <v>124.1447143554688</v>
+      </c>
+      <c r="LY2" t="n">
+        <v>136.4532470703125</v>
+      </c>
+      <c r="LZ2" t="n">
+        <v>138.7963256835938</v>
+      </c>
+      <c r="MA2" t="n">
+        <v>141.2639465332031</v>
+      </c>
+      <c r="MB2" t="n">
+        <v>144.0557250976562</v>
+      </c>
+      <c r="MC2" t="n">
+        <v>145.3321380615234</v>
+      </c>
+      <c r="MD2" t="n">
+        <v>150.9043273925781</v>
+      </c>
+      <c r="ME2" t="n">
+        <v>150.6692352294922</v>
+      </c>
+      <c r="MF2" t="n">
+        <v>149.8683776855469</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>214.1087646484375</v>
+        <v>174.847900390625</v>
       </c>
       <c r="B3" t="n">
-        <v>208.1370086669922</v>
+        <v>175.8429870605469</v>
       </c>
       <c r="C3" t="n">
-        <v>209.5269317626953</v>
+        <v>177.7462463378906</v>
       </c>
       <c r="D3" t="n">
-        <v>211.3016357421875</v>
+        <v>179.1698150634766</v>
       </c>
       <c r="E3" t="n">
-        <v>212.2159881591797</v>
+        <v>182.8585815429688</v>
       </c>
       <c r="F3" t="n">
-        <v>212.9130096435547</v>
+        <v>185.8378295898438</v>
       </c>
       <c r="G3" t="n">
-        <v>213.7204437255859</v>
+        <v>189.4175720214844</v>
       </c>
       <c r="H3" t="n">
-        <v>214.2448272705078</v>
+        <v>192.0008697509766</v>
       </c>
       <c r="I3" t="n">
-        <v>216.5667877197266</v>
+        <v>193.6591491699219</v>
       </c>
       <c r="J3" t="n">
-        <v>218.5540161132812</v>
+        <v>195.0773010253906</v>
       </c>
       <c r="K3" t="n">
-        <v>222.8377532958984</v>
+        <v>196.0328521728516</v>
       </c>
       <c r="L3" t="n">
-        <v>227.0533142089844</v>
+        <v>196.3514404296875</v>
       </c>
       <c r="M3" t="n">
-        <v>230.1917419433594</v>
+        <v>194.87548828125</v>
       </c>
       <c r="N3" t="n">
-        <v>231.5298004150391</v>
+        <v>192.4460144042969</v>
       </c>
       <c r="O3" t="n">
-        <v>232.2520599365234</v>
+        <v>191.7154998779297</v>
       </c>
       <c r="P3" t="n">
-        <v>232.5230712890625</v>
+        <v>190.9687347412109</v>
       </c>
       <c r="Q3" t="n">
-        <v>232.2809906005859</v>
+        <v>190.2534027099609</v>
       </c>
       <c r="R3" t="n">
-        <v>230.6976776123047</v>
+        <v>191.3715667724609</v>
       </c>
       <c r="S3" t="n">
-        <v>229.9288024902344</v>
+        <v>192.3521270751953</v>
       </c>
       <c r="T3" t="n">
-        <v>229.7537231445312</v>
+        <v>193.7286834716797</v>
       </c>
       <c r="U3" t="n">
-        <v>229.8902130126953</v>
+        <v>195.1923828125</v>
       </c>
       <c r="V3" t="n">
-        <v>230.3058471679688</v>
+        <v>196.2886810302734</v>
       </c>
       <c r="W3" t="n">
-        <v>233.3176879882812</v>
+        <v>197.4387817382812</v>
       </c>
       <c r="X3" t="n">
-        <v>235.3519287109375</v>
+        <v>199.0717163085938</v>
       </c>
       <c r="Y3" t="n">
-        <v>237.8044738769531</v>
+        <v>200.3966674804688</v>
       </c>
       <c r="Z3" t="n">
-        <v>241.4734802246094</v>
+        <v>202.3366241455078</v>
       </c>
       <c r="AA3" t="n">
-        <v>245.949462890625</v>
+        <v>204.1549224853516</v>
       </c>
       <c r="AB3" t="n">
-        <v>247.5099029541016</v>
+        <v>205.8571166992188</v>
       </c>
       <c r="AC3" t="n">
-        <v>250.684326171875</v>
+        <v>207.0592498779297</v>
       </c>
       <c r="AD3" t="n">
-        <v>251.6156311035156</v>
+        <v>207.8434448242188</v>
       </c>
       <c r="AE3" t="n">
-        <v>253.2410125732422</v>
+        <v>208.1873474121094</v>
       </c>
       <c r="AF3" t="n">
-        <v>255.2262268066406</v>
+        <v>206.3795623779297</v>
       </c>
       <c r="AG3" t="n">
-        <v>256.2945251464844</v>
+        <v>204.34521484375</v>
       </c>
       <c r="AH3" t="n">
-        <v>257.3429870605469</v>
+        <v>202.4729766845703</v>
       </c>
       <c r="AI3" t="n">
-        <v>257.337158203125</v>
+        <v>202.06103515625</v>
       </c>
       <c r="AJ3" t="n">
-        <v>257.1483154296875</v>
+        <v>201.6778717041016</v>
       </c>
       <c r="AK3" t="n">
-        <v>257.0796203613281</v>
+        <v>201.3303070068359</v>
       </c>
       <c r="AL3" t="n">
-        <v>257.0395812988281</v>
+        <v>201.0190582275391</v>
       </c>
       <c r="AM3" t="n">
-        <v>256.9841918945312</v>
+        <v>200.4679412841797</v>
       </c>
       <c r="AN3" t="n">
-        <v>257.1458435058594</v>
+        <v>200.4223480224609</v>
       </c>
       <c r="AO3" t="n">
-        <v>257.3802795410156</v>
+        <v>200.9203643798828</v>
       </c>
       <c r="AP3" t="n">
-        <v>257.6829223632812</v>
+        <v>201.5767669677734</v>
       </c>
       <c r="AQ3" t="n">
-        <v>257.7738037109375</v>
+        <v>202.6188201904297</v>
       </c>
       <c r="AR3" t="n">
-        <v>257.5772094726562</v>
+        <v>203.3931884765625</v>
       </c>
       <c r="AS3" t="n">
-        <v>257.5054626464844</v>
+        <v>204.7201385498047</v>
       </c>
       <c r="AT3" t="n">
-        <v>258.2706909179688</v>
+        <v>204.9442901611328</v>
       </c>
       <c r="AU3" t="n">
-        <v>259.2444152832031</v>
+        <v>206.2880554199219</v>
       </c>
       <c r="AV3" t="n">
-        <v>260.0831604003906</v>
+        <v>207.2007904052734</v>
       </c>
       <c r="AW3" t="n">
-        <v>261.0389404296875</v>
+        <v>207.723388671875</v>
       </c>
       <c r="AX3" t="n">
-        <v>261.2186889648438</v>
+        <v>207.7191314697266</v>
       </c>
       <c r="AY3" t="n">
-        <v>261.4153442382812</v>
+        <v>208.0054168701172</v>
       </c>
       <c r="AZ3" t="n">
-        <v>261.6093444824219</v>
+        <v>208.2671356201172</v>
       </c>
       <c r="BA3" t="n">
-        <v>261.6101989746094</v>
+        <v>207.6766662597656</v>
       </c>
       <c r="BB3" t="n">
-        <v>261.6284484863281</v>
+        <v>207.6885070800781</v>
       </c>
       <c r="BC3" t="n">
-        <v>261.6040954589844</v>
+        <v>207.4517974853516</v>
       </c>
       <c r="BD3" t="n">
-        <v>261.6017456054688</v>
+        <v>207.8486328125</v>
       </c>
       <c r="BE3" t="n">
-        <v>261.5729064941406</v>
+        <v>207.3413696289062</v>
       </c>
       <c r="BF3" t="n">
-        <v>261.5409851074219</v>
+        <v>207.6160125732422</v>
       </c>
       <c r="BG3" t="n">
-        <v>261.5587463378906</v>
+        <v>207.8154754638672</v>
       </c>
       <c r="BH3" t="n">
-        <v>261.5850524902344</v>
+        <v>207.9705352783203</v>
       </c>
       <c r="BI3" t="n">
-        <v>261.6530456542969</v>
+        <v>208.5231323242188</v>
       </c>
       <c r="BJ3" t="n">
-        <v>261.7951049804688</v>
+        <v>208.8706359863281</v>
       </c>
       <c r="BK3" t="n">
-        <v>261.9052429199219</v>
+        <v>208.9298095703125</v>
       </c>
       <c r="BL3" t="n">
-        <v>261.910888671875</v>
+        <v>208.8931884765625</v>
       </c>
       <c r="BM3" t="n">
-        <v>261.7739562988281</v>
+        <v>208.6672973632812</v>
       </c>
       <c r="BN3" t="n">
-        <v>261.5062255859375</v>
+        <v>208.5777130126953</v>
       </c>
       <c r="BO3" t="n">
-        <v>261.3830871582031</v>
+        <v>208.3735809326172</v>
       </c>
       <c r="BP3" t="n">
-        <v>261.5021667480469</v>
+        <v>208.331787109375</v>
       </c>
       <c r="BQ3" t="n">
-        <v>261.59521484375</v>
+        <v>208.5088043212891</v>
       </c>
       <c r="BR3" t="n">
-        <v>261.6953125</v>
+        <v>208.6545104980469</v>
       </c>
       <c r="BS3" t="n">
-        <v>261.9757995605469</v>
+        <v>208.5459289550781</v>
       </c>
       <c r="BT3" t="n">
-        <v>262.2965087890625</v>
+        <v>208.4186859130859</v>
       </c>
       <c r="BU3" t="n">
-        <v>262.8387145996094</v>
+        <v>208.3959350585938</v>
       </c>
       <c r="BV3" t="n">
-        <v>263.1768188476562</v>
+        <v>208.4400634765625</v>
       </c>
       <c r="BW3" t="n">
-        <v>263.426513671875</v>
+        <v>208.6022033691406</v>
       </c>
       <c r="BX3" t="n">
-        <v>263.4440612792969</v>
+        <v>208.7090606689453</v>
       </c>
       <c r="BY3" t="n">
-        <v>263.3695983886719</v>
+        <v>208.6642456054688</v>
       </c>
       <c r="BZ3" t="n">
-        <v>263.3993530273438</v>
+        <v>208.5111999511719</v>
       </c>
       <c r="CA3" t="n">
-        <v>263.4954833984375</v>
+        <v>208.5594482421875</v>
       </c>
       <c r="CB3" t="n">
-        <v>263.5518188476562</v>
+        <v>208.7053070068359</v>
       </c>
       <c r="CC3" t="n">
-        <v>263.6051025390625</v>
+        <v>209.2337646484375</v>
       </c>
       <c r="CD3" t="n">
-        <v>263.6528625488281</v>
+        <v>210.0094451904297</v>
       </c>
       <c r="CE3" t="n">
-        <v>263.70458984375</v>
+        <v>210.2949676513672</v>
       </c>
       <c r="CF3" t="n">
-        <v>263.7511291503906</v>
+        <v>210.4165954589844</v>
       </c>
       <c r="CG3" t="n">
-        <v>263.7936706542969</v>
+        <v>210.3766632080078</v>
       </c>
       <c r="CH3" t="n">
-        <v>263.8297729492188</v>
+        <v>210.2109832763672</v>
       </c>
       <c r="CI3" t="n">
-        <v>263.86865234375</v>
+        <v>209.8050537109375</v>
       </c>
       <c r="CJ3" t="n">
-        <v>263.9032592773438</v>
+        <v>209.6218872070312</v>
       </c>
       <c r="CK3" t="n">
-        <v>263.9226989746094</v>
+        <v>209.5609130859375</v>
       </c>
       <c r="CL3" t="n">
-        <v>263.935546875</v>
+        <v>209.481201171875</v>
       </c>
       <c r="CM3" t="n">
-        <v>263.9207153320312</v>
+        <v>209.5722198486328</v>
       </c>
       <c r="CN3" t="n">
-        <v>263.9145812988281</v>
+        <v>209.6482696533203</v>
       </c>
       <c r="CO3" t="n">
-        <v>263.9173889160156</v>
+        <v>209.6423645019531</v>
       </c>
       <c r="CP3" t="n">
-        <v>263.9184875488281</v>
+        <v>209.7348327636719</v>
       </c>
       <c r="CQ3" t="n">
-        <v>263.9448852539062</v>
+        <v>209.8425140380859</v>
       </c>
       <c r="CR3" t="n">
-        <v>263.7688598632812</v>
+        <v>209.8944702148438</v>
       </c>
       <c r="CS3" t="n">
-        <v>263.5838012695312</v>
+        <v>209.8733062744141</v>
       </c>
       <c r="CT3" t="n">
-        <v>263.3945922851562</v>
+        <v>209.9364166259766</v>
       </c>
       <c r="CU3" t="n">
-        <v>263.2235717773438</v>
+        <v>209.9925537109375</v>
       </c>
       <c r="CV3" t="n">
-        <v>263.096435546875</v>
+        <v>209.9438018798828</v>
       </c>
       <c r="CW3" t="n">
-        <v>262.9141540527344</v>
+        <v>210.0465087890625</v>
       </c>
       <c r="CX3" t="n">
-        <v>262.8490295410156</v>
+        <v>210.07421875</v>
       </c>
       <c r="CY3" t="n">
-        <v>262.8567504882812</v>
+        <v>210.0995025634766</v>
       </c>
       <c r="CZ3" t="n">
-        <v>262.8638305664062</v>
+        <v>210.1097106933594</v>
       </c>
       <c r="DA3" t="n">
-        <v>262.8869323730469</v>
+        <v>210.1159210205078</v>
       </c>
       <c r="DB3" t="n">
-        <v>262.9281616210938</v>
+        <v>210.1433410644531</v>
       </c>
       <c r="DC3" t="n">
-        <v>262.9666137695312</v>
+        <v>210.1591491699219</v>
       </c>
       <c r="DD3" t="n">
-        <v>263.0108337402344</v>
+        <v>210.1804656982422</v>
       </c>
       <c r="DE3" t="n">
-        <v>263.0592346191406</v>
+        <v>210.1833038330078</v>
       </c>
       <c r="DF3" t="n">
-        <v>263.10400390625</v>
+        <v>210.187255859375</v>
       </c>
       <c r="DG3" t="n">
-        <v>263.1527404785156</v>
+        <v>210.1722259521484</v>
       </c>
       <c r="DH3" t="n">
-        <v>263.21923828125</v>
+        <v>210.1540679931641</v>
       </c>
       <c r="DI3" t="n">
-        <v>263.290283203125</v>
+        <v>210.1144714355469</v>
       </c>
       <c r="DJ3" t="n">
-        <v>263.3646240234375</v>
+        <v>210.0992889404297</v>
       </c>
       <c r="DK3" t="n">
-        <v>263.5216979980469</v>
+        <v>210.1066589355469</v>
       </c>
       <c r="DL3" t="n">
-        <v>263.8422241210938</v>
+        <v>210.102294921875</v>
       </c>
       <c r="DM3" t="n">
-        <v>263.9639587402344</v>
+        <v>210.1005706787109</v>
       </c>
       <c r="DN3" t="n">
-        <v>264.0882263183594</v>
+        <v>210.1010131835938</v>
       </c>
       <c r="DO3" t="n">
-        <v>264.0977172851562</v>
+        <v>210.1012573242188</v>
       </c>
       <c r="DP3" t="n">
-        <v>264.1006469726562</v>
+        <v>210.1014556884766</v>
       </c>
       <c r="DQ3" t="n">
-        <v>264.0895080566406</v>
+        <v>210.1019287109375</v>
       </c>
       <c r="DR3" t="n">
-        <v>264.0752258300781</v>
+        <v>210.1015777587891</v>
       </c>
       <c r="DS3" t="n">
-        <v>263.9917907714844</v>
+        <v>210.102294921875</v>
       </c>
       <c r="DT3" t="n">
-        <v>263.8549194335938</v>
+        <v>210.1026306152344</v>
       </c>
       <c r="DU3" t="n">
-        <v>263.8181457519531</v>
+        <v>210.1029815673828</v>
       </c>
       <c r="DV3" t="n">
-        <v>263.7539978027344</v>
+        <v>210.1035919189453</v>
       </c>
       <c r="DW3" t="n">
-        <v>263.7448120117188</v>
+        <v>210.1038818359375</v>
       </c>
       <c r="DX3" t="n">
-        <v>263.7251281738281</v>
+        <v>210.1042633056641</v>
       </c>
       <c r="DY3" t="n">
-        <v>263.6972351074219</v>
+        <v>210.1045379638672</v>
       </c>
       <c r="DZ3" t="n">
-        <v>263.72314453125</v>
+        <v>210.1046447753906</v>
       </c>
       <c r="EA3" t="n">
-        <v>263.8108825683594</v>
+        <v>210.1047821044922</v>
       </c>
       <c r="EB3" t="n">
-        <v>263.891357421875</v>
+        <v>210.1661834716797</v>
       </c>
       <c r="EC3" t="n">
-        <v>263.9545593261719</v>
+        <v>210.1822967529297</v>
       </c>
       <c r="ED3" t="n">
-        <v>264.0905151367188</v>
+        <v>210.20654296875</v>
       </c>
       <c r="EE3" t="n">
-        <v>264.1579895019531</v>
+        <v>210.1560668945312</v>
       </c>
       <c r="EF3" t="n">
-        <v>264.2922973632812</v>
+        <v>210.2104949951172</v>
       </c>
       <c r="EG3" t="n">
-        <v>264.3652954101562</v>
+        <v>210.1957244873047</v>
       </c>
       <c r="EH3" t="n">
-        <v>264.4280090332031</v>
+        <v>210.2054290771484</v>
       </c>
       <c r="EI3" t="n">
-        <v>264.4861450195312</v>
+        <v>210.2015838623047</v>
       </c>
       <c r="EJ3" t="n">
-        <v>264.4193725585938</v>
+        <v>210.2023468017578</v>
       </c>
       <c r="EK3" t="n">
-        <v>264.2661743164062</v>
+        <v>210.2018127441406</v>
       </c>
       <c r="EL3" t="n">
-        <v>264.1709594726562</v>
+        <v>210.2001342773438</v>
       </c>
       <c r="EM3" t="n">
-        <v>263.9993591308594</v>
+        <v>210.2008056640625</v>
       </c>
       <c r="EN3" t="n">
-        <v>264.0355529785156</v>
+        <v>210.1992797851562</v>
       </c>
       <c r="EO3" t="n">
-        <v>263.963623046875</v>
+        <v>210.1978912353516</v>
       </c>
       <c r="EP3" t="n">
-        <v>263.917236328125</v>
+        <v>210.1963195800781</v>
       </c>
       <c r="EQ3" t="n">
-        <v>263.886474609375</v>
+        <v>210.1958312988281</v>
       </c>
       <c r="ER3" t="n">
-        <v>263.787841796875</v>
+        <v>210.1945648193359</v>
       </c>
       <c r="ES3" t="n">
-        <v>263.8003540039062</v>
+        <v>210.1950073242188</v>
       </c>
       <c r="ET3" t="n">
-        <v>263.7845153808594</v>
+        <v>210.1955261230469</v>
       </c>
       <c r="EU3" t="n">
-        <v>263.798095703125</v>
+        <v>210.1838836669922</v>
       </c>
       <c r="EV3" t="n">
-        <v>263.8001708984375</v>
+        <v>210.1836395263672</v>
       </c>
       <c r="EW3" t="n">
-        <v>263.8407592773438</v>
+        <v>210.1830291748047</v>
       </c>
       <c r="EX3" t="n">
-        <v>263.8285217285156</v>
+        <v>210.1899566650391</v>
       </c>
       <c r="EY3" t="n">
-        <v>263.803955078125</v>
+        <v>210.2000122070312</v>
       </c>
       <c r="EZ3" t="n">
-        <v>263.7863464355469</v>
+        <v>210.2082977294922</v>
       </c>
       <c r="FA3" t="n">
-        <v>263.7771606445312</v>
+        <v>210.2124786376953</v>
       </c>
       <c r="FB3" t="n">
-        <v>263.7727355957031</v>
+        <v>210.2145690917969</v>
       </c>
       <c r="FC3" t="n">
-        <v>263.7620239257812</v>
+        <v>210.2154998779297</v>
       </c>
       <c r="FD3" t="n">
-        <v>263.7727966308594</v>
+        <v>210.2156677246094</v>
       </c>
       <c r="FE3" t="n">
-        <v>263.7838439941406</v>
+        <v>210.2157745361328</v>
       </c>
       <c r="FF3" t="n">
-        <v>263.8003540039062</v>
+        <v>210.2159271240234</v>
       </c>
       <c r="FG3" t="n">
-        <v>263.8452758789062</v>
+        <v>210.2160186767578</v>
       </c>
       <c r="FH3" t="n">
-        <v>263.8636474609375</v>
+        <v>210.2215118408203</v>
       </c>
       <c r="FI3" t="n">
-        <v>263.8794555664062</v>
+        <v>210.237060546875</v>
       </c>
       <c r="FJ3" t="n">
-        <v>263.8981018066406</v>
+        <v>210.2369384765625</v>
       </c>
       <c r="FK3" t="n">
-        <v>263.9204711914062</v>
+        <v>210.2247924804688</v>
       </c>
       <c r="FL3" t="n">
-        <v>264.0783996582031</v>
+        <v>210.2757568359375</v>
       </c>
       <c r="FM3" t="n">
-        <v>264.2505493164062</v>
+        <v>210.3112640380859</v>
       </c>
       <c r="FN3" t="n">
-        <v>264.5020141601562</v>
+        <v>210.3075866699219</v>
       </c>
       <c r="FO3" t="n">
-        <v>264.5559692382812</v>
+        <v>210.3804168701172</v>
       </c>
       <c r="FP3" t="n">
-        <v>264.6695251464844</v>
+        <v>210.3429107666016</v>
       </c>
       <c r="FQ3" t="n">
-        <v>264.7001647949219</v>
+        <v>210.3103332519531</v>
       </c>
       <c r="FR3" t="n">
-        <v>264.7825927734375</v>
+        <v>210.2923583984375</v>
       </c>
       <c r="FS3" t="n">
-        <v>264.8052062988281</v>
+        <v>210.2838592529297</v>
       </c>
       <c r="FT3" t="n">
-        <v>264.8557434082031</v>
+        <v>210.2727661132812</v>
       </c>
       <c r="FU3" t="n">
-        <v>264.8089294433594</v>
+        <v>210.3459014892578</v>
       </c>
       <c r="FV3" t="n">
-        <v>264.6828918457031</v>
+        <v>210.3912506103516</v>
       </c>
       <c r="FW3" t="n">
-        <v>264.4573669433594</v>
+        <v>210.4078063964844</v>
       </c>
       <c r="FX3" t="n">
-        <v>264.30078125</v>
+        <v>210.3557891845703</v>
       </c>
       <c r="FY3" t="n">
-        <v>264.0319519042969</v>
+        <v>210.3970642089844</v>
       </c>
       <c r="FZ3" t="n">
-        <v>264.1208190917969</v>
+        <v>210.4561462402344</v>
       </c>
       <c r="GA3" t="n">
-        <v>264.3726196289062</v>
+        <v>210.4725341796875</v>
       </c>
       <c r="GB3" t="n">
-        <v>264.4934387207031</v>
+        <v>210.4539794921875</v>
       </c>
       <c r="GC3" t="n">
-        <v>264.806884765625</v>
+        <v>210.3495941162109</v>
       </c>
       <c r="GD3" t="n">
-        <v>264.7262878417969</v>
+        <v>210.3977508544922</v>
       </c>
       <c r="GE3" t="n">
-        <v>264.5797119140625</v>
+        <v>210.4267120361328</v>
       </c>
       <c r="GF3" t="n">
-        <v>264.4332275390625</v>
+        <v>210.4641265869141</v>
       </c>
       <c r="GG3" t="n">
-        <v>264.4359436035156</v>
+        <v>210.5296325683594</v>
       </c>
       <c r="GH3" t="n">
-        <v>264.4506225585938</v>
+        <v>210.5684204101562</v>
       </c>
       <c r="GI3" t="n">
-        <v>264.4495544433594</v>
+        <v>210.5943908691406</v>
       </c>
       <c r="GJ3" t="n">
-        <v>264.4416198730469</v>
+        <v>210.6235198974609</v>
       </c>
       <c r="GK3" t="n">
-        <v>264.4061279296875</v>
+        <v>210.6562194824219</v>
       </c>
       <c r="GL3" t="n">
-        <v>264.3833923339844</v>
+        <v>210.6878509521484</v>
       </c>
       <c r="GM3" t="n">
-        <v>264.3659973144531</v>
+        <v>210.7007598876953</v>
       </c>
       <c r="GN3" t="n">
-        <v>264.3630676269531</v>
+        <v>210.7294616699219</v>
       </c>
       <c r="GO3" t="n">
-        <v>264.3686218261719</v>
+        <v>210.7437438964844</v>
       </c>
       <c r="GP3" t="n">
-        <v>264.38818359375</v>
+        <v>210.7549285888672</v>
       </c>
       <c r="GQ3" t="n">
-        <v>264.4347839355469</v>
+        <v>210.7580413818359</v>
       </c>
       <c r="GR3" t="n">
-        <v>264.4546813964844</v>
+        <v>210.7539520263672</v>
       </c>
       <c r="GS3" t="n">
-        <v>264.4856567382812</v>
+        <v>210.7761383056641</v>
       </c>
       <c r="GT3" t="n">
-        <v>264.6112670898438</v>
+        <v>210.8686370849609</v>
       </c>
       <c r="GU3" t="n">
-        <v>264.7812194824219</v>
+        <v>210.8478240966797</v>
       </c>
       <c r="GV3" t="n">
-        <v>264.71728515625</v>
+        <v>210.8118133544922</v>
       </c>
       <c r="GW3" t="n">
-        <v>264.7877502441406</v>
+        <v>210.7322540283203</v>
       </c>
       <c r="GX3" t="n">
-        <v>264.8179016113281</v>
+        <v>210.6640014648438</v>
       </c>
       <c r="GY3" t="n">
-        <v>264.8446044921875</v>
+        <v>210.6129760742188</v>
       </c>
       <c r="GZ3" t="n">
-        <v>264.8728942871094</v>
+        <v>210.5115203857422</v>
       </c>
       <c r="HA3" t="n">
-        <v>264.8963928222656</v>
+        <v>210.4052276611328</v>
       </c>
       <c r="HB3" t="n">
-        <v>264.8998413085938</v>
+        <v>210.3560028076172</v>
       </c>
       <c r="HC3" t="n">
-        <v>264.868896484375</v>
+        <v>210.2964782714844</v>
       </c>
       <c r="HD3" t="n">
-        <v>264.7483825683594</v>
+        <v>210.2751159667969</v>
       </c>
       <c r="HE3" t="n">
-        <v>264.5321655273438</v>
+        <v>210.3525085449219</v>
       </c>
       <c r="HF3" t="n">
-        <v>264.1605224609375</v>
+        <v>210.3853454589844</v>
       </c>
       <c r="HG3" t="n">
-        <v>263.8019104003906</v>
+        <v>210.3838195800781</v>
       </c>
       <c r="HH3" t="n">
-        <v>263.9615783691406</v>
+        <v>210.4061126708984</v>
       </c>
       <c r="HI3" t="n">
-        <v>263.833740234375</v>
+        <v>210.4275817871094</v>
       </c>
       <c r="HJ3" t="n">
-        <v>263.8119201660156</v>
+        <v>210.4602203369141</v>
       </c>
       <c r="HK3" t="n">
-        <v>263.8001098632812</v>
+        <v>210.4214172363281</v>
       </c>
       <c r="HL3" t="n">
-        <v>263.7869873046875</v>
+        <v>210.3453216552734</v>
       </c>
       <c r="HM3" t="n">
-        <v>263.7811584472656</v>
+        <v>210.3456115722656</v>
       </c>
       <c r="HN3" t="n">
-        <v>263.77099609375</v>
+        <v>210.3354644775391</v>
       </c>
       <c r="HO3" t="n">
-        <v>263.7609558105469</v>
+        <v>210.2926788330078</v>
       </c>
       <c r="HP3" t="n">
-        <v>263.7469482421875</v>
+        <v>210.2798156738281</v>
       </c>
       <c r="HQ3" t="n">
-        <v>263.7311706542969</v>
+        <v>210.2597351074219</v>
       </c>
       <c r="HR3" t="n">
-        <v>263.7543334960938</v>
+        <v>210.3132629394531</v>
       </c>
       <c r="HS3" t="n">
-        <v>263.7385559082031</v>
+        <v>210.1934204101562</v>
       </c>
       <c r="HT3" t="n">
-        <v>263.73193359375</v>
+        <v>210.2436370849609</v>
       </c>
       <c r="HU3" t="n">
-        <v>263.7291259765625</v>
+        <v>210.2033843994141</v>
       </c>
       <c r="HV3" t="n">
-        <v>263.7604370117188</v>
+        <v>210.2816619873047</v>
       </c>
       <c r="HW3" t="n">
-        <v>263.8161926269531</v>
+        <v>210.2439270019531</v>
       </c>
       <c r="HX3" t="n">
-        <v>264.0074157714844</v>
+        <v>210.1920166015625</v>
       </c>
       <c r="HY3" t="n">
-        <v>264.3054809570312</v>
+        <v>210.1024475097656</v>
       </c>
       <c r="HZ3" t="n">
-        <v>264.4599304199219</v>
+        <v>210.1210021972656</v>
       </c>
       <c r="IA3" t="n">
-        <v>264.4937438964844</v>
+        <v>210.1272430419922</v>
       </c>
       <c r="IB3" t="n">
-        <v>264.4740295410156</v>
+        <v>210.4973602294922</v>
       </c>
       <c r="IC3" t="n">
-        <v>264.4988708496094</v>
+        <v>210.5346527099609</v>
       </c>
       <c r="ID3" t="n">
-        <v>264.5767211914062</v>
+        <v>210.5595397949219</v>
       </c>
       <c r="IE3" t="n">
-        <v>264.6310424804688</v>
+        <v>210.582763671875</v>
       </c>
       <c r="IF3" t="n">
-        <v>264.6763000488281</v>
+        <v>210.5921478271484</v>
       </c>
       <c r="IG3" t="n">
-        <v>264.7139892578125</v>
+        <v>210.5955810546875</v>
       </c>
       <c r="IH3" t="n">
-        <v>264.7833251953125</v>
+        <v>210.4292449951172</v>
       </c>
       <c r="II3" t="n">
-        <v>264.8297424316406</v>
+        <v>210.5277404785156</v>
       </c>
       <c r="IJ3" t="n">
-        <v>264.7377014160156</v>
+        <v>210.4893951416016</v>
       </c>
       <c r="IK3" t="n">
-        <v>264.6046142578125</v>
+        <v>210.531494140625</v>
       </c>
       <c r="IL3" t="n">
-        <v>264.4181518554688</v>
+        <v>210.5033111572266</v>
       </c>
       <c r="IM3" t="n">
-        <v>263.9923400878906</v>
+        <v>210.5168609619141</v>
       </c>
       <c r="IN3" t="n">
-        <v>263.6845703125</v>
+        <v>210.5081481933594</v>
       </c>
       <c r="IO3" t="n">
-        <v>263.7354736328125</v>
+        <v>210.4738922119141</v>
       </c>
       <c r="IP3" t="n">
-        <v>263.8013000488281</v>
+        <v>210.3187255859375</v>
       </c>
       <c r="IQ3" t="n">
-        <v>263.9452819824219</v>
+        <v>210.3033905029297</v>
       </c>
       <c r="IR3" t="n">
-        <v>264.1465454101562</v>
+        <v>210.2475738525391</v>
       </c>
       <c r="IS3" t="n">
-        <v>264.4390258789062</v>
+        <v>210.2459106445312</v>
       </c>
       <c r="IT3" t="n">
-        <v>264.4485473632812</v>
+        <v>210.2430419921875</v>
       </c>
       <c r="IU3" t="n">
-        <v>264.5068969726562</v>
+        <v>210.2400665283203</v>
       </c>
       <c r="IV3" t="n">
-        <v>265.0348510742188</v>
+        <v>210.2538299560547</v>
       </c>
       <c r="IW3" t="n">
-        <v>264.4131469726562</v>
+        <v>210.2590637207031</v>
       </c>
       <c r="IX3" t="n">
-        <v>264.1029968261719</v>
+        <v>210.2525634765625</v>
       </c>
       <c r="IY3" t="n">
-        <v>264.6769714355469</v>
+        <v>210.2571105957031</v>
       </c>
       <c r="IZ3" t="n">
-        <v>264.8269653320312</v>
+        <v>210.2410888671875</v>
       </c>
       <c r="JA3" t="n">
-        <v>264.3885498046875</v>
+        <v>210.1933746337891</v>
       </c>
       <c r="JB3" t="n">
-        <v>264.3186950683594</v>
+        <v>210.1419219970703</v>
       </c>
       <c r="JC3" t="n">
-        <v>264.3464050292969</v>
+        <v>210.1862640380859</v>
       </c>
       <c r="JD3" t="n">
-        <v>264.4637145996094</v>
+        <v>210.1756439208984</v>
       </c>
       <c r="JE3" t="n">
-        <v>264.4857482910156</v>
+        <v>210.1921691894531</v>
       </c>
       <c r="JF3" t="n">
-        <v>264.5496520996094</v>
+        <v>210.1753387451172</v>
       </c>
       <c r="JG3" t="n">
-        <v>264.6087951660156</v>
+        <v>210.2785491943359</v>
       </c>
       <c r="JH3" t="n">
-        <v>264.7503662109375</v>
+        <v>210.2923431396484</v>
       </c>
       <c r="JI3" t="n">
-        <v>264.9429321289062</v>
+        <v>210.2876586914062</v>
       </c>
       <c r="JJ3" t="n">
-        <v>265.1259765625</v>
+        <v>210.2780609130859</v>
       </c>
       <c r="JK3" t="n">
-        <v>265.2787475585938</v>
+        <v>210.3429870605469</v>
       </c>
       <c r="JL3" t="n">
-        <v>265.3946228027344</v>
+        <v>210.2051849365234</v>
       </c>
       <c r="JM3" t="n">
-        <v>265.3960266113281</v>
+        <v>210.2484283447266</v>
       </c>
       <c r="JN3" t="n">
-        <v>265.3707580566406</v>
+        <v>210.3201446533203</v>
       </c>
       <c r="JO3" t="n">
-        <v>265.3114929199219</v>
+        <v>210.3231964111328</v>
       </c>
       <c r="JP3" t="n">
-        <v>265.1893310546875</v>
+        <v>210.3103485107422</v>
       </c>
       <c r="JQ3" t="n">
-        <v>263.6921997070312</v>
+        <v>210.2888336181641</v>
       </c>
       <c r="JR3" t="n">
-        <v>262.6702270507812</v>
+        <v>210.3440551757812</v>
       </c>
       <c r="JS3" t="n">
-        <v>262.6775512695312</v>
+        <v>210.32568359375</v>
       </c>
       <c r="JT3" t="n">
-        <v>263.0442504882812</v>
+        <v>210.2020111083984</v>
       </c>
       <c r="JU3" t="n">
-        <v>263.3260192871094</v>
+        <v>210.3083953857422</v>
       </c>
       <c r="JV3" t="n">
-        <v>263.6013793945312</v>
+        <v>210.3027648925781</v>
       </c>
       <c r="JW3" t="n">
-        <v>263.9237365722656</v>
+        <v>210.2919158935547</v>
       </c>
       <c r="JX3" t="n">
-        <v>263.9951171875</v>
+        <v>210.2950897216797</v>
       </c>
       <c r="JY3" t="n">
-        <v>264.1302490234375</v>
+        <v>210.2928009033203</v>
       </c>
       <c r="JZ3" t="n">
-        <v>264.2363586425781</v>
+        <v>210.2805480957031</v>
       </c>
       <c r="KA3" t="n">
-        <v>263.1610412597656</v>
+        <v>210.2935028076172</v>
       </c>
       <c r="KB3" t="n">
-        <v>262.8873901367188</v>
+        <v>210.2343902587891</v>
       </c>
       <c r="KC3" t="n">
-        <v>262.8903503417969</v>
+        <v>210.0419464111328</v>
       </c>
       <c r="KD3" t="n">
-        <v>262.9561767578125</v>
+        <v>209.7372589111328</v>
       </c>
       <c r="KE3" t="n">
-        <v>262.7174987792969</v>
+        <v>209.6525573730469</v>
       </c>
       <c r="KF3" t="n">
-        <v>262.3545837402344</v>
+        <v>209.62890625</v>
       </c>
       <c r="KG3" t="n">
-        <v>261.5722351074219</v>
+        <v>209.615234375</v>
       </c>
       <c r="KH3" t="n">
-        <v>260.9450378417969</v>
+        <v>209.5870056152344</v>
       </c>
       <c r="KI3" t="n">
-        <v>259.7630004882812</v>
+        <v>209.6685333251953</v>
       </c>
       <c r="KJ3" t="n">
-        <v>259.1802368164062</v>
+        <v>209.6783294677734</v>
       </c>
       <c r="KK3" t="n">
-        <v>259.0723266601562</v>
+        <v>209.7129974365234</v>
       </c>
       <c r="KL3" t="n">
-        <v>259.6488952636719</v>
+        <v>209.7608489990234</v>
       </c>
       <c r="KM3" t="n">
-        <v>259.3007507324219</v>
+        <v>209.8038330078125</v>
       </c>
       <c r="KN3" t="n">
-        <v>256.2951965332031</v>
+        <v>209.8303833007812</v>
       </c>
       <c r="KO3" t="n">
-        <v>246.1446838378906</v>
+        <v>210.1763458251953</v>
       </c>
       <c r="KP3" t="n">
-        <v>240.7517700195312</v>
+        <v>210.1810607910156</v>
       </c>
       <c r="KQ3" t="n">
-        <v>238.178955078125</v>
+        <v>209.6624450683594</v>
       </c>
       <c r="KR3" t="n">
-        <v>233.9231872558594</v>
+        <v>210.5007019042969</v>
       </c>
       <c r="KS3" t="n">
-        <v>225.1560821533203</v>
+        <v>210.3587188720703</v>
       </c>
       <c r="KT3" t="n">
-        <v>222.9614715576172</v>
+        <v>209.8209991455078</v>
       </c>
       <c r="KU3" t="n">
-        <v>221.6607208251953</v>
+        <v>213.0805511474609</v>
       </c>
       <c r="KV3" t="n">
-        <v>221.3825225830078</v>
+        <v>217.4390716552734</v>
       </c>
       <c r="KW3" t="n">
-        <v>221.1852569580078</v>
+        <v>216.8658142089844</v>
       </c>
       <c r="KX3" t="n">
-        <v>216.7543334960938</v>
+        <v>213.2674560546875</v>
       </c>
       <c r="KY3" t="n">
-        <v>211.0033264160156</v>
+        <v>209.7800750732422</v>
       </c>
       <c r="KZ3" t="n">
-        <v>203.6252288818359</v>
+        <v>201.8909759521484</v>
       </c>
       <c r="LA3" t="n">
-        <v>197.9809112548828</v>
+        <v>197.1787872314453</v>
       </c>
       <c r="LB3" t="n">
-        <v>194.8549957275391</v>
+        <v>197.3598022460938</v>
       </c>
       <c r="LC3" t="n">
-        <v>193.2296752929688</v>
+        <v>199.9016418457031</v>
       </c>
       <c r="LD3" t="n">
-        <v>191.7529296875</v>
+        <v>197.1194305419922</v>
+      </c>
+      <c r="LE3" t="n">
+        <v>191.4981842041016</v>
+      </c>
+      <c r="LF3" t="n">
+        <v>184.0546417236328</v>
+      </c>
+      <c r="LG3" t="n">
+        <v>180.1604614257812</v>
+      </c>
+      <c r="LH3" t="n">
+        <v>178.1144561767578</v>
+      </c>
+      <c r="LI3" t="n">
+        <v>179.6209564208984</v>
+      </c>
+      <c r="LJ3" t="n">
+        <v>176.0775604248047</v>
+      </c>
+      <c r="LK3" t="n">
+        <v>171.6419982910156</v>
+      </c>
+      <c r="LL3" t="n">
+        <v>168.1583404541016</v>
+      </c>
+      <c r="LM3" t="n">
+        <v>174.6916809082031</v>
+      </c>
+      <c r="LN3" t="n">
+        <v>146.1015167236328</v>
+      </c>
+      <c r="LO3" t="n">
+        <v>118.1571426391602</v>
+      </c>
+      <c r="LP3" t="n">
+        <v>109.0098419189453</v>
+      </c>
+      <c r="LQ3" t="n">
+        <v>116.3534851074219</v>
+      </c>
+      <c r="LR3" t="n">
+        <v>116.0055541992188</v>
+      </c>
+      <c r="LS3" t="n">
+        <v>98.40806579589844</v>
+      </c>
+      <c r="LT3" t="n">
+        <v>99.38743591308594</v>
+      </c>
+      <c r="LU3" t="n">
+        <v>104.6251602172852</v>
+      </c>
+      <c r="LV3" t="n">
+        <v>100.6726226806641</v>
+      </c>
+      <c r="LW3" t="n">
+        <v>101.7929992675781</v>
+      </c>
+      <c r="LX3" t="n">
+        <v>127.8620071411133</v>
+      </c>
+      <c r="LY3" t="n">
+        <v>157.8306579589844</v>
+      </c>
+      <c r="LZ3" t="n">
+        <v>148.9259643554688</v>
+      </c>
+      <c r="MA3" t="n">
+        <v>135.2898406982422</v>
+      </c>
+      <c r="MB3" t="n">
+        <v>138.6026763916016</v>
+      </c>
+      <c r="MC3" t="n">
+        <v>151.0897216796875</v>
+      </c>
+      <c r="MD3" t="n">
+        <v>179.9175720214844</v>
+      </c>
+      <c r="ME3" t="n">
+        <v>175.6850280761719</v>
+      </c>
+      <c r="MF3" t="n">
+        <v>173.1536102294922</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>849.0117797851562</v>
+        <v>804.8110961914062</v>
       </c>
       <c r="B4" t="n">
-        <v>862.5350952148438</v>
+        <v>824.1954956054688</v>
       </c>
       <c r="C4" t="n">
-        <v>882.7583618164062</v>
+        <v>849.0044555664062</v>
       </c>
       <c r="D4" t="n">
-        <v>909.8248901367188</v>
+        <v>874.8903198242188</v>
       </c>
       <c r="E4" t="n">
-        <v>936.3955688476562</v>
+        <v>899.7510375976562</v>
       </c>
       <c r="F4" t="n">
-        <v>971.39111328125</v>
+        <v>929.6640014648438</v>
       </c>
       <c r="G4" t="n">
-        <v>1008.266845703125</v>
+        <v>955.0780029296875</v>
       </c>
       <c r="H4" t="n">
-        <v>1044.10498046875</v>
+        <v>981.98974609375</v>
       </c>
       <c r="I4" t="n">
-        <v>1086.579223632812</v>
+        <v>1012.999816894531</v>
       </c>
       <c r="J4" t="n">
-        <v>1134.355590820312</v>
+        <v>1042.9169921875</v>
       </c>
       <c r="K4" t="n">
-        <v>1176.06689453125</v>
+        <v>1074.362426757812</v>
       </c>
       <c r="L4" t="n">
-        <v>1218.685546875</v>
+        <v>1100.638305664062</v>
       </c>
       <c r="M4" t="n">
-        <v>1262.954467773438</v>
+        <v>1130.329223632812</v>
       </c>
       <c r="N4" t="n">
-        <v>1306.4033203125</v>
+        <v>1159.06591796875</v>
       </c>
       <c r="O4" t="n">
-        <v>1350.031494140625</v>
+        <v>1189.524291992188</v>
       </c>
       <c r="P4" t="n">
-        <v>1387.702270507812</v>
+        <v>1216.951416015625</v>
       </c>
       <c r="Q4" t="n">
-        <v>1423.044555664062</v>
+        <v>1245.842163085938</v>
       </c>
       <c r="R4" t="n">
-        <v>1460.077270507812</v>
+        <v>1277.319213867188</v>
       </c>
       <c r="S4" t="n">
-        <v>1490.26513671875</v>
+        <v>1305.694702148438</v>
       </c>
       <c r="T4" t="n">
-        <v>1523.45654296875</v>
+        <v>1336.216186523438</v>
       </c>
       <c r="U4" t="n">
-        <v>1555.879150390625</v>
+        <v>1368.560424804688</v>
       </c>
       <c r="V4" t="n">
-        <v>1571.152465820312</v>
+        <v>1406.154907226562</v>
       </c>
       <c r="W4" t="n">
-        <v>1605.022827148438</v>
+        <v>1435.975463867188</v>
       </c>
       <c r="X4" t="n">
-        <v>1635.000610351562</v>
+        <v>1470.798950195312</v>
       </c>
       <c r="Y4" t="n">
-        <v>1669.220581054688</v>
+        <v>1497.736450195312</v>
       </c>
       <c r="Z4" t="n">
-        <v>1682.600708007812</v>
+        <v>1536.172607421875</v>
       </c>
       <c r="AA4" t="n">
-        <v>1713.486938476562</v>
+        <v>1571.022583007812</v>
       </c>
       <c r="AB4" t="n">
-        <v>1739.225830078125</v>
+        <v>1597.234375</v>
       </c>
       <c r="AC4" t="n">
-        <v>1776.954467773438</v>
+        <v>1626.584838867188</v>
       </c>
       <c r="AD4" t="n">
-        <v>1800.895751953125</v>
+        <v>1655.938110351562</v>
       </c>
       <c r="AE4" t="n">
-        <v>1819.950439453125</v>
+        <v>1684.941040039062</v>
       </c>
       <c r="AF4" t="n">
-        <v>1851.663940429688</v>
+        <v>1716.3359375</v>
       </c>
       <c r="AG4" t="n">
-        <v>1867.827270507812</v>
+        <v>1726.566772460938</v>
       </c>
       <c r="AH4" t="n">
-        <v>1899.053344726562</v>
+        <v>1755.433959960938</v>
       </c>
       <c r="AI4" t="n">
-        <v>1921.904296875</v>
+        <v>1779.90869140625</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1948.319946289062</v>
+        <v>1801.82275390625</v>
       </c>
       <c r="AK4" t="n">
-        <v>1967.817260742188</v>
+        <v>1831.573608398438</v>
       </c>
       <c r="AL4" t="n">
-        <v>1987.659790039062</v>
+        <v>1846.97607421875</v>
       </c>
       <c r="AM4" t="n">
-        <v>1998.535034179688</v>
+        <v>1865.248901367188</v>
       </c>
       <c r="AN4" t="n">
-        <v>2004.005249023438</v>
+        <v>1878.1640625</v>
       </c>
       <c r="AO4" t="n">
-        <v>2017.467407226562</v>
+        <v>1895.514526367188</v>
       </c>
       <c r="AP4" t="n">
-        <v>2021.339233398438</v>
+        <v>1916.62939453125</v>
       </c>
       <c r="AQ4" t="n">
-        <v>2028.015014648438</v>
+        <v>1940.7421875</v>
       </c>
       <c r="AR4" t="n">
-        <v>2031.71875</v>
+        <v>1966.01806640625</v>
       </c>
       <c r="AS4" t="n">
-        <v>2035.285522460938</v>
+        <v>1991.471313476562</v>
       </c>
       <c r="AT4" t="n">
-        <v>2039.580200195312</v>
+        <v>2000.83349609375</v>
       </c>
       <c r="AU4" t="n">
-        <v>2043.980590820312</v>
+        <v>2006.020751953125</v>
       </c>
       <c r="AV4" t="n">
-        <v>2052.28515625</v>
+        <v>2034.441284179688</v>
       </c>
       <c r="AW4" t="n">
-        <v>2058.14501953125</v>
+        <v>2039.51611328125</v>
       </c>
       <c r="AX4" t="n">
-        <v>2060.55224609375</v>
+        <v>2063.702880859375</v>
       </c>
       <c r="AY4" t="n">
-        <v>2067.376220703125</v>
+        <v>2082.98583984375</v>
       </c>
       <c r="AZ4" t="n">
-        <v>2073.68310546875</v>
+        <v>2110.39892578125</v>
       </c>
       <c r="BA4" t="n">
-        <v>2077.63623046875</v>
+        <v>2117.931396484375</v>
       </c>
       <c r="BB4" t="n">
-        <v>2082.856201171875</v>
+        <v>2135.89599609375</v>
       </c>
       <c r="BC4" t="n">
-        <v>2085.705810546875</v>
+        <v>2145.271484375</v>
       </c>
       <c r="BD4" t="n">
-        <v>2092.912841796875</v>
+        <v>2174.8369140625</v>
       </c>
       <c r="BE4" t="n">
-        <v>2093.435791015625</v>
+        <v>2185.371337890625</v>
       </c>
       <c r="BF4" t="n">
-        <v>2097.083984375</v>
+        <v>2201.349853515625</v>
       </c>
       <c r="BG4" t="n">
-        <v>2106.113525390625</v>
+        <v>2212.24267578125</v>
       </c>
       <c r="BH4" t="n">
-        <v>2109.374755859375</v>
+        <v>2216.1689453125</v>
       </c>
       <c r="BI4" t="n">
-        <v>2108.998779296875</v>
+        <v>2228.59375</v>
       </c>
       <c r="BJ4" t="n">
-        <v>2119.18212890625</v>
+        <v>2228.14990234375</v>
       </c>
       <c r="BK4" t="n">
-        <v>2121.13671875</v>
+        <v>2235.493408203125</v>
       </c>
       <c r="BL4" t="n">
-        <v>2122.139892578125</v>
+        <v>2237.15185546875</v>
       </c>
       <c r="BM4" t="n">
-        <v>2123.46142578125</v>
+        <v>2236.396484375</v>
       </c>
       <c r="BN4" t="n">
-        <v>2125.25048828125</v>
+        <v>2245.82080078125</v>
       </c>
       <c r="BO4" t="n">
-        <v>2126.7861328125</v>
+        <v>2258.660888671875</v>
       </c>
       <c r="BP4" t="n">
-        <v>2128.47412109375</v>
+        <v>2269.03515625</v>
       </c>
       <c r="BQ4" t="n">
-        <v>2129.263916015625</v>
+        <v>2269.478515625</v>
       </c>
       <c r="BR4" t="n">
-        <v>2130.559326171875</v>
+        <v>2271.5341796875</v>
       </c>
       <c r="BS4" t="n">
-        <v>2129.395751953125</v>
+        <v>2275.361328125</v>
       </c>
       <c r="BT4" t="n">
-        <v>2129.542236328125</v>
+        <v>2275.29541015625</v>
       </c>
       <c r="BU4" t="n">
-        <v>2129.24560546875</v>
+        <v>2275.253662109375</v>
       </c>
       <c r="BV4" t="n">
-        <v>2128.778076171875</v>
+        <v>2275.236083984375</v>
       </c>
       <c r="BW4" t="n">
-        <v>2128.353515625</v>
+        <v>2275.25830078125</v>
       </c>
       <c r="BX4" t="n">
-        <v>2127.748779296875</v>
+        <v>2274.1318359375</v>
       </c>
       <c r="BY4" t="n">
-        <v>2124.43359375</v>
+        <v>2273.09228515625</v>
       </c>
       <c r="BZ4" t="n">
-        <v>2119.896728515625</v>
+        <v>2271.742919921875</v>
       </c>
       <c r="CA4" t="n">
-        <v>2118.083740234375</v>
+        <v>2264.950927734375</v>
       </c>
       <c r="CB4" t="n">
-        <v>2117.828857421875</v>
+        <v>2255.99365234375</v>
       </c>
       <c r="CC4" t="n">
-        <v>2117.74462890625</v>
+        <v>2255.423828125</v>
       </c>
       <c r="CD4" t="n">
-        <v>2117.7021484375</v>
+        <v>2253.58935546875</v>
       </c>
       <c r="CE4" t="n">
-        <v>2117.57763671875</v>
+        <v>2254.641357421875</v>
       </c>
       <c r="CF4" t="n">
-        <v>2117.466064453125</v>
+        <v>2254.475830078125</v>
       </c>
       <c r="CG4" t="n">
-        <v>2117.36865234375</v>
+        <v>2254.671142578125</v>
       </c>
       <c r="CH4" t="n">
-        <v>2117.133056640625</v>
+        <v>2258.18701171875</v>
       </c>
       <c r="CI4" t="n">
-        <v>2116.927978515625</v>
+        <v>2261.61474609375</v>
       </c>
       <c r="CJ4" t="n">
-        <v>2116.519775390625</v>
+        <v>2266.871337890625</v>
       </c>
       <c r="CK4" t="n">
-        <v>2116.142822265625</v>
+        <v>2269.28173828125</v>
       </c>
       <c r="CL4" t="n">
-        <v>2115.857421875</v>
+        <v>2269.292724609375</v>
       </c>
       <c r="CM4" t="n">
-        <v>2115.677978515625</v>
+        <v>2269.083984375</v>
       </c>
       <c r="CN4" t="n">
-        <v>2115.09716796875</v>
+        <v>2268.833251953125</v>
       </c>
       <c r="CO4" t="n">
-        <v>2115.157470703125</v>
+        <v>2262.25341796875</v>
       </c>
       <c r="CP4" t="n">
-        <v>2115.954345703125</v>
+        <v>2261.734130859375</v>
       </c>
       <c r="CQ4" t="n">
-        <v>2124.566162109375</v>
+        <v>2268.92333984375</v>
       </c>
       <c r="CR4" t="n">
-        <v>2124.852783203125</v>
+        <v>2273.88330078125</v>
       </c>
       <c r="CS4" t="n">
-        <v>2125.093994140625</v>
+        <v>2262.637451171875</v>
       </c>
       <c r="CT4" t="n">
-        <v>2124.619873046875</v>
+        <v>2265.988525390625</v>
       </c>
       <c r="CU4" t="n">
-        <v>2122.1357421875</v>
+        <v>2266.02294921875</v>
       </c>
       <c r="CV4" t="n">
-        <v>2120.88134765625</v>
+        <v>2259.133544921875</v>
       </c>
       <c r="CW4" t="n">
-        <v>2121.986083984375</v>
+        <v>2264.94091796875</v>
       </c>
       <c r="CX4" t="n">
-        <v>2122.0244140625</v>
+        <v>2266.04541015625</v>
       </c>
       <c r="CY4" t="n">
-        <v>2122.151611328125</v>
+        <v>2267.139404296875</v>
       </c>
       <c r="CZ4" t="n">
-        <v>2122.217041015625</v>
+        <v>2267.1279296875</v>
       </c>
       <c r="DA4" t="n">
-        <v>2122.22705078125</v>
+        <v>2267.21337890625</v>
       </c>
       <c r="DB4" t="n">
-        <v>2121.738037109375</v>
+        <v>2267.2138671875</v>
       </c>
       <c r="DC4" t="n">
-        <v>2121.667236328125</v>
+        <v>2267.22900390625</v>
       </c>
       <c r="DD4" t="n">
-        <v>2121.53076171875</v>
+        <v>2267.23876953125</v>
       </c>
       <c r="DE4" t="n">
-        <v>2121.41845703125</v>
+        <v>2267.2333984375</v>
       </c>
       <c r="DF4" t="n">
-        <v>2121.302978515625</v>
+        <v>2267.23388671875</v>
       </c>
       <c r="DG4" t="n">
-        <v>2121.180419921875</v>
+        <v>2267.217041015625</v>
       </c>
       <c r="DH4" t="n">
-        <v>2121.00830078125</v>
+        <v>2267.214599609375</v>
       </c>
       <c r="DI4" t="n">
-        <v>2120.796630859375</v>
+        <v>2267.493408203125</v>
       </c>
       <c r="DJ4" t="n">
-        <v>2120.576171875</v>
+        <v>2268.415283203125</v>
       </c>
       <c r="DK4" t="n">
-        <v>2119.9423828125</v>
+        <v>2269.96484375</v>
       </c>
       <c r="DL4" t="n">
-        <v>2119.06005859375</v>
+        <v>2269.797607421875</v>
       </c>
       <c r="DM4" t="n">
-        <v>2118.8115234375</v>
+        <v>2269.68896484375</v>
       </c>
       <c r="DN4" t="n">
-        <v>2118.664306640625</v>
+        <v>2269.6865234375</v>
       </c>
       <c r="DO4" t="n">
-        <v>2118.68408203125</v>
+        <v>2269.6875</v>
       </c>
       <c r="DP4" t="n">
-        <v>2118.657470703125</v>
+        <v>2269.685302734375</v>
       </c>
       <c r="DQ4" t="n">
-        <v>2118.678955078125</v>
+        <v>2269.685546875</v>
       </c>
       <c r="DR4" t="n">
-        <v>2118.70166015625</v>
+        <v>2269.640625</v>
       </c>
       <c r="DS4" t="n">
-        <v>2118.845458984375</v>
+        <v>2269.65283203125</v>
       </c>
       <c r="DT4" t="n">
-        <v>2119.106689453125</v>
+        <v>2269.65185546875</v>
       </c>
       <c r="DU4" t="n">
-        <v>2119.197265625</v>
+        <v>2269.64892578125</v>
       </c>
       <c r="DV4" t="n">
-        <v>2119.36279296875</v>
+        <v>2269.6494140625</v>
       </c>
       <c r="DW4" t="n">
-        <v>2119.407470703125</v>
+        <v>2269.651123046875</v>
       </c>
       <c r="DX4" t="n">
-        <v>2119.47314453125</v>
+        <v>2269.650146484375</v>
       </c>
       <c r="DY4" t="n">
-        <v>2119.58203125</v>
+        <v>2269.650390625</v>
       </c>
       <c r="DZ4" t="n">
-        <v>2119.591796875</v>
+        <v>2269.65087890625</v>
       </c>
       <c r="EA4" t="n">
-        <v>2119.518798828125</v>
+        <v>2269.651123046875</v>
       </c>
       <c r="EB4" t="n">
-        <v>2119.422607421875</v>
+        <v>2271.746826171875</v>
       </c>
       <c r="EC4" t="n">
-        <v>2119.36376953125</v>
+        <v>2273.890869140625</v>
       </c>
       <c r="ED4" t="n">
-        <v>2119.22265625</v>
+        <v>2276.50732421875</v>
       </c>
       <c r="EE4" t="n">
-        <v>2119.1708984375</v>
+        <v>2270.9736328125</v>
       </c>
       <c r="EF4" t="n">
-        <v>2119.072509765625</v>
+        <v>2276.540771484375</v>
       </c>
       <c r="EG4" t="n">
-        <v>2119.011474609375</v>
+        <v>2274.749755859375</v>
       </c>
       <c r="EH4" t="n">
-        <v>2118.97802734375</v>
+        <v>2275.23876953125</v>
       </c>
       <c r="EI4" t="n">
-        <v>2118.9521484375</v>
+        <v>2274.880615234375</v>
       </c>
       <c r="EJ4" t="n">
-        <v>2118.9453125</v>
+        <v>2275.2177734375</v>
       </c>
       <c r="EK4" t="n">
-        <v>2118.9521484375</v>
+        <v>2275.38818359375</v>
       </c>
       <c r="EL4" t="n">
-        <v>2118.950439453125</v>
+        <v>2275.34765625</v>
       </c>
       <c r="EM4" t="n">
-        <v>2120.841796875</v>
+        <v>2275.4091796875</v>
       </c>
       <c r="EN4" t="n">
-        <v>2120.37353515625</v>
+        <v>2275.423828125</v>
       </c>
       <c r="EO4" t="n">
-        <v>2120.52978515625</v>
+        <v>2275.4365234375</v>
       </c>
       <c r="EP4" t="n">
-        <v>2116.69140625</v>
+        <v>2275.430419921875</v>
       </c>
       <c r="EQ4" t="n">
-        <v>2124.802734375</v>
+        <v>2275.43115234375</v>
       </c>
       <c r="ER4" t="n">
-        <v>2115.826416015625</v>
+        <v>2275.44287109375</v>
       </c>
       <c r="ES4" t="n">
-        <v>2117.779296875</v>
+        <v>2275.462158203125</v>
       </c>
       <c r="ET4" t="n">
-        <v>2114.500732421875</v>
+        <v>2275.450439453125</v>
       </c>
       <c r="EU4" t="n">
-        <v>2114.4931640625</v>
+        <v>2275.37109375</v>
       </c>
       <c r="EV4" t="n">
-        <v>2114.645751953125</v>
+        <v>2274.32373046875</v>
       </c>
       <c r="EW4" t="n">
-        <v>2121.0732421875</v>
+        <v>2274.517333984375</v>
       </c>
       <c r="EX4" t="n">
-        <v>2125.575439453125</v>
+        <v>2274.830078125</v>
       </c>
       <c r="EY4" t="n">
-        <v>2124.26416015625</v>
+        <v>2275.4013671875</v>
       </c>
       <c r="EZ4" t="n">
-        <v>2122.73974609375</v>
+        <v>2275.5673828125</v>
       </c>
       <c r="FA4" t="n">
-        <v>2124.312255859375</v>
+        <v>2275.48974609375</v>
       </c>
       <c r="FB4" t="n">
-        <v>2124.712158203125</v>
+        <v>2275.461669921875</v>
       </c>
       <c r="FC4" t="n">
-        <v>2122.447509765625</v>
+        <v>2275.47509765625</v>
       </c>
       <c r="FD4" t="n">
-        <v>2120.70263671875</v>
+        <v>2275.473388671875</v>
       </c>
       <c r="FE4" t="n">
-        <v>2120.184326171875</v>
+        <v>2275.47216796875</v>
       </c>
       <c r="FF4" t="n">
-        <v>2119.63671875</v>
+        <v>2275.470947265625</v>
       </c>
       <c r="FG4" t="n">
-        <v>2116.07177734375</v>
+        <v>2275.470703125</v>
       </c>
       <c r="FH4" t="n">
-        <v>2116.11962890625</v>
+        <v>2275.868896484375</v>
       </c>
       <c r="FI4" t="n">
-        <v>2116.258544921875</v>
+        <v>2276.85546875</v>
       </c>
       <c r="FJ4" t="n">
-        <v>2116.274169921875</v>
+        <v>2276.973876953125</v>
       </c>
       <c r="FK4" t="n">
-        <v>2116.299560546875</v>
+        <v>2276.414794921875</v>
       </c>
       <c r="FL4" t="n">
-        <v>2116.18310546875</v>
+        <v>2276.43701171875</v>
       </c>
       <c r="FM4" t="n">
-        <v>2115.999267578125</v>
+        <v>2276.42333984375</v>
       </c>
       <c r="FN4" t="n">
-        <v>2115.788818359375</v>
+        <v>2276.405517578125</v>
       </c>
       <c r="FO4" t="n">
-        <v>2115.809326171875</v>
+        <v>2282.010009765625</v>
       </c>
       <c r="FP4" t="n">
-        <v>2115.87646484375</v>
+        <v>2280.283203125</v>
       </c>
       <c r="FQ4" t="n">
-        <v>2116.013916015625</v>
+        <v>2278.749755859375</v>
       </c>
       <c r="FR4" t="n">
-        <v>2117.2958984375</v>
+        <v>2278.081787109375</v>
       </c>
       <c r="FS4" t="n">
-        <v>2122.112548828125</v>
+        <v>2277.91943359375</v>
       </c>
       <c r="FT4" t="n">
-        <v>2128.73583984375</v>
+        <v>2277.634765625</v>
       </c>
       <c r="FU4" t="n">
-        <v>2128.238525390625</v>
+        <v>2279.313232421875</v>
       </c>
       <c r="FV4" t="n">
-        <v>2128.310302734375</v>
+        <v>2279.097412109375</v>
       </c>
       <c r="FW4" t="n">
-        <v>2128.082763671875</v>
+        <v>2278.995361328125</v>
       </c>
       <c r="FX4" t="n">
-        <v>2127.91748046875</v>
+        <v>2279.002685546875</v>
       </c>
       <c r="FY4" t="n">
-        <v>2120.9365234375</v>
+        <v>2278.9638671875</v>
       </c>
       <c r="FZ4" t="n">
-        <v>2111.5029296875</v>
+        <v>2278.937744140625</v>
       </c>
       <c r="GA4" t="n">
-        <v>2112.23046875</v>
+        <v>2278.919921875</v>
       </c>
       <c r="GB4" t="n">
-        <v>2112.597412109375</v>
+        <v>2278.907470703125</v>
       </c>
       <c r="GC4" t="n">
-        <v>2112.656982421875</v>
+        <v>2278.92822265625</v>
       </c>
       <c r="GD4" t="n">
-        <v>2113.03662109375</v>
+        <v>2278.98828125</v>
       </c>
       <c r="GE4" t="n">
-        <v>2113.89794921875</v>
+        <v>2279.059326171875</v>
       </c>
       <c r="GF4" t="n">
-        <v>2115.27392578125</v>
+        <v>2279.73583984375</v>
       </c>
       <c r="GG4" t="n">
-        <v>2113.78125</v>
+        <v>2279.282958984375</v>
       </c>
       <c r="GH4" t="n">
-        <v>2114.17578125</v>
+        <v>2278.94775390625</v>
       </c>
       <c r="GI4" t="n">
-        <v>2114.6376953125</v>
+        <v>2277.9814453125</v>
       </c>
       <c r="GJ4" t="n">
-        <v>2114.702880859375</v>
+        <v>2277.945068359375</v>
       </c>
       <c r="GK4" t="n">
-        <v>2114.778076171875</v>
+        <v>2277.82666015625</v>
       </c>
       <c r="GL4" t="n">
-        <v>2114.82275390625</v>
+        <v>2277.822265625</v>
       </c>
       <c r="GM4" t="n">
-        <v>2114.866455078125</v>
+        <v>2277.814453125</v>
       </c>
       <c r="GN4" t="n">
-        <v>2114.88330078125</v>
+        <v>2277.80712890625</v>
       </c>
       <c r="GO4" t="n">
-        <v>2114.88916015625</v>
+        <v>2277.807861328125</v>
       </c>
       <c r="GP4" t="n">
-        <v>2115.01416015625</v>
+        <v>2277.7607421875</v>
       </c>
       <c r="GQ4" t="n">
-        <v>2115.259033203125</v>
+        <v>2277.768798828125</v>
       </c>
       <c r="GR4" t="n">
-        <v>2115.445068359375</v>
+        <v>2277.767822265625</v>
       </c>
       <c r="GS4" t="n">
-        <v>2115.77734375</v>
+        <v>2280.353759765625</v>
       </c>
       <c r="GT4" t="n">
-        <v>2117.062255859375</v>
+        <v>2280.34814453125</v>
       </c>
       <c r="GU4" t="n">
-        <v>2117.229248046875</v>
+        <v>2280.928955078125</v>
       </c>
       <c r="GV4" t="n">
-        <v>2117.303955078125</v>
+        <v>2280.346435546875</v>
       </c>
       <c r="GW4" t="n">
-        <v>2117.19189453125</v>
+        <v>2281.709716796875</v>
       </c>
       <c r="GX4" t="n">
-        <v>2117.139892578125</v>
+        <v>2281.92138671875</v>
       </c>
       <c r="GY4" t="n">
-        <v>2117.128662109375</v>
+        <v>2281.261962890625</v>
       </c>
       <c r="GZ4" t="n">
-        <v>2117.126220703125</v>
+        <v>2281.244384765625</v>
       </c>
       <c r="HA4" t="n">
-        <v>2117.15673828125</v>
+        <v>2281.25830078125</v>
       </c>
       <c r="HB4" t="n">
-        <v>2117.136474609375</v>
+        <v>2281.3017578125</v>
       </c>
       <c r="HC4" t="n">
-        <v>2117.10009765625</v>
+        <v>2281.3203125</v>
       </c>
       <c r="HD4" t="n">
-        <v>2117.046630859375</v>
+        <v>2281.734130859375</v>
       </c>
       <c r="HE4" t="n">
-        <v>2117.01220703125</v>
+        <v>2289.09326171875</v>
       </c>
       <c r="HF4" t="n">
-        <v>2116.943115234375</v>
+        <v>2293.9814453125</v>
       </c>
       <c r="HG4" t="n">
-        <v>2115.692626953125</v>
+        <v>2292.5029296875</v>
       </c>
       <c r="HH4" t="n">
-        <v>2113.5341796875</v>
+        <v>2292.61474609375</v>
       </c>
       <c r="HI4" t="n">
-        <v>2112.57568359375</v>
+        <v>2292.638671875</v>
       </c>
       <c r="HJ4" t="n">
-        <v>2111.412841796875</v>
+        <v>2292.69970703125</v>
       </c>
       <c r="HK4" t="n">
-        <v>2111.66650390625</v>
+        <v>2293.9130859375</v>
       </c>
       <c r="HL4" t="n">
-        <v>2111.613525390625</v>
+        <v>2286.806396484375</v>
       </c>
       <c r="HM4" t="n">
-        <v>2111.59521484375</v>
+        <v>2286.9287109375</v>
       </c>
       <c r="HN4" t="n">
-        <v>2111.58935546875</v>
+        <v>2287.163330078125</v>
       </c>
       <c r="HO4" t="n">
-        <v>2111.6181640625</v>
+        <v>2287.1513671875</v>
       </c>
       <c r="HP4" t="n">
-        <v>2111.650390625</v>
+        <v>2287.173095703125</v>
       </c>
       <c r="HQ4" t="n">
-        <v>2111.716796875</v>
+        <v>2287.595703125</v>
       </c>
       <c r="HR4" t="n">
-        <v>2118.200927734375</v>
+        <v>2292.74169921875</v>
       </c>
       <c r="HS4" t="n">
-        <v>2116.25634765625</v>
+        <v>2296.8916015625</v>
       </c>
       <c r="HT4" t="n">
-        <v>2116.309326171875</v>
+        <v>2296.28857421875</v>
       </c>
       <c r="HU4" t="n">
-        <v>2116.705078125</v>
+        <v>2294.714599609375</v>
       </c>
       <c r="HV4" t="n">
-        <v>2116.664794921875</v>
+        <v>2296.5009765625</v>
       </c>
       <c r="HW4" t="n">
-        <v>2116.681640625</v>
+        <v>2295.93505859375</v>
       </c>
       <c r="HX4" t="n">
-        <v>2116.8388671875</v>
+        <v>2295.7841796875</v>
       </c>
       <c r="HY4" t="n">
-        <v>2116.835693359375</v>
+        <v>2295.81982421875</v>
       </c>
       <c r="HZ4" t="n">
-        <v>2116.68701171875</v>
+        <v>2295.7255859375</v>
       </c>
       <c r="IA4" t="n">
-        <v>2116.641357421875</v>
+        <v>2295.722900390625</v>
       </c>
       <c r="IB4" t="n">
-        <v>2116.70166015625</v>
+        <v>2295.22802734375</v>
       </c>
       <c r="IC4" t="n">
-        <v>2111.978515625</v>
+        <v>2295.2119140625</v>
       </c>
       <c r="ID4" t="n">
-        <v>2112.55029296875</v>
+        <v>2295.2685546875</v>
       </c>
       <c r="IE4" t="n">
-        <v>2112.491943359375</v>
+        <v>2295.254638671875</v>
       </c>
       <c r="IF4" t="n">
-        <v>2112.47900390625</v>
+        <v>2295.252197265625</v>
       </c>
       <c r="IG4" t="n">
-        <v>2112.556884765625</v>
+        <v>2295.11962890625</v>
       </c>
       <c r="IH4" t="n">
-        <v>2112.536376953125</v>
+        <v>2282.50537109375</v>
       </c>
       <c r="II4" t="n">
-        <v>2112.53662109375</v>
+        <v>2288.314453125</v>
       </c>
       <c r="IJ4" t="n">
-        <v>2112.46044921875</v>
+        <v>2285.375732421875</v>
       </c>
       <c r="IK4" t="n">
-        <v>2112.359130859375</v>
+        <v>2288.29345703125</v>
       </c>
       <c r="IL4" t="n">
-        <v>2112.240478515625</v>
+        <v>2287.305908203125</v>
       </c>
       <c r="IM4" t="n">
-        <v>2112.064208984375</v>
+        <v>2288.86767578125</v>
       </c>
       <c r="IN4" t="n">
-        <v>2111.98876953125</v>
+        <v>2286.1162109375</v>
       </c>
       <c r="IO4" t="n">
-        <v>2111.6845703125</v>
+        <v>2283.549072265625</v>
       </c>
       <c r="IP4" t="n">
-        <v>2111.262451171875</v>
+        <v>2285.816650390625</v>
       </c>
       <c r="IQ4" t="n">
-        <v>2110.600341796875</v>
+        <v>2285.798828125</v>
       </c>
       <c r="IR4" t="n">
-        <v>2109.8896484375</v>
+        <v>2285.828125</v>
       </c>
       <c r="IS4" t="n">
-        <v>2109.199951171875</v>
+        <v>2285.814208984375</v>
       </c>
       <c r="IT4" t="n">
-        <v>2108.142333984375</v>
+        <v>2284.639892578125</v>
       </c>
       <c r="IU4" t="n">
-        <v>2108.047607421875</v>
+        <v>2282.595703125</v>
       </c>
       <c r="IV4" t="n">
-        <v>2106.831787109375</v>
+        <v>2281.6806640625</v>
       </c>
       <c r="IW4" t="n">
-        <v>2119.685791015625</v>
+        <v>2281.63427734375</v>
       </c>
       <c r="IX4" t="n">
-        <v>2121.45263671875</v>
+        <v>2281.642822265625</v>
       </c>
       <c r="IY4" t="n">
-        <v>2109.455322265625</v>
+        <v>2281.672119140625</v>
       </c>
       <c r="IZ4" t="n">
-        <v>2112.280517578125</v>
+        <v>2281.644775390625</v>
       </c>
       <c r="JA4" t="n">
-        <v>2110.915771484375</v>
+        <v>2280.57861328125</v>
       </c>
       <c r="JB4" t="n">
-        <v>2108.99169921875</v>
+        <v>2280.323974609375</v>
       </c>
       <c r="JC4" t="n">
-        <v>2109.285400390625</v>
+        <v>2280.2197265625</v>
       </c>
       <c r="JD4" t="n">
-        <v>2108.061767578125</v>
+        <v>2276.27734375</v>
       </c>
       <c r="JE4" t="n">
-        <v>2106.787109375</v>
+        <v>2275.51123046875</v>
       </c>
       <c r="JF4" t="n">
-        <v>2105.709228515625</v>
+        <v>2273.216552734375</v>
       </c>
       <c r="JG4" t="n">
-        <v>2105.71240234375</v>
+        <v>2276.844482421875</v>
       </c>
       <c r="JH4" t="n">
-        <v>2105.437255859375</v>
+        <v>2276.8759765625</v>
       </c>
       <c r="JI4" t="n">
-        <v>2105.198974609375</v>
+        <v>2276.87158203125</v>
       </c>
       <c r="JJ4" t="n">
-        <v>2104.97216796875</v>
+        <v>2276.874267578125</v>
       </c>
       <c r="JK4" t="n">
-        <v>2104.771240234375</v>
+        <v>2280.814697265625</v>
       </c>
       <c r="JL4" t="n">
-        <v>2104.6162109375</v>
+        <v>2272.6708984375</v>
       </c>
       <c r="JM4" t="n">
-        <v>2104.609130859375</v>
+        <v>2274.465576171875</v>
       </c>
       <c r="JN4" t="n">
-        <v>2104.63623046875</v>
+        <v>2278.352783203125</v>
       </c>
       <c r="JO4" t="n">
-        <v>2104.654541015625</v>
+        <v>2278.571533203125</v>
       </c>
       <c r="JP4" t="n">
-        <v>2104.66455078125</v>
+        <v>2278.0673828125</v>
       </c>
       <c r="JQ4" t="n">
-        <v>2104.306884765625</v>
+        <v>2276.10888671875</v>
       </c>
       <c r="JR4" t="n">
-        <v>2103.731689453125</v>
+        <v>2282.131103515625</v>
       </c>
       <c r="JS4" t="n">
-        <v>2097.34814453125</v>
+        <v>2276.516845703125</v>
       </c>
       <c r="JT4" t="n">
-        <v>2094.267822265625</v>
+        <v>2264.744384765625</v>
       </c>
       <c r="JU4" t="n">
-        <v>2094.315185546875</v>
+        <v>2275.076416015625</v>
       </c>
       <c r="JV4" t="n">
-        <v>2094.248291015625</v>
+        <v>2274.724609375</v>
       </c>
       <c r="JW4" t="n">
-        <v>2093.350341796875</v>
+        <v>2273.905517578125</v>
       </c>
       <c r="JX4" t="n">
-        <v>2083.340576171875</v>
+        <v>2274.484130859375</v>
       </c>
       <c r="JY4" t="n">
-        <v>2070.6123046875</v>
+        <v>2274.76416015625</v>
       </c>
       <c r="JZ4" t="n">
-        <v>2062.77978515625</v>
+        <v>2273.9306640625</v>
       </c>
       <c r="KA4" t="n">
-        <v>2064.23876953125</v>
+        <v>2268.59130859375</v>
       </c>
       <c r="KB4" t="n">
-        <v>2055.444091796875</v>
+        <v>2258.832763671875</v>
       </c>
       <c r="KC4" t="n">
-        <v>2046.0478515625</v>
+        <v>2257.3046875</v>
       </c>
       <c r="KD4" t="n">
-        <v>2034.41259765625</v>
+        <v>2249.544189453125</v>
       </c>
       <c r="KE4" t="n">
-        <v>2031.674194335938</v>
+        <v>2250.158203125</v>
       </c>
       <c r="KF4" t="n">
-        <v>2025.329833984375</v>
+        <v>2250.276123046875</v>
       </c>
       <c r="KG4" t="n">
-        <v>1998.346557617188</v>
+        <v>2250.289794921875</v>
       </c>
       <c r="KH4" t="n">
-        <v>1975.588623046875</v>
+        <v>2250.338623046875</v>
       </c>
       <c r="KI4" t="n">
-        <v>1948.169189453125</v>
+        <v>2255.826416015625</v>
       </c>
       <c r="KJ4" t="n">
-        <v>1905.01318359375</v>
+        <v>2256.046875</v>
       </c>
       <c r="KK4" t="n">
-        <v>1870.656005859375</v>
+        <v>2256.715087890625</v>
       </c>
       <c r="KL4" t="n">
-        <v>1804.034423828125</v>
+        <v>2256.7509765625</v>
       </c>
       <c r="KM4" t="n">
-        <v>1741.205200195312</v>
+        <v>2256.768310546875</v>
       </c>
       <c r="KN4" t="n">
-        <v>1689.75830078125</v>
+        <v>2255.7373046875</v>
       </c>
       <c r="KO4" t="n">
-        <v>1601.404052734375</v>
+        <v>2252.020263671875</v>
       </c>
       <c r="KP4" t="n">
-        <v>1551.562744140625</v>
+        <v>2229.234619140625</v>
       </c>
       <c r="KQ4" t="n">
-        <v>1504.698852539062</v>
+        <v>2208.734130859375</v>
       </c>
       <c r="KR4" t="n">
-        <v>1449.01806640625</v>
+        <v>2166.086181640625</v>
       </c>
       <c r="KS4" t="n">
-        <v>1374.3896484375</v>
+        <v>2101.459716796875</v>
       </c>
       <c r="KT4" t="n">
-        <v>1311.853759765625</v>
+        <v>2045.978271484375</v>
       </c>
       <c r="KU4" t="n">
-        <v>1206.551879882812</v>
+        <v>1985.981567382812</v>
       </c>
       <c r="KV4" t="n">
-        <v>1134.054565429688</v>
+        <v>1884.432861328125</v>
       </c>
       <c r="KW4" t="n">
-        <v>1061.875244140625</v>
+        <v>1801.285522460938</v>
       </c>
       <c r="KX4" t="n">
-        <v>962.3186645507812</v>
+        <v>1679.276489257812</v>
       </c>
       <c r="KY4" t="n">
-        <v>903.966552734375</v>
+        <v>1608.34912109375</v>
       </c>
       <c r="KZ4" t="n">
-        <v>854.0013427734375</v>
+        <v>1498.991455078125</v>
       </c>
       <c r="LA4" t="n">
-        <v>802.0913696289062</v>
+        <v>1399.147094726562</v>
       </c>
       <c r="LB4" t="n">
-        <v>764.5223999023438</v>
+        <v>1292.790649414062</v>
       </c>
       <c r="LC4" t="n">
-        <v>742.1966552734375</v>
+        <v>1188.856567382812</v>
       </c>
       <c r="LD4" t="n">
-        <v>726.0091552734375</v>
+        <v>1081.877563476562</v>
+      </c>
+      <c r="LE4" t="n">
+        <v>987.8821411132812</v>
+      </c>
+      <c r="LF4" t="n">
+        <v>907.4288940429688</v>
+      </c>
+      <c r="LG4" t="n">
+        <v>849.2335205078125</v>
+      </c>
+      <c r="LH4" t="n">
+        <v>765.2506103515625</v>
+      </c>
+      <c r="LI4" t="n">
+        <v>678.9224243164062</v>
+      </c>
+      <c r="LJ4" t="n">
+        <v>592.1119995117188</v>
+      </c>
+      <c r="LK4" t="n">
+        <v>543.5673217773438</v>
+      </c>
+      <c r="LL4" t="n">
+        <v>484.1366577148438</v>
+      </c>
+      <c r="LM4" t="n">
+        <v>425.6277465820312</v>
+      </c>
+      <c r="LN4" t="n">
+        <v>397.3774108886719</v>
+      </c>
+      <c r="LO4" t="n">
+        <v>388.7129211425781</v>
+      </c>
+      <c r="LP4" t="n">
+        <v>378.5205993652344</v>
+      </c>
+      <c r="LQ4" t="n">
+        <v>408.4733581542969</v>
+      </c>
+      <c r="LR4" t="n">
+        <v>402.3703002929688</v>
+      </c>
+      <c r="LS4" t="n">
+        <v>349.0057678222656</v>
+      </c>
+      <c r="LT4" t="n">
+        <v>359.0986328125</v>
+      </c>
+      <c r="LU4" t="n">
+        <v>373.6216430664062</v>
+      </c>
+      <c r="LV4" t="n">
+        <v>370.4978332519531</v>
+      </c>
+      <c r="LW4" t="n">
+        <v>356.9614868164062</v>
+      </c>
+      <c r="LX4" t="n">
+        <v>367.8536987304688</v>
+      </c>
+      <c r="LY4" t="n">
+        <v>381.2928466796875</v>
+      </c>
+      <c r="LZ4" t="n">
+        <v>385.16162109375</v>
+      </c>
+      <c r="MA4" t="n">
+        <v>388.6432495117188</v>
+      </c>
+      <c r="MB4" t="n">
+        <v>390.5726013183594</v>
+      </c>
+      <c r="MC4" t="n">
+        <v>388.5856628417969</v>
+      </c>
+      <c r="MD4" t="n">
+        <v>386.0632019042969</v>
+      </c>
+      <c r="ME4" t="n">
+        <v>384.2479248046875</v>
+      </c>
+      <c r="MF4" t="n">
+        <v>382.6318054199219</v>
       </c>
     </row>
   </sheetData>
